--- a/Översikt ÅRJÄNG.xlsx
+++ b/Översikt ÅRJÄNG.xlsx
@@ -572,7 +572,7 @@
         <v>43607</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -689,7 +689,7 @@
         <v>44824</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -785,7 +785,7 @@
         <v>44649</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -878,7 +878,7 @@
         <v>44585</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -974,7 +974,7 @@
         <v>44970</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1066,7 +1066,7 @@
         <v>45084</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1162,7 +1162,7 @@
         <v>44964</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1253,7 +1253,7 @@
         <v>44873</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1347,7 +1347,7 @@
         <v>45106</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1437,7 +1437,7 @@
         <v>43621</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1530,7 +1530,7 @@
         <v>43880</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1623,7 +1623,7 @@
         <v>44140</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1712,7 +1712,7 @@
         <v>43852</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1804,7 +1804,7 @@
         <v>44375</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1892,7 +1892,7 @@
         <v>44678</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1980,7 +1980,7 @@
         <v>45051</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2068,7 +2068,7 @@
         <v>43922</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2159,7 +2159,7 @@
         <v>44377</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2250,7 +2250,7 @@
         <v>43852</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2336,7 +2336,7 @@
         <v>43880</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2426,7 +2426,7 @@
         <v>44515</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2516,7 +2516,7 @@
         <v>44872</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2606,7 +2606,7 @@
         <v>44935</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2692,7 +2692,7 @@
         <v>45001</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2778,7 +2778,7 @@
         <v>43621</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2867,7 +2867,7 @@
         <v>43696</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2952,7 +2952,7 @@
         <v>43725</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3037,7 +3037,7 @@
         <v>43731</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3122,7 +3122,7 @@
         <v>43734</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3207,7 +3207,7 @@
         <v>43763</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3292,7 +3292,7 @@
         <v>43839</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3377,7 +3377,7 @@
         <v>44050</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3462,7 +3462,7 @@
         <v>44061</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         <v>44217</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3632,7 +3632,7 @@
         <v>44285</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3717,7 +3717,7 @@
         <v>44356</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3802,7 +3802,7 @@
         <v>44379</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3887,7 +3887,7 @@
         <v>44846</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3976,7 +3976,7 @@
         <v>44873</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4061,7 +4061,7 @@
         <v>45111</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4146,7 +4146,7 @@
         <v>43326</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4203,7 +4203,7 @@
         <v>43335</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4260,7 +4260,7 @@
         <v>43335</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4317,7 +4317,7 @@
         <v>43335</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4374,7 +4374,7 @@
         <v>43339</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4431,7 +4431,7 @@
         <v>43346</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4488,7 +4488,7 @@
         <v>43346</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4545,7 +4545,7 @@
         <v>43347</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4602,7 +4602,7 @@
         <v>43349</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4659,7 +4659,7 @@
         <v>43353</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4716,7 +4716,7 @@
         <v>43353</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4773,7 +4773,7 @@
         <v>43353</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4830,7 +4830,7 @@
         <v>43353</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4887,7 +4887,7 @@
         <v>43353</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4944,7 +4944,7 @@
         <v>43354</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5001,7 +5001,7 @@
         <v>43354</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5058,7 +5058,7 @@
         <v>43355</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5115,7 +5115,7 @@
         <v>43367</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5172,7 +5172,7 @@
         <v>43369</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5229,7 +5229,7 @@
         <v>43381</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5286,7 +5286,7 @@
         <v>43381</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5343,7 +5343,7 @@
         <v>43390</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5400,7 +5400,7 @@
         <v>43395</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5457,7 +5457,7 @@
         <v>43395</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5514,7 +5514,7 @@
         <v>43399</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5571,7 +5571,7 @@
         <v>43399</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5628,7 +5628,7 @@
         <v>43401</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5685,7 +5685,7 @@
         <v>43403</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5742,7 +5742,7 @@
         <v>43403</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5799,7 +5799,7 @@
         <v>43403</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5856,7 +5856,7 @@
         <v>43403</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5913,7 +5913,7 @@
         <v>43403</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5970,7 +5970,7 @@
         <v>43403</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6027,7 +6027,7 @@
         <v>43403</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6084,7 +6084,7 @@
         <v>43403</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6141,7 +6141,7 @@
         <v>43403</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6198,7 +6198,7 @@
         <v>43406</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6255,7 +6255,7 @@
         <v>43408</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6312,7 +6312,7 @@
         <v>43409</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6369,7 +6369,7 @@
         <v>43419</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6426,7 +6426,7 @@
         <v>43420</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6483,7 +6483,7 @@
         <v>43420</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6540,7 +6540,7 @@
         <v>43430</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6597,7 +6597,7 @@
         <v>43430</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6654,7 +6654,7 @@
         <v>43431</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6711,7 +6711,7 @@
         <v>43432</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6768,7 +6768,7 @@
         <v>43432</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6825,7 +6825,7 @@
         <v>43432</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6882,7 +6882,7 @@
         <v>43432</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6939,7 +6939,7 @@
         <v>43433</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6996,7 +6996,7 @@
         <v>43437</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7053,7 +7053,7 @@
         <v>43437</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7110,7 +7110,7 @@
         <v>43438</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7167,7 +7167,7 @@
         <v>43440</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7224,7 +7224,7 @@
         <v>43441</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7281,7 +7281,7 @@
         <v>43447</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7338,7 +7338,7 @@
         <v>43448</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7395,7 +7395,7 @@
         <v>43451</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7452,7 +7452,7 @@
         <v>43452</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7509,7 +7509,7 @@
         <v>43452</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7566,7 +7566,7 @@
         <v>43453</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7623,7 +7623,7 @@
         <v>43454</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7680,7 +7680,7 @@
         <v>43454</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7737,7 +7737,7 @@
         <v>43455</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7794,7 +7794,7 @@
         <v>43460</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7851,7 +7851,7 @@
         <v>43467</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7908,7 +7908,7 @@
         <v>43467</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7965,7 +7965,7 @@
         <v>43467</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8022,7 +8022,7 @@
         <v>43474</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8079,7 +8079,7 @@
         <v>43474</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8136,7 +8136,7 @@
         <v>43475</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8193,7 +8193,7 @@
         <v>43475</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8250,7 +8250,7 @@
         <v>43476</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8307,7 +8307,7 @@
         <v>43479</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8364,7 +8364,7 @@
         <v>43479</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8421,7 +8421,7 @@
         <v>43481</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8478,7 +8478,7 @@
         <v>43486</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8535,7 +8535,7 @@
         <v>43486</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8592,7 +8592,7 @@
         <v>43487</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8649,7 +8649,7 @@
         <v>43488</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8706,7 +8706,7 @@
         <v>43488</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8763,7 +8763,7 @@
         <v>43488</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8820,7 +8820,7 @@
         <v>43490</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8877,7 +8877,7 @@
         <v>43490</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8934,7 +8934,7 @@
         <v>43494</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8991,7 +8991,7 @@
         <v>43496</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9048,7 +9048,7 @@
         <v>43500</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9105,7 +9105,7 @@
         <v>43500</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9162,7 +9162,7 @@
         <v>43502</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9219,7 +9219,7 @@
         <v>43502</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9276,7 +9276,7 @@
         <v>43504</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9333,7 +9333,7 @@
         <v>43504</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9390,7 +9390,7 @@
         <v>43507</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9447,7 +9447,7 @@
         <v>43508</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9504,7 +9504,7 @@
         <v>43508</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9561,7 +9561,7 @@
         <v>43510</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9618,7 +9618,7 @@
         <v>43511</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9675,7 +9675,7 @@
         <v>43516</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9732,7 +9732,7 @@
         <v>43523</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9789,7 +9789,7 @@
         <v>43523</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9846,7 +9846,7 @@
         <v>43523</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9903,7 +9903,7 @@
         <v>43523</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9960,7 +9960,7 @@
         <v>43524</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10017,7 +10017,7 @@
         <v>43524</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10074,7 +10074,7 @@
         <v>43525</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10131,7 +10131,7 @@
         <v>43531</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10188,7 +10188,7 @@
         <v>43532</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10250,7 +10250,7 @@
         <v>43538</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10307,7 +10307,7 @@
         <v>43539</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10364,7 +10364,7 @@
         <v>43542</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10421,7 +10421,7 @@
         <v>43542</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10478,7 +10478,7 @@
         <v>43542</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10535,7 +10535,7 @@
         <v>43542</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10592,7 +10592,7 @@
         <v>43543</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10649,7 +10649,7 @@
         <v>43543</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10706,7 +10706,7 @@
         <v>43545</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10763,7 +10763,7 @@
         <v>43549</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10820,7 +10820,7 @@
         <v>43549</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10877,7 +10877,7 @@
         <v>43551</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10934,7 +10934,7 @@
         <v>43552</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10991,7 +10991,7 @@
         <v>43555</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11048,7 +11048,7 @@
         <v>43556</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11105,7 +11105,7 @@
         <v>43558</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11162,7 +11162,7 @@
         <v>43559</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11219,7 +11219,7 @@
         <v>43560</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11276,7 +11276,7 @@
         <v>43563</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11333,7 +11333,7 @@
         <v>43563</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11390,7 +11390,7 @@
         <v>43563</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11447,7 +11447,7 @@
         <v>43567</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11504,7 +11504,7 @@
         <v>43569</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11561,7 +11561,7 @@
         <v>43570</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11618,7 +11618,7 @@
         <v>43573</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11675,7 +11675,7 @@
         <v>43573</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11732,7 +11732,7 @@
         <v>43573</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11789,7 +11789,7 @@
         <v>43580</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11846,7 +11846,7 @@
         <v>43581</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11908,7 +11908,7 @@
         <v>43581</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11970,7 +11970,7 @@
         <v>43585</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12027,7 +12027,7 @@
         <v>43585</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12084,7 +12084,7 @@
         <v>43587</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12141,7 +12141,7 @@
         <v>43594</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12198,7 +12198,7 @@
         <v>43594</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12255,7 +12255,7 @@
         <v>43594</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12312,7 +12312,7 @@
         <v>43594</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12369,7 +12369,7 @@
         <v>43594</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12426,7 +12426,7 @@
         <v>43594</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12483,7 +12483,7 @@
         <v>43598</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12540,7 +12540,7 @@
         <v>43599</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12597,7 +12597,7 @@
         <v>43606</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12654,7 +12654,7 @@
         <v>43606</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12711,7 +12711,7 @@
         <v>43606</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12768,7 +12768,7 @@
         <v>43607</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12825,7 +12825,7 @@
         <v>43608</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12882,7 +12882,7 @@
         <v>43609</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12944,7 +12944,7 @@
         <v>43614</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13001,7 +13001,7 @@
         <v>43614</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13058,7 +13058,7 @@
         <v>43621</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13115,7 +13115,7 @@
         <v>43621</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13172,7 +13172,7 @@
         <v>43628</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13229,7 +13229,7 @@
         <v>43633</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13286,7 +13286,7 @@
         <v>43636</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13343,7 +13343,7 @@
         <v>43642</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13400,7 +13400,7 @@
         <v>43646</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13462,7 +13462,7 @@
         <v>43646</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13524,7 +13524,7 @@
         <v>43647</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13581,7 +13581,7 @@
         <v>43648</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13638,7 +13638,7 @@
         <v>43649</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13695,7 +13695,7 @@
         <v>43649</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13752,7 +13752,7 @@
         <v>43649</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13809,7 +13809,7 @@
         <v>43649</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13866,7 +13866,7 @@
         <v>43650</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13923,7 +13923,7 @@
         <v>43650</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13980,7 +13980,7 @@
         <v>43652</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14037,7 +14037,7 @@
         <v>43653</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14094,7 +14094,7 @@
         <v>43654</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14151,7 +14151,7 @@
         <v>43654</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14208,7 +14208,7 @@
         <v>43655</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14265,7 +14265,7 @@
         <v>43655</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14322,7 +14322,7 @@
         <v>43675</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14379,7 +14379,7 @@
         <v>43684</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14436,7 +14436,7 @@
         <v>43684</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14493,7 +14493,7 @@
         <v>43696</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14550,7 +14550,7 @@
         <v>43697</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14607,7 +14607,7 @@
         <v>43697</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14664,7 +14664,7 @@
         <v>43698</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14721,7 +14721,7 @@
         <v>43699</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14778,7 +14778,7 @@
         <v>43699</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14835,7 +14835,7 @@
         <v>43699</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14892,7 +14892,7 @@
         <v>43700</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14949,7 +14949,7 @@
         <v>43700</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15006,7 +15006,7 @@
         <v>43703</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15063,7 +15063,7 @@
         <v>43703</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15120,7 +15120,7 @@
         <v>43703</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15177,7 +15177,7 @@
         <v>43705</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15234,7 +15234,7 @@
         <v>43705</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15291,7 +15291,7 @@
         <v>43705</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15348,7 +15348,7 @@
         <v>43705</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15405,7 +15405,7 @@
         <v>43707</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15462,7 +15462,7 @@
         <v>43707</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15524,7 +15524,7 @@
         <v>43707</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15581,7 +15581,7 @@
         <v>43710</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15638,7 +15638,7 @@
         <v>43711</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15695,7 +15695,7 @@
         <v>43718</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15757,7 +15757,7 @@
         <v>43721</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15814,7 +15814,7 @@
         <v>43721</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15871,7 +15871,7 @@
         <v>43724</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15933,7 +15933,7 @@
         <v>43727</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15990,7 +15990,7 @@
         <v>43727</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16047,7 +16047,7 @@
         <v>43727</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16104,7 +16104,7 @@
         <v>43728</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16161,7 +16161,7 @@
         <v>43730</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16218,7 +16218,7 @@
         <v>43731</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16275,7 +16275,7 @@
         <v>43732</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16332,7 +16332,7 @@
         <v>43734</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16389,7 +16389,7 @@
         <v>43740</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16446,7 +16446,7 @@
         <v>43740</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16503,7 +16503,7 @@
         <v>43741</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16560,7 +16560,7 @@
         <v>43742</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16617,7 +16617,7 @@
         <v>43748</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16674,7 +16674,7 @@
         <v>43749</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16731,7 +16731,7 @@
         <v>43759</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16793,7 +16793,7 @@
         <v>43762</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16850,7 +16850,7 @@
         <v>43762</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16907,7 +16907,7 @@
         <v>43766</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16964,7 +16964,7 @@
         <v>43768</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17026,7 +17026,7 @@
         <v>43769</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17083,7 +17083,7 @@
         <v>43770</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17140,7 +17140,7 @@
         <v>43776</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17197,7 +17197,7 @@
         <v>43782</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17254,7 +17254,7 @@
         <v>43791</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17311,7 +17311,7 @@
         <v>43802</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17368,7 +17368,7 @@
         <v>43804</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17425,7 +17425,7 @@
         <v>43815</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17482,7 +17482,7 @@
         <v>43819</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17539,7 +17539,7 @@
         <v>43819</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17596,7 +17596,7 @@
         <v>43822</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17653,7 +17653,7 @@
         <v>43822</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17710,7 +17710,7 @@
         <v>43833</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17767,7 +17767,7 @@
         <v>43843</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17824,7 +17824,7 @@
         <v>43843</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17881,7 +17881,7 @@
         <v>43843</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17938,7 +17938,7 @@
         <v>43847</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17995,7 +17995,7 @@
         <v>43847</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18052,7 +18052,7 @@
         <v>43847</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18109,7 +18109,7 @@
         <v>43847</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18166,7 +18166,7 @@
         <v>43848</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18223,7 +18223,7 @@
         <v>43852</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18280,7 +18280,7 @@
         <v>43852</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18337,7 +18337,7 @@
         <v>43852</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18394,7 +18394,7 @@
         <v>43852</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18451,7 +18451,7 @@
         <v>43852</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18508,7 +18508,7 @@
         <v>43861</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18565,7 +18565,7 @@
         <v>43861</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18622,7 +18622,7 @@
         <v>43861</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18679,7 +18679,7 @@
         <v>43861</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18736,7 +18736,7 @@
         <v>43861</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18793,7 +18793,7 @@
         <v>43861</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18850,7 +18850,7 @@
         <v>43866</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18907,7 +18907,7 @@
         <v>43868</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18964,7 +18964,7 @@
         <v>43868</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19021,7 +19021,7 @@
         <v>43872</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19078,7 +19078,7 @@
         <v>43873</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19135,7 +19135,7 @@
         <v>43874</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19192,7 +19192,7 @@
         <v>43874</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19249,7 +19249,7 @@
         <v>43878</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19306,7 +19306,7 @@
         <v>43878</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19363,7 +19363,7 @@
         <v>43878</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19420,7 +19420,7 @@
         <v>43879</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19477,7 +19477,7 @@
         <v>43879</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19534,7 +19534,7 @@
         <v>43885</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19591,7 +19591,7 @@
         <v>43885</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19648,7 +19648,7 @@
         <v>43885</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19705,7 +19705,7 @@
         <v>43886</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19762,7 +19762,7 @@
         <v>43886</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19819,7 +19819,7 @@
         <v>43886</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19876,7 +19876,7 @@
         <v>43887</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19933,7 +19933,7 @@
         <v>43888</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19990,7 +19990,7 @@
         <v>43892</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20047,7 +20047,7 @@
         <v>43892</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20104,7 +20104,7 @@
         <v>43892</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20161,7 +20161,7 @@
         <v>43893</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20218,7 +20218,7 @@
         <v>43899</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20275,7 +20275,7 @@
         <v>43899</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20332,7 +20332,7 @@
         <v>43901</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20389,7 +20389,7 @@
         <v>43901</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20446,7 +20446,7 @@
         <v>43902</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20503,7 +20503,7 @@
         <v>43902</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20560,7 +20560,7 @@
         <v>43902</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20617,7 +20617,7 @@
         <v>43903</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20674,7 +20674,7 @@
         <v>43906</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20731,7 +20731,7 @@
         <v>43906</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20788,7 +20788,7 @@
         <v>43906</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20845,7 +20845,7 @@
         <v>43906</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20902,7 +20902,7 @@
         <v>43906</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20959,7 +20959,7 @@
         <v>43906</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21016,7 +21016,7 @@
         <v>43906</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21073,7 +21073,7 @@
         <v>43907</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21130,7 +21130,7 @@
         <v>43907</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21187,7 +21187,7 @@
         <v>43910</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21244,7 +21244,7 @@
         <v>43910</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21301,7 +21301,7 @@
         <v>43915</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21358,7 +21358,7 @@
         <v>43915</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21415,7 +21415,7 @@
         <v>43915</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21472,7 +21472,7 @@
         <v>43920</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21529,7 +21529,7 @@
         <v>43921</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21586,7 +21586,7 @@
         <v>43923</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21643,7 +21643,7 @@
         <v>43924</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21700,7 +21700,7 @@
         <v>43924</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21757,7 +21757,7 @@
         <v>43932</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21814,7 +21814,7 @@
         <v>43955</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21871,7 +21871,7 @@
         <v>43963</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21928,7 +21928,7 @@
         <v>43964</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21985,7 +21985,7 @@
         <v>43965</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22042,7 +22042,7 @@
         <v>43965</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22099,7 +22099,7 @@
         <v>43969</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22156,7 +22156,7 @@
         <v>43975</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22213,7 +22213,7 @@
         <v>43978</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22270,7 +22270,7 @@
         <v>43978</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22327,7 +22327,7 @@
         <v>43985</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22384,7 +22384,7 @@
         <v>43986</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22441,7 +22441,7 @@
         <v>43987</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22498,7 +22498,7 @@
         <v>44004</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22555,7 +22555,7 @@
         <v>44004</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22612,7 +22612,7 @@
         <v>44006</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22669,7 +22669,7 @@
         <v>44006</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22726,7 +22726,7 @@
         <v>44013</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22783,7 +22783,7 @@
         <v>44013</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22840,7 +22840,7 @@
         <v>44018</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22897,7 +22897,7 @@
         <v>44019</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22959,7 +22959,7 @@
         <v>44019</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23021,7 +23021,7 @@
         <v>44036</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23078,7 +23078,7 @@
         <v>44036</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23135,7 +23135,7 @@
         <v>44036</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23192,7 +23192,7 @@
         <v>44036</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23249,7 +23249,7 @@
         <v>44036</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23306,7 +23306,7 @@
         <v>44036</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23363,7 +23363,7 @@
         <v>44036</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23420,7 +23420,7 @@
         <v>44036</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23477,7 +23477,7 @@
         <v>44036</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23534,7 +23534,7 @@
         <v>44036</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23591,7 +23591,7 @@
         <v>44040</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23653,7 +23653,7 @@
         <v>44042</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23710,7 +23710,7 @@
         <v>44047</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23767,7 +23767,7 @@
         <v>44050</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23824,7 +23824,7 @@
         <v>44054</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23881,7 +23881,7 @@
         <v>44060</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23943,7 +23943,7 @@
         <v>44061</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24000,7 +24000,7 @@
         <v>44063</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24057,7 +24057,7 @@
         <v>44069</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24114,7 +24114,7 @@
         <v>44069</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24171,7 +24171,7 @@
         <v>44070</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24228,7 +24228,7 @@
         <v>44074</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24285,7 +24285,7 @@
         <v>44074</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24342,7 +24342,7 @@
         <v>44076</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24399,7 +24399,7 @@
         <v>44081</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24456,7 +24456,7 @@
         <v>44084</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24513,7 +24513,7 @@
         <v>44084</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24570,7 +24570,7 @@
         <v>44091</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24627,7 +24627,7 @@
         <v>44091</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24684,7 +24684,7 @@
         <v>44096</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24741,7 +24741,7 @@
         <v>44097</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24798,7 +24798,7 @@
         <v>44101</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24855,7 +24855,7 @@
         <v>44102</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24912,7 +24912,7 @@
         <v>44102</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24969,7 +24969,7 @@
         <v>44103</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25026,7 +25026,7 @@
         <v>44103</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25083,7 +25083,7 @@
         <v>44105</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25140,7 +25140,7 @@
         <v>44109</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25197,7 +25197,7 @@
         <v>44110</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25254,7 +25254,7 @@
         <v>44110</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25311,7 +25311,7 @@
         <v>44113</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25368,7 +25368,7 @@
         <v>44123</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25425,7 +25425,7 @@
         <v>44134</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25482,7 +25482,7 @@
         <v>44134</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25539,7 +25539,7 @@
         <v>44138</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25596,7 +25596,7 @@
         <v>44140</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25653,7 +25653,7 @@
         <v>44140</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25710,7 +25710,7 @@
         <v>44140</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25767,7 +25767,7 @@
         <v>44140</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25824,7 +25824,7 @@
         <v>44140</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25881,7 +25881,7 @@
         <v>44145</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25938,7 +25938,7 @@
         <v>44155</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25995,7 +25995,7 @@
         <v>44159</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26052,7 +26052,7 @@
         <v>44165</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26109,7 +26109,7 @@
         <v>44168</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26166,7 +26166,7 @@
         <v>44168</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26223,7 +26223,7 @@
         <v>44168</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26280,7 +26280,7 @@
         <v>44174</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26337,7 +26337,7 @@
         <v>44174</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26399,7 +26399,7 @@
         <v>44174</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26456,7 +26456,7 @@
         <v>44174</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26513,7 +26513,7 @@
         <v>44175</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26570,7 +26570,7 @@
         <v>44175</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26627,7 +26627,7 @@
         <v>44179</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26684,7 +26684,7 @@
         <v>44186</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26741,7 +26741,7 @@
         <v>44187</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26798,7 +26798,7 @@
         <v>44187</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26855,7 +26855,7 @@
         <v>44194</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26912,7 +26912,7 @@
         <v>44195</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26969,7 +26969,7 @@
         <v>44195</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27026,7 +27026,7 @@
         <v>44201</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27083,7 +27083,7 @@
         <v>44201</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27140,7 +27140,7 @@
         <v>44207</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27197,7 +27197,7 @@
         <v>44214</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27254,7 +27254,7 @@
         <v>44215</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27311,7 +27311,7 @@
         <v>44217</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27368,7 +27368,7 @@
         <v>44217</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27425,7 +27425,7 @@
         <v>44221</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27482,7 +27482,7 @@
         <v>44223</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27539,7 +27539,7 @@
         <v>44224</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27596,7 +27596,7 @@
         <v>44229</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27653,7 +27653,7 @@
         <v>44230</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27710,7 +27710,7 @@
         <v>44235</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27767,7 +27767,7 @@
         <v>44235</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27824,7 +27824,7 @@
         <v>44236</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27881,7 +27881,7 @@
         <v>44236</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27938,7 +27938,7 @@
         <v>44237</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27995,7 +27995,7 @@
         <v>44237</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28052,7 +28052,7 @@
         <v>44238</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28109,7 +28109,7 @@
         <v>44239</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28166,7 +28166,7 @@
         <v>44239</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28223,7 +28223,7 @@
         <v>44239</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28280,7 +28280,7 @@
         <v>44240</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28337,7 +28337,7 @@
         <v>44242</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28394,7 +28394,7 @@
         <v>44242</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28451,7 +28451,7 @@
         <v>44246</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28513,7 +28513,7 @@
         <v>44246</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28575,7 +28575,7 @@
         <v>44248</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28632,7 +28632,7 @@
         <v>44251</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28689,7 +28689,7 @@
         <v>44251</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28746,7 +28746,7 @@
         <v>44258</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28803,7 +28803,7 @@
         <v>44258</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28860,7 +28860,7 @@
         <v>44258</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28917,7 +28917,7 @@
         <v>44261</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28974,7 +28974,7 @@
         <v>44265</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29031,7 +29031,7 @@
         <v>44266</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29088,7 +29088,7 @@
         <v>44271</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29145,7 +29145,7 @@
         <v>44272</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29207,7 +29207,7 @@
         <v>44282</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29269,7 +29269,7 @@
         <v>44292</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29326,7 +29326,7 @@
         <v>44301</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29383,7 +29383,7 @@
         <v>44306</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29440,7 +29440,7 @@
         <v>44308</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29497,7 +29497,7 @@
         <v>44309</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29554,7 +29554,7 @@
         <v>44311</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29611,7 +29611,7 @@
         <v>44322</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29668,7 +29668,7 @@
         <v>44323</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29725,7 +29725,7 @@
         <v>44329</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29782,7 +29782,7 @@
         <v>44333</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29839,7 +29839,7 @@
         <v>44347</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29896,7 +29896,7 @@
         <v>44347</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29953,7 +29953,7 @@
         <v>44354</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30010,7 +30010,7 @@
         <v>44354</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30067,7 +30067,7 @@
         <v>44354</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30124,7 +30124,7 @@
         <v>44362</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30181,7 +30181,7 @@
         <v>44362</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30238,7 +30238,7 @@
         <v>44365</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30295,7 +30295,7 @@
         <v>44365</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30352,7 +30352,7 @@
         <v>44375</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30409,7 +30409,7 @@
         <v>44376</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30466,7 +30466,7 @@
         <v>44376</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30523,7 +30523,7 @@
         <v>44378</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30585,7 +30585,7 @@
         <v>44380</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30642,7 +30642,7 @@
         <v>44383</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30699,7 +30699,7 @@
         <v>44383</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30756,7 +30756,7 @@
         <v>44384</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30813,7 +30813,7 @@
         <v>44384</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30870,7 +30870,7 @@
         <v>44385</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30927,7 +30927,7 @@
         <v>44389</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30984,7 +30984,7 @@
         <v>44391</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31041,7 +31041,7 @@
         <v>44392</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31098,7 +31098,7 @@
         <v>44396</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31155,7 +31155,7 @@
         <v>44412</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31212,7 +31212,7 @@
         <v>44417</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31274,7 +31274,7 @@
         <v>44421</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31331,7 +31331,7 @@
         <v>44421</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31388,7 +31388,7 @@
         <v>44424</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31445,7 +31445,7 @@
         <v>44428</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31502,7 +31502,7 @@
         <v>44431</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31559,7 +31559,7 @@
         <v>44431</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31616,7 +31616,7 @@
         <v>44433</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31673,7 +31673,7 @@
         <v>44441</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31730,7 +31730,7 @@
         <v>44442</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31787,7 +31787,7 @@
         <v>44442</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31844,7 +31844,7 @@
         <v>44445</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31901,7 +31901,7 @@
         <v>44446</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31958,7 +31958,7 @@
         <v>44446</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32015,7 +32015,7 @@
         <v>44446</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32072,7 +32072,7 @@
         <v>44446</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32129,7 +32129,7 @@
         <v>44446</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32186,7 +32186,7 @@
         <v>44446</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32243,7 +32243,7 @@
         <v>44446</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32300,7 +32300,7 @@
         <v>44446</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32357,7 +32357,7 @@
         <v>44446</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32414,7 +32414,7 @@
         <v>44446</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32471,7 +32471,7 @@
         <v>44446</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32528,7 +32528,7 @@
         <v>44446</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32585,7 +32585,7 @@
         <v>44446</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32642,7 +32642,7 @@
         <v>44446</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32699,7 +32699,7 @@
         <v>44446</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32756,7 +32756,7 @@
         <v>44446</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32813,7 +32813,7 @@
         <v>44446</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32870,7 +32870,7 @@
         <v>44446</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32927,7 +32927,7 @@
         <v>44447</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32984,7 +32984,7 @@
         <v>44448</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33041,7 +33041,7 @@
         <v>44452</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33098,7 +33098,7 @@
         <v>44455</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33155,7 +33155,7 @@
         <v>44457</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33212,7 +33212,7 @@
         <v>44457</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33269,7 +33269,7 @@
         <v>44459</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33326,7 +33326,7 @@
         <v>44459</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33383,7 +33383,7 @@
         <v>44459</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33440,7 +33440,7 @@
         <v>44459</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33497,7 +33497,7 @@
         <v>44459</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33554,7 +33554,7 @@
         <v>44463</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33616,7 +33616,7 @@
         <v>44467</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33673,7 +33673,7 @@
         <v>44468</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33730,7 +33730,7 @@
         <v>44469</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33787,7 +33787,7 @@
         <v>44469</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33844,7 +33844,7 @@
         <v>44469</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33901,7 +33901,7 @@
         <v>44469</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33958,7 +33958,7 @@
         <v>44469</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34015,7 +34015,7 @@
         <v>44476</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34072,7 +34072,7 @@
         <v>44480</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34129,7 +34129,7 @@
         <v>44481</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34186,7 +34186,7 @@
         <v>44482</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34243,7 +34243,7 @@
         <v>44490</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34300,7 +34300,7 @@
         <v>44491</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34357,7 +34357,7 @@
         <v>44491</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34414,7 +34414,7 @@
         <v>44491</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34471,7 +34471,7 @@
         <v>44495</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34528,7 +34528,7 @@
         <v>44496</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34585,7 +34585,7 @@
         <v>44496</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34642,7 +34642,7 @@
         <v>44496</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34699,7 +34699,7 @@
         <v>44496</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34756,7 +34756,7 @@
         <v>44496</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34813,7 +34813,7 @@
         <v>44497</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34870,7 +34870,7 @@
         <v>44497</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34927,7 +34927,7 @@
         <v>44497</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34984,7 +34984,7 @@
         <v>44497</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35041,7 +35041,7 @@
         <v>44498</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35103,7 +35103,7 @@
         <v>44498</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35160,7 +35160,7 @@
         <v>44498</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35217,7 +35217,7 @@
         <v>44502</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35274,7 +35274,7 @@
         <v>44504</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35331,7 +35331,7 @@
         <v>44509</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35388,7 +35388,7 @@
         <v>44509</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35445,7 +35445,7 @@
         <v>44509</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35502,7 +35502,7 @@
         <v>44510</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35559,7 +35559,7 @@
         <v>44512</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35616,7 +35616,7 @@
         <v>44517</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35673,7 +35673,7 @@
         <v>44517</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35730,7 +35730,7 @@
         <v>44519</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35787,7 +35787,7 @@
         <v>44522</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35844,7 +35844,7 @@
         <v>44522</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35901,7 +35901,7 @@
         <v>44531</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35958,7 +35958,7 @@
         <v>44532</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36015,7 +36015,7 @@
         <v>44532</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36072,7 +36072,7 @@
         <v>44536</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36129,7 +36129,7 @@
         <v>44537</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36186,7 +36186,7 @@
         <v>44539</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36243,7 +36243,7 @@
         <v>44539</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36300,7 +36300,7 @@
         <v>44540</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36362,7 +36362,7 @@
         <v>44540</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36419,7 +36419,7 @@
         <v>44543</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36476,7 +36476,7 @@
         <v>44543</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36533,7 +36533,7 @@
         <v>44543</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36590,7 +36590,7 @@
         <v>44543</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36647,7 +36647,7 @@
         <v>44546</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36704,7 +36704,7 @@
         <v>44550</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36761,7 +36761,7 @@
         <v>44550</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36818,7 +36818,7 @@
         <v>44552</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36875,7 +36875,7 @@
         <v>44552</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36932,7 +36932,7 @@
         <v>44552</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36989,7 +36989,7 @@
         <v>44552</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37046,7 +37046,7 @@
         <v>44553</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37103,7 +37103,7 @@
         <v>44553</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37160,7 +37160,7 @@
         <v>44558</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37217,7 +37217,7 @@
         <v>44561</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -37274,7 +37274,7 @@
         <v>44564</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37331,7 +37331,7 @@
         <v>44566</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -37388,7 +37388,7 @@
         <v>44568</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -37445,7 +37445,7 @@
         <v>44571</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -37502,7 +37502,7 @@
         <v>44571</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -37559,7 +37559,7 @@
         <v>44573</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -37616,7 +37616,7 @@
         <v>44573</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37673,7 +37673,7 @@
         <v>44573</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37730,7 +37730,7 @@
         <v>44578</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -37787,7 +37787,7 @@
         <v>44585</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -37844,7 +37844,7 @@
         <v>44586</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -37901,7 +37901,7 @@
         <v>44587</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -37958,7 +37958,7 @@
         <v>44588</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38015,7 +38015,7 @@
         <v>44589</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38072,7 +38072,7 @@
         <v>44593</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38129,7 +38129,7 @@
         <v>44593</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38186,7 +38186,7 @@
         <v>44595</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38243,7 +38243,7 @@
         <v>44596</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38305,7 +38305,7 @@
         <v>44601</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -38362,7 +38362,7 @@
         <v>44603</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -38419,7 +38419,7 @@
         <v>44606</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -38476,7 +38476,7 @@
         <v>44607</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -38533,7 +38533,7 @@
         <v>44609</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -38590,7 +38590,7 @@
         <v>44610</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -38647,7 +38647,7 @@
         <v>44612</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -38704,7 +38704,7 @@
         <v>44616</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -38761,7 +38761,7 @@
         <v>44617</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -38818,7 +38818,7 @@
         <v>44621</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -38875,7 +38875,7 @@
         <v>44624</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -38932,7 +38932,7 @@
         <v>44627</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -38989,7 +38989,7 @@
         <v>44627</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -39046,7 +39046,7 @@
         <v>44628</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -39103,7 +39103,7 @@
         <v>44628</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -39160,7 +39160,7 @@
         <v>44628</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -39217,7 +39217,7 @@
         <v>44631</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -39279,7 +39279,7 @@
         <v>44631</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -39341,7 +39341,7 @@
         <v>44631</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -39398,7 +39398,7 @@
         <v>44631</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -39455,7 +39455,7 @@
         <v>44635</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -39512,7 +39512,7 @@
         <v>44635</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -39569,7 +39569,7 @@
         <v>44636</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -39626,7 +39626,7 @@
         <v>44643</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -39683,7 +39683,7 @@
         <v>44643</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -39740,7 +39740,7 @@
         <v>44643</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -39797,7 +39797,7 @@
         <v>44643</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -39854,7 +39854,7 @@
         <v>44643</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -39911,7 +39911,7 @@
         <v>44643</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -39968,7 +39968,7 @@
         <v>44650</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -40025,7 +40025,7 @@
         <v>44652</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -40082,7 +40082,7 @@
         <v>44655</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -40139,7 +40139,7 @@
         <v>44655</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -40196,7 +40196,7 @@
         <v>44659</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -40253,7 +40253,7 @@
         <v>44671</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -40310,7 +40310,7 @@
         <v>44671</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -40367,7 +40367,7 @@
         <v>44671</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -40424,7 +40424,7 @@
         <v>44672</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -40481,7 +40481,7 @@
         <v>44672</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -40538,7 +40538,7 @@
         <v>44677</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -40595,7 +40595,7 @@
         <v>44684</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -40652,7 +40652,7 @@
         <v>44685</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -40709,7 +40709,7 @@
         <v>44686</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -40766,7 +40766,7 @@
         <v>44687</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -40823,7 +40823,7 @@
         <v>44690</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -40880,7 +40880,7 @@
         <v>44691</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -40937,7 +40937,7 @@
         <v>44694</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -40994,7 +40994,7 @@
         <v>44697</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -41051,7 +41051,7 @@
         <v>44697</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -41108,7 +41108,7 @@
         <v>44704</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -41165,7 +41165,7 @@
         <v>44705</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -41222,7 +41222,7 @@
         <v>44705</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -41279,7 +41279,7 @@
         <v>44711</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -41336,7 +41336,7 @@
         <v>44712</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -41393,7 +41393,7 @@
         <v>44726</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -41450,7 +41450,7 @@
         <v>44728</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -41507,7 +41507,7 @@
         <v>44728</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -41564,7 +41564,7 @@
         <v>44733</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -41626,7 +41626,7 @@
         <v>44747</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -41688,7 +41688,7 @@
         <v>44747</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -41750,7 +41750,7 @@
         <v>44747</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -41812,7 +41812,7 @@
         <v>44747</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -41869,7 +41869,7 @@
         <v>44750</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -41926,7 +41926,7 @@
         <v>44750</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -41983,7 +41983,7 @@
         <v>44761</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -42040,7 +42040,7 @@
         <v>44761</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -42097,7 +42097,7 @@
         <v>44761</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -42154,7 +42154,7 @@
         <v>44790</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -42211,7 +42211,7 @@
         <v>44796</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -42268,7 +42268,7 @@
         <v>44799</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -42325,7 +42325,7 @@
         <v>44804</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -42382,7 +42382,7 @@
         <v>44804</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -42439,7 +42439,7 @@
         <v>44806</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -42496,7 +42496,7 @@
         <v>44806</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -42553,7 +42553,7 @@
         <v>44812</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -42610,7 +42610,7 @@
         <v>44816</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -42667,7 +42667,7 @@
         <v>44818</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -42724,7 +42724,7 @@
         <v>44818</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -42781,7 +42781,7 @@
         <v>44824</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -42838,7 +42838,7 @@
         <v>44825</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -42895,7 +42895,7 @@
         <v>44825</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -42952,7 +42952,7 @@
         <v>44830</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -43009,7 +43009,7 @@
         <v>44832</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -43066,7 +43066,7 @@
         <v>44832</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -43123,7 +43123,7 @@
         <v>44839</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -43180,7 +43180,7 @@
         <v>44839</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -43237,7 +43237,7 @@
         <v>44839</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -43294,7 +43294,7 @@
         <v>44844</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -43351,7 +43351,7 @@
         <v>44847</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -43413,7 +43413,7 @@
         <v>44853</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -43470,7 +43470,7 @@
         <v>44853</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -43527,7 +43527,7 @@
         <v>44854</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -43584,7 +43584,7 @@
         <v>44858</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -43641,7 +43641,7 @@
         <v>44859</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -43698,7 +43698,7 @@
         <v>44865</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -43760,7 +43760,7 @@
         <v>44868</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -43817,7 +43817,7 @@
         <v>44868</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -43874,7 +43874,7 @@
         <v>44872</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -43931,7 +43931,7 @@
         <v>44873</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -43988,7 +43988,7 @@
         <v>44876</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -44045,7 +44045,7 @@
         <v>44879</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -44102,7 +44102,7 @@
         <v>44883</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -44159,7 +44159,7 @@
         <v>44886</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -44216,7 +44216,7 @@
         <v>44888</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -44273,7 +44273,7 @@
         <v>44893</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -44335,7 +44335,7 @@
         <v>44893</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -44392,7 +44392,7 @@
         <v>44901</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -44449,7 +44449,7 @@
         <v>44904</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -44506,7 +44506,7 @@
         <v>44904</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -44563,7 +44563,7 @@
         <v>44907</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -44620,7 +44620,7 @@
         <v>44907</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -44677,7 +44677,7 @@
         <v>44911</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -44739,7 +44739,7 @@
         <v>44914</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -44796,7 +44796,7 @@
         <v>44915</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -44853,7 +44853,7 @@
         <v>44916</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -44910,7 +44910,7 @@
         <v>44922</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -44967,7 +44967,7 @@
         <v>44924</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -45024,7 +45024,7 @@
         <v>44928</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -45081,7 +45081,7 @@
         <v>44928</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -45138,7 +45138,7 @@
         <v>44928</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -45195,7 +45195,7 @@
         <v>44935</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -45252,7 +45252,7 @@
         <v>44935</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -45309,7 +45309,7 @@
         <v>44935</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -45366,7 +45366,7 @@
         <v>44935</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -45423,7 +45423,7 @@
         <v>44938</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -45480,7 +45480,7 @@
         <v>44948</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -45537,7 +45537,7 @@
         <v>44949</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -45594,7 +45594,7 @@
         <v>44953</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -45651,7 +45651,7 @@
         <v>44953</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -45708,7 +45708,7 @@
         <v>44953</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -45765,7 +45765,7 @@
         <v>44953</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -45822,7 +45822,7 @@
         <v>44957</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -45879,7 +45879,7 @@
         <v>44963</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -45936,7 +45936,7 @@
         <v>44963</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -45993,7 +45993,7 @@
         <v>44966</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -46050,7 +46050,7 @@
         <v>44967</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -46107,7 +46107,7 @@
         <v>44967</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -46169,7 +46169,7 @@
         <v>44967</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -46231,7 +46231,7 @@
         <v>44968</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -46293,7 +46293,7 @@
         <v>44972</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -46350,7 +46350,7 @@
         <v>44972</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -46407,7 +46407,7 @@
         <v>44973</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -46464,7 +46464,7 @@
         <v>44974</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -46521,7 +46521,7 @@
         <v>44977</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -46578,7 +46578,7 @@
         <v>44978</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -46635,7 +46635,7 @@
         <v>44979</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -46692,7 +46692,7 @@
         <v>44980</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -46749,7 +46749,7 @@
         <v>44984</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -46806,7 +46806,7 @@
         <v>44984</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -46863,7 +46863,7 @@
         <v>44986</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -46920,7 +46920,7 @@
         <v>44986</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -46977,7 +46977,7 @@
         <v>44986</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -47034,7 +47034,7 @@
         <v>44987</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -47091,7 +47091,7 @@
         <v>44991</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -47148,7 +47148,7 @@
         <v>44992</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -47210,7 +47210,7 @@
         <v>44993</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -47267,7 +47267,7 @@
         <v>44995</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -47324,7 +47324,7 @@
         <v>44998</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -47381,7 +47381,7 @@
         <v>45002</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -47438,7 +47438,7 @@
         <v>45002</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -47500,7 +47500,7 @@
         <v>45006</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -47557,7 +47557,7 @@
         <v>45012</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -47614,7 +47614,7 @@
         <v>45015</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -47671,7 +47671,7 @@
         <v>45019</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -47728,7 +47728,7 @@
         <v>45020</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -47785,7 +47785,7 @@
         <v>45020</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -47842,7 +47842,7 @@
         <v>45020</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -47899,7 +47899,7 @@
         <v>45021</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -47956,7 +47956,7 @@
         <v>45030</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -48013,7 +48013,7 @@
         <v>45030</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -48075,7 +48075,7 @@
         <v>45034</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -48132,7 +48132,7 @@
         <v>45036</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -48189,7 +48189,7 @@
         <v>45039</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -48246,7 +48246,7 @@
         <v>45041</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -48303,7 +48303,7 @@
         <v>45047</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -48360,7 +48360,7 @@
         <v>45049</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -48417,7 +48417,7 @@
         <v>45051</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -48474,7 +48474,7 @@
         <v>45051</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -48531,7 +48531,7 @@
         <v>45051</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -48588,7 +48588,7 @@
         <v>45051</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -48645,7 +48645,7 @@
         <v>45051</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -48702,7 +48702,7 @@
         <v>45051</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -48759,7 +48759,7 @@
         <v>45052</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -48816,7 +48816,7 @@
         <v>45056</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -48873,7 +48873,7 @@
         <v>45056</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -48930,7 +48930,7 @@
         <v>45057</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -48987,7 +48987,7 @@
         <v>45058</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -49044,7 +49044,7 @@
         <v>45061</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -49101,7 +49101,7 @@
         <v>45061</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -49158,7 +49158,7 @@
         <v>45062</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -49215,7 +49215,7 @@
         <v>45062</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -49272,7 +49272,7 @@
         <v>45062</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -49329,7 +49329,7 @@
         <v>45070</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -49386,7 +49386,7 @@
         <v>45070</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -49443,7 +49443,7 @@
         <v>45072</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -49500,7 +49500,7 @@
         <v>45075</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -49557,7 +49557,7 @@
         <v>45075</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -49614,7 +49614,7 @@
         <v>45075</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -49671,7 +49671,7 @@
         <v>45075</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -49728,7 +49728,7 @@
         <v>45075</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -49785,7 +49785,7 @@
         <v>45076</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -49842,7 +49842,7 @@
         <v>45076</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -49899,7 +49899,7 @@
         <v>45078</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -49956,7 +49956,7 @@
         <v>45078</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -50013,7 +50013,7 @@
         <v>45078</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -50070,7 +50070,7 @@
         <v>45078</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -50127,7 +50127,7 @@
         <v>45078</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -50184,7 +50184,7 @@
         <v>45078</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -50241,7 +50241,7 @@
         <v>45078</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -50298,7 +50298,7 @@
         <v>45081</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -50360,7 +50360,7 @@
         <v>45082</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -50417,7 +50417,7 @@
         <v>45096</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -50474,7 +50474,7 @@
         <v>45099</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -50531,7 +50531,7 @@
         <v>45104</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -50588,7 +50588,7 @@
         <v>45105</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -50645,7 +50645,7 @@
         <v>45105</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -50702,7 +50702,7 @@
         <v>45106</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -50759,7 +50759,7 @@
         <v>45106</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -50816,7 +50816,7 @@
         <v>45108</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -50873,7 +50873,7 @@
         <v>45110</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -50930,7 +50930,7 @@
         <v>45113</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -50987,7 +50987,7 @@
         <v>45113</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -51044,7 +51044,7 @@
         <v>45119</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -51101,7 +51101,7 @@
         <v>45120</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -51158,7 +51158,7 @@
         <v>45120</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -51215,7 +51215,7 @@
         <v>45121</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -51272,7 +51272,7 @@
         <v>45121</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -51329,7 +51329,7 @@
         <v>45121</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -51386,7 +51386,7 @@
         <v>45121</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -51443,7 +51443,7 @@
         <v>45138</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -51500,7 +51500,7 @@
         <v>45138</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -51557,7 +51557,7 @@
         <v>45145</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -51614,7 +51614,7 @@
         <v>45145</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -51671,7 +51671,7 @@
         <v>45145</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -51728,7 +51728,7 @@
         <v>45145</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -51785,7 +51785,7 @@
         <v>45148</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -51842,7 +51842,7 @@
         <v>45149</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -51899,7 +51899,7 @@
         <v>45149</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -51956,7 +51956,7 @@
         <v>45152</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -52013,7 +52013,7 @@
         <v>45154</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -52070,7 +52070,7 @@
         <v>45155</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -52132,7 +52132,7 @@
         <v>45155</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -52189,7 +52189,7 @@
         <v>45159</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -52246,7 +52246,7 @@
         <v>45159</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -52303,7 +52303,7 @@
         <v>45161</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -52360,7 +52360,7 @@
         <v>45161</v>
       </c>
       <c r="C884" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -52417,7 +52417,7 @@
         <v>45162</v>
       </c>
       <c r="C885" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -52474,7 +52474,7 @@
         <v>45163</v>
       </c>
       <c r="C886" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -52531,7 +52531,7 @@
         <v>45166</v>
       </c>
       <c r="C887" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -52588,7 +52588,7 @@
         <v>45168</v>
       </c>
       <c r="C888" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>

--- a/Översikt ÅRJÄNG.xlsx
+++ b/Översikt ÅRJÄNG.xlsx
@@ -572,7 +572,7 @@
         <v>43607</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -689,7 +689,7 @@
         <v>44824</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -785,7 +785,7 @@
         <v>44649</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -878,7 +878,7 @@
         <v>44585</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -974,7 +974,7 @@
         <v>44970</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1066,7 +1066,7 @@
         <v>45084</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1162,7 +1162,7 @@
         <v>44964</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1253,7 +1253,7 @@
         <v>44873</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1347,7 +1347,7 @@
         <v>45106</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1437,7 +1437,7 @@
         <v>43621</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1530,7 +1530,7 @@
         <v>43880</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1623,7 +1623,7 @@
         <v>44140</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1712,7 +1712,7 @@
         <v>43852</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1804,7 +1804,7 @@
         <v>44375</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1892,7 +1892,7 @@
         <v>44678</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1980,7 +1980,7 @@
         <v>45051</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2068,7 +2068,7 @@
         <v>43922</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2159,7 +2159,7 @@
         <v>44377</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2250,7 +2250,7 @@
         <v>43852</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2336,7 +2336,7 @@
         <v>43880</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2426,7 +2426,7 @@
         <v>44515</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2516,7 +2516,7 @@
         <v>44872</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2606,7 +2606,7 @@
         <v>44935</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2692,7 +2692,7 @@
         <v>45001</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2778,7 +2778,7 @@
         <v>43621</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2867,7 +2867,7 @@
         <v>43696</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2952,7 +2952,7 @@
         <v>43725</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3037,7 +3037,7 @@
         <v>43731</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3122,7 +3122,7 @@
         <v>43734</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3207,7 +3207,7 @@
         <v>43763</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3292,7 +3292,7 @@
         <v>43839</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3377,7 +3377,7 @@
         <v>44050</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3462,7 +3462,7 @@
         <v>44061</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         <v>44217</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3632,7 +3632,7 @@
         <v>44285</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3717,7 +3717,7 @@
         <v>44356</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3802,7 +3802,7 @@
         <v>44379</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3887,7 +3887,7 @@
         <v>44846</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3976,7 +3976,7 @@
         <v>44873</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4061,7 +4061,7 @@
         <v>45111</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4146,7 +4146,7 @@
         <v>43326</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4203,7 +4203,7 @@
         <v>43335</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4260,7 +4260,7 @@
         <v>43335</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4317,7 +4317,7 @@
         <v>43335</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4374,7 +4374,7 @@
         <v>43339</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4431,7 +4431,7 @@
         <v>43346</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4488,7 +4488,7 @@
         <v>43346</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4545,7 +4545,7 @@
         <v>43347</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4602,7 +4602,7 @@
         <v>43349</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4659,7 +4659,7 @@
         <v>43353</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4716,7 +4716,7 @@
         <v>43353</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4773,7 +4773,7 @@
         <v>43353</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4830,7 +4830,7 @@
         <v>43353</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4887,7 +4887,7 @@
         <v>43353</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4944,7 +4944,7 @@
         <v>43354</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5001,7 +5001,7 @@
         <v>43354</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5058,7 +5058,7 @@
         <v>43355</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5115,7 +5115,7 @@
         <v>43367</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5172,7 +5172,7 @@
         <v>43369</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5229,7 +5229,7 @@
         <v>43381</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5286,7 +5286,7 @@
         <v>43381</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5343,7 +5343,7 @@
         <v>43390</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5400,7 +5400,7 @@
         <v>43395</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5457,7 +5457,7 @@
         <v>43395</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5514,7 +5514,7 @@
         <v>43399</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5571,7 +5571,7 @@
         <v>43399</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5628,7 +5628,7 @@
         <v>43401</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5685,7 +5685,7 @@
         <v>43403</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5742,7 +5742,7 @@
         <v>43403</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5799,7 +5799,7 @@
         <v>43403</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5856,7 +5856,7 @@
         <v>43403</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5913,7 +5913,7 @@
         <v>43403</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5970,7 +5970,7 @@
         <v>43403</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6027,7 +6027,7 @@
         <v>43403</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6084,7 +6084,7 @@
         <v>43403</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6141,7 +6141,7 @@
         <v>43403</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6198,7 +6198,7 @@
         <v>43406</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6255,7 +6255,7 @@
         <v>43408</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6312,7 +6312,7 @@
         <v>43409</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6369,7 +6369,7 @@
         <v>43419</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6426,7 +6426,7 @@
         <v>43420</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6483,7 +6483,7 @@
         <v>43420</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6540,7 +6540,7 @@
         <v>43430</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6597,7 +6597,7 @@
         <v>43430</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6654,7 +6654,7 @@
         <v>43431</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6711,7 +6711,7 @@
         <v>43432</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6768,7 +6768,7 @@
         <v>43432</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6825,7 +6825,7 @@
         <v>43432</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6882,7 +6882,7 @@
         <v>43432</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6939,7 +6939,7 @@
         <v>43433</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6996,7 +6996,7 @@
         <v>43437</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7053,7 +7053,7 @@
         <v>43437</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7110,7 +7110,7 @@
         <v>43438</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7167,7 +7167,7 @@
         <v>43440</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7224,7 +7224,7 @@
         <v>43441</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7281,7 +7281,7 @@
         <v>43447</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7338,7 +7338,7 @@
         <v>43448</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7395,7 +7395,7 @@
         <v>43451</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7452,7 +7452,7 @@
         <v>43452</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7509,7 +7509,7 @@
         <v>43452</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7566,7 +7566,7 @@
         <v>43453</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7623,7 +7623,7 @@
         <v>43454</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7680,7 +7680,7 @@
         <v>43454</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7737,7 +7737,7 @@
         <v>43455</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7794,7 +7794,7 @@
         <v>43460</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7851,7 +7851,7 @@
         <v>43467</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7908,7 +7908,7 @@
         <v>43467</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7965,7 +7965,7 @@
         <v>43467</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8022,7 +8022,7 @@
         <v>43474</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8079,7 +8079,7 @@
         <v>43474</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8136,7 +8136,7 @@
         <v>43475</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8193,7 +8193,7 @@
         <v>43475</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8250,7 +8250,7 @@
         <v>43476</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8307,7 +8307,7 @@
         <v>43479</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8364,7 +8364,7 @@
         <v>43479</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8421,7 +8421,7 @@
         <v>43481</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8478,7 +8478,7 @@
         <v>43486</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8535,7 +8535,7 @@
         <v>43486</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8592,7 +8592,7 @@
         <v>43487</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8649,7 +8649,7 @@
         <v>43488</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8706,7 +8706,7 @@
         <v>43488</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8763,7 +8763,7 @@
         <v>43488</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8820,7 +8820,7 @@
         <v>43490</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8877,7 +8877,7 @@
         <v>43490</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8934,7 +8934,7 @@
         <v>43494</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8991,7 +8991,7 @@
         <v>43496</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9048,7 +9048,7 @@
         <v>43500</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9105,7 +9105,7 @@
         <v>43500</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9162,7 +9162,7 @@
         <v>43502</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9219,7 +9219,7 @@
         <v>43502</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9276,7 +9276,7 @@
         <v>43504</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9333,7 +9333,7 @@
         <v>43504</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9390,7 +9390,7 @@
         <v>43507</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9447,7 +9447,7 @@
         <v>43508</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9504,7 +9504,7 @@
         <v>43508</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9561,7 +9561,7 @@
         <v>43510</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9618,7 +9618,7 @@
         <v>43511</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9675,7 +9675,7 @@
         <v>43516</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9732,7 +9732,7 @@
         <v>43523</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9789,7 +9789,7 @@
         <v>43523</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9846,7 +9846,7 @@
         <v>43523</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9903,7 +9903,7 @@
         <v>43523</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9960,7 +9960,7 @@
         <v>43524</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10017,7 +10017,7 @@
         <v>43524</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10074,7 +10074,7 @@
         <v>43525</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10131,7 +10131,7 @@
         <v>43531</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10188,7 +10188,7 @@
         <v>43532</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10250,7 +10250,7 @@
         <v>43538</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10307,7 +10307,7 @@
         <v>43539</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10364,7 +10364,7 @@
         <v>43542</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10421,7 +10421,7 @@
         <v>43542</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10478,7 +10478,7 @@
         <v>43542</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10535,7 +10535,7 @@
         <v>43542</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10592,7 +10592,7 @@
         <v>43543</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10649,7 +10649,7 @@
         <v>43543</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10706,7 +10706,7 @@
         <v>43545</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10763,7 +10763,7 @@
         <v>43549</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10820,7 +10820,7 @@
         <v>43549</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10877,7 +10877,7 @@
         <v>43551</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10934,7 +10934,7 @@
         <v>43552</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10991,7 +10991,7 @@
         <v>43555</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11048,7 +11048,7 @@
         <v>43556</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11105,7 +11105,7 @@
         <v>43558</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11162,7 +11162,7 @@
         <v>43559</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11219,7 +11219,7 @@
         <v>43560</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11276,7 +11276,7 @@
         <v>43563</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11333,7 +11333,7 @@
         <v>43563</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11390,7 +11390,7 @@
         <v>43563</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11447,7 +11447,7 @@
         <v>43567</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11504,7 +11504,7 @@
         <v>43569</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11561,7 +11561,7 @@
         <v>43570</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11618,7 +11618,7 @@
         <v>43573</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11675,7 +11675,7 @@
         <v>43573</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11732,7 +11732,7 @@
         <v>43573</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11789,7 +11789,7 @@
         <v>43580</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11846,7 +11846,7 @@
         <v>43581</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11908,7 +11908,7 @@
         <v>43581</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11970,7 +11970,7 @@
         <v>43585</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12027,7 +12027,7 @@
         <v>43585</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12084,7 +12084,7 @@
         <v>43587</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12141,7 +12141,7 @@
         <v>43594</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12198,7 +12198,7 @@
         <v>43594</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12255,7 +12255,7 @@
         <v>43594</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12312,7 +12312,7 @@
         <v>43594</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12369,7 +12369,7 @@
         <v>43594</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12426,7 +12426,7 @@
         <v>43594</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12483,7 +12483,7 @@
         <v>43598</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12540,7 +12540,7 @@
         <v>43599</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12597,7 +12597,7 @@
         <v>43606</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12654,7 +12654,7 @@
         <v>43606</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12711,7 +12711,7 @@
         <v>43606</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12768,7 +12768,7 @@
         <v>43607</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12825,7 +12825,7 @@
         <v>43608</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12882,7 +12882,7 @@
         <v>43609</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12944,7 +12944,7 @@
         <v>43614</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13001,7 +13001,7 @@
         <v>43614</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13058,7 +13058,7 @@
         <v>43621</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13115,7 +13115,7 @@
         <v>43621</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13172,7 +13172,7 @@
         <v>43628</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13229,7 +13229,7 @@
         <v>43633</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13286,7 +13286,7 @@
         <v>43636</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13343,7 +13343,7 @@
         <v>43642</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13400,7 +13400,7 @@
         <v>43646</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13462,7 +13462,7 @@
         <v>43646</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13524,7 +13524,7 @@
         <v>43647</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13581,7 +13581,7 @@
         <v>43648</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13638,7 +13638,7 @@
         <v>43649</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13695,7 +13695,7 @@
         <v>43649</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13752,7 +13752,7 @@
         <v>43649</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13809,7 +13809,7 @@
         <v>43649</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13866,7 +13866,7 @@
         <v>43650</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13923,7 +13923,7 @@
         <v>43650</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13980,7 +13980,7 @@
         <v>43652</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14037,7 +14037,7 @@
         <v>43653</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14094,7 +14094,7 @@
         <v>43654</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14151,7 +14151,7 @@
         <v>43654</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14208,7 +14208,7 @@
         <v>43655</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14265,7 +14265,7 @@
         <v>43655</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14322,7 +14322,7 @@
         <v>43675</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14379,7 +14379,7 @@
         <v>43684</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14436,7 +14436,7 @@
         <v>43684</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14493,7 +14493,7 @@
         <v>43696</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14550,7 +14550,7 @@
         <v>43697</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14607,7 +14607,7 @@
         <v>43697</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14664,7 +14664,7 @@
         <v>43698</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14721,7 +14721,7 @@
         <v>43699</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14778,7 +14778,7 @@
         <v>43699</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14835,7 +14835,7 @@
         <v>43699</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14892,7 +14892,7 @@
         <v>43700</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14949,7 +14949,7 @@
         <v>43700</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15006,7 +15006,7 @@
         <v>43703</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15063,7 +15063,7 @@
         <v>43703</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15120,7 +15120,7 @@
         <v>43703</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15177,7 +15177,7 @@
         <v>43705</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15234,7 +15234,7 @@
         <v>43705</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15291,7 +15291,7 @@
         <v>43705</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15348,7 +15348,7 @@
         <v>43705</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15405,7 +15405,7 @@
         <v>43707</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15462,7 +15462,7 @@
         <v>43707</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15524,7 +15524,7 @@
         <v>43707</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15581,7 +15581,7 @@
         <v>43710</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15638,7 +15638,7 @@
         <v>43711</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15695,7 +15695,7 @@
         <v>43718</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15757,7 +15757,7 @@
         <v>43721</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15814,7 +15814,7 @@
         <v>43721</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15871,7 +15871,7 @@
         <v>43724</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15933,7 +15933,7 @@
         <v>43727</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15990,7 +15990,7 @@
         <v>43727</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16047,7 +16047,7 @@
         <v>43727</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16104,7 +16104,7 @@
         <v>43728</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16161,7 +16161,7 @@
         <v>43730</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16218,7 +16218,7 @@
         <v>43731</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16275,7 +16275,7 @@
         <v>43732</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16332,7 +16332,7 @@
         <v>43734</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16389,7 +16389,7 @@
         <v>43740</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16446,7 +16446,7 @@
         <v>43740</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16503,7 +16503,7 @@
         <v>43741</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16560,7 +16560,7 @@
         <v>43742</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16617,7 +16617,7 @@
         <v>43748</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16674,7 +16674,7 @@
         <v>43749</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16731,7 +16731,7 @@
         <v>43759</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16793,7 +16793,7 @@
         <v>43762</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16850,7 +16850,7 @@
         <v>43762</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16907,7 +16907,7 @@
         <v>43766</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16964,7 +16964,7 @@
         <v>43768</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17026,7 +17026,7 @@
         <v>43769</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17083,7 +17083,7 @@
         <v>43770</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17140,7 +17140,7 @@
         <v>43776</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17197,7 +17197,7 @@
         <v>43782</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17254,7 +17254,7 @@
         <v>43791</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17311,7 +17311,7 @@
         <v>43802</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17368,7 +17368,7 @@
         <v>43804</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17425,7 +17425,7 @@
         <v>43815</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17482,7 +17482,7 @@
         <v>43819</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17539,7 +17539,7 @@
         <v>43819</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17596,7 +17596,7 @@
         <v>43822</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17653,7 +17653,7 @@
         <v>43822</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17710,7 +17710,7 @@
         <v>43833</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17767,7 +17767,7 @@
         <v>43843</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17824,7 +17824,7 @@
         <v>43843</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17881,7 +17881,7 @@
         <v>43843</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17938,7 +17938,7 @@
         <v>43847</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17995,7 +17995,7 @@
         <v>43847</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18052,7 +18052,7 @@
         <v>43847</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18109,7 +18109,7 @@
         <v>43847</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18166,7 +18166,7 @@
         <v>43848</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18223,7 +18223,7 @@
         <v>43852</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18280,7 +18280,7 @@
         <v>43852</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18337,7 +18337,7 @@
         <v>43852</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18394,7 +18394,7 @@
         <v>43852</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18451,7 +18451,7 @@
         <v>43852</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18508,7 +18508,7 @@
         <v>43861</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18565,7 +18565,7 @@
         <v>43861</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18622,7 +18622,7 @@
         <v>43861</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18679,7 +18679,7 @@
         <v>43861</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18736,7 +18736,7 @@
         <v>43861</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18793,7 +18793,7 @@
         <v>43861</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18850,7 +18850,7 @@
         <v>43866</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18907,7 +18907,7 @@
         <v>43868</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18964,7 +18964,7 @@
         <v>43868</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19021,7 +19021,7 @@
         <v>43872</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19078,7 +19078,7 @@
         <v>43873</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19135,7 +19135,7 @@
         <v>43874</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19192,7 +19192,7 @@
         <v>43874</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19249,7 +19249,7 @@
         <v>43878</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19306,7 +19306,7 @@
         <v>43878</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19363,7 +19363,7 @@
         <v>43878</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19420,7 +19420,7 @@
         <v>43879</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19477,7 +19477,7 @@
         <v>43879</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19534,7 +19534,7 @@
         <v>43885</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19591,7 +19591,7 @@
         <v>43885</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19648,7 +19648,7 @@
         <v>43885</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19705,7 +19705,7 @@
         <v>43886</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19762,7 +19762,7 @@
         <v>43886</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19819,7 +19819,7 @@
         <v>43886</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19876,7 +19876,7 @@
         <v>43887</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19933,7 +19933,7 @@
         <v>43888</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19990,7 +19990,7 @@
         <v>43892</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20047,7 +20047,7 @@
         <v>43892</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20104,7 +20104,7 @@
         <v>43892</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20161,7 +20161,7 @@
         <v>43893</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20218,7 +20218,7 @@
         <v>43899</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20275,7 +20275,7 @@
         <v>43899</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20332,7 +20332,7 @@
         <v>43901</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20389,7 +20389,7 @@
         <v>43901</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20446,7 +20446,7 @@
         <v>43902</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20503,7 +20503,7 @@
         <v>43902</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20560,7 +20560,7 @@
         <v>43902</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20617,7 +20617,7 @@
         <v>43903</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20674,7 +20674,7 @@
         <v>43906</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20731,7 +20731,7 @@
         <v>43906</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20788,7 +20788,7 @@
         <v>43906</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20845,7 +20845,7 @@
         <v>43906</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20902,7 +20902,7 @@
         <v>43906</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20959,7 +20959,7 @@
         <v>43906</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21016,7 +21016,7 @@
         <v>43906</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21073,7 +21073,7 @@
         <v>43907</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21130,7 +21130,7 @@
         <v>43907</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21187,7 +21187,7 @@
         <v>43910</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21244,7 +21244,7 @@
         <v>43910</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21301,7 +21301,7 @@
         <v>43915</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21358,7 +21358,7 @@
         <v>43915</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21415,7 +21415,7 @@
         <v>43915</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21472,7 +21472,7 @@
         <v>43920</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21529,7 +21529,7 @@
         <v>43921</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21586,7 +21586,7 @@
         <v>43923</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21643,7 +21643,7 @@
         <v>43924</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21700,7 +21700,7 @@
         <v>43924</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21757,7 +21757,7 @@
         <v>43932</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21814,7 +21814,7 @@
         <v>43955</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21871,7 +21871,7 @@
         <v>43963</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21928,7 +21928,7 @@
         <v>43964</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21985,7 +21985,7 @@
         <v>43965</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22042,7 +22042,7 @@
         <v>43965</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22099,7 +22099,7 @@
         <v>43969</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22156,7 +22156,7 @@
         <v>43975</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22213,7 +22213,7 @@
         <v>43978</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22270,7 +22270,7 @@
         <v>43978</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22327,7 +22327,7 @@
         <v>43985</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22384,7 +22384,7 @@
         <v>43986</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22441,7 +22441,7 @@
         <v>43987</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22498,7 +22498,7 @@
         <v>44004</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22555,7 +22555,7 @@
         <v>44004</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22612,7 +22612,7 @@
         <v>44006</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22669,7 +22669,7 @@
         <v>44006</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22726,7 +22726,7 @@
         <v>44013</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22783,7 +22783,7 @@
         <v>44013</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22840,7 +22840,7 @@
         <v>44018</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22897,7 +22897,7 @@
         <v>44019</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22959,7 +22959,7 @@
         <v>44019</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23021,7 +23021,7 @@
         <v>44036</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23078,7 +23078,7 @@
         <v>44036</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23135,7 +23135,7 @@
         <v>44036</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23192,7 +23192,7 @@
         <v>44036</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23249,7 +23249,7 @@
         <v>44036</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23306,7 +23306,7 @@
         <v>44036</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23363,7 +23363,7 @@
         <v>44036</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23420,7 +23420,7 @@
         <v>44036</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23477,7 +23477,7 @@
         <v>44036</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23534,7 +23534,7 @@
         <v>44036</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23591,7 +23591,7 @@
         <v>44040</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23653,7 +23653,7 @@
         <v>44042</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23710,7 +23710,7 @@
         <v>44047</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23767,7 +23767,7 @@
         <v>44050</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23824,7 +23824,7 @@
         <v>44054</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23881,7 +23881,7 @@
         <v>44060</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23943,7 +23943,7 @@
         <v>44061</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24000,7 +24000,7 @@
         <v>44063</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24057,7 +24057,7 @@
         <v>44069</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24114,7 +24114,7 @@
         <v>44069</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24171,7 +24171,7 @@
         <v>44070</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24228,7 +24228,7 @@
         <v>44074</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24285,7 +24285,7 @@
         <v>44074</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24342,7 +24342,7 @@
         <v>44076</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24399,7 +24399,7 @@
         <v>44081</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24456,7 +24456,7 @@
         <v>44084</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24513,7 +24513,7 @@
         <v>44084</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24570,7 +24570,7 @@
         <v>44091</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24627,7 +24627,7 @@
         <v>44091</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24684,7 +24684,7 @@
         <v>44096</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24741,7 +24741,7 @@
         <v>44097</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24798,7 +24798,7 @@
         <v>44101</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24855,7 +24855,7 @@
         <v>44102</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24912,7 +24912,7 @@
         <v>44102</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24969,7 +24969,7 @@
         <v>44103</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25026,7 +25026,7 @@
         <v>44103</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25083,7 +25083,7 @@
         <v>44105</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25140,7 +25140,7 @@
         <v>44109</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25197,7 +25197,7 @@
         <v>44110</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25254,7 +25254,7 @@
         <v>44110</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25311,7 +25311,7 @@
         <v>44113</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25368,7 +25368,7 @@
         <v>44123</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25425,7 +25425,7 @@
         <v>44134</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25482,7 +25482,7 @@
         <v>44134</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25539,7 +25539,7 @@
         <v>44138</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25596,7 +25596,7 @@
         <v>44140</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25653,7 +25653,7 @@
         <v>44140</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25710,7 +25710,7 @@
         <v>44140</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25767,7 +25767,7 @@
         <v>44140</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25824,7 +25824,7 @@
         <v>44140</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25881,7 +25881,7 @@
         <v>44145</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25938,7 +25938,7 @@
         <v>44155</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25995,7 +25995,7 @@
         <v>44159</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26052,7 +26052,7 @@
         <v>44165</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26109,7 +26109,7 @@
         <v>44168</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26166,7 +26166,7 @@
         <v>44168</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26223,7 +26223,7 @@
         <v>44168</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26280,7 +26280,7 @@
         <v>44174</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26337,7 +26337,7 @@
         <v>44174</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26399,7 +26399,7 @@
         <v>44174</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26456,7 +26456,7 @@
         <v>44174</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26513,7 +26513,7 @@
         <v>44175</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26570,7 +26570,7 @@
         <v>44175</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26627,7 +26627,7 @@
         <v>44179</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26684,7 +26684,7 @@
         <v>44186</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26741,7 +26741,7 @@
         <v>44187</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26798,7 +26798,7 @@
         <v>44187</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26855,7 +26855,7 @@
         <v>44194</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26912,7 +26912,7 @@
         <v>44195</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26969,7 +26969,7 @@
         <v>44195</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27026,7 +27026,7 @@
         <v>44201</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27083,7 +27083,7 @@
         <v>44201</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27140,7 +27140,7 @@
         <v>44207</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27197,7 +27197,7 @@
         <v>44214</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27254,7 +27254,7 @@
         <v>44215</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27311,7 +27311,7 @@
         <v>44217</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27368,7 +27368,7 @@
         <v>44217</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27425,7 +27425,7 @@
         <v>44221</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27482,7 +27482,7 @@
         <v>44223</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27539,7 +27539,7 @@
         <v>44224</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27596,7 +27596,7 @@
         <v>44229</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27653,7 +27653,7 @@
         <v>44230</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27710,7 +27710,7 @@
         <v>44235</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27767,7 +27767,7 @@
         <v>44235</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27824,7 +27824,7 @@
         <v>44236</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27881,7 +27881,7 @@
         <v>44236</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27938,7 +27938,7 @@
         <v>44237</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27995,7 +27995,7 @@
         <v>44237</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28052,7 +28052,7 @@
         <v>44238</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28109,7 +28109,7 @@
         <v>44239</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28166,7 +28166,7 @@
         <v>44239</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28223,7 +28223,7 @@
         <v>44239</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28280,7 +28280,7 @@
         <v>44240</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28337,7 +28337,7 @@
         <v>44242</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28394,7 +28394,7 @@
         <v>44242</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28451,7 +28451,7 @@
         <v>44246</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28513,7 +28513,7 @@
         <v>44246</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28575,7 +28575,7 @@
         <v>44248</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28632,7 +28632,7 @@
         <v>44251</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28689,7 +28689,7 @@
         <v>44251</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28746,7 +28746,7 @@
         <v>44258</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28803,7 +28803,7 @@
         <v>44258</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28860,7 +28860,7 @@
         <v>44258</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28917,7 +28917,7 @@
         <v>44261</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28974,7 +28974,7 @@
         <v>44265</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29031,7 +29031,7 @@
         <v>44266</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29088,7 +29088,7 @@
         <v>44271</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29145,7 +29145,7 @@
         <v>44272</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29207,7 +29207,7 @@
         <v>44282</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29269,7 +29269,7 @@
         <v>44292</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29326,7 +29326,7 @@
         <v>44301</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29383,7 +29383,7 @@
         <v>44306</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29440,7 +29440,7 @@
         <v>44308</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29497,7 +29497,7 @@
         <v>44309</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29554,7 +29554,7 @@
         <v>44311</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29611,7 +29611,7 @@
         <v>44322</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29668,7 +29668,7 @@
         <v>44323</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29725,7 +29725,7 @@
         <v>44329</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29782,7 +29782,7 @@
         <v>44333</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29839,7 +29839,7 @@
         <v>44347</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29896,7 +29896,7 @@
         <v>44347</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29953,7 +29953,7 @@
         <v>44354</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30010,7 +30010,7 @@
         <v>44354</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30067,7 +30067,7 @@
         <v>44354</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30124,7 +30124,7 @@
         <v>44362</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30181,7 +30181,7 @@
         <v>44362</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30238,7 +30238,7 @@
         <v>44365</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30295,7 +30295,7 @@
         <v>44365</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30352,7 +30352,7 @@
         <v>44375</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30409,7 +30409,7 @@
         <v>44376</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30466,7 +30466,7 @@
         <v>44376</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30523,7 +30523,7 @@
         <v>44378</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30585,7 +30585,7 @@
         <v>44380</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30642,7 +30642,7 @@
         <v>44383</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30699,7 +30699,7 @@
         <v>44383</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30756,7 +30756,7 @@
         <v>44384</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30813,7 +30813,7 @@
         <v>44384</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30870,7 +30870,7 @@
         <v>44385</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30927,7 +30927,7 @@
         <v>44389</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30984,7 +30984,7 @@
         <v>44391</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31041,7 +31041,7 @@
         <v>44392</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31098,7 +31098,7 @@
         <v>44396</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31155,7 +31155,7 @@
         <v>44412</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31212,7 +31212,7 @@
         <v>44417</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31274,7 +31274,7 @@
         <v>44421</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31331,7 +31331,7 @@
         <v>44421</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31388,7 +31388,7 @@
         <v>44424</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31445,7 +31445,7 @@
         <v>44428</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31502,7 +31502,7 @@
         <v>44431</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31559,7 +31559,7 @@
         <v>44431</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31616,7 +31616,7 @@
         <v>44433</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31673,7 +31673,7 @@
         <v>44441</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31730,7 +31730,7 @@
         <v>44442</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31787,7 +31787,7 @@
         <v>44442</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31844,7 +31844,7 @@
         <v>44445</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31901,7 +31901,7 @@
         <v>44446</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31958,7 +31958,7 @@
         <v>44446</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32015,7 +32015,7 @@
         <v>44446</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32072,7 +32072,7 @@
         <v>44446</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32129,7 +32129,7 @@
         <v>44446</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32186,7 +32186,7 @@
         <v>44446</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32243,7 +32243,7 @@
         <v>44446</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32300,7 +32300,7 @@
         <v>44446</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32357,7 +32357,7 @@
         <v>44446</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32414,7 +32414,7 @@
         <v>44446</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32471,7 +32471,7 @@
         <v>44446</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32528,7 +32528,7 @@
         <v>44446</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32585,7 +32585,7 @@
         <v>44446</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32642,7 +32642,7 @@
         <v>44446</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32699,7 +32699,7 @@
         <v>44446</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32756,7 +32756,7 @@
         <v>44446</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32813,7 +32813,7 @@
         <v>44446</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32870,7 +32870,7 @@
         <v>44446</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32927,7 +32927,7 @@
         <v>44447</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32984,7 +32984,7 @@
         <v>44448</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33041,7 +33041,7 @@
         <v>44452</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33098,7 +33098,7 @@
         <v>44455</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33155,7 +33155,7 @@
         <v>44457</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33212,7 +33212,7 @@
         <v>44457</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33269,7 +33269,7 @@
         <v>44459</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33326,7 +33326,7 @@
         <v>44459</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33383,7 +33383,7 @@
         <v>44459</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33440,7 +33440,7 @@
         <v>44459</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33497,7 +33497,7 @@
         <v>44459</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33554,7 +33554,7 @@
         <v>44463</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33616,7 +33616,7 @@
         <v>44467</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33673,7 +33673,7 @@
         <v>44468</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33730,7 +33730,7 @@
         <v>44469</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33787,7 +33787,7 @@
         <v>44469</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33844,7 +33844,7 @@
         <v>44469</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33901,7 +33901,7 @@
         <v>44469</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33958,7 +33958,7 @@
         <v>44469</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34015,7 +34015,7 @@
         <v>44476</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34072,7 +34072,7 @@
         <v>44480</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34129,7 +34129,7 @@
         <v>44481</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34186,7 +34186,7 @@
         <v>44482</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34243,7 +34243,7 @@
         <v>44490</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34300,7 +34300,7 @@
         <v>44491</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34357,7 +34357,7 @@
         <v>44491</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34414,7 +34414,7 @@
         <v>44491</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34471,7 +34471,7 @@
         <v>44495</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34528,7 +34528,7 @@
         <v>44496</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34585,7 +34585,7 @@
         <v>44496</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34642,7 +34642,7 @@
         <v>44496</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34699,7 +34699,7 @@
         <v>44496</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34756,7 +34756,7 @@
         <v>44496</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34813,7 +34813,7 @@
         <v>44497</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34870,7 +34870,7 @@
         <v>44497</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34927,7 +34927,7 @@
         <v>44497</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34984,7 +34984,7 @@
         <v>44497</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35041,7 +35041,7 @@
         <v>44498</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35103,7 +35103,7 @@
         <v>44498</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35160,7 +35160,7 @@
         <v>44498</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35217,7 +35217,7 @@
         <v>44502</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35274,7 +35274,7 @@
         <v>44504</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35331,7 +35331,7 @@
         <v>44509</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35388,7 +35388,7 @@
         <v>44509</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35445,7 +35445,7 @@
         <v>44509</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35502,7 +35502,7 @@
         <v>44510</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35559,7 +35559,7 @@
         <v>44512</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35616,7 +35616,7 @@
         <v>44517</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35673,7 +35673,7 @@
         <v>44517</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35730,7 +35730,7 @@
         <v>44519</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35787,7 +35787,7 @@
         <v>44522</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35844,7 +35844,7 @@
         <v>44522</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35901,7 +35901,7 @@
         <v>44531</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35958,7 +35958,7 @@
         <v>44532</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36015,7 +36015,7 @@
         <v>44532</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36072,7 +36072,7 @@
         <v>44536</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36129,7 +36129,7 @@
         <v>44537</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36186,7 +36186,7 @@
         <v>44539</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36243,7 +36243,7 @@
         <v>44539</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36300,7 +36300,7 @@
         <v>44540</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36362,7 +36362,7 @@
         <v>44540</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36419,7 +36419,7 @@
         <v>44543</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36476,7 +36476,7 @@
         <v>44543</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36533,7 +36533,7 @@
         <v>44543</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36590,7 +36590,7 @@
         <v>44543</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36647,7 +36647,7 @@
         <v>44546</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36704,7 +36704,7 @@
         <v>44550</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36761,7 +36761,7 @@
         <v>44550</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36818,7 +36818,7 @@
         <v>44552</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36875,7 +36875,7 @@
         <v>44552</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36932,7 +36932,7 @@
         <v>44552</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36989,7 +36989,7 @@
         <v>44552</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37046,7 +37046,7 @@
         <v>44553</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37103,7 +37103,7 @@
         <v>44553</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37160,7 +37160,7 @@
         <v>44558</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37217,7 +37217,7 @@
         <v>44561</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -37274,7 +37274,7 @@
         <v>44564</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37331,7 +37331,7 @@
         <v>44566</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -37388,7 +37388,7 @@
         <v>44568</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -37445,7 +37445,7 @@
         <v>44571</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -37502,7 +37502,7 @@
         <v>44571</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -37559,7 +37559,7 @@
         <v>44573</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -37616,7 +37616,7 @@
         <v>44573</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37673,7 +37673,7 @@
         <v>44573</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37730,7 +37730,7 @@
         <v>44578</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -37787,7 +37787,7 @@
         <v>44585</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -37844,7 +37844,7 @@
         <v>44586</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -37901,7 +37901,7 @@
         <v>44587</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -37958,7 +37958,7 @@
         <v>44588</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38015,7 +38015,7 @@
         <v>44589</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38072,7 +38072,7 @@
         <v>44593</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38129,7 +38129,7 @@
         <v>44593</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38186,7 +38186,7 @@
         <v>44595</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38243,7 +38243,7 @@
         <v>44596</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38305,7 +38305,7 @@
         <v>44601</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -38362,7 +38362,7 @@
         <v>44603</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -38419,7 +38419,7 @@
         <v>44606</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -38476,7 +38476,7 @@
         <v>44607</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -38533,7 +38533,7 @@
         <v>44609</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -38590,7 +38590,7 @@
         <v>44610</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -38647,7 +38647,7 @@
         <v>44612</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -38704,7 +38704,7 @@
         <v>44616</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -38761,7 +38761,7 @@
         <v>44617</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -38818,7 +38818,7 @@
         <v>44621</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -38875,7 +38875,7 @@
         <v>44624</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -38932,7 +38932,7 @@
         <v>44627</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -38989,7 +38989,7 @@
         <v>44627</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -39046,7 +39046,7 @@
         <v>44628</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -39103,7 +39103,7 @@
         <v>44628</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -39160,7 +39160,7 @@
         <v>44628</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -39217,7 +39217,7 @@
         <v>44631</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -39279,7 +39279,7 @@
         <v>44631</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -39341,7 +39341,7 @@
         <v>44631</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -39398,7 +39398,7 @@
         <v>44631</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -39455,7 +39455,7 @@
         <v>44635</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -39512,7 +39512,7 @@
         <v>44635</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -39569,7 +39569,7 @@
         <v>44636</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -39626,7 +39626,7 @@
         <v>44643</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -39683,7 +39683,7 @@
         <v>44643</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -39740,7 +39740,7 @@
         <v>44643</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -39797,7 +39797,7 @@
         <v>44643</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -39854,7 +39854,7 @@
         <v>44643</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -39911,7 +39911,7 @@
         <v>44643</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -39968,7 +39968,7 @@
         <v>44650</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -40025,7 +40025,7 @@
         <v>44652</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -40082,7 +40082,7 @@
         <v>44655</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -40139,7 +40139,7 @@
         <v>44655</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -40196,7 +40196,7 @@
         <v>44659</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -40253,7 +40253,7 @@
         <v>44671</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -40310,7 +40310,7 @@
         <v>44671</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -40367,7 +40367,7 @@
         <v>44671</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -40424,7 +40424,7 @@
         <v>44672</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -40481,7 +40481,7 @@
         <v>44672</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -40538,7 +40538,7 @@
         <v>44677</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -40595,7 +40595,7 @@
         <v>44684</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -40652,7 +40652,7 @@
         <v>44685</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -40709,7 +40709,7 @@
         <v>44686</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -40766,7 +40766,7 @@
         <v>44687</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -40823,7 +40823,7 @@
         <v>44690</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -40880,7 +40880,7 @@
         <v>44691</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -40937,7 +40937,7 @@
         <v>44694</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -40994,7 +40994,7 @@
         <v>44697</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -41051,7 +41051,7 @@
         <v>44697</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -41108,7 +41108,7 @@
         <v>44704</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -41165,7 +41165,7 @@
         <v>44705</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -41222,7 +41222,7 @@
         <v>44705</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -41279,7 +41279,7 @@
         <v>44711</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -41336,7 +41336,7 @@
         <v>44712</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -41393,7 +41393,7 @@
         <v>44726</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -41450,7 +41450,7 @@
         <v>44728</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -41507,7 +41507,7 @@
         <v>44728</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -41564,7 +41564,7 @@
         <v>44733</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -41626,7 +41626,7 @@
         <v>44747</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -41688,7 +41688,7 @@
         <v>44747</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -41750,7 +41750,7 @@
         <v>44747</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -41812,7 +41812,7 @@
         <v>44747</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -41869,7 +41869,7 @@
         <v>44750</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -41926,7 +41926,7 @@
         <v>44750</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -41983,7 +41983,7 @@
         <v>44761</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -42040,7 +42040,7 @@
         <v>44761</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -42097,7 +42097,7 @@
         <v>44761</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -42154,7 +42154,7 @@
         <v>44790</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -42211,7 +42211,7 @@
         <v>44796</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -42268,7 +42268,7 @@
         <v>44799</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -42325,7 +42325,7 @@
         <v>44804</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -42382,7 +42382,7 @@
         <v>44804</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -42439,7 +42439,7 @@
         <v>44806</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -42496,7 +42496,7 @@
         <v>44806</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -42553,7 +42553,7 @@
         <v>44812</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -42610,7 +42610,7 @@
         <v>44816</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -42667,7 +42667,7 @@
         <v>44818</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -42724,7 +42724,7 @@
         <v>44818</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -42781,7 +42781,7 @@
         <v>44824</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -42838,7 +42838,7 @@
         <v>44825</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -42895,7 +42895,7 @@
         <v>44825</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -42952,7 +42952,7 @@
         <v>44830</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -43009,7 +43009,7 @@
         <v>44832</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -43066,7 +43066,7 @@
         <v>44832</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -43123,7 +43123,7 @@
         <v>44839</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -43180,7 +43180,7 @@
         <v>44839</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -43237,7 +43237,7 @@
         <v>44839</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -43294,7 +43294,7 @@
         <v>44844</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -43351,7 +43351,7 @@
         <v>44847</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -43413,7 +43413,7 @@
         <v>44853</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -43470,7 +43470,7 @@
         <v>44853</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -43527,7 +43527,7 @@
         <v>44854</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -43584,7 +43584,7 @@
         <v>44858</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -43641,7 +43641,7 @@
         <v>44859</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -43698,7 +43698,7 @@
         <v>44865</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -43760,7 +43760,7 @@
         <v>44868</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -43817,7 +43817,7 @@
         <v>44868</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -43874,7 +43874,7 @@
         <v>44872</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -43931,7 +43931,7 @@
         <v>44873</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -43988,7 +43988,7 @@
         <v>44876</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -44045,7 +44045,7 @@
         <v>44879</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -44102,7 +44102,7 @@
         <v>44883</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -44159,7 +44159,7 @@
         <v>44886</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -44216,7 +44216,7 @@
         <v>44888</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -44273,7 +44273,7 @@
         <v>44893</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -44335,7 +44335,7 @@
         <v>44893</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -44392,7 +44392,7 @@
         <v>44901</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -44449,7 +44449,7 @@
         <v>44904</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -44506,7 +44506,7 @@
         <v>44904</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -44563,7 +44563,7 @@
         <v>44907</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -44620,7 +44620,7 @@
         <v>44907</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -44677,7 +44677,7 @@
         <v>44911</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -44739,7 +44739,7 @@
         <v>44914</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -44796,7 +44796,7 @@
         <v>44915</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -44853,7 +44853,7 @@
         <v>44916</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -44910,7 +44910,7 @@
         <v>44922</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -44967,7 +44967,7 @@
         <v>44924</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -45024,7 +45024,7 @@
         <v>44928</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -45081,7 +45081,7 @@
         <v>44928</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -45138,7 +45138,7 @@
         <v>44928</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -45195,7 +45195,7 @@
         <v>44935</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -45252,7 +45252,7 @@
         <v>44935</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -45309,7 +45309,7 @@
         <v>44935</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -45366,7 +45366,7 @@
         <v>44935</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -45423,7 +45423,7 @@
         <v>44938</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -45480,7 +45480,7 @@
         <v>44948</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -45537,7 +45537,7 @@
         <v>44949</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -45594,7 +45594,7 @@
         <v>44953</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -45651,7 +45651,7 @@
         <v>44953</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -45708,7 +45708,7 @@
         <v>44953</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -45765,7 +45765,7 @@
         <v>44953</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -45822,7 +45822,7 @@
         <v>44957</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -45879,7 +45879,7 @@
         <v>44963</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -45936,7 +45936,7 @@
         <v>44963</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -45993,7 +45993,7 @@
         <v>44966</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -46050,7 +46050,7 @@
         <v>44967</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -46107,7 +46107,7 @@
         <v>44967</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -46169,7 +46169,7 @@
         <v>44967</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -46231,7 +46231,7 @@
         <v>44968</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -46293,7 +46293,7 @@
         <v>44972</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -46350,7 +46350,7 @@
         <v>44972</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -46407,7 +46407,7 @@
         <v>44973</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -46464,7 +46464,7 @@
         <v>44974</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -46521,7 +46521,7 @@
         <v>44977</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -46578,7 +46578,7 @@
         <v>44978</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -46635,7 +46635,7 @@
         <v>44979</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -46692,7 +46692,7 @@
         <v>44980</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -46749,7 +46749,7 @@
         <v>44984</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -46806,7 +46806,7 @@
         <v>44984</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -46863,7 +46863,7 @@
         <v>44986</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -46920,7 +46920,7 @@
         <v>44986</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -46977,7 +46977,7 @@
         <v>44986</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -47034,7 +47034,7 @@
         <v>44987</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -47091,7 +47091,7 @@
         <v>44991</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -47148,7 +47148,7 @@
         <v>44992</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -47210,7 +47210,7 @@
         <v>44993</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -47267,7 +47267,7 @@
         <v>44995</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -47324,7 +47324,7 @@
         <v>44998</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -47381,7 +47381,7 @@
         <v>45002</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -47438,7 +47438,7 @@
         <v>45002</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -47500,7 +47500,7 @@
         <v>45006</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -47557,7 +47557,7 @@
         <v>45012</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -47614,7 +47614,7 @@
         <v>45015</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -47671,7 +47671,7 @@
         <v>45019</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -47728,7 +47728,7 @@
         <v>45020</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -47785,7 +47785,7 @@
         <v>45020</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -47842,7 +47842,7 @@
         <v>45020</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -47899,7 +47899,7 @@
         <v>45021</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -47956,7 +47956,7 @@
         <v>45030</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -48013,7 +48013,7 @@
         <v>45030</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -48075,7 +48075,7 @@
         <v>45034</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -48132,7 +48132,7 @@
         <v>45036</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -48189,7 +48189,7 @@
         <v>45039</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -48246,7 +48246,7 @@
         <v>45041</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -48303,7 +48303,7 @@
         <v>45047</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -48360,7 +48360,7 @@
         <v>45049</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -48417,7 +48417,7 @@
         <v>45051</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -48474,7 +48474,7 @@
         <v>45051</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -48531,7 +48531,7 @@
         <v>45051</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -48588,7 +48588,7 @@
         <v>45051</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -48645,7 +48645,7 @@
         <v>45051</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -48702,7 +48702,7 @@
         <v>45051</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -48759,7 +48759,7 @@
         <v>45052</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -48816,7 +48816,7 @@
         <v>45056</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -48873,7 +48873,7 @@
         <v>45056</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -48930,7 +48930,7 @@
         <v>45057</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -48987,7 +48987,7 @@
         <v>45058</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -49044,7 +49044,7 @@
         <v>45061</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -49101,7 +49101,7 @@
         <v>45061</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -49158,7 +49158,7 @@
         <v>45062</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -49215,7 +49215,7 @@
         <v>45062</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -49272,7 +49272,7 @@
         <v>45062</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -49329,7 +49329,7 @@
         <v>45070</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -49386,7 +49386,7 @@
         <v>45070</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -49443,7 +49443,7 @@
         <v>45072</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -49500,7 +49500,7 @@
         <v>45075</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -49557,7 +49557,7 @@
         <v>45075</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -49614,7 +49614,7 @@
         <v>45075</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -49671,7 +49671,7 @@
         <v>45075</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -49728,7 +49728,7 @@
         <v>45075</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -49785,7 +49785,7 @@
         <v>45076</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -49842,7 +49842,7 @@
         <v>45076</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -49899,7 +49899,7 @@
         <v>45078</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -49956,7 +49956,7 @@
         <v>45078</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -50013,7 +50013,7 @@
         <v>45078</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -50070,7 +50070,7 @@
         <v>45078</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -50127,7 +50127,7 @@
         <v>45078</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -50184,7 +50184,7 @@
         <v>45078</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -50241,7 +50241,7 @@
         <v>45078</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -50298,7 +50298,7 @@
         <v>45081</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -50360,7 +50360,7 @@
         <v>45082</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -50417,7 +50417,7 @@
         <v>45096</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -50474,7 +50474,7 @@
         <v>45099</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -50531,7 +50531,7 @@
         <v>45104</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -50588,7 +50588,7 @@
         <v>45105</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -50645,7 +50645,7 @@
         <v>45105</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -50702,7 +50702,7 @@
         <v>45106</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -50759,7 +50759,7 @@
         <v>45106</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -50816,7 +50816,7 @@
         <v>45108</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -50873,7 +50873,7 @@
         <v>45110</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -50930,7 +50930,7 @@
         <v>45113</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -50987,7 +50987,7 @@
         <v>45113</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -51044,7 +51044,7 @@
         <v>45119</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -51101,7 +51101,7 @@
         <v>45120</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -51158,7 +51158,7 @@
         <v>45120</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -51215,7 +51215,7 @@
         <v>45121</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -51272,7 +51272,7 @@
         <v>45121</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -51329,7 +51329,7 @@
         <v>45121</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -51386,7 +51386,7 @@
         <v>45121</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -51443,7 +51443,7 @@
         <v>45138</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -51500,7 +51500,7 @@
         <v>45138</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -51557,7 +51557,7 @@
         <v>45145</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -51614,7 +51614,7 @@
         <v>45145</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -51671,7 +51671,7 @@
         <v>45145</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -51728,7 +51728,7 @@
         <v>45145</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -51785,7 +51785,7 @@
         <v>45148</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -51842,7 +51842,7 @@
         <v>45149</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -51899,7 +51899,7 @@
         <v>45149</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -51956,7 +51956,7 @@
         <v>45152</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -52013,7 +52013,7 @@
         <v>45154</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -52070,7 +52070,7 @@
         <v>45155</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -52132,7 +52132,7 @@
         <v>45155</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -52189,7 +52189,7 @@
         <v>45159</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -52246,7 +52246,7 @@
         <v>45159</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -52303,7 +52303,7 @@
         <v>45161</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -52360,7 +52360,7 @@
         <v>45161</v>
       </c>
       <c r="C884" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -52417,7 +52417,7 @@
         <v>45162</v>
       </c>
       <c r="C885" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -52474,7 +52474,7 @@
         <v>45163</v>
       </c>
       <c r="C886" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -52531,7 +52531,7 @@
         <v>45166</v>
       </c>
       <c r="C887" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -52588,7 +52588,7 @@
         <v>45168</v>
       </c>
       <c r="C888" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>

--- a/Översikt ÅRJÄNG.xlsx
+++ b/Översikt ÅRJÄNG.xlsx
@@ -572,7 +572,7 @@
         <v>43607</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -689,7 +689,7 @@
         <v>44824</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -785,7 +785,7 @@
         <v>44649</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -878,7 +878,7 @@
         <v>44585</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -974,7 +974,7 @@
         <v>44970</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1066,7 +1066,7 @@
         <v>45084</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1162,7 +1162,7 @@
         <v>44964</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1253,7 +1253,7 @@
         <v>44873</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1347,7 +1347,7 @@
         <v>45106</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1437,7 +1437,7 @@
         <v>43621</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1530,7 +1530,7 @@
         <v>43880</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1623,7 +1623,7 @@
         <v>44140</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1712,7 +1712,7 @@
         <v>43852</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1804,7 +1804,7 @@
         <v>44375</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1892,7 +1892,7 @@
         <v>44678</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1980,7 +1980,7 @@
         <v>45051</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2068,7 +2068,7 @@
         <v>43922</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2159,7 +2159,7 @@
         <v>44377</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2250,7 +2250,7 @@
         <v>43852</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2336,7 +2336,7 @@
         <v>43880</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2426,7 +2426,7 @@
         <v>44515</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2516,7 +2516,7 @@
         <v>44872</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2606,7 +2606,7 @@
         <v>44935</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2692,7 +2692,7 @@
         <v>45001</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2778,7 +2778,7 @@
         <v>43621</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2867,7 +2867,7 @@
         <v>43696</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2952,7 +2952,7 @@
         <v>43725</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3037,7 +3037,7 @@
         <v>43731</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3122,7 +3122,7 @@
         <v>43734</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3207,7 +3207,7 @@
         <v>43763</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3292,7 +3292,7 @@
         <v>43839</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3377,7 +3377,7 @@
         <v>44050</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3462,7 +3462,7 @@
         <v>44061</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         <v>44217</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3632,7 +3632,7 @@
         <v>44285</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3717,7 +3717,7 @@
         <v>44356</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3802,7 +3802,7 @@
         <v>44379</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3887,7 +3887,7 @@
         <v>44846</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3976,7 +3976,7 @@
         <v>44873</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4061,7 +4061,7 @@
         <v>45111</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4146,7 +4146,7 @@
         <v>43326</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4203,7 +4203,7 @@
         <v>43335</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4260,7 +4260,7 @@
         <v>43335</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4317,7 +4317,7 @@
         <v>43335</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4374,7 +4374,7 @@
         <v>43339</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4431,7 +4431,7 @@
         <v>43346</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4488,7 +4488,7 @@
         <v>43346</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4545,7 +4545,7 @@
         <v>43347</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4602,7 +4602,7 @@
         <v>43349</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4659,7 +4659,7 @@
         <v>43353</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4716,7 +4716,7 @@
         <v>43353</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4773,7 +4773,7 @@
         <v>43353</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4830,7 +4830,7 @@
         <v>43353</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4887,7 +4887,7 @@
         <v>43353</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4944,7 +4944,7 @@
         <v>43354</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5001,7 +5001,7 @@
         <v>43354</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5058,7 +5058,7 @@
         <v>43355</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5115,7 +5115,7 @@
         <v>43367</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5172,7 +5172,7 @@
         <v>43369</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5229,7 +5229,7 @@
         <v>43381</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5286,7 +5286,7 @@
         <v>43381</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5343,7 +5343,7 @@
         <v>43390</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5400,7 +5400,7 @@
         <v>43395</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5457,7 +5457,7 @@
         <v>43395</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5514,7 +5514,7 @@
         <v>43399</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5571,7 +5571,7 @@
         <v>43399</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5628,7 +5628,7 @@
         <v>43401</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5685,7 +5685,7 @@
         <v>43403</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5742,7 +5742,7 @@
         <v>43403</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5799,7 +5799,7 @@
         <v>43403</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5856,7 +5856,7 @@
         <v>43403</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5913,7 +5913,7 @@
         <v>43403</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5970,7 +5970,7 @@
         <v>43403</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6027,7 +6027,7 @@
         <v>43403</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6084,7 +6084,7 @@
         <v>43403</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6141,7 +6141,7 @@
         <v>43403</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6198,7 +6198,7 @@
         <v>43406</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6255,7 +6255,7 @@
         <v>43408</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6312,7 +6312,7 @@
         <v>43409</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6369,7 +6369,7 @@
         <v>43419</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6426,7 +6426,7 @@
         <v>43420</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6483,7 +6483,7 @@
         <v>43420</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6540,7 +6540,7 @@
         <v>43430</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6597,7 +6597,7 @@
         <v>43430</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6654,7 +6654,7 @@
         <v>43431</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6711,7 +6711,7 @@
         <v>43432</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6768,7 +6768,7 @@
         <v>43432</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6825,7 +6825,7 @@
         <v>43432</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6882,7 +6882,7 @@
         <v>43432</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6939,7 +6939,7 @@
         <v>43433</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6996,7 +6996,7 @@
         <v>43437</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7053,7 +7053,7 @@
         <v>43437</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7110,7 +7110,7 @@
         <v>43438</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7167,7 +7167,7 @@
         <v>43440</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7224,7 +7224,7 @@
         <v>43441</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7281,7 +7281,7 @@
         <v>43447</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7338,7 +7338,7 @@
         <v>43448</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7395,7 +7395,7 @@
         <v>43451</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7452,7 +7452,7 @@
         <v>43452</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7509,7 +7509,7 @@
         <v>43452</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7566,7 +7566,7 @@
         <v>43453</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7623,7 +7623,7 @@
         <v>43454</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7680,7 +7680,7 @@
         <v>43454</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7737,7 +7737,7 @@
         <v>43455</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7794,7 +7794,7 @@
         <v>43460</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7851,7 +7851,7 @@
         <v>43467</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7908,7 +7908,7 @@
         <v>43467</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7965,7 +7965,7 @@
         <v>43467</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8022,7 +8022,7 @@
         <v>43474</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8079,7 +8079,7 @@
         <v>43474</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8136,7 +8136,7 @@
         <v>43475</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8193,7 +8193,7 @@
         <v>43475</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8250,7 +8250,7 @@
         <v>43476</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8307,7 +8307,7 @@
         <v>43479</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8364,7 +8364,7 @@
         <v>43479</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8421,7 +8421,7 @@
         <v>43481</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8478,7 +8478,7 @@
         <v>43486</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8535,7 +8535,7 @@
         <v>43486</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8592,7 +8592,7 @@
         <v>43487</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8649,7 +8649,7 @@
         <v>43488</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8706,7 +8706,7 @@
         <v>43488</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8763,7 +8763,7 @@
         <v>43488</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8820,7 +8820,7 @@
         <v>43490</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8877,7 +8877,7 @@
         <v>43490</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8934,7 +8934,7 @@
         <v>43494</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8991,7 +8991,7 @@
         <v>43496</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9048,7 +9048,7 @@
         <v>43500</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9105,7 +9105,7 @@
         <v>43500</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9162,7 +9162,7 @@
         <v>43502</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9219,7 +9219,7 @@
         <v>43502</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9276,7 +9276,7 @@
         <v>43504</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9333,7 +9333,7 @@
         <v>43504</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9390,7 +9390,7 @@
         <v>43507</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9447,7 +9447,7 @@
         <v>43508</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9504,7 +9504,7 @@
         <v>43508</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9561,7 +9561,7 @@
         <v>43510</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9618,7 +9618,7 @@
         <v>43511</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9675,7 +9675,7 @@
         <v>43516</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9732,7 +9732,7 @@
         <v>43523</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9789,7 +9789,7 @@
         <v>43523</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9846,7 +9846,7 @@
         <v>43523</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9903,7 +9903,7 @@
         <v>43523</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9960,7 +9960,7 @@
         <v>43524</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10017,7 +10017,7 @@
         <v>43524</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10074,7 +10074,7 @@
         <v>43525</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10131,7 +10131,7 @@
         <v>43531</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10188,7 +10188,7 @@
         <v>43532</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10250,7 +10250,7 @@
         <v>43538</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10307,7 +10307,7 @@
         <v>43539</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10364,7 +10364,7 @@
         <v>43542</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10421,7 +10421,7 @@
         <v>43542</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10478,7 +10478,7 @@
         <v>43542</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10535,7 +10535,7 @@
         <v>43542</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10592,7 +10592,7 @@
         <v>43543</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10649,7 +10649,7 @@
         <v>43543</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10706,7 +10706,7 @@
         <v>43545</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10763,7 +10763,7 @@
         <v>43549</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10820,7 +10820,7 @@
         <v>43549</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10877,7 +10877,7 @@
         <v>43551</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10934,7 +10934,7 @@
         <v>43552</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10991,7 +10991,7 @@
         <v>43555</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11048,7 +11048,7 @@
         <v>43556</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11105,7 +11105,7 @@
         <v>43558</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11162,7 +11162,7 @@
         <v>43559</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11219,7 +11219,7 @@
         <v>43560</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11276,7 +11276,7 @@
         <v>43563</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11333,7 +11333,7 @@
         <v>43563</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11390,7 +11390,7 @@
         <v>43563</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11447,7 +11447,7 @@
         <v>43567</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11504,7 +11504,7 @@
         <v>43569</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11561,7 +11561,7 @@
         <v>43570</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11618,7 +11618,7 @@
         <v>43573</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11675,7 +11675,7 @@
         <v>43573</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11732,7 +11732,7 @@
         <v>43573</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11789,7 +11789,7 @@
         <v>43580</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11846,7 +11846,7 @@
         <v>43581</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11908,7 +11908,7 @@
         <v>43581</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11970,7 +11970,7 @@
         <v>43585</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12027,7 +12027,7 @@
         <v>43585</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12084,7 +12084,7 @@
         <v>43587</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12141,7 +12141,7 @@
         <v>43594</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12198,7 +12198,7 @@
         <v>43594</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12255,7 +12255,7 @@
         <v>43594</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12312,7 +12312,7 @@
         <v>43594</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12369,7 +12369,7 @@
         <v>43594</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12426,7 +12426,7 @@
         <v>43594</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12483,7 +12483,7 @@
         <v>43598</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12540,7 +12540,7 @@
         <v>43599</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12597,7 +12597,7 @@
         <v>43606</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12654,7 +12654,7 @@
         <v>43606</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12711,7 +12711,7 @@
         <v>43606</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12768,7 +12768,7 @@
         <v>43607</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12825,7 +12825,7 @@
         <v>43608</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12882,7 +12882,7 @@
         <v>43609</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12944,7 +12944,7 @@
         <v>43614</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13001,7 +13001,7 @@
         <v>43614</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13058,7 +13058,7 @@
         <v>43621</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13115,7 +13115,7 @@
         <v>43621</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13172,7 +13172,7 @@
         <v>43628</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13229,7 +13229,7 @@
         <v>43633</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13286,7 +13286,7 @@
         <v>43636</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13343,7 +13343,7 @@
         <v>43642</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13400,7 +13400,7 @@
         <v>43646</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13462,7 +13462,7 @@
         <v>43646</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13524,7 +13524,7 @@
         <v>43647</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13581,7 +13581,7 @@
         <v>43648</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13638,7 +13638,7 @@
         <v>43649</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13695,7 +13695,7 @@
         <v>43649</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13752,7 +13752,7 @@
         <v>43649</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13809,7 +13809,7 @@
         <v>43649</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13866,7 +13866,7 @@
         <v>43650</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13923,7 +13923,7 @@
         <v>43650</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13980,7 +13980,7 @@
         <v>43652</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14037,7 +14037,7 @@
         <v>43653</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14094,7 +14094,7 @@
         <v>43654</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14151,7 +14151,7 @@
         <v>43654</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14208,7 +14208,7 @@
         <v>43655</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14265,7 +14265,7 @@
         <v>43655</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14322,7 +14322,7 @@
         <v>43675</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14379,7 +14379,7 @@
         <v>43684</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14436,7 +14436,7 @@
         <v>43684</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14493,7 +14493,7 @@
         <v>43696</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14550,7 +14550,7 @@
         <v>43697</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14607,7 +14607,7 @@
         <v>43697</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14664,7 +14664,7 @@
         <v>43698</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14721,7 +14721,7 @@
         <v>43699</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14778,7 +14778,7 @@
         <v>43699</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14835,7 +14835,7 @@
         <v>43699</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14892,7 +14892,7 @@
         <v>43700</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14949,7 +14949,7 @@
         <v>43700</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15006,7 +15006,7 @@
         <v>43703</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15063,7 +15063,7 @@
         <v>43703</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15120,7 +15120,7 @@
         <v>43703</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15177,7 +15177,7 @@
         <v>43705</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15234,7 +15234,7 @@
         <v>43705</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15291,7 +15291,7 @@
         <v>43705</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15348,7 +15348,7 @@
         <v>43705</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15405,7 +15405,7 @@
         <v>43707</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15462,7 +15462,7 @@
         <v>43707</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15524,7 +15524,7 @@
         <v>43707</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15581,7 +15581,7 @@
         <v>43710</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15638,7 +15638,7 @@
         <v>43711</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15695,7 +15695,7 @@
         <v>43718</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15757,7 +15757,7 @@
         <v>43721</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15814,7 +15814,7 @@
         <v>43721</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15871,7 +15871,7 @@
         <v>43724</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15933,7 +15933,7 @@
         <v>43727</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15990,7 +15990,7 @@
         <v>43727</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16047,7 +16047,7 @@
         <v>43727</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16104,7 +16104,7 @@
         <v>43728</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16161,7 +16161,7 @@
         <v>43730</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16218,7 +16218,7 @@
         <v>43731</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16275,7 +16275,7 @@
         <v>43732</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16332,7 +16332,7 @@
         <v>43734</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16389,7 +16389,7 @@
         <v>43740</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16446,7 +16446,7 @@
         <v>43740</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16503,7 +16503,7 @@
         <v>43741</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16560,7 +16560,7 @@
         <v>43742</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16617,7 +16617,7 @@
         <v>43748</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16674,7 +16674,7 @@
         <v>43749</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16731,7 +16731,7 @@
         <v>43759</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16793,7 +16793,7 @@
         <v>43762</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16850,7 +16850,7 @@
         <v>43762</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16907,7 +16907,7 @@
         <v>43766</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16964,7 +16964,7 @@
         <v>43768</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17026,7 +17026,7 @@
         <v>43769</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17083,7 +17083,7 @@
         <v>43770</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17140,7 +17140,7 @@
         <v>43776</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17197,7 +17197,7 @@
         <v>43782</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17254,7 +17254,7 @@
         <v>43791</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17311,7 +17311,7 @@
         <v>43802</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17368,7 +17368,7 @@
         <v>43804</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17425,7 +17425,7 @@
         <v>43815</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17482,7 +17482,7 @@
         <v>43819</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17539,7 +17539,7 @@
         <v>43819</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17596,7 +17596,7 @@
         <v>43822</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17653,7 +17653,7 @@
         <v>43822</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17710,7 +17710,7 @@
         <v>43833</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17767,7 +17767,7 @@
         <v>43843</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17824,7 +17824,7 @@
         <v>43843</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17881,7 +17881,7 @@
         <v>43843</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17938,7 +17938,7 @@
         <v>43847</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17995,7 +17995,7 @@
         <v>43847</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18052,7 +18052,7 @@
         <v>43847</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18109,7 +18109,7 @@
         <v>43847</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18166,7 +18166,7 @@
         <v>43848</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18223,7 +18223,7 @@
         <v>43852</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18280,7 +18280,7 @@
         <v>43852</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18337,7 +18337,7 @@
         <v>43852</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18394,7 +18394,7 @@
         <v>43852</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18451,7 +18451,7 @@
         <v>43852</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18508,7 +18508,7 @@
         <v>43861</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18565,7 +18565,7 @@
         <v>43861</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18622,7 +18622,7 @@
         <v>43861</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18679,7 +18679,7 @@
         <v>43861</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18736,7 +18736,7 @@
         <v>43861</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18793,7 +18793,7 @@
         <v>43861</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18850,7 +18850,7 @@
         <v>43866</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18907,7 +18907,7 @@
         <v>43868</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18964,7 +18964,7 @@
         <v>43868</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19021,7 +19021,7 @@
         <v>43872</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19078,7 +19078,7 @@
         <v>43873</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19135,7 +19135,7 @@
         <v>43874</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19192,7 +19192,7 @@
         <v>43874</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19249,7 +19249,7 @@
         <v>43878</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19306,7 +19306,7 @@
         <v>43878</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19363,7 +19363,7 @@
         <v>43878</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19420,7 +19420,7 @@
         <v>43879</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19477,7 +19477,7 @@
         <v>43879</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19534,7 +19534,7 @@
         <v>43885</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19591,7 +19591,7 @@
         <v>43885</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19648,7 +19648,7 @@
         <v>43885</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19705,7 +19705,7 @@
         <v>43886</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19762,7 +19762,7 @@
         <v>43886</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19819,7 +19819,7 @@
         <v>43886</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19876,7 +19876,7 @@
         <v>43887</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19933,7 +19933,7 @@
         <v>43888</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19990,7 +19990,7 @@
         <v>43892</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20047,7 +20047,7 @@
         <v>43892</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20104,7 +20104,7 @@
         <v>43892</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20161,7 +20161,7 @@
         <v>43893</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20218,7 +20218,7 @@
         <v>43899</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20275,7 +20275,7 @@
         <v>43899</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20332,7 +20332,7 @@
         <v>43901</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20389,7 +20389,7 @@
         <v>43901</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20446,7 +20446,7 @@
         <v>43902</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20503,7 +20503,7 @@
         <v>43902</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20560,7 +20560,7 @@
         <v>43902</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20617,7 +20617,7 @@
         <v>43903</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20674,7 +20674,7 @@
         <v>43906</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20731,7 +20731,7 @@
         <v>43906</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20788,7 +20788,7 @@
         <v>43906</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20845,7 +20845,7 @@
         <v>43906</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20902,7 +20902,7 @@
         <v>43906</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20959,7 +20959,7 @@
         <v>43906</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21016,7 +21016,7 @@
         <v>43906</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21073,7 +21073,7 @@
         <v>43907</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21130,7 +21130,7 @@
         <v>43907</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21187,7 +21187,7 @@
         <v>43910</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21244,7 +21244,7 @@
         <v>43910</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21301,7 +21301,7 @@
         <v>43915</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21358,7 +21358,7 @@
         <v>43915</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21415,7 +21415,7 @@
         <v>43915</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21472,7 +21472,7 @@
         <v>43920</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21529,7 +21529,7 @@
         <v>43921</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21586,7 +21586,7 @@
         <v>43923</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21643,7 +21643,7 @@
         <v>43924</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21700,7 +21700,7 @@
         <v>43924</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21757,7 +21757,7 @@
         <v>43932</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21814,7 +21814,7 @@
         <v>43955</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21871,7 +21871,7 @@
         <v>43963</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21928,7 +21928,7 @@
         <v>43964</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21985,7 +21985,7 @@
         <v>43965</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22042,7 +22042,7 @@
         <v>43965</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22099,7 +22099,7 @@
         <v>43969</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22156,7 +22156,7 @@
         <v>43975</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22213,7 +22213,7 @@
         <v>43978</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22270,7 +22270,7 @@
         <v>43978</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22327,7 +22327,7 @@
         <v>43985</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22384,7 +22384,7 @@
         <v>43986</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22441,7 +22441,7 @@
         <v>43987</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22498,7 +22498,7 @@
         <v>44004</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22555,7 +22555,7 @@
         <v>44004</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22612,7 +22612,7 @@
         <v>44006</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22669,7 +22669,7 @@
         <v>44006</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22726,7 +22726,7 @@
         <v>44013</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22783,7 +22783,7 @@
         <v>44013</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22840,7 +22840,7 @@
         <v>44018</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22897,7 +22897,7 @@
         <v>44019</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22959,7 +22959,7 @@
         <v>44019</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23021,7 +23021,7 @@
         <v>44036</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23078,7 +23078,7 @@
         <v>44036</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23135,7 +23135,7 @@
         <v>44036</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23192,7 +23192,7 @@
         <v>44036</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23249,7 +23249,7 @@
         <v>44036</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23306,7 +23306,7 @@
         <v>44036</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23363,7 +23363,7 @@
         <v>44036</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23420,7 +23420,7 @@
         <v>44036</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23477,7 +23477,7 @@
         <v>44036</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23534,7 +23534,7 @@
         <v>44036</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23591,7 +23591,7 @@
         <v>44040</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23653,7 +23653,7 @@
         <v>44042</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23710,7 +23710,7 @@
         <v>44047</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23767,7 +23767,7 @@
         <v>44050</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23824,7 +23824,7 @@
         <v>44054</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23881,7 +23881,7 @@
         <v>44060</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23943,7 +23943,7 @@
         <v>44061</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24000,7 +24000,7 @@
         <v>44063</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24057,7 +24057,7 @@
         <v>44069</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24114,7 +24114,7 @@
         <v>44069</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24171,7 +24171,7 @@
         <v>44070</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24228,7 +24228,7 @@
         <v>44074</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24285,7 +24285,7 @@
         <v>44074</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24342,7 +24342,7 @@
         <v>44076</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24399,7 +24399,7 @@
         <v>44081</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24456,7 +24456,7 @@
         <v>44084</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24513,7 +24513,7 @@
         <v>44084</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24570,7 +24570,7 @@
         <v>44091</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24627,7 +24627,7 @@
         <v>44091</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24684,7 +24684,7 @@
         <v>44096</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24741,7 +24741,7 @@
         <v>44097</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24798,7 +24798,7 @@
         <v>44101</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24855,7 +24855,7 @@
         <v>44102</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24912,7 +24912,7 @@
         <v>44102</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24969,7 +24969,7 @@
         <v>44103</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25026,7 +25026,7 @@
         <v>44103</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25083,7 +25083,7 @@
         <v>44105</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25140,7 +25140,7 @@
         <v>44109</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25197,7 +25197,7 @@
         <v>44110</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25254,7 +25254,7 @@
         <v>44110</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25311,7 +25311,7 @@
         <v>44113</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25368,7 +25368,7 @@
         <v>44123</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25425,7 +25425,7 @@
         <v>44134</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25482,7 +25482,7 @@
         <v>44134</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25539,7 +25539,7 @@
         <v>44138</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25596,7 +25596,7 @@
         <v>44140</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25653,7 +25653,7 @@
         <v>44140</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25710,7 +25710,7 @@
         <v>44140</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25767,7 +25767,7 @@
         <v>44140</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25824,7 +25824,7 @@
         <v>44140</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25881,7 +25881,7 @@
         <v>44145</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25938,7 +25938,7 @@
         <v>44155</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25995,7 +25995,7 @@
         <v>44159</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26052,7 +26052,7 @@
         <v>44165</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26109,7 +26109,7 @@
         <v>44168</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26166,7 +26166,7 @@
         <v>44168</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26223,7 +26223,7 @@
         <v>44168</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26280,7 +26280,7 @@
         <v>44174</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26337,7 +26337,7 @@
         <v>44174</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26399,7 +26399,7 @@
         <v>44174</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26456,7 +26456,7 @@
         <v>44174</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26513,7 +26513,7 @@
         <v>44175</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26570,7 +26570,7 @@
         <v>44175</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26627,7 +26627,7 @@
         <v>44179</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26684,7 +26684,7 @@
         <v>44186</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26741,7 +26741,7 @@
         <v>44187</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26798,7 +26798,7 @@
         <v>44187</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26855,7 +26855,7 @@
         <v>44194</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26912,7 +26912,7 @@
         <v>44195</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26969,7 +26969,7 @@
         <v>44195</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27026,7 +27026,7 @@
         <v>44201</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27083,7 +27083,7 @@
         <v>44201</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27140,7 +27140,7 @@
         <v>44207</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27197,7 +27197,7 @@
         <v>44214</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27254,7 +27254,7 @@
         <v>44215</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27311,7 +27311,7 @@
         <v>44217</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27368,7 +27368,7 @@
         <v>44217</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27425,7 +27425,7 @@
         <v>44221</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27482,7 +27482,7 @@
         <v>44223</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27539,7 +27539,7 @@
         <v>44224</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27596,7 +27596,7 @@
         <v>44229</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27653,7 +27653,7 @@
         <v>44230</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27710,7 +27710,7 @@
         <v>44235</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27767,7 +27767,7 @@
         <v>44235</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27824,7 +27824,7 @@
         <v>44236</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27881,7 +27881,7 @@
         <v>44236</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27938,7 +27938,7 @@
         <v>44237</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27995,7 +27995,7 @@
         <v>44237</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28052,7 +28052,7 @@
         <v>44238</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28109,7 +28109,7 @@
         <v>44239</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28166,7 +28166,7 @@
         <v>44239</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28223,7 +28223,7 @@
         <v>44239</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28280,7 +28280,7 @@
         <v>44240</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28337,7 +28337,7 @@
         <v>44242</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28394,7 +28394,7 @@
         <v>44242</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28451,7 +28451,7 @@
         <v>44246</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28513,7 +28513,7 @@
         <v>44246</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28575,7 +28575,7 @@
         <v>44248</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28632,7 +28632,7 @@
         <v>44251</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28689,7 +28689,7 @@
         <v>44251</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28746,7 +28746,7 @@
         <v>44258</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28803,7 +28803,7 @@
         <v>44258</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28860,7 +28860,7 @@
         <v>44258</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28917,7 +28917,7 @@
         <v>44261</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28974,7 +28974,7 @@
         <v>44265</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29031,7 +29031,7 @@
         <v>44266</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29088,7 +29088,7 @@
         <v>44271</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29145,7 +29145,7 @@
         <v>44272</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29207,7 +29207,7 @@
         <v>44282</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29269,7 +29269,7 @@
         <v>44292</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29326,7 +29326,7 @@
         <v>44301</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29383,7 +29383,7 @@
         <v>44306</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29440,7 +29440,7 @@
         <v>44308</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29497,7 +29497,7 @@
         <v>44309</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29554,7 +29554,7 @@
         <v>44311</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29611,7 +29611,7 @@
         <v>44322</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29668,7 +29668,7 @@
         <v>44323</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29725,7 +29725,7 @@
         <v>44329</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29782,7 +29782,7 @@
         <v>44333</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29839,7 +29839,7 @@
         <v>44347</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29896,7 +29896,7 @@
         <v>44347</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29953,7 +29953,7 @@
         <v>44354</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30010,7 +30010,7 @@
         <v>44354</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30067,7 +30067,7 @@
         <v>44354</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30124,7 +30124,7 @@
         <v>44362</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30181,7 +30181,7 @@
         <v>44362</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30238,7 +30238,7 @@
         <v>44365</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30295,7 +30295,7 @@
         <v>44365</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30352,7 +30352,7 @@
         <v>44375</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30409,7 +30409,7 @@
         <v>44376</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30466,7 +30466,7 @@
         <v>44376</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30523,7 +30523,7 @@
         <v>44378</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30585,7 +30585,7 @@
         <v>44380</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30642,7 +30642,7 @@
         <v>44383</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30699,7 +30699,7 @@
         <v>44383</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30756,7 +30756,7 @@
         <v>44384</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30813,7 +30813,7 @@
         <v>44384</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30870,7 +30870,7 @@
         <v>44385</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30927,7 +30927,7 @@
         <v>44389</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30984,7 +30984,7 @@
         <v>44391</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31041,7 +31041,7 @@
         <v>44392</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31098,7 +31098,7 @@
         <v>44396</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31155,7 +31155,7 @@
         <v>44412</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31212,7 +31212,7 @@
         <v>44417</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31274,7 +31274,7 @@
         <v>44421</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31331,7 +31331,7 @@
         <v>44421</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31388,7 +31388,7 @@
         <v>44424</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31445,7 +31445,7 @@
         <v>44428</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31502,7 +31502,7 @@
         <v>44431</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31559,7 +31559,7 @@
         <v>44431</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31616,7 +31616,7 @@
         <v>44433</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31673,7 +31673,7 @@
         <v>44441</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31730,7 +31730,7 @@
         <v>44442</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31787,7 +31787,7 @@
         <v>44442</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31844,7 +31844,7 @@
         <v>44445</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31901,7 +31901,7 @@
         <v>44446</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31958,7 +31958,7 @@
         <v>44446</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32015,7 +32015,7 @@
         <v>44446</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32072,7 +32072,7 @@
         <v>44446</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32129,7 +32129,7 @@
         <v>44446</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32186,7 +32186,7 @@
         <v>44446</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32243,7 +32243,7 @@
         <v>44446</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32300,7 +32300,7 @@
         <v>44446</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32357,7 +32357,7 @@
         <v>44446</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32414,7 +32414,7 @@
         <v>44446</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32471,7 +32471,7 @@
         <v>44446</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32528,7 +32528,7 @@
         <v>44446</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32585,7 +32585,7 @@
         <v>44446</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32642,7 +32642,7 @@
         <v>44446</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32699,7 +32699,7 @@
         <v>44446</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32756,7 +32756,7 @@
         <v>44446</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32813,7 +32813,7 @@
         <v>44446</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32870,7 +32870,7 @@
         <v>44446</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32927,7 +32927,7 @@
         <v>44447</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32984,7 +32984,7 @@
         <v>44448</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33041,7 +33041,7 @@
         <v>44452</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33098,7 +33098,7 @@
         <v>44455</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33155,7 +33155,7 @@
         <v>44457</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33212,7 +33212,7 @@
         <v>44457</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33269,7 +33269,7 @@
         <v>44459</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33326,7 +33326,7 @@
         <v>44459</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33383,7 +33383,7 @@
         <v>44459</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33440,7 +33440,7 @@
         <v>44459</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33497,7 +33497,7 @@
         <v>44459</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33554,7 +33554,7 @@
         <v>44463</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33616,7 +33616,7 @@
         <v>44467</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33673,7 +33673,7 @@
         <v>44468</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33730,7 +33730,7 @@
         <v>44469</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33787,7 +33787,7 @@
         <v>44469</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33844,7 +33844,7 @@
         <v>44469</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33901,7 +33901,7 @@
         <v>44469</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33958,7 +33958,7 @@
         <v>44469</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34015,7 +34015,7 @@
         <v>44476</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34072,7 +34072,7 @@
         <v>44480</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34129,7 +34129,7 @@
         <v>44481</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34186,7 +34186,7 @@
         <v>44482</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34243,7 +34243,7 @@
         <v>44490</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34300,7 +34300,7 @@
         <v>44491</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34357,7 +34357,7 @@
         <v>44491</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34414,7 +34414,7 @@
         <v>44491</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34471,7 +34471,7 @@
         <v>44495</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34528,7 +34528,7 @@
         <v>44496</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34585,7 +34585,7 @@
         <v>44496</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34642,7 +34642,7 @@
         <v>44496</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34699,7 +34699,7 @@
         <v>44496</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34756,7 +34756,7 @@
         <v>44496</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34813,7 +34813,7 @@
         <v>44497</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34870,7 +34870,7 @@
         <v>44497</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34927,7 +34927,7 @@
         <v>44497</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34984,7 +34984,7 @@
         <v>44497</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35041,7 +35041,7 @@
         <v>44498</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35103,7 +35103,7 @@
         <v>44498</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35160,7 +35160,7 @@
         <v>44498</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35217,7 +35217,7 @@
         <v>44502</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35274,7 +35274,7 @@
         <v>44504</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35331,7 +35331,7 @@
         <v>44509</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35388,7 +35388,7 @@
         <v>44509</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35445,7 +35445,7 @@
         <v>44509</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35502,7 +35502,7 @@
         <v>44510</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35559,7 +35559,7 @@
         <v>44512</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35616,7 +35616,7 @@
         <v>44517</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35673,7 +35673,7 @@
         <v>44517</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35730,7 +35730,7 @@
         <v>44519</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35787,7 +35787,7 @@
         <v>44522</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35844,7 +35844,7 @@
         <v>44522</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35901,7 +35901,7 @@
         <v>44531</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35958,7 +35958,7 @@
         <v>44532</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36015,7 +36015,7 @@
         <v>44532</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36072,7 +36072,7 @@
         <v>44536</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36129,7 +36129,7 @@
         <v>44537</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36186,7 +36186,7 @@
         <v>44539</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36243,7 +36243,7 @@
         <v>44539</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36300,7 +36300,7 @@
         <v>44540</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36362,7 +36362,7 @@
         <v>44540</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36419,7 +36419,7 @@
         <v>44543</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36476,7 +36476,7 @@
         <v>44543</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36533,7 +36533,7 @@
         <v>44543</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36590,7 +36590,7 @@
         <v>44543</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36647,7 +36647,7 @@
         <v>44546</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36704,7 +36704,7 @@
         <v>44550</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36761,7 +36761,7 @@
         <v>44550</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36818,7 +36818,7 @@
         <v>44552</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36875,7 +36875,7 @@
         <v>44552</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36932,7 +36932,7 @@
         <v>44552</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36989,7 +36989,7 @@
         <v>44552</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37046,7 +37046,7 @@
         <v>44553</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37103,7 +37103,7 @@
         <v>44553</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37160,7 +37160,7 @@
         <v>44558</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37217,7 +37217,7 @@
         <v>44561</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -37274,7 +37274,7 @@
         <v>44564</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37331,7 +37331,7 @@
         <v>44566</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -37388,7 +37388,7 @@
         <v>44568</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -37445,7 +37445,7 @@
         <v>44571</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -37502,7 +37502,7 @@
         <v>44571</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -37559,7 +37559,7 @@
         <v>44573</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -37616,7 +37616,7 @@
         <v>44573</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37673,7 +37673,7 @@
         <v>44573</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37730,7 +37730,7 @@
         <v>44578</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -37787,7 +37787,7 @@
         <v>44585</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -37844,7 +37844,7 @@
         <v>44586</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -37901,7 +37901,7 @@
         <v>44587</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -37958,7 +37958,7 @@
         <v>44588</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38015,7 +38015,7 @@
         <v>44589</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38072,7 +38072,7 @@
         <v>44593</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38129,7 +38129,7 @@
         <v>44593</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38186,7 +38186,7 @@
         <v>44595</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38243,7 +38243,7 @@
         <v>44596</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38305,7 +38305,7 @@
         <v>44601</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -38362,7 +38362,7 @@
         <v>44603</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -38419,7 +38419,7 @@
         <v>44606</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -38476,7 +38476,7 @@
         <v>44607</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -38533,7 +38533,7 @@
         <v>44609</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -38590,7 +38590,7 @@
         <v>44610</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -38647,7 +38647,7 @@
         <v>44612</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -38704,7 +38704,7 @@
         <v>44616</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -38761,7 +38761,7 @@
         <v>44617</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -38818,7 +38818,7 @@
         <v>44621</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -38875,7 +38875,7 @@
         <v>44624</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -38932,7 +38932,7 @@
         <v>44627</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -38989,7 +38989,7 @@
         <v>44627</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -39046,7 +39046,7 @@
         <v>44628</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -39103,7 +39103,7 @@
         <v>44628</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -39160,7 +39160,7 @@
         <v>44628</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -39217,7 +39217,7 @@
         <v>44631</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -39279,7 +39279,7 @@
         <v>44631</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -39341,7 +39341,7 @@
         <v>44631</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -39398,7 +39398,7 @@
         <v>44631</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -39455,7 +39455,7 @@
         <v>44635</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -39512,7 +39512,7 @@
         <v>44635</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -39569,7 +39569,7 @@
         <v>44636</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -39626,7 +39626,7 @@
         <v>44643</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -39683,7 +39683,7 @@
         <v>44643</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -39740,7 +39740,7 @@
         <v>44643</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -39797,7 +39797,7 @@
         <v>44643</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -39854,7 +39854,7 @@
         <v>44643</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -39911,7 +39911,7 @@
         <v>44643</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -39968,7 +39968,7 @@
         <v>44650</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -40025,7 +40025,7 @@
         <v>44652</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -40082,7 +40082,7 @@
         <v>44655</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -40139,7 +40139,7 @@
         <v>44655</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -40196,7 +40196,7 @@
         <v>44659</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -40253,7 +40253,7 @@
         <v>44671</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -40310,7 +40310,7 @@
         <v>44671</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -40367,7 +40367,7 @@
         <v>44671</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -40424,7 +40424,7 @@
         <v>44672</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -40481,7 +40481,7 @@
         <v>44672</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -40538,7 +40538,7 @@
         <v>44677</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -40595,7 +40595,7 @@
         <v>44684</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -40652,7 +40652,7 @@
         <v>44685</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -40709,7 +40709,7 @@
         <v>44686</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -40766,7 +40766,7 @@
         <v>44687</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -40823,7 +40823,7 @@
         <v>44690</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -40880,7 +40880,7 @@
         <v>44691</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -40937,7 +40937,7 @@
         <v>44694</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -40994,7 +40994,7 @@
         <v>44697</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -41051,7 +41051,7 @@
         <v>44697</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -41108,7 +41108,7 @@
         <v>44704</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -41165,7 +41165,7 @@
         <v>44705</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -41222,7 +41222,7 @@
         <v>44705</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -41279,7 +41279,7 @@
         <v>44711</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -41336,7 +41336,7 @@
         <v>44712</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -41393,7 +41393,7 @@
         <v>44726</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -41450,7 +41450,7 @@
         <v>44728</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -41507,7 +41507,7 @@
         <v>44728</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -41564,7 +41564,7 @@
         <v>44733</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -41626,7 +41626,7 @@
         <v>44747</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -41688,7 +41688,7 @@
         <v>44747</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -41750,7 +41750,7 @@
         <v>44747</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -41812,7 +41812,7 @@
         <v>44747</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -41869,7 +41869,7 @@
         <v>44750</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -41926,7 +41926,7 @@
         <v>44750</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -41983,7 +41983,7 @@
         <v>44761</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -42040,7 +42040,7 @@
         <v>44761</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -42097,7 +42097,7 @@
         <v>44761</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -42154,7 +42154,7 @@
         <v>44790</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -42211,7 +42211,7 @@
         <v>44796</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -42268,7 +42268,7 @@
         <v>44799</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -42325,7 +42325,7 @@
         <v>44804</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -42382,7 +42382,7 @@
         <v>44804</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -42439,7 +42439,7 @@
         <v>44806</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -42496,7 +42496,7 @@
         <v>44806</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -42553,7 +42553,7 @@
         <v>44812</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -42610,7 +42610,7 @@
         <v>44816</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -42667,7 +42667,7 @@
         <v>44818</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -42724,7 +42724,7 @@
         <v>44818</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -42781,7 +42781,7 @@
         <v>44824</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -42838,7 +42838,7 @@
         <v>44825</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -42895,7 +42895,7 @@
         <v>44825</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -42952,7 +42952,7 @@
         <v>44830</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -43009,7 +43009,7 @@
         <v>44832</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -43066,7 +43066,7 @@
         <v>44832</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -43123,7 +43123,7 @@
         <v>44839</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -43180,7 +43180,7 @@
         <v>44839</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -43237,7 +43237,7 @@
         <v>44839</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -43294,7 +43294,7 @@
         <v>44844</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -43351,7 +43351,7 @@
         <v>44847</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -43413,7 +43413,7 @@
         <v>44853</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -43470,7 +43470,7 @@
         <v>44853</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -43527,7 +43527,7 @@
         <v>44854</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -43584,7 +43584,7 @@
         <v>44858</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -43641,7 +43641,7 @@
         <v>44859</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -43698,7 +43698,7 @@
         <v>44865</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -43760,7 +43760,7 @@
         <v>44868</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -43817,7 +43817,7 @@
         <v>44868</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -43874,7 +43874,7 @@
         <v>44872</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -43931,7 +43931,7 @@
         <v>44873</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -43988,7 +43988,7 @@
         <v>44876</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -44045,7 +44045,7 @@
         <v>44879</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -44102,7 +44102,7 @@
         <v>44883</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -44159,7 +44159,7 @@
         <v>44886</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -44216,7 +44216,7 @@
         <v>44888</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -44273,7 +44273,7 @@
         <v>44893</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -44335,7 +44335,7 @@
         <v>44893</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -44392,7 +44392,7 @@
         <v>44901</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -44449,7 +44449,7 @@
         <v>44904</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -44506,7 +44506,7 @@
         <v>44904</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -44563,7 +44563,7 @@
         <v>44907</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -44620,7 +44620,7 @@
         <v>44907</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -44677,7 +44677,7 @@
         <v>44911</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -44739,7 +44739,7 @@
         <v>44914</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -44796,7 +44796,7 @@
         <v>44915</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -44853,7 +44853,7 @@
         <v>44916</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -44910,7 +44910,7 @@
         <v>44922</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -44967,7 +44967,7 @@
         <v>44924</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -45024,7 +45024,7 @@
         <v>44928</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -45081,7 +45081,7 @@
         <v>44928</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -45138,7 +45138,7 @@
         <v>44928</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -45195,7 +45195,7 @@
         <v>44935</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -45252,7 +45252,7 @@
         <v>44935</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -45309,7 +45309,7 @@
         <v>44935</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -45366,7 +45366,7 @@
         <v>44935</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -45423,7 +45423,7 @@
         <v>44938</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -45480,7 +45480,7 @@
         <v>44948</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -45537,7 +45537,7 @@
         <v>44949</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -45594,7 +45594,7 @@
         <v>44953</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -45651,7 +45651,7 @@
         <v>44953</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -45708,7 +45708,7 @@
         <v>44953</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -45765,7 +45765,7 @@
         <v>44953</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -45822,7 +45822,7 @@
         <v>44957</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -45879,7 +45879,7 @@
         <v>44963</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -45936,7 +45936,7 @@
         <v>44963</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -45993,7 +45993,7 @@
         <v>44966</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -46050,7 +46050,7 @@
         <v>44967</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -46107,7 +46107,7 @@
         <v>44967</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -46169,7 +46169,7 @@
         <v>44967</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -46231,7 +46231,7 @@
         <v>44968</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -46293,7 +46293,7 @@
         <v>44972</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -46350,7 +46350,7 @@
         <v>44972</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -46407,7 +46407,7 @@
         <v>44973</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -46464,7 +46464,7 @@
         <v>44974</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -46521,7 +46521,7 @@
         <v>44977</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -46578,7 +46578,7 @@
         <v>44978</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -46635,7 +46635,7 @@
         <v>44979</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -46692,7 +46692,7 @@
         <v>44980</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -46749,7 +46749,7 @@
         <v>44984</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -46806,7 +46806,7 @@
         <v>44984</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -46863,7 +46863,7 @@
         <v>44986</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -46920,7 +46920,7 @@
         <v>44986</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -46977,7 +46977,7 @@
         <v>44986</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -47034,7 +47034,7 @@
         <v>44987</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -47091,7 +47091,7 @@
         <v>44991</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -47148,7 +47148,7 @@
         <v>44992</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -47210,7 +47210,7 @@
         <v>44993</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -47267,7 +47267,7 @@
         <v>44995</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -47324,7 +47324,7 @@
         <v>44998</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -47381,7 +47381,7 @@
         <v>45002</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -47438,7 +47438,7 @@
         <v>45002</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -47500,7 +47500,7 @@
         <v>45006</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -47557,7 +47557,7 @@
         <v>45012</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -47614,7 +47614,7 @@
         <v>45015</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -47671,7 +47671,7 @@
         <v>45019</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -47728,7 +47728,7 @@
         <v>45020</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -47785,7 +47785,7 @@
         <v>45020</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -47842,7 +47842,7 @@
         <v>45020</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -47899,7 +47899,7 @@
         <v>45021</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -47956,7 +47956,7 @@
         <v>45030</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -48013,7 +48013,7 @@
         <v>45030</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -48075,7 +48075,7 @@
         <v>45034</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -48132,7 +48132,7 @@
         <v>45036</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -48189,7 +48189,7 @@
         <v>45039</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -48246,7 +48246,7 @@
         <v>45041</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -48303,7 +48303,7 @@
         <v>45047</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -48360,7 +48360,7 @@
         <v>45049</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -48417,7 +48417,7 @@
         <v>45051</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -48474,7 +48474,7 @@
         <v>45051</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -48531,7 +48531,7 @@
         <v>45051</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -48588,7 +48588,7 @@
         <v>45051</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -48645,7 +48645,7 @@
         <v>45051</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -48702,7 +48702,7 @@
         <v>45051</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -48759,7 +48759,7 @@
         <v>45052</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -48816,7 +48816,7 @@
         <v>45056</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -48873,7 +48873,7 @@
         <v>45056</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -48930,7 +48930,7 @@
         <v>45057</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -48987,7 +48987,7 @@
         <v>45058</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -49044,7 +49044,7 @@
         <v>45061</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -49101,7 +49101,7 @@
         <v>45061</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -49158,7 +49158,7 @@
         <v>45062</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -49215,7 +49215,7 @@
         <v>45062</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -49272,7 +49272,7 @@
         <v>45062</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -49329,7 +49329,7 @@
         <v>45070</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -49386,7 +49386,7 @@
         <v>45070</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -49443,7 +49443,7 @@
         <v>45072</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -49500,7 +49500,7 @@
         <v>45075</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -49557,7 +49557,7 @@
         <v>45075</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -49614,7 +49614,7 @@
         <v>45075</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -49671,7 +49671,7 @@
         <v>45075</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -49728,7 +49728,7 @@
         <v>45075</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -49785,7 +49785,7 @@
         <v>45076</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -49842,7 +49842,7 @@
         <v>45076</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -49899,7 +49899,7 @@
         <v>45078</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -49956,7 +49956,7 @@
         <v>45078</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -50013,7 +50013,7 @@
         <v>45078</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -50070,7 +50070,7 @@
         <v>45078</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -50127,7 +50127,7 @@
         <v>45078</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -50184,7 +50184,7 @@
         <v>45078</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -50241,7 +50241,7 @@
         <v>45078</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -50298,7 +50298,7 @@
         <v>45081</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -50360,7 +50360,7 @@
         <v>45082</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -50417,7 +50417,7 @@
         <v>45096</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -50474,7 +50474,7 @@
         <v>45099</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -50531,7 +50531,7 @@
         <v>45104</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -50588,7 +50588,7 @@
         <v>45105</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -50645,7 +50645,7 @@
         <v>45105</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -50702,7 +50702,7 @@
         <v>45106</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -50759,7 +50759,7 @@
         <v>45106</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -50816,7 +50816,7 @@
         <v>45108</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -50873,7 +50873,7 @@
         <v>45110</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -50930,7 +50930,7 @@
         <v>45113</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -50987,7 +50987,7 @@
         <v>45113</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -51044,7 +51044,7 @@
         <v>45119</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -51101,7 +51101,7 @@
         <v>45120</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -51158,7 +51158,7 @@
         <v>45120</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -51215,7 +51215,7 @@
         <v>45121</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -51272,7 +51272,7 @@
         <v>45121</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -51329,7 +51329,7 @@
         <v>45121</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -51386,7 +51386,7 @@
         <v>45121</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -51443,7 +51443,7 @@
         <v>45138</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -51500,7 +51500,7 @@
         <v>45138</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -51557,7 +51557,7 @@
         <v>45145</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -51614,7 +51614,7 @@
         <v>45145</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -51671,7 +51671,7 @@
         <v>45145</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -51728,7 +51728,7 @@
         <v>45145</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -51785,7 +51785,7 @@
         <v>45148</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -51842,7 +51842,7 @@
         <v>45149</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -51899,7 +51899,7 @@
         <v>45149</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -51956,7 +51956,7 @@
         <v>45152</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -52013,7 +52013,7 @@
         <v>45154</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -52070,7 +52070,7 @@
         <v>45155</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -52132,7 +52132,7 @@
         <v>45155</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -52189,7 +52189,7 @@
         <v>45159</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -52246,7 +52246,7 @@
         <v>45159</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -52303,7 +52303,7 @@
         <v>45161</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -52360,7 +52360,7 @@
         <v>45161</v>
       </c>
       <c r="C884" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -52417,7 +52417,7 @@
         <v>45162</v>
       </c>
       <c r="C885" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -52474,7 +52474,7 @@
         <v>45163</v>
       </c>
       <c r="C886" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -52531,7 +52531,7 @@
         <v>45166</v>
       </c>
       <c r="C887" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -52588,7 +52588,7 @@
         <v>45168</v>
       </c>
       <c r="C888" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>

--- a/Översikt ÅRJÄNG.xlsx
+++ b/Översikt ÅRJÄNG.xlsx
@@ -572,7 +572,7 @@
         <v>43607</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -689,7 +689,7 @@
         <v>44824</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -785,7 +785,7 @@
         <v>44649</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -878,7 +878,7 @@
         <v>44585</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -974,7 +974,7 @@
         <v>44970</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1066,7 +1066,7 @@
         <v>45084</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1162,7 +1162,7 @@
         <v>44964</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1253,7 +1253,7 @@
         <v>44873</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1347,7 +1347,7 @@
         <v>45106</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1437,7 +1437,7 @@
         <v>43621</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1530,7 +1530,7 @@
         <v>43880</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1623,7 +1623,7 @@
         <v>44140</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1712,7 +1712,7 @@
         <v>43852</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1804,7 +1804,7 @@
         <v>44375</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1892,7 +1892,7 @@
         <v>44678</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1980,7 +1980,7 @@
         <v>45051</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2068,7 +2068,7 @@
         <v>43922</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2159,7 +2159,7 @@
         <v>44377</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2250,7 +2250,7 @@
         <v>43852</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2336,7 +2336,7 @@
         <v>43880</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2426,7 +2426,7 @@
         <v>44515</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2516,7 +2516,7 @@
         <v>44872</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2606,7 +2606,7 @@
         <v>44935</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2692,7 +2692,7 @@
         <v>45001</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2778,7 +2778,7 @@
         <v>43621</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2867,7 +2867,7 @@
         <v>43696</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2952,7 +2952,7 @@
         <v>43725</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3037,7 +3037,7 @@
         <v>43731</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3122,7 +3122,7 @@
         <v>43734</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3207,7 +3207,7 @@
         <v>43763</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3292,7 +3292,7 @@
         <v>43839</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3377,7 +3377,7 @@
         <v>44050</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3462,7 +3462,7 @@
         <v>44061</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         <v>44217</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3632,7 +3632,7 @@
         <v>44285</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3717,7 +3717,7 @@
         <v>44356</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3802,7 +3802,7 @@
         <v>44379</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3887,7 +3887,7 @@
         <v>44846</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3976,7 +3976,7 @@
         <v>44873</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4061,7 +4061,7 @@
         <v>45111</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4146,7 +4146,7 @@
         <v>43326</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4203,7 +4203,7 @@
         <v>43335</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4260,7 +4260,7 @@
         <v>43335</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4317,7 +4317,7 @@
         <v>43335</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4374,7 +4374,7 @@
         <v>43339</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4431,7 +4431,7 @@
         <v>43346</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4488,7 +4488,7 @@
         <v>43346</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4545,7 +4545,7 @@
         <v>43347</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4602,7 +4602,7 @@
         <v>43349</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4659,7 +4659,7 @@
         <v>43353</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4716,7 +4716,7 @@
         <v>43353</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4773,7 +4773,7 @@
         <v>43353</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4830,7 +4830,7 @@
         <v>43353</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4887,7 +4887,7 @@
         <v>43353</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4944,7 +4944,7 @@
         <v>43354</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5001,7 +5001,7 @@
         <v>43354</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5058,7 +5058,7 @@
         <v>43355</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5115,7 +5115,7 @@
         <v>43367</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5172,7 +5172,7 @@
         <v>43369</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5229,7 +5229,7 @@
         <v>43381</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5286,7 +5286,7 @@
         <v>43381</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5343,7 +5343,7 @@
         <v>43390</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5400,7 +5400,7 @@
         <v>43395</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5457,7 +5457,7 @@
         <v>43395</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5514,7 +5514,7 @@
         <v>43399</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5571,7 +5571,7 @@
         <v>43399</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5628,7 +5628,7 @@
         <v>43401</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5685,7 +5685,7 @@
         <v>43403</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5742,7 +5742,7 @@
         <v>43403</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5799,7 +5799,7 @@
         <v>43403</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5856,7 +5856,7 @@
         <v>43403</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5913,7 +5913,7 @@
         <v>43403</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5970,7 +5970,7 @@
         <v>43403</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6027,7 +6027,7 @@
         <v>43403</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6084,7 +6084,7 @@
         <v>43403</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6141,7 +6141,7 @@
         <v>43403</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6198,7 +6198,7 @@
         <v>43406</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6255,7 +6255,7 @@
         <v>43408</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6312,7 +6312,7 @@
         <v>43409</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6369,7 +6369,7 @@
         <v>43419</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6426,7 +6426,7 @@
         <v>43420</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6483,7 +6483,7 @@
         <v>43420</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6540,7 +6540,7 @@
         <v>43430</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6597,7 +6597,7 @@
         <v>43430</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6654,7 +6654,7 @@
         <v>43431</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6711,7 +6711,7 @@
         <v>43432</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6768,7 +6768,7 @@
         <v>43432</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6825,7 +6825,7 @@
         <v>43432</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6882,7 +6882,7 @@
         <v>43432</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6939,7 +6939,7 @@
         <v>43433</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6996,7 +6996,7 @@
         <v>43437</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7053,7 +7053,7 @@
         <v>43437</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7110,7 +7110,7 @@
         <v>43438</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7167,7 +7167,7 @@
         <v>43440</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7224,7 +7224,7 @@
         <v>43441</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7281,7 +7281,7 @@
         <v>43447</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7338,7 +7338,7 @@
         <v>43448</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7395,7 +7395,7 @@
         <v>43451</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7452,7 +7452,7 @@
         <v>43452</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7509,7 +7509,7 @@
         <v>43452</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7566,7 +7566,7 @@
         <v>43453</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7623,7 +7623,7 @@
         <v>43454</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7680,7 +7680,7 @@
         <v>43454</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7737,7 +7737,7 @@
         <v>43455</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7794,7 +7794,7 @@
         <v>43460</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7851,7 +7851,7 @@
         <v>43467</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7908,7 +7908,7 @@
         <v>43467</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7965,7 +7965,7 @@
         <v>43467</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8022,7 +8022,7 @@
         <v>43474</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8079,7 +8079,7 @@
         <v>43474</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8136,7 +8136,7 @@
         <v>43475</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8193,7 +8193,7 @@
         <v>43475</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8250,7 +8250,7 @@
         <v>43476</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8307,7 +8307,7 @@
         <v>43479</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8364,7 +8364,7 @@
         <v>43479</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8421,7 +8421,7 @@
         <v>43481</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8478,7 +8478,7 @@
         <v>43486</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8535,7 +8535,7 @@
         <v>43486</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8592,7 +8592,7 @@
         <v>43487</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8649,7 +8649,7 @@
         <v>43488</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8706,7 +8706,7 @@
         <v>43488</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8763,7 +8763,7 @@
         <v>43488</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8820,7 +8820,7 @@
         <v>43490</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8877,7 +8877,7 @@
         <v>43490</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8934,7 +8934,7 @@
         <v>43494</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8991,7 +8991,7 @@
         <v>43496</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9048,7 +9048,7 @@
         <v>43500</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9105,7 +9105,7 @@
         <v>43500</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9162,7 +9162,7 @@
         <v>43502</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9219,7 +9219,7 @@
         <v>43502</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9276,7 +9276,7 @@
         <v>43504</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9333,7 +9333,7 @@
         <v>43504</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9390,7 +9390,7 @@
         <v>43507</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9447,7 +9447,7 @@
         <v>43508</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9504,7 +9504,7 @@
         <v>43508</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9561,7 +9561,7 @@
         <v>43510</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9618,7 +9618,7 @@
         <v>43511</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9675,7 +9675,7 @@
         <v>43516</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9732,7 +9732,7 @@
         <v>43523</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9789,7 +9789,7 @@
         <v>43523</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9846,7 +9846,7 @@
         <v>43523</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9903,7 +9903,7 @@
         <v>43523</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9960,7 +9960,7 @@
         <v>43524</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10017,7 +10017,7 @@
         <v>43524</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10074,7 +10074,7 @@
         <v>43525</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10131,7 +10131,7 @@
         <v>43531</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10188,7 +10188,7 @@
         <v>43532</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10250,7 +10250,7 @@
         <v>43538</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10307,7 +10307,7 @@
         <v>43539</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10364,7 +10364,7 @@
         <v>43542</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10421,7 +10421,7 @@
         <v>43542</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10478,7 +10478,7 @@
         <v>43542</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10535,7 +10535,7 @@
         <v>43542</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10592,7 +10592,7 @@
         <v>43543</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10649,7 +10649,7 @@
         <v>43543</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10706,7 +10706,7 @@
         <v>43545</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10763,7 +10763,7 @@
         <v>43549</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10820,7 +10820,7 @@
         <v>43549</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10877,7 +10877,7 @@
         <v>43551</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10934,7 +10934,7 @@
         <v>43552</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10991,7 +10991,7 @@
         <v>43555</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11048,7 +11048,7 @@
         <v>43556</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11105,7 +11105,7 @@
         <v>43558</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11162,7 +11162,7 @@
         <v>43559</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11219,7 +11219,7 @@
         <v>43560</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11276,7 +11276,7 @@
         <v>43563</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11333,7 +11333,7 @@
         <v>43563</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11390,7 +11390,7 @@
         <v>43563</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11447,7 +11447,7 @@
         <v>43567</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11504,7 +11504,7 @@
         <v>43569</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11561,7 +11561,7 @@
         <v>43570</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11618,7 +11618,7 @@
         <v>43573</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11675,7 +11675,7 @@
         <v>43573</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11732,7 +11732,7 @@
         <v>43573</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11789,7 +11789,7 @@
         <v>43580</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11846,7 +11846,7 @@
         <v>43581</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11908,7 +11908,7 @@
         <v>43581</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11970,7 +11970,7 @@
         <v>43585</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12027,7 +12027,7 @@
         <v>43585</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12084,7 +12084,7 @@
         <v>43587</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12141,7 +12141,7 @@
         <v>43594</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12198,7 +12198,7 @@
         <v>43594</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12255,7 +12255,7 @@
         <v>43594</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12312,7 +12312,7 @@
         <v>43594</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12369,7 +12369,7 @@
         <v>43594</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12426,7 +12426,7 @@
         <v>43594</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12483,7 +12483,7 @@
         <v>43598</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12540,7 +12540,7 @@
         <v>43599</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12597,7 +12597,7 @@
         <v>43606</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12654,7 +12654,7 @@
         <v>43606</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12711,7 +12711,7 @@
         <v>43606</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12768,7 +12768,7 @@
         <v>43607</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12825,7 +12825,7 @@
         <v>43608</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12882,7 +12882,7 @@
         <v>43609</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12944,7 +12944,7 @@
         <v>43614</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13001,7 +13001,7 @@
         <v>43614</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13058,7 +13058,7 @@
         <v>43621</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13115,7 +13115,7 @@
         <v>43621</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13172,7 +13172,7 @@
         <v>43628</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13229,7 +13229,7 @@
         <v>43633</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13286,7 +13286,7 @@
         <v>43636</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13343,7 +13343,7 @@
         <v>43642</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13400,7 +13400,7 @@
         <v>43646</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13462,7 +13462,7 @@
         <v>43646</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13524,7 +13524,7 @@
         <v>43647</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13581,7 +13581,7 @@
         <v>43648</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13638,7 +13638,7 @@
         <v>43649</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13695,7 +13695,7 @@
         <v>43649</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13752,7 +13752,7 @@
         <v>43649</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13809,7 +13809,7 @@
         <v>43649</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13866,7 +13866,7 @@
         <v>43650</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13923,7 +13923,7 @@
         <v>43650</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13980,7 +13980,7 @@
         <v>43652</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14037,7 +14037,7 @@
         <v>43653</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14094,7 +14094,7 @@
         <v>43654</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14151,7 +14151,7 @@
         <v>43654</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14208,7 +14208,7 @@
         <v>43655</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14265,7 +14265,7 @@
         <v>43655</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14322,7 +14322,7 @@
         <v>43675</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14379,7 +14379,7 @@
         <v>43684</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14436,7 +14436,7 @@
         <v>43684</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14493,7 +14493,7 @@
         <v>43696</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14550,7 +14550,7 @@
         <v>43697</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14607,7 +14607,7 @@
         <v>43697</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14664,7 +14664,7 @@
         <v>43698</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14721,7 +14721,7 @@
         <v>43699</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14778,7 +14778,7 @@
         <v>43699</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14835,7 +14835,7 @@
         <v>43699</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14892,7 +14892,7 @@
         <v>43700</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14949,7 +14949,7 @@
         <v>43700</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15006,7 +15006,7 @@
         <v>43703</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15063,7 +15063,7 @@
         <v>43703</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15120,7 +15120,7 @@
         <v>43703</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15177,7 +15177,7 @@
         <v>43705</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15234,7 +15234,7 @@
         <v>43705</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15291,7 +15291,7 @@
         <v>43705</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15348,7 +15348,7 @@
         <v>43705</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15405,7 +15405,7 @@
         <v>43707</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15462,7 +15462,7 @@
         <v>43707</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15524,7 +15524,7 @@
         <v>43707</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15581,7 +15581,7 @@
         <v>43710</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15638,7 +15638,7 @@
         <v>43711</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15695,7 +15695,7 @@
         <v>43718</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15757,7 +15757,7 @@
         <v>43721</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15814,7 +15814,7 @@
         <v>43721</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15871,7 +15871,7 @@
         <v>43724</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15933,7 +15933,7 @@
         <v>43727</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15990,7 +15990,7 @@
         <v>43727</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16047,7 +16047,7 @@
         <v>43727</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16104,7 +16104,7 @@
         <v>43728</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16161,7 +16161,7 @@
         <v>43730</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16218,7 +16218,7 @@
         <v>43731</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16275,7 +16275,7 @@
         <v>43732</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16332,7 +16332,7 @@
         <v>43734</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16389,7 +16389,7 @@
         <v>43740</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16446,7 +16446,7 @@
         <v>43740</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16503,7 +16503,7 @@
         <v>43741</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16560,7 +16560,7 @@
         <v>43742</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16617,7 +16617,7 @@
         <v>43748</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16674,7 +16674,7 @@
         <v>43749</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16731,7 +16731,7 @@
         <v>43759</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16793,7 +16793,7 @@
         <v>43762</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16850,7 +16850,7 @@
         <v>43762</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16907,7 +16907,7 @@
         <v>43766</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16964,7 +16964,7 @@
         <v>43768</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17026,7 +17026,7 @@
         <v>43769</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17083,7 +17083,7 @@
         <v>43770</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17140,7 +17140,7 @@
         <v>43776</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17197,7 +17197,7 @@
         <v>43782</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17254,7 +17254,7 @@
         <v>43791</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17311,7 +17311,7 @@
         <v>43802</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17368,7 +17368,7 @@
         <v>43804</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17425,7 +17425,7 @@
         <v>43815</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17482,7 +17482,7 @@
         <v>43819</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17539,7 +17539,7 @@
         <v>43819</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17596,7 +17596,7 @@
         <v>43822</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17653,7 +17653,7 @@
         <v>43822</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17710,7 +17710,7 @@
         <v>43833</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17767,7 +17767,7 @@
         <v>43843</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17824,7 +17824,7 @@
         <v>43843</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17881,7 +17881,7 @@
         <v>43843</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17938,7 +17938,7 @@
         <v>43847</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17995,7 +17995,7 @@
         <v>43847</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18052,7 +18052,7 @@
         <v>43847</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18109,7 +18109,7 @@
         <v>43847</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18166,7 +18166,7 @@
         <v>43848</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18223,7 +18223,7 @@
         <v>43852</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18280,7 +18280,7 @@
         <v>43852</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18337,7 +18337,7 @@
         <v>43852</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18394,7 +18394,7 @@
         <v>43852</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18451,7 +18451,7 @@
         <v>43852</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18508,7 +18508,7 @@
         <v>43861</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18565,7 +18565,7 @@
         <v>43861</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18622,7 +18622,7 @@
         <v>43861</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18679,7 +18679,7 @@
         <v>43861</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18736,7 +18736,7 @@
         <v>43861</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18793,7 +18793,7 @@
         <v>43861</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18850,7 +18850,7 @@
         <v>43866</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18907,7 +18907,7 @@
         <v>43868</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18964,7 +18964,7 @@
         <v>43868</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19021,7 +19021,7 @@
         <v>43872</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19078,7 +19078,7 @@
         <v>43873</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19135,7 +19135,7 @@
         <v>43874</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19192,7 +19192,7 @@
         <v>43874</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19249,7 +19249,7 @@
         <v>43878</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19306,7 +19306,7 @@
         <v>43878</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19363,7 +19363,7 @@
         <v>43878</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19420,7 +19420,7 @@
         <v>43879</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19477,7 +19477,7 @@
         <v>43879</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19534,7 +19534,7 @@
         <v>43885</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19591,7 +19591,7 @@
         <v>43885</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19648,7 +19648,7 @@
         <v>43885</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19705,7 +19705,7 @@
         <v>43886</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19762,7 +19762,7 @@
         <v>43886</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19819,7 +19819,7 @@
         <v>43886</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19876,7 +19876,7 @@
         <v>43887</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19933,7 +19933,7 @@
         <v>43888</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19990,7 +19990,7 @@
         <v>43892</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20047,7 +20047,7 @@
         <v>43892</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20104,7 +20104,7 @@
         <v>43892</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20161,7 +20161,7 @@
         <v>43893</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20218,7 +20218,7 @@
         <v>43899</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20275,7 +20275,7 @@
         <v>43899</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20332,7 +20332,7 @@
         <v>43901</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20389,7 +20389,7 @@
         <v>43901</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20446,7 +20446,7 @@
         <v>43902</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20503,7 +20503,7 @@
         <v>43902</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20560,7 +20560,7 @@
         <v>43902</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20617,7 +20617,7 @@
         <v>43903</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20674,7 +20674,7 @@
         <v>43906</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20731,7 +20731,7 @@
         <v>43906</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20788,7 +20788,7 @@
         <v>43906</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20845,7 +20845,7 @@
         <v>43906</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20902,7 +20902,7 @@
         <v>43906</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20959,7 +20959,7 @@
         <v>43906</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21016,7 +21016,7 @@
         <v>43906</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21073,7 +21073,7 @@
         <v>43907</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21130,7 +21130,7 @@
         <v>43907</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21187,7 +21187,7 @@
         <v>43910</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21244,7 +21244,7 @@
         <v>43910</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21301,7 +21301,7 @@
         <v>43915</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21358,7 +21358,7 @@
         <v>43915</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21415,7 +21415,7 @@
         <v>43915</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21472,7 +21472,7 @@
         <v>43920</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21529,7 +21529,7 @@
         <v>43921</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21586,7 +21586,7 @@
         <v>43923</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21643,7 +21643,7 @@
         <v>43924</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21700,7 +21700,7 @@
         <v>43924</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21757,7 +21757,7 @@
         <v>43932</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21814,7 +21814,7 @@
         <v>43955</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21871,7 +21871,7 @@
         <v>43963</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21928,7 +21928,7 @@
         <v>43964</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21985,7 +21985,7 @@
         <v>43965</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22042,7 +22042,7 @@
         <v>43965</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22099,7 +22099,7 @@
         <v>43969</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22156,7 +22156,7 @@
         <v>43975</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22213,7 +22213,7 @@
         <v>43978</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22270,7 +22270,7 @@
         <v>43978</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22327,7 +22327,7 @@
         <v>43985</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22384,7 +22384,7 @@
         <v>43986</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22441,7 +22441,7 @@
         <v>43987</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22498,7 +22498,7 @@
         <v>44004</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22555,7 +22555,7 @@
         <v>44004</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22612,7 +22612,7 @@
         <v>44006</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22669,7 +22669,7 @@
         <v>44006</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22726,7 +22726,7 @@
         <v>44013</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22783,7 +22783,7 @@
         <v>44013</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22840,7 +22840,7 @@
         <v>44018</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22897,7 +22897,7 @@
         <v>44019</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22959,7 +22959,7 @@
         <v>44019</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23021,7 +23021,7 @@
         <v>44036</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23078,7 +23078,7 @@
         <v>44036</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23135,7 +23135,7 @@
         <v>44036</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23192,7 +23192,7 @@
         <v>44036</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23249,7 +23249,7 @@
         <v>44036</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23306,7 +23306,7 @@
         <v>44036</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23363,7 +23363,7 @@
         <v>44036</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23420,7 +23420,7 @@
         <v>44036</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23477,7 +23477,7 @@
         <v>44036</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23534,7 +23534,7 @@
         <v>44036</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23591,7 +23591,7 @@
         <v>44040</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23653,7 +23653,7 @@
         <v>44042</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23710,7 +23710,7 @@
         <v>44047</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23767,7 +23767,7 @@
         <v>44050</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23824,7 +23824,7 @@
         <v>44054</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23881,7 +23881,7 @@
         <v>44060</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23943,7 +23943,7 @@
         <v>44061</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24000,7 +24000,7 @@
         <v>44063</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24057,7 +24057,7 @@
         <v>44069</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24114,7 +24114,7 @@
         <v>44069</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24171,7 +24171,7 @@
         <v>44070</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24228,7 +24228,7 @@
         <v>44074</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24285,7 +24285,7 @@
         <v>44074</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24342,7 +24342,7 @@
         <v>44076</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24399,7 +24399,7 @@
         <v>44081</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24456,7 +24456,7 @@
         <v>44084</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24513,7 +24513,7 @@
         <v>44084</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24570,7 +24570,7 @@
         <v>44091</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24627,7 +24627,7 @@
         <v>44091</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24684,7 +24684,7 @@
         <v>44096</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24741,7 +24741,7 @@
         <v>44097</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24798,7 +24798,7 @@
         <v>44101</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24855,7 +24855,7 @@
         <v>44102</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24912,7 +24912,7 @@
         <v>44102</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24969,7 +24969,7 @@
         <v>44103</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25026,7 +25026,7 @@
         <v>44103</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25083,7 +25083,7 @@
         <v>44105</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25140,7 +25140,7 @@
         <v>44109</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25197,7 +25197,7 @@
         <v>44110</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25254,7 +25254,7 @@
         <v>44110</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25311,7 +25311,7 @@
         <v>44113</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25368,7 +25368,7 @@
         <v>44123</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25425,7 +25425,7 @@
         <v>44134</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25482,7 +25482,7 @@
         <v>44134</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25539,7 +25539,7 @@
         <v>44138</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25596,7 +25596,7 @@
         <v>44140</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25653,7 +25653,7 @@
         <v>44140</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25710,7 +25710,7 @@
         <v>44140</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25767,7 +25767,7 @@
         <v>44140</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25824,7 +25824,7 @@
         <v>44140</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25881,7 +25881,7 @@
         <v>44145</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25938,7 +25938,7 @@
         <v>44155</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25995,7 +25995,7 @@
         <v>44159</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26052,7 +26052,7 @@
         <v>44165</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26109,7 +26109,7 @@
         <v>44168</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26166,7 +26166,7 @@
         <v>44168</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26223,7 +26223,7 @@
         <v>44168</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26280,7 +26280,7 @@
         <v>44174</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26337,7 +26337,7 @@
         <v>44174</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26399,7 +26399,7 @@
         <v>44174</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26456,7 +26456,7 @@
         <v>44174</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26513,7 +26513,7 @@
         <v>44175</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26570,7 +26570,7 @@
         <v>44175</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26627,7 +26627,7 @@
         <v>44179</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26684,7 +26684,7 @@
         <v>44186</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26741,7 +26741,7 @@
         <v>44187</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26798,7 +26798,7 @@
         <v>44187</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26855,7 +26855,7 @@
         <v>44194</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26912,7 +26912,7 @@
         <v>44195</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26969,7 +26969,7 @@
         <v>44195</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27026,7 +27026,7 @@
         <v>44201</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27083,7 +27083,7 @@
         <v>44201</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27140,7 +27140,7 @@
         <v>44207</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27197,7 +27197,7 @@
         <v>44214</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27254,7 +27254,7 @@
         <v>44215</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27311,7 +27311,7 @@
         <v>44217</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27368,7 +27368,7 @@
         <v>44217</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27425,7 +27425,7 @@
         <v>44221</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27482,7 +27482,7 @@
         <v>44223</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27539,7 +27539,7 @@
         <v>44224</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27596,7 +27596,7 @@
         <v>44229</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27653,7 +27653,7 @@
         <v>44230</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27710,7 +27710,7 @@
         <v>44235</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27767,7 +27767,7 @@
         <v>44235</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27824,7 +27824,7 @@
         <v>44236</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27881,7 +27881,7 @@
         <v>44236</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27938,7 +27938,7 @@
         <v>44237</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27995,7 +27995,7 @@
         <v>44237</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28052,7 +28052,7 @@
         <v>44238</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28109,7 +28109,7 @@
         <v>44239</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28166,7 +28166,7 @@
         <v>44239</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28223,7 +28223,7 @@
         <v>44239</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28280,7 +28280,7 @@
         <v>44240</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28337,7 +28337,7 @@
         <v>44242</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28394,7 +28394,7 @@
         <v>44242</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28451,7 +28451,7 @@
         <v>44246</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28513,7 +28513,7 @@
         <v>44246</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28575,7 +28575,7 @@
         <v>44248</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28632,7 +28632,7 @@
         <v>44251</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28689,7 +28689,7 @@
         <v>44251</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28746,7 +28746,7 @@
         <v>44258</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28803,7 +28803,7 @@
         <v>44258</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28860,7 +28860,7 @@
         <v>44258</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28917,7 +28917,7 @@
         <v>44261</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28974,7 +28974,7 @@
         <v>44265</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29031,7 +29031,7 @@
         <v>44266</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29088,7 +29088,7 @@
         <v>44271</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29145,7 +29145,7 @@
         <v>44272</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29207,7 +29207,7 @@
         <v>44282</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29269,7 +29269,7 @@
         <v>44292</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29326,7 +29326,7 @@
         <v>44301</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29383,7 +29383,7 @@
         <v>44306</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29440,7 +29440,7 @@
         <v>44308</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29497,7 +29497,7 @@
         <v>44309</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29554,7 +29554,7 @@
         <v>44311</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29611,7 +29611,7 @@
         <v>44322</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29668,7 +29668,7 @@
         <v>44323</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29725,7 +29725,7 @@
         <v>44329</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29782,7 +29782,7 @@
         <v>44333</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29839,7 +29839,7 @@
         <v>44347</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29896,7 +29896,7 @@
         <v>44347</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29953,7 +29953,7 @@
         <v>44354</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30010,7 +30010,7 @@
         <v>44354</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30067,7 +30067,7 @@
         <v>44354</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30124,7 +30124,7 @@
         <v>44362</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30181,7 +30181,7 @@
         <v>44362</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30238,7 +30238,7 @@
         <v>44365</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30295,7 +30295,7 @@
         <v>44365</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30352,7 +30352,7 @@
         <v>44375</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30409,7 +30409,7 @@
         <v>44376</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30466,7 +30466,7 @@
         <v>44376</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30523,7 +30523,7 @@
         <v>44378</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30585,7 +30585,7 @@
         <v>44380</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30642,7 +30642,7 @@
         <v>44383</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30699,7 +30699,7 @@
         <v>44383</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30756,7 +30756,7 @@
         <v>44384</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30813,7 +30813,7 @@
         <v>44384</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30870,7 +30870,7 @@
         <v>44385</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30927,7 +30927,7 @@
         <v>44389</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30984,7 +30984,7 @@
         <v>44391</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31041,7 +31041,7 @@
         <v>44392</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31098,7 +31098,7 @@
         <v>44396</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31155,7 +31155,7 @@
         <v>44412</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31212,7 +31212,7 @@
         <v>44417</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31274,7 +31274,7 @@
         <v>44421</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31331,7 +31331,7 @@
         <v>44421</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31388,7 +31388,7 @@
         <v>44424</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31445,7 +31445,7 @@
         <v>44428</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31502,7 +31502,7 @@
         <v>44431</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31559,7 +31559,7 @@
         <v>44431</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31616,7 +31616,7 @@
         <v>44433</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31673,7 +31673,7 @@
         <v>44441</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31730,7 +31730,7 @@
         <v>44442</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31787,7 +31787,7 @@
         <v>44442</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31844,7 +31844,7 @@
         <v>44445</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31901,7 +31901,7 @@
         <v>44446</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31958,7 +31958,7 @@
         <v>44446</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32015,7 +32015,7 @@
         <v>44446</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32072,7 +32072,7 @@
         <v>44446</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32129,7 +32129,7 @@
         <v>44446</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32186,7 +32186,7 @@
         <v>44446</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32243,7 +32243,7 @@
         <v>44446</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32300,7 +32300,7 @@
         <v>44446</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32357,7 +32357,7 @@
         <v>44446</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32414,7 +32414,7 @@
         <v>44446</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32471,7 +32471,7 @@
         <v>44446</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32528,7 +32528,7 @@
         <v>44446</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32585,7 +32585,7 @@
         <v>44446</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32642,7 +32642,7 @@
         <v>44446</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32699,7 +32699,7 @@
         <v>44446</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32756,7 +32756,7 @@
         <v>44446</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32813,7 +32813,7 @@
         <v>44446</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32870,7 +32870,7 @@
         <v>44446</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32927,7 +32927,7 @@
         <v>44447</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32984,7 +32984,7 @@
         <v>44448</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33041,7 +33041,7 @@
         <v>44452</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33098,7 +33098,7 @@
         <v>44455</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33155,7 +33155,7 @@
         <v>44457</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33212,7 +33212,7 @@
         <v>44457</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33269,7 +33269,7 @@
         <v>44459</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33326,7 +33326,7 @@
         <v>44459</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33383,7 +33383,7 @@
         <v>44459</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33440,7 +33440,7 @@
         <v>44459</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33497,7 +33497,7 @@
         <v>44459</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33554,7 +33554,7 @@
         <v>44463</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33616,7 +33616,7 @@
         <v>44467</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33673,7 +33673,7 @@
         <v>44468</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33730,7 +33730,7 @@
         <v>44469</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33787,7 +33787,7 @@
         <v>44469</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33844,7 +33844,7 @@
         <v>44469</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33901,7 +33901,7 @@
         <v>44469</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33958,7 +33958,7 @@
         <v>44469</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34015,7 +34015,7 @@
         <v>44476</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34072,7 +34072,7 @@
         <v>44480</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34129,7 +34129,7 @@
         <v>44481</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34186,7 +34186,7 @@
         <v>44482</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34243,7 +34243,7 @@
         <v>44490</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34300,7 +34300,7 @@
         <v>44491</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34357,7 +34357,7 @@
         <v>44491</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34414,7 +34414,7 @@
         <v>44491</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34471,7 +34471,7 @@
         <v>44495</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34528,7 +34528,7 @@
         <v>44496</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34585,7 +34585,7 @@
         <v>44496</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34642,7 +34642,7 @@
         <v>44496</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34699,7 +34699,7 @@
         <v>44496</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34756,7 +34756,7 @@
         <v>44496</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34813,7 +34813,7 @@
         <v>44497</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34870,7 +34870,7 @@
         <v>44497</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34927,7 +34927,7 @@
         <v>44497</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34984,7 +34984,7 @@
         <v>44497</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35041,7 +35041,7 @@
         <v>44498</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35103,7 +35103,7 @@
         <v>44498</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35160,7 +35160,7 @@
         <v>44498</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35217,7 +35217,7 @@
         <v>44502</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35274,7 +35274,7 @@
         <v>44504</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35331,7 +35331,7 @@
         <v>44509</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35388,7 +35388,7 @@
         <v>44509</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35445,7 +35445,7 @@
         <v>44509</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35502,7 +35502,7 @@
         <v>44510</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35559,7 +35559,7 @@
         <v>44512</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35616,7 +35616,7 @@
         <v>44517</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35673,7 +35673,7 @@
         <v>44517</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35730,7 +35730,7 @@
         <v>44519</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35787,7 +35787,7 @@
         <v>44522</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35844,7 +35844,7 @@
         <v>44522</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35901,7 +35901,7 @@
         <v>44531</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35958,7 +35958,7 @@
         <v>44532</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36015,7 +36015,7 @@
         <v>44532</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36072,7 +36072,7 @@
         <v>44536</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36129,7 +36129,7 @@
         <v>44537</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36186,7 +36186,7 @@
         <v>44539</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36243,7 +36243,7 @@
         <v>44539</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36300,7 +36300,7 @@
         <v>44540</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36362,7 +36362,7 @@
         <v>44540</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36419,7 +36419,7 @@
         <v>44543</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36476,7 +36476,7 @@
         <v>44543</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36533,7 +36533,7 @@
         <v>44543</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36590,7 +36590,7 @@
         <v>44543</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36647,7 +36647,7 @@
         <v>44546</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36704,7 +36704,7 @@
         <v>44550</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36761,7 +36761,7 @@
         <v>44550</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36818,7 +36818,7 @@
         <v>44552</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36875,7 +36875,7 @@
         <v>44552</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36932,7 +36932,7 @@
         <v>44552</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36989,7 +36989,7 @@
         <v>44552</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37046,7 +37046,7 @@
         <v>44553</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37103,7 +37103,7 @@
         <v>44553</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37160,7 +37160,7 @@
         <v>44558</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37217,7 +37217,7 @@
         <v>44561</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -37274,7 +37274,7 @@
         <v>44564</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37331,7 +37331,7 @@
         <v>44566</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -37388,7 +37388,7 @@
         <v>44568</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -37445,7 +37445,7 @@
         <v>44571</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -37502,7 +37502,7 @@
         <v>44571</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -37559,7 +37559,7 @@
         <v>44573</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -37616,7 +37616,7 @@
         <v>44573</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37673,7 +37673,7 @@
         <v>44573</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37730,7 +37730,7 @@
         <v>44578</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -37787,7 +37787,7 @@
         <v>44585</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -37844,7 +37844,7 @@
         <v>44586</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -37901,7 +37901,7 @@
         <v>44587</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -37958,7 +37958,7 @@
         <v>44588</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38015,7 +38015,7 @@
         <v>44589</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38072,7 +38072,7 @@
         <v>44593</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38129,7 +38129,7 @@
         <v>44593</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38186,7 +38186,7 @@
         <v>44595</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38243,7 +38243,7 @@
         <v>44596</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38305,7 +38305,7 @@
         <v>44601</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -38362,7 +38362,7 @@
         <v>44603</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -38419,7 +38419,7 @@
         <v>44606</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -38476,7 +38476,7 @@
         <v>44607</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -38533,7 +38533,7 @@
         <v>44609</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -38590,7 +38590,7 @@
         <v>44610</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -38647,7 +38647,7 @@
         <v>44612</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -38704,7 +38704,7 @@
         <v>44616</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -38761,7 +38761,7 @@
         <v>44617</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -38818,7 +38818,7 @@
         <v>44621</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -38875,7 +38875,7 @@
         <v>44624</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -38932,7 +38932,7 @@
         <v>44627</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -38989,7 +38989,7 @@
         <v>44627</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -39046,7 +39046,7 @@
         <v>44628</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -39103,7 +39103,7 @@
         <v>44628</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -39160,7 +39160,7 @@
         <v>44628</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -39217,7 +39217,7 @@
         <v>44631</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -39279,7 +39279,7 @@
         <v>44631</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -39341,7 +39341,7 @@
         <v>44631</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -39398,7 +39398,7 @@
         <v>44631</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -39455,7 +39455,7 @@
         <v>44635</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -39512,7 +39512,7 @@
         <v>44635</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -39569,7 +39569,7 @@
         <v>44636</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -39626,7 +39626,7 @@
         <v>44643</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -39683,7 +39683,7 @@
         <v>44643</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -39740,7 +39740,7 @@
         <v>44643</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -39797,7 +39797,7 @@
         <v>44643</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -39854,7 +39854,7 @@
         <v>44643</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -39911,7 +39911,7 @@
         <v>44643</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -39968,7 +39968,7 @@
         <v>44650</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -40025,7 +40025,7 @@
         <v>44652</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -40082,7 +40082,7 @@
         <v>44655</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -40139,7 +40139,7 @@
         <v>44655</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -40196,7 +40196,7 @@
         <v>44659</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -40253,7 +40253,7 @@
         <v>44671</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -40310,7 +40310,7 @@
         <v>44671</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -40367,7 +40367,7 @@
         <v>44671</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -40424,7 +40424,7 @@
         <v>44672</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -40481,7 +40481,7 @@
         <v>44672</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -40538,7 +40538,7 @@
         <v>44677</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -40595,7 +40595,7 @@
         <v>44684</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -40652,7 +40652,7 @@
         <v>44685</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -40709,7 +40709,7 @@
         <v>44686</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -40766,7 +40766,7 @@
         <v>44687</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -40823,7 +40823,7 @@
         <v>44690</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -40880,7 +40880,7 @@
         <v>44691</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -40937,7 +40937,7 @@
         <v>44694</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -40994,7 +40994,7 @@
         <v>44697</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -41051,7 +41051,7 @@
         <v>44697</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -41108,7 +41108,7 @@
         <v>44704</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -41165,7 +41165,7 @@
         <v>44705</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -41222,7 +41222,7 @@
         <v>44705</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -41279,7 +41279,7 @@
         <v>44711</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -41336,7 +41336,7 @@
         <v>44712</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -41393,7 +41393,7 @@
         <v>44726</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -41450,7 +41450,7 @@
         <v>44728</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -41507,7 +41507,7 @@
         <v>44728</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -41564,7 +41564,7 @@
         <v>44733</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -41626,7 +41626,7 @@
         <v>44747</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -41688,7 +41688,7 @@
         <v>44747</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -41750,7 +41750,7 @@
         <v>44747</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -41812,7 +41812,7 @@
         <v>44747</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -41869,7 +41869,7 @@
         <v>44750</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -41926,7 +41926,7 @@
         <v>44750</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -41983,7 +41983,7 @@
         <v>44761</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -42040,7 +42040,7 @@
         <v>44761</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -42097,7 +42097,7 @@
         <v>44761</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -42154,7 +42154,7 @@
         <v>44790</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -42211,7 +42211,7 @@
         <v>44796</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -42268,7 +42268,7 @@
         <v>44799</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -42325,7 +42325,7 @@
         <v>44804</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -42382,7 +42382,7 @@
         <v>44804</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -42439,7 +42439,7 @@
         <v>44806</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -42496,7 +42496,7 @@
         <v>44806</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -42553,7 +42553,7 @@
         <v>44812</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -42610,7 +42610,7 @@
         <v>44816</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -42667,7 +42667,7 @@
         <v>44818</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -42724,7 +42724,7 @@
         <v>44818</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -42781,7 +42781,7 @@
         <v>44824</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -42838,7 +42838,7 @@
         <v>44825</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -42895,7 +42895,7 @@
         <v>44825</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -42952,7 +42952,7 @@
         <v>44830</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -43009,7 +43009,7 @@
         <v>44832</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -43066,7 +43066,7 @@
         <v>44832</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -43123,7 +43123,7 @@
         <v>44839</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -43180,7 +43180,7 @@
         <v>44839</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -43237,7 +43237,7 @@
         <v>44839</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -43294,7 +43294,7 @@
         <v>44844</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -43351,7 +43351,7 @@
         <v>44847</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -43413,7 +43413,7 @@
         <v>44853</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -43470,7 +43470,7 @@
         <v>44853</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -43527,7 +43527,7 @@
         <v>44854</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -43584,7 +43584,7 @@
         <v>44858</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -43641,7 +43641,7 @@
         <v>44859</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -43698,7 +43698,7 @@
         <v>44865</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -43760,7 +43760,7 @@
         <v>44868</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -43817,7 +43817,7 @@
         <v>44868</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -43874,7 +43874,7 @@
         <v>44872</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -43931,7 +43931,7 @@
         <v>44873</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -43988,7 +43988,7 @@
         <v>44876</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -44045,7 +44045,7 @@
         <v>44879</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -44102,7 +44102,7 @@
         <v>44883</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -44159,7 +44159,7 @@
         <v>44886</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -44216,7 +44216,7 @@
         <v>44888</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -44273,7 +44273,7 @@
         <v>44893</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -44335,7 +44335,7 @@
         <v>44893</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -44392,7 +44392,7 @@
         <v>44901</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -44449,7 +44449,7 @@
         <v>44904</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -44506,7 +44506,7 @@
         <v>44904</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -44563,7 +44563,7 @@
         <v>44907</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -44620,7 +44620,7 @@
         <v>44907</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -44677,7 +44677,7 @@
         <v>44911</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -44739,7 +44739,7 @@
         <v>44914</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -44796,7 +44796,7 @@
         <v>44915</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -44853,7 +44853,7 @@
         <v>44916</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -44910,7 +44910,7 @@
         <v>44922</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -44967,7 +44967,7 @@
         <v>44924</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -45024,7 +45024,7 @@
         <v>44928</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -45081,7 +45081,7 @@
         <v>44928</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -45138,7 +45138,7 @@
         <v>44928</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -45195,7 +45195,7 @@
         <v>44935</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -45252,7 +45252,7 @@
         <v>44935</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -45309,7 +45309,7 @@
         <v>44935</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -45366,7 +45366,7 @@
         <v>44935</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -45423,7 +45423,7 @@
         <v>44938</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -45480,7 +45480,7 @@
         <v>44948</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -45537,7 +45537,7 @@
         <v>44949</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -45594,7 +45594,7 @@
         <v>44953</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -45651,7 +45651,7 @@
         <v>44953</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -45708,7 +45708,7 @@
         <v>44953</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -45765,7 +45765,7 @@
         <v>44953</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -45822,7 +45822,7 @@
         <v>44957</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -45879,7 +45879,7 @@
         <v>44963</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -45936,7 +45936,7 @@
         <v>44963</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -45993,7 +45993,7 @@
         <v>44966</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -46050,7 +46050,7 @@
         <v>44967</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -46107,7 +46107,7 @@
         <v>44967</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -46169,7 +46169,7 @@
         <v>44967</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -46231,7 +46231,7 @@
         <v>44968</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -46293,7 +46293,7 @@
         <v>44972</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -46350,7 +46350,7 @@
         <v>44972</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -46407,7 +46407,7 @@
         <v>44973</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -46464,7 +46464,7 @@
         <v>44974</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -46521,7 +46521,7 @@
         <v>44977</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -46578,7 +46578,7 @@
         <v>44978</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -46635,7 +46635,7 @@
         <v>44979</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -46692,7 +46692,7 @@
         <v>44980</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -46749,7 +46749,7 @@
         <v>44984</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -46806,7 +46806,7 @@
         <v>44984</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -46863,7 +46863,7 @@
         <v>44986</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -46920,7 +46920,7 @@
         <v>44986</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -46977,7 +46977,7 @@
         <v>44986</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -47034,7 +47034,7 @@
         <v>44987</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -47091,7 +47091,7 @@
         <v>44991</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -47148,7 +47148,7 @@
         <v>44992</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -47210,7 +47210,7 @@
         <v>44993</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -47267,7 +47267,7 @@
         <v>44995</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -47324,7 +47324,7 @@
         <v>44998</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -47381,7 +47381,7 @@
         <v>45002</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -47438,7 +47438,7 @@
         <v>45002</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -47500,7 +47500,7 @@
         <v>45006</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -47557,7 +47557,7 @@
         <v>45012</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -47614,7 +47614,7 @@
         <v>45015</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -47671,7 +47671,7 @@
         <v>45019</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -47728,7 +47728,7 @@
         <v>45020</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -47785,7 +47785,7 @@
         <v>45020</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -47842,7 +47842,7 @@
         <v>45020</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -47899,7 +47899,7 @@
         <v>45021</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -47956,7 +47956,7 @@
         <v>45030</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -48013,7 +48013,7 @@
         <v>45030</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -48075,7 +48075,7 @@
         <v>45034</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -48132,7 +48132,7 @@
         <v>45036</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -48189,7 +48189,7 @@
         <v>45039</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -48246,7 +48246,7 @@
         <v>45041</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -48303,7 +48303,7 @@
         <v>45047</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -48360,7 +48360,7 @@
         <v>45049</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -48417,7 +48417,7 @@
         <v>45051</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -48474,7 +48474,7 @@
         <v>45051</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -48531,7 +48531,7 @@
         <v>45051</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -48588,7 +48588,7 @@
         <v>45051</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -48645,7 +48645,7 @@
         <v>45051</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -48702,7 +48702,7 @@
         <v>45051</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -48759,7 +48759,7 @@
         <v>45052</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -48816,7 +48816,7 @@
         <v>45056</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -48873,7 +48873,7 @@
         <v>45056</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -48930,7 +48930,7 @@
         <v>45057</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -48987,7 +48987,7 @@
         <v>45058</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -49044,7 +49044,7 @@
         <v>45061</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -49101,7 +49101,7 @@
         <v>45061</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -49158,7 +49158,7 @@
         <v>45062</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -49215,7 +49215,7 @@
         <v>45062</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -49272,7 +49272,7 @@
         <v>45062</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -49329,7 +49329,7 @@
         <v>45070</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -49386,7 +49386,7 @@
         <v>45070</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -49443,7 +49443,7 @@
         <v>45072</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -49500,7 +49500,7 @@
         <v>45075</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -49557,7 +49557,7 @@
         <v>45075</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -49614,7 +49614,7 @@
         <v>45075</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -49671,7 +49671,7 @@
         <v>45075</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -49728,7 +49728,7 @@
         <v>45075</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -49785,7 +49785,7 @@
         <v>45076</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -49842,7 +49842,7 @@
         <v>45076</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -49899,7 +49899,7 @@
         <v>45078</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -49956,7 +49956,7 @@
         <v>45078</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -50013,7 +50013,7 @@
         <v>45078</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -50070,7 +50070,7 @@
         <v>45078</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -50127,7 +50127,7 @@
         <v>45078</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -50184,7 +50184,7 @@
         <v>45078</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -50241,7 +50241,7 @@
         <v>45078</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -50298,7 +50298,7 @@
         <v>45081</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -50360,7 +50360,7 @@
         <v>45082</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -50417,7 +50417,7 @@
         <v>45096</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -50474,7 +50474,7 @@
         <v>45099</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -50531,7 +50531,7 @@
         <v>45104</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -50588,7 +50588,7 @@
         <v>45105</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -50645,7 +50645,7 @@
         <v>45105</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -50702,7 +50702,7 @@
         <v>45106</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -50759,7 +50759,7 @@
         <v>45106</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -50816,7 +50816,7 @@
         <v>45108</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -50873,7 +50873,7 @@
         <v>45110</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -50930,7 +50930,7 @@
         <v>45113</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -50987,7 +50987,7 @@
         <v>45113</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -51044,7 +51044,7 @@
         <v>45119</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -51101,7 +51101,7 @@
         <v>45120</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -51158,7 +51158,7 @@
         <v>45120</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -51215,7 +51215,7 @@
         <v>45121</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -51272,7 +51272,7 @@
         <v>45121</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -51329,7 +51329,7 @@
         <v>45121</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -51386,7 +51386,7 @@
         <v>45121</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -51443,7 +51443,7 @@
         <v>45138</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -51500,7 +51500,7 @@
         <v>45138</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -51557,7 +51557,7 @@
         <v>45145</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -51614,7 +51614,7 @@
         <v>45145</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -51671,7 +51671,7 @@
         <v>45145</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -51728,7 +51728,7 @@
         <v>45145</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -51785,7 +51785,7 @@
         <v>45148</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -51842,7 +51842,7 @@
         <v>45149</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -51899,7 +51899,7 @@
         <v>45149</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -51956,7 +51956,7 @@
         <v>45152</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -52013,7 +52013,7 @@
         <v>45154</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -52070,7 +52070,7 @@
         <v>45155</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -52132,7 +52132,7 @@
         <v>45155</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -52189,7 +52189,7 @@
         <v>45159</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -52246,7 +52246,7 @@
         <v>45159</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -52303,7 +52303,7 @@
         <v>45161</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -52360,7 +52360,7 @@
         <v>45161</v>
       </c>
       <c r="C884" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -52417,7 +52417,7 @@
         <v>45162</v>
       </c>
       <c r="C885" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -52474,7 +52474,7 @@
         <v>45163</v>
       </c>
       <c r="C886" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -52531,7 +52531,7 @@
         <v>45166</v>
       </c>
       <c r="C887" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -52588,7 +52588,7 @@
         <v>45168</v>
       </c>
       <c r="C888" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>

--- a/Översikt ÅRJÄNG.xlsx
+++ b/Översikt ÅRJÄNG.xlsx
@@ -572,7 +572,7 @@
         <v>43607</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -689,7 +689,7 @@
         <v>44824</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -785,7 +785,7 @@
         <v>44649</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -878,7 +878,7 @@
         <v>44585</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -974,7 +974,7 @@
         <v>44970</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1066,7 +1066,7 @@
         <v>45084</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1162,7 +1162,7 @@
         <v>44964</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1253,7 +1253,7 @@
         <v>44873</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1347,7 +1347,7 @@
         <v>45106</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1437,7 +1437,7 @@
         <v>43621</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1530,7 +1530,7 @@
         <v>43880</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1623,7 +1623,7 @@
         <v>44140</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1712,7 +1712,7 @@
         <v>43852</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1804,7 +1804,7 @@
         <v>44375</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1892,7 +1892,7 @@
         <v>44678</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1980,7 +1980,7 @@
         <v>45051</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2068,7 +2068,7 @@
         <v>43922</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2159,7 +2159,7 @@
         <v>44377</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2250,7 +2250,7 @@
         <v>43852</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2336,7 +2336,7 @@
         <v>43880</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2426,7 +2426,7 @@
         <v>44515</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2516,7 +2516,7 @@
         <v>44872</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2606,7 +2606,7 @@
         <v>44935</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2692,7 +2692,7 @@
         <v>45001</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2778,7 +2778,7 @@
         <v>43621</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2867,7 +2867,7 @@
         <v>43696</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2952,7 +2952,7 @@
         <v>43725</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3037,7 +3037,7 @@
         <v>43731</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3122,7 +3122,7 @@
         <v>43734</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3207,7 +3207,7 @@
         <v>43763</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3292,7 +3292,7 @@
         <v>43839</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3377,7 +3377,7 @@
         <v>44050</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3462,7 +3462,7 @@
         <v>44061</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         <v>44217</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3632,7 +3632,7 @@
         <v>44285</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3717,7 +3717,7 @@
         <v>44356</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3802,7 +3802,7 @@
         <v>44379</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3887,7 +3887,7 @@
         <v>44846</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3976,7 +3976,7 @@
         <v>44873</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4061,7 +4061,7 @@
         <v>45111</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4146,7 +4146,7 @@
         <v>43326</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4203,7 +4203,7 @@
         <v>43335</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4260,7 +4260,7 @@
         <v>43335</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4317,7 +4317,7 @@
         <v>43335</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4374,7 +4374,7 @@
         <v>43339</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4431,7 +4431,7 @@
         <v>43346</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4488,7 +4488,7 @@
         <v>43346</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4545,7 +4545,7 @@
         <v>43347</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4602,7 +4602,7 @@
         <v>43349</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4659,7 +4659,7 @@
         <v>43353</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4716,7 +4716,7 @@
         <v>43353</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4773,7 +4773,7 @@
         <v>43353</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4830,7 +4830,7 @@
         <v>43353</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4887,7 +4887,7 @@
         <v>43353</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4944,7 +4944,7 @@
         <v>43354</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5001,7 +5001,7 @@
         <v>43354</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5058,7 +5058,7 @@
         <v>43355</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5115,7 +5115,7 @@
         <v>43367</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5172,7 +5172,7 @@
         <v>43369</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5229,7 +5229,7 @@
         <v>43381</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5286,7 +5286,7 @@
         <v>43381</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5343,7 +5343,7 @@
         <v>43390</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5400,7 +5400,7 @@
         <v>43395</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5457,7 +5457,7 @@
         <v>43395</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5514,7 +5514,7 @@
         <v>43399</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5571,7 +5571,7 @@
         <v>43399</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5628,7 +5628,7 @@
         <v>43401</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5685,7 +5685,7 @@
         <v>43403</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5742,7 +5742,7 @@
         <v>43403</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5799,7 +5799,7 @@
         <v>43403</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5856,7 +5856,7 @@
         <v>43403</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5913,7 +5913,7 @@
         <v>43403</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5970,7 +5970,7 @@
         <v>43403</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6027,7 +6027,7 @@
         <v>43403</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6084,7 +6084,7 @@
         <v>43403</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6141,7 +6141,7 @@
         <v>43403</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6198,7 +6198,7 @@
         <v>43406</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6255,7 +6255,7 @@
         <v>43408</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6312,7 +6312,7 @@
         <v>43409</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6369,7 +6369,7 @@
         <v>43419</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6426,7 +6426,7 @@
         <v>43420</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6483,7 +6483,7 @@
         <v>43420</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6540,7 +6540,7 @@
         <v>43430</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6597,7 +6597,7 @@
         <v>43430</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6654,7 +6654,7 @@
         <v>43431</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6711,7 +6711,7 @@
         <v>43432</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6768,7 +6768,7 @@
         <v>43432</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6825,7 +6825,7 @@
         <v>43432</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6882,7 +6882,7 @@
         <v>43432</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6939,7 +6939,7 @@
         <v>43433</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6996,7 +6996,7 @@
         <v>43437</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7053,7 +7053,7 @@
         <v>43437</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7110,7 +7110,7 @@
         <v>43438</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7167,7 +7167,7 @@
         <v>43440</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7224,7 +7224,7 @@
         <v>43441</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7281,7 +7281,7 @@
         <v>43447</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7338,7 +7338,7 @@
         <v>43448</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7395,7 +7395,7 @@
         <v>43451</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7452,7 +7452,7 @@
         <v>43452</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7509,7 +7509,7 @@
         <v>43452</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7566,7 +7566,7 @@
         <v>43453</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7623,7 +7623,7 @@
         <v>43454</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7680,7 +7680,7 @@
         <v>43454</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7737,7 +7737,7 @@
         <v>43455</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7794,7 +7794,7 @@
         <v>43460</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7851,7 +7851,7 @@
         <v>43467</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7908,7 +7908,7 @@
         <v>43467</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7965,7 +7965,7 @@
         <v>43467</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8022,7 +8022,7 @@
         <v>43474</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8079,7 +8079,7 @@
         <v>43474</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8136,7 +8136,7 @@
         <v>43475</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8193,7 +8193,7 @@
         <v>43475</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8250,7 +8250,7 @@
         <v>43476</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8307,7 +8307,7 @@
         <v>43479</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8364,7 +8364,7 @@
         <v>43479</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8421,7 +8421,7 @@
         <v>43481</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8478,7 +8478,7 @@
         <v>43486</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8535,7 +8535,7 @@
         <v>43486</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8592,7 +8592,7 @@
         <v>43487</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8649,7 +8649,7 @@
         <v>43488</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8706,7 +8706,7 @@
         <v>43488</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8763,7 +8763,7 @@
         <v>43488</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8820,7 +8820,7 @@
         <v>43490</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8877,7 +8877,7 @@
         <v>43490</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8934,7 +8934,7 @@
         <v>43494</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8991,7 +8991,7 @@
         <v>43496</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9048,7 +9048,7 @@
         <v>43500</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9105,7 +9105,7 @@
         <v>43500</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9162,7 +9162,7 @@
         <v>43502</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9219,7 +9219,7 @@
         <v>43502</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9276,7 +9276,7 @@
         <v>43504</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9333,7 +9333,7 @@
         <v>43504</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9390,7 +9390,7 @@
         <v>43507</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9447,7 +9447,7 @@
         <v>43508</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9504,7 +9504,7 @@
         <v>43508</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9561,7 +9561,7 @@
         <v>43510</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9618,7 +9618,7 @@
         <v>43511</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9675,7 +9675,7 @@
         <v>43516</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9732,7 +9732,7 @@
         <v>43523</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9789,7 +9789,7 @@
         <v>43523</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9846,7 +9846,7 @@
         <v>43523</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9903,7 +9903,7 @@
         <v>43523</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9960,7 +9960,7 @@
         <v>43524</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10017,7 +10017,7 @@
         <v>43524</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10074,7 +10074,7 @@
         <v>43525</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10131,7 +10131,7 @@
         <v>43531</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10188,7 +10188,7 @@
         <v>43532</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10250,7 +10250,7 @@
         <v>43538</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10307,7 +10307,7 @@
         <v>43539</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10364,7 +10364,7 @@
         <v>43542</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10421,7 +10421,7 @@
         <v>43542</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10478,7 +10478,7 @@
         <v>43542</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10535,7 +10535,7 @@
         <v>43542</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10592,7 +10592,7 @@
         <v>43543</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10649,7 +10649,7 @@
         <v>43543</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10706,7 +10706,7 @@
         <v>43545</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10763,7 +10763,7 @@
         <v>43549</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10820,7 +10820,7 @@
         <v>43549</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10877,7 +10877,7 @@
         <v>43551</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10934,7 +10934,7 @@
         <v>43552</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10991,7 +10991,7 @@
         <v>43555</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11048,7 +11048,7 @@
         <v>43556</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11105,7 +11105,7 @@
         <v>43558</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11162,7 +11162,7 @@
         <v>43559</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11219,7 +11219,7 @@
         <v>43560</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11276,7 +11276,7 @@
         <v>43563</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11333,7 +11333,7 @@
         <v>43563</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11390,7 +11390,7 @@
         <v>43563</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11447,7 +11447,7 @@
         <v>43567</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11504,7 +11504,7 @@
         <v>43569</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11561,7 +11561,7 @@
         <v>43570</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11618,7 +11618,7 @@
         <v>43573</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11675,7 +11675,7 @@
         <v>43573</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11732,7 +11732,7 @@
         <v>43573</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11789,7 +11789,7 @@
         <v>43580</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11846,7 +11846,7 @@
         <v>43581</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11908,7 +11908,7 @@
         <v>43581</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11970,7 +11970,7 @@
         <v>43585</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12027,7 +12027,7 @@
         <v>43585</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12084,7 +12084,7 @@
         <v>43587</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12141,7 +12141,7 @@
         <v>43594</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12198,7 +12198,7 @@
         <v>43594</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12255,7 +12255,7 @@
         <v>43594</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12312,7 +12312,7 @@
         <v>43594</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12369,7 +12369,7 @@
         <v>43594</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12426,7 +12426,7 @@
         <v>43594</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12483,7 +12483,7 @@
         <v>43598</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12540,7 +12540,7 @@
         <v>43599</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12597,7 +12597,7 @@
         <v>43606</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12654,7 +12654,7 @@
         <v>43606</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12711,7 +12711,7 @@
         <v>43606</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12768,7 +12768,7 @@
         <v>43607</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12825,7 +12825,7 @@
         <v>43608</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12882,7 +12882,7 @@
         <v>43609</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12944,7 +12944,7 @@
         <v>43614</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13001,7 +13001,7 @@
         <v>43614</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13058,7 +13058,7 @@
         <v>43621</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13115,7 +13115,7 @@
         <v>43621</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13172,7 +13172,7 @@
         <v>43628</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13229,7 +13229,7 @@
         <v>43633</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13286,7 +13286,7 @@
         <v>43636</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13343,7 +13343,7 @@
         <v>43642</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13400,7 +13400,7 @@
         <v>43646</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13462,7 +13462,7 @@
         <v>43646</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13524,7 +13524,7 @@
         <v>43647</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13581,7 +13581,7 @@
         <v>43648</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13638,7 +13638,7 @@
         <v>43649</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13695,7 +13695,7 @@
         <v>43649</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13752,7 +13752,7 @@
         <v>43649</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13809,7 +13809,7 @@
         <v>43649</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13866,7 +13866,7 @@
         <v>43650</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13923,7 +13923,7 @@
         <v>43650</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13980,7 +13980,7 @@
         <v>43652</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14037,7 +14037,7 @@
         <v>43653</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14094,7 +14094,7 @@
         <v>43654</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14151,7 +14151,7 @@
         <v>43654</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14208,7 +14208,7 @@
         <v>43655</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14265,7 +14265,7 @@
         <v>43655</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14322,7 +14322,7 @@
         <v>43675</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14379,7 +14379,7 @@
         <v>43684</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14436,7 +14436,7 @@
         <v>43684</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14493,7 +14493,7 @@
         <v>43696</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14550,7 +14550,7 @@
         <v>43697</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14607,7 +14607,7 @@
         <v>43697</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14664,7 +14664,7 @@
         <v>43698</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14721,7 +14721,7 @@
         <v>43699</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14778,7 +14778,7 @@
         <v>43699</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14835,7 +14835,7 @@
         <v>43699</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14892,7 +14892,7 @@
         <v>43700</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14949,7 +14949,7 @@
         <v>43700</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15006,7 +15006,7 @@
         <v>43703</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15063,7 +15063,7 @@
         <v>43703</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15120,7 +15120,7 @@
         <v>43703</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15177,7 +15177,7 @@
         <v>43705</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15234,7 +15234,7 @@
         <v>43705</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15291,7 +15291,7 @@
         <v>43705</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15348,7 +15348,7 @@
         <v>43705</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15405,7 +15405,7 @@
         <v>43707</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15462,7 +15462,7 @@
         <v>43707</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15524,7 +15524,7 @@
         <v>43707</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15581,7 +15581,7 @@
         <v>43710</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15638,7 +15638,7 @@
         <v>43711</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15695,7 +15695,7 @@
         <v>43718</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15757,7 +15757,7 @@
         <v>43721</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15814,7 +15814,7 @@
         <v>43721</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15871,7 +15871,7 @@
         <v>43724</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15933,7 +15933,7 @@
         <v>43727</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15990,7 +15990,7 @@
         <v>43727</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16047,7 +16047,7 @@
         <v>43727</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16104,7 +16104,7 @@
         <v>43728</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16161,7 +16161,7 @@
         <v>43730</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16218,7 +16218,7 @@
         <v>43731</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16275,7 +16275,7 @@
         <v>43732</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16332,7 +16332,7 @@
         <v>43734</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16389,7 +16389,7 @@
         <v>43740</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16446,7 +16446,7 @@
         <v>43740</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16503,7 +16503,7 @@
         <v>43741</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16560,7 +16560,7 @@
         <v>43742</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16617,7 +16617,7 @@
         <v>43748</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16674,7 +16674,7 @@
         <v>43749</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16731,7 +16731,7 @@
         <v>43759</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16793,7 +16793,7 @@
         <v>43762</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16850,7 +16850,7 @@
         <v>43762</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16907,7 +16907,7 @@
         <v>43766</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16964,7 +16964,7 @@
         <v>43768</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17026,7 +17026,7 @@
         <v>43769</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17083,7 +17083,7 @@
         <v>43770</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17140,7 +17140,7 @@
         <v>43776</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17197,7 +17197,7 @@
         <v>43782</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17254,7 +17254,7 @@
         <v>43791</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17311,7 +17311,7 @@
         <v>43802</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17368,7 +17368,7 @@
         <v>43804</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17425,7 +17425,7 @@
         <v>43815</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17482,7 +17482,7 @@
         <v>43819</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17539,7 +17539,7 @@
         <v>43819</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17596,7 +17596,7 @@
         <v>43822</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17653,7 +17653,7 @@
         <v>43822</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17710,7 +17710,7 @@
         <v>43833</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17767,7 +17767,7 @@
         <v>43843</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17824,7 +17824,7 @@
         <v>43843</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17881,7 +17881,7 @@
         <v>43843</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17938,7 +17938,7 @@
         <v>43847</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17995,7 +17995,7 @@
         <v>43847</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18052,7 +18052,7 @@
         <v>43847</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18109,7 +18109,7 @@
         <v>43847</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18166,7 +18166,7 @@
         <v>43848</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18223,7 +18223,7 @@
         <v>43852</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18280,7 +18280,7 @@
         <v>43852</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18337,7 +18337,7 @@
         <v>43852</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18394,7 +18394,7 @@
         <v>43852</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18451,7 +18451,7 @@
         <v>43852</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18508,7 +18508,7 @@
         <v>43861</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18565,7 +18565,7 @@
         <v>43861</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18622,7 +18622,7 @@
         <v>43861</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18679,7 +18679,7 @@
         <v>43861</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18736,7 +18736,7 @@
         <v>43861</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18793,7 +18793,7 @@
         <v>43861</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18850,7 +18850,7 @@
         <v>43866</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18907,7 +18907,7 @@
         <v>43868</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18964,7 +18964,7 @@
         <v>43868</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19021,7 +19021,7 @@
         <v>43872</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19078,7 +19078,7 @@
         <v>43873</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19135,7 +19135,7 @@
         <v>43874</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19192,7 +19192,7 @@
         <v>43874</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19249,7 +19249,7 @@
         <v>43878</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19306,7 +19306,7 @@
         <v>43878</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19363,7 +19363,7 @@
         <v>43878</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19420,7 +19420,7 @@
         <v>43879</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19477,7 +19477,7 @@
         <v>43879</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19534,7 +19534,7 @@
         <v>43885</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19591,7 +19591,7 @@
         <v>43885</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19648,7 +19648,7 @@
         <v>43885</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19705,7 +19705,7 @@
         <v>43886</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19762,7 +19762,7 @@
         <v>43886</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19819,7 +19819,7 @@
         <v>43886</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19876,7 +19876,7 @@
         <v>43887</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19933,7 +19933,7 @@
         <v>43888</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19990,7 +19990,7 @@
         <v>43892</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20047,7 +20047,7 @@
         <v>43892</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20104,7 +20104,7 @@
         <v>43892</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20161,7 +20161,7 @@
         <v>43893</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20218,7 +20218,7 @@
         <v>43899</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20275,7 +20275,7 @@
         <v>43899</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20332,7 +20332,7 @@
         <v>43901</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20389,7 +20389,7 @@
         <v>43901</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20446,7 +20446,7 @@
         <v>43902</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20503,7 +20503,7 @@
         <v>43902</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20560,7 +20560,7 @@
         <v>43902</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20617,7 +20617,7 @@
         <v>43903</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20674,7 +20674,7 @@
         <v>43906</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20731,7 +20731,7 @@
         <v>43906</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20788,7 +20788,7 @@
         <v>43906</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20845,7 +20845,7 @@
         <v>43906</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20902,7 +20902,7 @@
         <v>43906</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20959,7 +20959,7 @@
         <v>43906</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21016,7 +21016,7 @@
         <v>43906</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21073,7 +21073,7 @@
         <v>43907</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21130,7 +21130,7 @@
         <v>43907</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21187,7 +21187,7 @@
         <v>43910</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21244,7 +21244,7 @@
         <v>43910</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21301,7 +21301,7 @@
         <v>43915</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21358,7 +21358,7 @@
         <v>43915</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21415,7 +21415,7 @@
         <v>43915</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21472,7 +21472,7 @@
         <v>43920</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21529,7 +21529,7 @@
         <v>43921</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21586,7 +21586,7 @@
         <v>43923</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21643,7 +21643,7 @@
         <v>43924</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21700,7 +21700,7 @@
         <v>43924</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21757,7 +21757,7 @@
         <v>43932</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21814,7 +21814,7 @@
         <v>43955</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21871,7 +21871,7 @@
         <v>43963</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21928,7 +21928,7 @@
         <v>43964</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21985,7 +21985,7 @@
         <v>43965</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22042,7 +22042,7 @@
         <v>43965</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22099,7 +22099,7 @@
         <v>43969</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22156,7 +22156,7 @@
         <v>43975</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22213,7 +22213,7 @@
         <v>43978</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22270,7 +22270,7 @@
         <v>43978</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22327,7 +22327,7 @@
         <v>43985</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22384,7 +22384,7 @@
         <v>43986</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22441,7 +22441,7 @@
         <v>43987</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22498,7 +22498,7 @@
         <v>44004</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22555,7 +22555,7 @@
         <v>44004</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22612,7 +22612,7 @@
         <v>44006</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22669,7 +22669,7 @@
         <v>44006</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22726,7 +22726,7 @@
         <v>44013</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22783,7 +22783,7 @@
         <v>44013</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22840,7 +22840,7 @@
         <v>44018</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22897,7 +22897,7 @@
         <v>44019</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22959,7 +22959,7 @@
         <v>44019</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23021,7 +23021,7 @@
         <v>44036</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23078,7 +23078,7 @@
         <v>44036</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23135,7 +23135,7 @@
         <v>44036</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23192,7 +23192,7 @@
         <v>44036</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23249,7 +23249,7 @@
         <v>44036</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23306,7 +23306,7 @@
         <v>44036</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23363,7 +23363,7 @@
         <v>44036</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23420,7 +23420,7 @@
         <v>44036</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23477,7 +23477,7 @@
         <v>44036</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23534,7 +23534,7 @@
         <v>44036</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23591,7 +23591,7 @@
         <v>44040</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23653,7 +23653,7 @@
         <v>44042</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23710,7 +23710,7 @@
         <v>44047</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23767,7 +23767,7 @@
         <v>44050</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23824,7 +23824,7 @@
         <v>44054</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23881,7 +23881,7 @@
         <v>44060</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23943,7 +23943,7 @@
         <v>44061</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24000,7 +24000,7 @@
         <v>44063</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24057,7 +24057,7 @@
         <v>44069</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24114,7 +24114,7 @@
         <v>44069</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24171,7 +24171,7 @@
         <v>44070</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24228,7 +24228,7 @@
         <v>44074</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24285,7 +24285,7 @@
         <v>44074</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24342,7 +24342,7 @@
         <v>44076</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24399,7 +24399,7 @@
         <v>44081</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24456,7 +24456,7 @@
         <v>44084</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24513,7 +24513,7 @@
         <v>44084</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24570,7 +24570,7 @@
         <v>44091</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24627,7 +24627,7 @@
         <v>44091</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24684,7 +24684,7 @@
         <v>44096</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24741,7 +24741,7 @@
         <v>44097</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24798,7 +24798,7 @@
         <v>44101</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24855,7 +24855,7 @@
         <v>44102</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24912,7 +24912,7 @@
         <v>44102</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24969,7 +24969,7 @@
         <v>44103</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25026,7 +25026,7 @@
         <v>44103</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25083,7 +25083,7 @@
         <v>44105</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25140,7 +25140,7 @@
         <v>44109</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25197,7 +25197,7 @@
         <v>44110</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25254,7 +25254,7 @@
         <v>44110</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25311,7 +25311,7 @@
         <v>44113</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25368,7 +25368,7 @@
         <v>44123</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25425,7 +25425,7 @@
         <v>44134</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25482,7 +25482,7 @@
         <v>44134</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25539,7 +25539,7 @@
         <v>44138</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25596,7 +25596,7 @@
         <v>44140</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25653,7 +25653,7 @@
         <v>44140</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25710,7 +25710,7 @@
         <v>44140</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25767,7 +25767,7 @@
         <v>44140</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25824,7 +25824,7 @@
         <v>44140</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25881,7 +25881,7 @@
         <v>44145</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25938,7 +25938,7 @@
         <v>44155</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25995,7 +25995,7 @@
         <v>44159</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26052,7 +26052,7 @@
         <v>44165</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26109,7 +26109,7 @@
         <v>44168</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26166,7 +26166,7 @@
         <v>44168</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26223,7 +26223,7 @@
         <v>44168</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26280,7 +26280,7 @@
         <v>44174</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26337,7 +26337,7 @@
         <v>44174</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26399,7 +26399,7 @@
         <v>44174</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26456,7 +26456,7 @@
         <v>44174</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26513,7 +26513,7 @@
         <v>44175</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26570,7 +26570,7 @@
         <v>44175</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26627,7 +26627,7 @@
         <v>44179</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26684,7 +26684,7 @@
         <v>44186</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26741,7 +26741,7 @@
         <v>44187</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26798,7 +26798,7 @@
         <v>44187</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26855,7 +26855,7 @@
         <v>44194</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26912,7 +26912,7 @@
         <v>44195</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26969,7 +26969,7 @@
         <v>44195</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27026,7 +27026,7 @@
         <v>44201</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27083,7 +27083,7 @@
         <v>44201</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27140,7 +27140,7 @@
         <v>44207</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27197,7 +27197,7 @@
         <v>44214</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27254,7 +27254,7 @@
         <v>44215</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27311,7 +27311,7 @@
         <v>44217</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27368,7 +27368,7 @@
         <v>44217</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27425,7 +27425,7 @@
         <v>44221</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27482,7 +27482,7 @@
         <v>44223</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27539,7 +27539,7 @@
         <v>44224</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27596,7 +27596,7 @@
         <v>44229</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27653,7 +27653,7 @@
         <v>44230</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27710,7 +27710,7 @@
         <v>44235</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27767,7 +27767,7 @@
         <v>44235</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27824,7 +27824,7 @@
         <v>44236</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27881,7 +27881,7 @@
         <v>44236</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27938,7 +27938,7 @@
         <v>44237</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27995,7 +27995,7 @@
         <v>44237</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28052,7 +28052,7 @@
         <v>44238</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28109,7 +28109,7 @@
         <v>44239</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28166,7 +28166,7 @@
         <v>44239</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28223,7 +28223,7 @@
         <v>44239</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28280,7 +28280,7 @@
         <v>44240</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28337,7 +28337,7 @@
         <v>44242</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28394,7 +28394,7 @@
         <v>44242</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28451,7 +28451,7 @@
         <v>44246</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28513,7 +28513,7 @@
         <v>44246</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28575,7 +28575,7 @@
         <v>44248</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28632,7 +28632,7 @@
         <v>44251</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28689,7 +28689,7 @@
         <v>44251</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28746,7 +28746,7 @@
         <v>44258</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28803,7 +28803,7 @@
         <v>44258</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28860,7 +28860,7 @@
         <v>44258</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28917,7 +28917,7 @@
         <v>44261</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28974,7 +28974,7 @@
         <v>44265</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29031,7 +29031,7 @@
         <v>44266</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29088,7 +29088,7 @@
         <v>44271</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29145,7 +29145,7 @@
         <v>44272</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29207,7 +29207,7 @@
         <v>44282</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29269,7 +29269,7 @@
         <v>44292</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29326,7 +29326,7 @@
         <v>44301</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29383,7 +29383,7 @@
         <v>44306</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29440,7 +29440,7 @@
         <v>44308</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29497,7 +29497,7 @@
         <v>44309</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29554,7 +29554,7 @@
         <v>44311</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29611,7 +29611,7 @@
         <v>44322</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29668,7 +29668,7 @@
         <v>44323</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29725,7 +29725,7 @@
         <v>44329</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29782,7 +29782,7 @@
         <v>44333</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29839,7 +29839,7 @@
         <v>44347</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29896,7 +29896,7 @@
         <v>44347</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29953,7 +29953,7 @@
         <v>44354</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30010,7 +30010,7 @@
         <v>44354</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30067,7 +30067,7 @@
         <v>44354</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30124,7 +30124,7 @@
         <v>44362</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30181,7 +30181,7 @@
         <v>44362</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30238,7 +30238,7 @@
         <v>44365</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30295,7 +30295,7 @@
         <v>44365</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30352,7 +30352,7 @@
         <v>44375</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30409,7 +30409,7 @@
         <v>44376</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30466,7 +30466,7 @@
         <v>44376</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30523,7 +30523,7 @@
         <v>44378</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30585,7 +30585,7 @@
         <v>44380</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30642,7 +30642,7 @@
         <v>44383</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30699,7 +30699,7 @@
         <v>44383</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30756,7 +30756,7 @@
         <v>44384</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30813,7 +30813,7 @@
         <v>44384</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30870,7 +30870,7 @@
         <v>44385</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30927,7 +30927,7 @@
         <v>44389</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30984,7 +30984,7 @@
         <v>44391</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31041,7 +31041,7 @@
         <v>44392</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31098,7 +31098,7 @@
         <v>44396</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31155,7 +31155,7 @@
         <v>44412</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31212,7 +31212,7 @@
         <v>44417</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31274,7 +31274,7 @@
         <v>44421</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31331,7 +31331,7 @@
         <v>44421</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31388,7 +31388,7 @@
         <v>44424</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31445,7 +31445,7 @@
         <v>44428</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31502,7 +31502,7 @@
         <v>44431</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31559,7 +31559,7 @@
         <v>44431</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31616,7 +31616,7 @@
         <v>44433</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31673,7 +31673,7 @@
         <v>44441</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31730,7 +31730,7 @@
         <v>44442</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31787,7 +31787,7 @@
         <v>44442</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31844,7 +31844,7 @@
         <v>44445</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31901,7 +31901,7 @@
         <v>44446</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31958,7 +31958,7 @@
         <v>44446</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32015,7 +32015,7 @@
         <v>44446</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32072,7 +32072,7 @@
         <v>44446</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32129,7 +32129,7 @@
         <v>44446</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32186,7 +32186,7 @@
         <v>44446</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32243,7 +32243,7 @@
         <v>44446</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32300,7 +32300,7 @@
         <v>44446</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32357,7 +32357,7 @@
         <v>44446</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32414,7 +32414,7 @@
         <v>44446</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32471,7 +32471,7 @@
         <v>44446</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32528,7 +32528,7 @@
         <v>44446</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32585,7 +32585,7 @@
         <v>44446</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32642,7 +32642,7 @@
         <v>44446</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32699,7 +32699,7 @@
         <v>44446</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32756,7 +32756,7 @@
         <v>44446</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32813,7 +32813,7 @@
         <v>44446</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32870,7 +32870,7 @@
         <v>44446</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32927,7 +32927,7 @@
         <v>44447</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32984,7 +32984,7 @@
         <v>44448</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33041,7 +33041,7 @@
         <v>44452</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33098,7 +33098,7 @@
         <v>44455</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33155,7 +33155,7 @@
         <v>44457</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33212,7 +33212,7 @@
         <v>44457</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33269,7 +33269,7 @@
         <v>44459</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33326,7 +33326,7 @@
         <v>44459</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33383,7 +33383,7 @@
         <v>44459</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33440,7 +33440,7 @@
         <v>44459</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33497,7 +33497,7 @@
         <v>44459</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33554,7 +33554,7 @@
         <v>44463</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33616,7 +33616,7 @@
         <v>44467</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33673,7 +33673,7 @@
         <v>44468</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33730,7 +33730,7 @@
         <v>44469</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33787,7 +33787,7 @@
         <v>44469</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33844,7 +33844,7 @@
         <v>44469</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33901,7 +33901,7 @@
         <v>44469</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33958,7 +33958,7 @@
         <v>44469</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34015,7 +34015,7 @@
         <v>44476</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34072,7 +34072,7 @@
         <v>44480</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34129,7 +34129,7 @@
         <v>44481</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34186,7 +34186,7 @@
         <v>44482</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34243,7 +34243,7 @@
         <v>44490</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34300,7 +34300,7 @@
         <v>44491</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34357,7 +34357,7 @@
         <v>44491</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34414,7 +34414,7 @@
         <v>44491</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34471,7 +34471,7 @@
         <v>44495</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34528,7 +34528,7 @@
         <v>44496</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34585,7 +34585,7 @@
         <v>44496</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34642,7 +34642,7 @@
         <v>44496</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34699,7 +34699,7 @@
         <v>44496</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34756,7 +34756,7 @@
         <v>44496</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34813,7 +34813,7 @@
         <v>44497</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34870,7 +34870,7 @@
         <v>44497</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34927,7 +34927,7 @@
         <v>44497</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34984,7 +34984,7 @@
         <v>44497</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35041,7 +35041,7 @@
         <v>44498</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35103,7 +35103,7 @@
         <v>44498</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35160,7 +35160,7 @@
         <v>44498</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35217,7 +35217,7 @@
         <v>44502</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35274,7 +35274,7 @@
         <v>44504</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35331,7 +35331,7 @@
         <v>44509</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35388,7 +35388,7 @@
         <v>44509</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35445,7 +35445,7 @@
         <v>44509</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35502,7 +35502,7 @@
         <v>44510</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35559,7 +35559,7 @@
         <v>44512</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35616,7 +35616,7 @@
         <v>44517</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35673,7 +35673,7 @@
         <v>44517</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35730,7 +35730,7 @@
         <v>44519</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35787,7 +35787,7 @@
         <v>44522</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35844,7 +35844,7 @@
         <v>44522</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35901,7 +35901,7 @@
         <v>44531</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35958,7 +35958,7 @@
         <v>44532</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36015,7 +36015,7 @@
         <v>44532</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36072,7 +36072,7 @@
         <v>44536</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36129,7 +36129,7 @@
         <v>44537</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36186,7 +36186,7 @@
         <v>44539</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36243,7 +36243,7 @@
         <v>44539</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36300,7 +36300,7 @@
         <v>44540</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36362,7 +36362,7 @@
         <v>44540</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36419,7 +36419,7 @@
         <v>44543</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36476,7 +36476,7 @@
         <v>44543</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36533,7 +36533,7 @@
         <v>44543</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36590,7 +36590,7 @@
         <v>44543</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36647,7 +36647,7 @@
         <v>44546</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36704,7 +36704,7 @@
         <v>44550</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36761,7 +36761,7 @@
         <v>44550</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36818,7 +36818,7 @@
         <v>44552</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36875,7 +36875,7 @@
         <v>44552</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36932,7 +36932,7 @@
         <v>44552</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36989,7 +36989,7 @@
         <v>44552</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37046,7 +37046,7 @@
         <v>44553</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37103,7 +37103,7 @@
         <v>44553</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37160,7 +37160,7 @@
         <v>44558</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37217,7 +37217,7 @@
         <v>44561</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -37274,7 +37274,7 @@
         <v>44564</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37331,7 +37331,7 @@
         <v>44566</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -37388,7 +37388,7 @@
         <v>44568</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -37445,7 +37445,7 @@
         <v>44571</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -37502,7 +37502,7 @@
         <v>44571</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -37559,7 +37559,7 @@
         <v>44573</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -37616,7 +37616,7 @@
         <v>44573</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37673,7 +37673,7 @@
         <v>44573</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37730,7 +37730,7 @@
         <v>44578</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -37787,7 +37787,7 @@
         <v>44585</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -37844,7 +37844,7 @@
         <v>44586</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -37901,7 +37901,7 @@
         <v>44587</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -37958,7 +37958,7 @@
         <v>44588</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38015,7 +38015,7 @@
         <v>44589</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38072,7 +38072,7 @@
         <v>44593</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38129,7 +38129,7 @@
         <v>44593</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38186,7 +38186,7 @@
         <v>44595</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38243,7 +38243,7 @@
         <v>44596</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38305,7 +38305,7 @@
         <v>44601</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -38362,7 +38362,7 @@
         <v>44603</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -38419,7 +38419,7 @@
         <v>44606</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -38476,7 +38476,7 @@
         <v>44607</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -38533,7 +38533,7 @@
         <v>44609</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -38590,7 +38590,7 @@
         <v>44610</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -38647,7 +38647,7 @@
         <v>44612</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -38704,7 +38704,7 @@
         <v>44616</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -38761,7 +38761,7 @@
         <v>44617</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -38818,7 +38818,7 @@
         <v>44621</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -38875,7 +38875,7 @@
         <v>44624</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -38932,7 +38932,7 @@
         <v>44627</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -38989,7 +38989,7 @@
         <v>44627</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -39046,7 +39046,7 @@
         <v>44628</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -39103,7 +39103,7 @@
         <v>44628</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -39160,7 +39160,7 @@
         <v>44628</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -39217,7 +39217,7 @@
         <v>44631</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -39279,7 +39279,7 @@
         <v>44631</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -39341,7 +39341,7 @@
         <v>44631</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -39398,7 +39398,7 @@
         <v>44631</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -39455,7 +39455,7 @@
         <v>44635</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -39512,7 +39512,7 @@
         <v>44635</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -39569,7 +39569,7 @@
         <v>44636</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -39626,7 +39626,7 @@
         <v>44643</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -39683,7 +39683,7 @@
         <v>44643</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -39740,7 +39740,7 @@
         <v>44643</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -39797,7 +39797,7 @@
         <v>44643</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -39854,7 +39854,7 @@
         <v>44643</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -39911,7 +39911,7 @@
         <v>44643</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -39968,7 +39968,7 @@
         <v>44650</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -40025,7 +40025,7 @@
         <v>44652</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -40082,7 +40082,7 @@
         <v>44655</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -40139,7 +40139,7 @@
         <v>44655</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -40196,7 +40196,7 @@
         <v>44659</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -40253,7 +40253,7 @@
         <v>44671</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -40310,7 +40310,7 @@
         <v>44671</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -40367,7 +40367,7 @@
         <v>44671</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -40424,7 +40424,7 @@
         <v>44672</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -40481,7 +40481,7 @@
         <v>44672</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -40538,7 +40538,7 @@
         <v>44677</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -40595,7 +40595,7 @@
         <v>44684</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -40652,7 +40652,7 @@
         <v>44685</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -40709,7 +40709,7 @@
         <v>44686</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -40766,7 +40766,7 @@
         <v>44687</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -40823,7 +40823,7 @@
         <v>44690</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -40880,7 +40880,7 @@
         <v>44691</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -40937,7 +40937,7 @@
         <v>44694</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -40994,7 +40994,7 @@
         <v>44697</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -41051,7 +41051,7 @@
         <v>44697</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -41108,7 +41108,7 @@
         <v>44704</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -41165,7 +41165,7 @@
         <v>44705</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -41222,7 +41222,7 @@
         <v>44705</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -41279,7 +41279,7 @@
         <v>44711</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -41336,7 +41336,7 @@
         <v>44712</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -41393,7 +41393,7 @@
         <v>44726</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -41450,7 +41450,7 @@
         <v>44728</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -41507,7 +41507,7 @@
         <v>44728</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -41564,7 +41564,7 @@
         <v>44733</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -41626,7 +41626,7 @@
         <v>44747</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -41688,7 +41688,7 @@
         <v>44747</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -41750,7 +41750,7 @@
         <v>44747</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -41812,7 +41812,7 @@
         <v>44747</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -41869,7 +41869,7 @@
         <v>44750</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -41926,7 +41926,7 @@
         <v>44750</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -41983,7 +41983,7 @@
         <v>44761</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -42040,7 +42040,7 @@
         <v>44761</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -42097,7 +42097,7 @@
         <v>44761</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -42154,7 +42154,7 @@
         <v>44790</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -42211,7 +42211,7 @@
         <v>44796</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -42268,7 +42268,7 @@
         <v>44799</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -42325,7 +42325,7 @@
         <v>44804</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -42382,7 +42382,7 @@
         <v>44804</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -42439,7 +42439,7 @@
         <v>44806</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -42496,7 +42496,7 @@
         <v>44806</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -42553,7 +42553,7 @@
         <v>44812</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -42610,7 +42610,7 @@
         <v>44816</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -42667,7 +42667,7 @@
         <v>44818</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -42724,7 +42724,7 @@
         <v>44818</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -42781,7 +42781,7 @@
         <v>44824</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -42838,7 +42838,7 @@
         <v>44825</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -42895,7 +42895,7 @@
         <v>44825</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -42952,7 +42952,7 @@
         <v>44830</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -43009,7 +43009,7 @@
         <v>44832</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -43066,7 +43066,7 @@
         <v>44832</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -43123,7 +43123,7 @@
         <v>44839</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -43180,7 +43180,7 @@
         <v>44839</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -43237,7 +43237,7 @@
         <v>44839</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -43294,7 +43294,7 @@
         <v>44844</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -43351,7 +43351,7 @@
         <v>44847</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -43413,7 +43413,7 @@
         <v>44853</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -43470,7 +43470,7 @@
         <v>44853</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -43527,7 +43527,7 @@
         <v>44854</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -43584,7 +43584,7 @@
         <v>44858</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -43641,7 +43641,7 @@
         <v>44859</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -43698,7 +43698,7 @@
         <v>44865</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -43760,7 +43760,7 @@
         <v>44868</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -43817,7 +43817,7 @@
         <v>44868</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -43874,7 +43874,7 @@
         <v>44872</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -43931,7 +43931,7 @@
         <v>44873</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -43988,7 +43988,7 @@
         <v>44876</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -44045,7 +44045,7 @@
         <v>44879</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -44102,7 +44102,7 @@
         <v>44883</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -44159,7 +44159,7 @@
         <v>44886</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -44216,7 +44216,7 @@
         <v>44888</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -44273,7 +44273,7 @@
         <v>44893</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -44335,7 +44335,7 @@
         <v>44893</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -44392,7 +44392,7 @@
         <v>44901</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -44449,7 +44449,7 @@
         <v>44904</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -44506,7 +44506,7 @@
         <v>44904</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -44563,7 +44563,7 @@
         <v>44907</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -44620,7 +44620,7 @@
         <v>44907</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -44677,7 +44677,7 @@
         <v>44911</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -44739,7 +44739,7 @@
         <v>44914</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -44796,7 +44796,7 @@
         <v>44915</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -44853,7 +44853,7 @@
         <v>44916</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -44910,7 +44910,7 @@
         <v>44922</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -44967,7 +44967,7 @@
         <v>44924</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -45024,7 +45024,7 @@
         <v>44928</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -45081,7 +45081,7 @@
         <v>44928</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -45138,7 +45138,7 @@
         <v>44928</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -45195,7 +45195,7 @@
         <v>44935</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -45252,7 +45252,7 @@
         <v>44935</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -45309,7 +45309,7 @@
         <v>44935</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -45366,7 +45366,7 @@
         <v>44935</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -45423,7 +45423,7 @@
         <v>44938</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -45480,7 +45480,7 @@
         <v>44948</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -45537,7 +45537,7 @@
         <v>44949</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -45594,7 +45594,7 @@
         <v>44953</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -45651,7 +45651,7 @@
         <v>44953</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -45708,7 +45708,7 @@
         <v>44953</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -45765,7 +45765,7 @@
         <v>44953</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -45822,7 +45822,7 @@
         <v>44957</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -45879,7 +45879,7 @@
         <v>44963</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -45936,7 +45936,7 @@
         <v>44963</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -45993,7 +45993,7 @@
         <v>44966</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -46050,7 +46050,7 @@
         <v>44967</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -46107,7 +46107,7 @@
         <v>44967</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -46169,7 +46169,7 @@
         <v>44967</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -46231,7 +46231,7 @@
         <v>44968</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -46293,7 +46293,7 @@
         <v>44972</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -46350,7 +46350,7 @@
         <v>44972</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -46407,7 +46407,7 @@
         <v>44973</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -46464,7 +46464,7 @@
         <v>44974</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -46521,7 +46521,7 @@
         <v>44977</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -46578,7 +46578,7 @@
         <v>44978</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -46635,7 +46635,7 @@
         <v>44979</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -46692,7 +46692,7 @@
         <v>44980</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -46749,7 +46749,7 @@
         <v>44984</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -46806,7 +46806,7 @@
         <v>44984</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -46863,7 +46863,7 @@
         <v>44986</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -46920,7 +46920,7 @@
         <v>44986</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -46977,7 +46977,7 @@
         <v>44986</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -47034,7 +47034,7 @@
         <v>44987</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -47091,7 +47091,7 @@
         <v>44991</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -47148,7 +47148,7 @@
         <v>44992</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -47210,7 +47210,7 @@
         <v>44993</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -47267,7 +47267,7 @@
         <v>44995</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -47324,7 +47324,7 @@
         <v>44998</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -47381,7 +47381,7 @@
         <v>45002</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -47438,7 +47438,7 @@
         <v>45002</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -47500,7 +47500,7 @@
         <v>45006</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -47557,7 +47557,7 @@
         <v>45012</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -47614,7 +47614,7 @@
         <v>45015</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -47671,7 +47671,7 @@
         <v>45019</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -47728,7 +47728,7 @@
         <v>45020</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -47785,7 +47785,7 @@
         <v>45020</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -47842,7 +47842,7 @@
         <v>45020</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -47899,7 +47899,7 @@
         <v>45021</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -47956,7 +47956,7 @@
         <v>45030</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -48013,7 +48013,7 @@
         <v>45030</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -48075,7 +48075,7 @@
         <v>45034</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -48132,7 +48132,7 @@
         <v>45036</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -48189,7 +48189,7 @@
         <v>45039</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -48246,7 +48246,7 @@
         <v>45041</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -48303,7 +48303,7 @@
         <v>45047</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -48360,7 +48360,7 @@
         <v>45049</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -48417,7 +48417,7 @@
         <v>45051</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -48474,7 +48474,7 @@
         <v>45051</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -48531,7 +48531,7 @@
         <v>45051</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -48588,7 +48588,7 @@
         <v>45051</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -48645,7 +48645,7 @@
         <v>45051</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -48702,7 +48702,7 @@
         <v>45051</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -48759,7 +48759,7 @@
         <v>45052</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -48816,7 +48816,7 @@
         <v>45056</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -48873,7 +48873,7 @@
         <v>45056</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -48930,7 +48930,7 @@
         <v>45057</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -48987,7 +48987,7 @@
         <v>45058</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -49044,7 +49044,7 @@
         <v>45061</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -49101,7 +49101,7 @@
         <v>45061</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -49158,7 +49158,7 @@
         <v>45062</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -49215,7 +49215,7 @@
         <v>45062</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -49272,7 +49272,7 @@
         <v>45062</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -49329,7 +49329,7 @@
         <v>45070</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -49386,7 +49386,7 @@
         <v>45070</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -49443,7 +49443,7 @@
         <v>45072</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -49500,7 +49500,7 @@
         <v>45075</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -49557,7 +49557,7 @@
         <v>45075</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -49614,7 +49614,7 @@
         <v>45075</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -49671,7 +49671,7 @@
         <v>45075</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -49728,7 +49728,7 @@
         <v>45075</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -49785,7 +49785,7 @@
         <v>45076</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -49842,7 +49842,7 @@
         <v>45076</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -49899,7 +49899,7 @@
         <v>45078</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -49956,7 +49956,7 @@
         <v>45078</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -50013,7 +50013,7 @@
         <v>45078</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -50070,7 +50070,7 @@
         <v>45078</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -50127,7 +50127,7 @@
         <v>45078</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -50184,7 +50184,7 @@
         <v>45078</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -50241,7 +50241,7 @@
         <v>45078</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -50298,7 +50298,7 @@
         <v>45081</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -50360,7 +50360,7 @@
         <v>45082</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -50417,7 +50417,7 @@
         <v>45096</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -50474,7 +50474,7 @@
         <v>45099</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -50531,7 +50531,7 @@
         <v>45104</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -50588,7 +50588,7 @@
         <v>45105</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -50645,7 +50645,7 @@
         <v>45105</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -50702,7 +50702,7 @@
         <v>45106</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -50759,7 +50759,7 @@
         <v>45106</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -50816,7 +50816,7 @@
         <v>45108</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -50873,7 +50873,7 @@
         <v>45110</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -50930,7 +50930,7 @@
         <v>45113</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -50987,7 +50987,7 @@
         <v>45113</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -51044,7 +51044,7 @@
         <v>45119</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -51101,7 +51101,7 @@
         <v>45120</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -51158,7 +51158,7 @@
         <v>45120</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -51215,7 +51215,7 @@
         <v>45121</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -51272,7 +51272,7 @@
         <v>45121</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -51329,7 +51329,7 @@
         <v>45121</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -51386,7 +51386,7 @@
         <v>45121</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -51443,7 +51443,7 @@
         <v>45138</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -51500,7 +51500,7 @@
         <v>45138</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -51557,7 +51557,7 @@
         <v>45145</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -51614,7 +51614,7 @@
         <v>45145</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -51671,7 +51671,7 @@
         <v>45145</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -51728,7 +51728,7 @@
         <v>45145</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -51785,7 +51785,7 @@
         <v>45148</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -51842,7 +51842,7 @@
         <v>45149</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -51899,7 +51899,7 @@
         <v>45149</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -51956,7 +51956,7 @@
         <v>45152</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -52013,7 +52013,7 @@
         <v>45154</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -52070,7 +52070,7 @@
         <v>45155</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -52132,7 +52132,7 @@
         <v>45155</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -52189,7 +52189,7 @@
         <v>45159</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -52246,7 +52246,7 @@
         <v>45159</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -52303,7 +52303,7 @@
         <v>45161</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -52360,7 +52360,7 @@
         <v>45161</v>
       </c>
       <c r="C884" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -52417,7 +52417,7 @@
         <v>45162</v>
       </c>
       <c r="C885" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -52474,7 +52474,7 @@
         <v>45163</v>
       </c>
       <c r="C886" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -52531,7 +52531,7 @@
         <v>45166</v>
       </c>
       <c r="C887" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -52588,7 +52588,7 @@
         <v>45168</v>
       </c>
       <c r="C888" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>

--- a/Översikt ÅRJÄNG.xlsx
+++ b/Översikt ÅRJÄNG.xlsx
@@ -572,7 +572,7 @@
         <v>43607</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -689,7 +689,7 @@
         <v>44824</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -785,7 +785,7 @@
         <v>44649</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -878,7 +878,7 @@
         <v>44585</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -974,7 +974,7 @@
         <v>44970</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1066,7 +1066,7 @@
         <v>45084</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1162,7 +1162,7 @@
         <v>44964</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1253,7 +1253,7 @@
         <v>44873</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1347,7 +1347,7 @@
         <v>45106</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1437,7 +1437,7 @@
         <v>43621</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1530,7 +1530,7 @@
         <v>43880</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1623,7 +1623,7 @@
         <v>44140</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1712,7 +1712,7 @@
         <v>43852</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1804,7 +1804,7 @@
         <v>44375</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1892,7 +1892,7 @@
         <v>44678</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1980,7 +1980,7 @@
         <v>45051</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2068,7 +2068,7 @@
         <v>43922</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2159,7 +2159,7 @@
         <v>44377</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2250,7 +2250,7 @@
         <v>43852</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2336,7 +2336,7 @@
         <v>43880</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2426,7 +2426,7 @@
         <v>44515</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2516,7 +2516,7 @@
         <v>44872</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2606,7 +2606,7 @@
         <v>44935</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2692,7 +2692,7 @@
         <v>45001</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2778,7 +2778,7 @@
         <v>43621</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2867,7 +2867,7 @@
         <v>43696</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2952,7 +2952,7 @@
         <v>43725</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3037,7 +3037,7 @@
         <v>43731</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3122,7 +3122,7 @@
         <v>43734</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3207,7 +3207,7 @@
         <v>43763</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3292,7 +3292,7 @@
         <v>43839</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3377,7 +3377,7 @@
         <v>44050</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3462,7 +3462,7 @@
         <v>44061</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         <v>44217</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3632,7 +3632,7 @@
         <v>44285</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3717,7 +3717,7 @@
         <v>44356</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3802,7 +3802,7 @@
         <v>44379</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3887,7 +3887,7 @@
         <v>44846</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3976,7 +3976,7 @@
         <v>44873</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4061,7 +4061,7 @@
         <v>45111</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4146,7 +4146,7 @@
         <v>43326</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4203,7 +4203,7 @@
         <v>43335</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4260,7 +4260,7 @@
         <v>43335</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4317,7 +4317,7 @@
         <v>43335</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4374,7 +4374,7 @@
         <v>43339</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4431,7 +4431,7 @@
         <v>43346</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4488,7 +4488,7 @@
         <v>43346</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4545,7 +4545,7 @@
         <v>43347</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4602,7 +4602,7 @@
         <v>43349</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4659,7 +4659,7 @@
         <v>43353</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4716,7 +4716,7 @@
         <v>43353</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4773,7 +4773,7 @@
         <v>43353</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4830,7 +4830,7 @@
         <v>43353</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4887,7 +4887,7 @@
         <v>43353</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4944,7 +4944,7 @@
         <v>43354</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5001,7 +5001,7 @@
         <v>43354</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5058,7 +5058,7 @@
         <v>43355</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5115,7 +5115,7 @@
         <v>43367</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5172,7 +5172,7 @@
         <v>43369</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5229,7 +5229,7 @@
         <v>43381</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5286,7 +5286,7 @@
         <v>43381</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5343,7 +5343,7 @@
         <v>43390</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5400,7 +5400,7 @@
         <v>43395</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5457,7 +5457,7 @@
         <v>43395</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5514,7 +5514,7 @@
         <v>43399</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5571,7 +5571,7 @@
         <v>43399</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5628,7 +5628,7 @@
         <v>43401</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5685,7 +5685,7 @@
         <v>43403</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5742,7 +5742,7 @@
         <v>43403</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5799,7 +5799,7 @@
         <v>43403</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5856,7 +5856,7 @@
         <v>43403</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5913,7 +5913,7 @@
         <v>43403</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5970,7 +5970,7 @@
         <v>43403</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6027,7 +6027,7 @@
         <v>43403</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6084,7 +6084,7 @@
         <v>43403</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6141,7 +6141,7 @@
         <v>43403</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6198,7 +6198,7 @@
         <v>43406</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6255,7 +6255,7 @@
         <v>43408</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6312,7 +6312,7 @@
         <v>43409</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6369,7 +6369,7 @@
         <v>43419</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6426,7 +6426,7 @@
         <v>43420</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6483,7 +6483,7 @@
         <v>43420</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6540,7 +6540,7 @@
         <v>43430</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6597,7 +6597,7 @@
         <v>43430</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6654,7 +6654,7 @@
         <v>43431</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6711,7 +6711,7 @@
         <v>43432</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6768,7 +6768,7 @@
         <v>43432</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6825,7 +6825,7 @@
         <v>43432</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6882,7 +6882,7 @@
         <v>43432</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6939,7 +6939,7 @@
         <v>43433</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6996,7 +6996,7 @@
         <v>43437</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7053,7 +7053,7 @@
         <v>43437</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7110,7 +7110,7 @@
         <v>43438</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7167,7 +7167,7 @@
         <v>43440</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7224,7 +7224,7 @@
         <v>43441</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7281,7 +7281,7 @@
         <v>43447</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7338,7 +7338,7 @@
         <v>43448</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7395,7 +7395,7 @@
         <v>43451</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7452,7 +7452,7 @@
         <v>43452</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7509,7 +7509,7 @@
         <v>43452</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7566,7 +7566,7 @@
         <v>43453</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7623,7 +7623,7 @@
         <v>43454</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7680,7 +7680,7 @@
         <v>43454</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7737,7 +7737,7 @@
         <v>43455</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7794,7 +7794,7 @@
         <v>43460</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7851,7 +7851,7 @@
         <v>43467</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7908,7 +7908,7 @@
         <v>43467</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7965,7 +7965,7 @@
         <v>43467</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8022,7 +8022,7 @@
         <v>43474</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8079,7 +8079,7 @@
         <v>43474</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8136,7 +8136,7 @@
         <v>43475</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8193,7 +8193,7 @@
         <v>43475</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8250,7 +8250,7 @@
         <v>43476</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8307,7 +8307,7 @@
         <v>43479</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8364,7 +8364,7 @@
         <v>43479</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8421,7 +8421,7 @@
         <v>43481</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8478,7 +8478,7 @@
         <v>43486</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8535,7 +8535,7 @@
         <v>43486</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8592,7 +8592,7 @@
         <v>43487</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8649,7 +8649,7 @@
         <v>43488</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8706,7 +8706,7 @@
         <v>43488</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8763,7 +8763,7 @@
         <v>43488</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8820,7 +8820,7 @@
         <v>43490</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8877,7 +8877,7 @@
         <v>43490</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8934,7 +8934,7 @@
         <v>43494</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8991,7 +8991,7 @@
         <v>43496</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9048,7 +9048,7 @@
         <v>43500</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9105,7 +9105,7 @@
         <v>43500</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9162,7 +9162,7 @@
         <v>43502</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9219,7 +9219,7 @@
         <v>43502</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9276,7 +9276,7 @@
         <v>43504</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9333,7 +9333,7 @@
         <v>43504</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9390,7 +9390,7 @@
         <v>43507</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9447,7 +9447,7 @@
         <v>43508</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9504,7 +9504,7 @@
         <v>43508</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9561,7 +9561,7 @@
         <v>43510</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9618,7 +9618,7 @@
         <v>43511</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9675,7 +9675,7 @@
         <v>43516</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9732,7 +9732,7 @@
         <v>43523</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9789,7 +9789,7 @@
         <v>43523</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9846,7 +9846,7 @@
         <v>43523</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9903,7 +9903,7 @@
         <v>43523</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9960,7 +9960,7 @@
         <v>43524</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10017,7 +10017,7 @@
         <v>43524</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10074,7 +10074,7 @@
         <v>43525</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10131,7 +10131,7 @@
         <v>43531</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10188,7 +10188,7 @@
         <v>43532</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10250,7 +10250,7 @@
         <v>43538</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10307,7 +10307,7 @@
         <v>43539</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10364,7 +10364,7 @@
         <v>43542</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10421,7 +10421,7 @@
         <v>43542</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10478,7 +10478,7 @@
         <v>43542</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10535,7 +10535,7 @@
         <v>43542</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10592,7 +10592,7 @@
         <v>43543</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10649,7 +10649,7 @@
         <v>43543</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10706,7 +10706,7 @@
         <v>43545</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10763,7 +10763,7 @@
         <v>43549</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10820,7 +10820,7 @@
         <v>43549</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10877,7 +10877,7 @@
         <v>43551</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10934,7 +10934,7 @@
         <v>43552</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10991,7 +10991,7 @@
         <v>43555</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11048,7 +11048,7 @@
         <v>43556</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11105,7 +11105,7 @@
         <v>43558</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11162,7 +11162,7 @@
         <v>43559</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11219,7 +11219,7 @@
         <v>43560</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11276,7 +11276,7 @@
         <v>43563</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11333,7 +11333,7 @@
         <v>43563</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11390,7 +11390,7 @@
         <v>43563</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11447,7 +11447,7 @@
         <v>43567</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11504,7 +11504,7 @@
         <v>43569</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11561,7 +11561,7 @@
         <v>43570</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11618,7 +11618,7 @@
         <v>43573</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11675,7 +11675,7 @@
         <v>43573</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11732,7 +11732,7 @@
         <v>43573</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11789,7 +11789,7 @@
         <v>43580</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11846,7 +11846,7 @@
         <v>43581</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11908,7 +11908,7 @@
         <v>43581</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11970,7 +11970,7 @@
         <v>43585</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12027,7 +12027,7 @@
         <v>43585</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12084,7 +12084,7 @@
         <v>43587</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12141,7 +12141,7 @@
         <v>43594</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12198,7 +12198,7 @@
         <v>43594</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12255,7 +12255,7 @@
         <v>43594</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12312,7 +12312,7 @@
         <v>43594</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12369,7 +12369,7 @@
         <v>43594</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12426,7 +12426,7 @@
         <v>43594</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12483,7 +12483,7 @@
         <v>43598</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12540,7 +12540,7 @@
         <v>43599</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12597,7 +12597,7 @@
         <v>43606</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12654,7 +12654,7 @@
         <v>43606</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12711,7 +12711,7 @@
         <v>43606</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12768,7 +12768,7 @@
         <v>43607</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12825,7 +12825,7 @@
         <v>43608</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12882,7 +12882,7 @@
         <v>43609</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12944,7 +12944,7 @@
         <v>43614</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13001,7 +13001,7 @@
         <v>43614</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13058,7 +13058,7 @@
         <v>43621</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13115,7 +13115,7 @@
         <v>43621</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13172,7 +13172,7 @@
         <v>43628</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13229,7 +13229,7 @@
         <v>43633</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13286,7 +13286,7 @@
         <v>43636</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13343,7 +13343,7 @@
         <v>43642</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13400,7 +13400,7 @@
         <v>43646</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13462,7 +13462,7 @@
         <v>43646</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13524,7 +13524,7 @@
         <v>43647</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13581,7 +13581,7 @@
         <v>43648</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13638,7 +13638,7 @@
         <v>43649</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13695,7 +13695,7 @@
         <v>43649</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13752,7 +13752,7 @@
         <v>43649</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13809,7 +13809,7 @@
         <v>43649</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13866,7 +13866,7 @@
         <v>43650</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13923,7 +13923,7 @@
         <v>43650</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13980,7 +13980,7 @@
         <v>43652</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14037,7 +14037,7 @@
         <v>43653</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14094,7 +14094,7 @@
         <v>43654</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14151,7 +14151,7 @@
         <v>43654</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14208,7 +14208,7 @@
         <v>43655</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14265,7 +14265,7 @@
         <v>43655</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14322,7 +14322,7 @@
         <v>43675</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14379,7 +14379,7 @@
         <v>43684</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14436,7 +14436,7 @@
         <v>43684</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14493,7 +14493,7 @@
         <v>43696</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14550,7 +14550,7 @@
         <v>43697</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14607,7 +14607,7 @@
         <v>43697</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14664,7 +14664,7 @@
         <v>43698</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14721,7 +14721,7 @@
         <v>43699</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14778,7 +14778,7 @@
         <v>43699</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14835,7 +14835,7 @@
         <v>43699</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14892,7 +14892,7 @@
         <v>43700</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14949,7 +14949,7 @@
         <v>43700</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15006,7 +15006,7 @@
         <v>43703</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15063,7 +15063,7 @@
         <v>43703</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15120,7 +15120,7 @@
         <v>43703</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15177,7 +15177,7 @@
         <v>43705</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15234,7 +15234,7 @@
         <v>43705</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15291,7 +15291,7 @@
         <v>43705</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15348,7 +15348,7 @@
         <v>43705</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15405,7 +15405,7 @@
         <v>43707</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15462,7 +15462,7 @@
         <v>43707</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15524,7 +15524,7 @@
         <v>43707</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15581,7 +15581,7 @@
         <v>43710</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15638,7 +15638,7 @@
         <v>43711</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15695,7 +15695,7 @@
         <v>43718</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15757,7 +15757,7 @@
         <v>43721</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15814,7 +15814,7 @@
         <v>43721</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15871,7 +15871,7 @@
         <v>43724</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15933,7 +15933,7 @@
         <v>43727</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15990,7 +15990,7 @@
         <v>43727</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16047,7 +16047,7 @@
         <v>43727</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16104,7 +16104,7 @@
         <v>43728</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16161,7 +16161,7 @@
         <v>43730</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16218,7 +16218,7 @@
         <v>43731</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16275,7 +16275,7 @@
         <v>43732</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16332,7 +16332,7 @@
         <v>43734</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16389,7 +16389,7 @@
         <v>43740</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16446,7 +16446,7 @@
         <v>43740</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16503,7 +16503,7 @@
         <v>43741</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16560,7 +16560,7 @@
         <v>43742</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16617,7 +16617,7 @@
         <v>43748</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16674,7 +16674,7 @@
         <v>43749</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16731,7 +16731,7 @@
         <v>43759</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16793,7 +16793,7 @@
         <v>43762</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16850,7 +16850,7 @@
         <v>43762</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16907,7 +16907,7 @@
         <v>43766</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16964,7 +16964,7 @@
         <v>43768</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17026,7 +17026,7 @@
         <v>43769</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17083,7 +17083,7 @@
         <v>43770</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17140,7 +17140,7 @@
         <v>43776</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17197,7 +17197,7 @@
         <v>43782</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17254,7 +17254,7 @@
         <v>43791</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17311,7 +17311,7 @@
         <v>43802</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17368,7 +17368,7 @@
         <v>43804</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17425,7 +17425,7 @@
         <v>43815</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17482,7 +17482,7 @@
         <v>43819</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17539,7 +17539,7 @@
         <v>43819</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17596,7 +17596,7 @@
         <v>43822</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17653,7 +17653,7 @@
         <v>43822</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17710,7 +17710,7 @@
         <v>43833</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17767,7 +17767,7 @@
         <v>43843</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17824,7 +17824,7 @@
         <v>43843</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17881,7 +17881,7 @@
         <v>43843</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17938,7 +17938,7 @@
         <v>43847</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17995,7 +17995,7 @@
         <v>43847</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18052,7 +18052,7 @@
         <v>43847</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18109,7 +18109,7 @@
         <v>43847</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18166,7 +18166,7 @@
         <v>43848</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18223,7 +18223,7 @@
         <v>43852</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18280,7 +18280,7 @@
         <v>43852</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18337,7 +18337,7 @@
         <v>43852</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18394,7 +18394,7 @@
         <v>43852</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18451,7 +18451,7 @@
         <v>43852</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18508,7 +18508,7 @@
         <v>43861</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18565,7 +18565,7 @@
         <v>43861</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18622,7 +18622,7 @@
         <v>43861</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18679,7 +18679,7 @@
         <v>43861</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18736,7 +18736,7 @@
         <v>43861</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18793,7 +18793,7 @@
         <v>43861</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18850,7 +18850,7 @@
         <v>43866</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18907,7 +18907,7 @@
         <v>43868</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18964,7 +18964,7 @@
         <v>43868</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19021,7 +19021,7 @@
         <v>43872</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19078,7 +19078,7 @@
         <v>43873</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19135,7 +19135,7 @@
         <v>43874</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19192,7 +19192,7 @@
         <v>43874</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19249,7 +19249,7 @@
         <v>43878</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19306,7 +19306,7 @@
         <v>43878</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19363,7 +19363,7 @@
         <v>43878</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19420,7 +19420,7 @@
         <v>43879</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19477,7 +19477,7 @@
         <v>43879</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19534,7 +19534,7 @@
         <v>43885</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19591,7 +19591,7 @@
         <v>43885</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19648,7 +19648,7 @@
         <v>43885</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19705,7 +19705,7 @@
         <v>43886</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19762,7 +19762,7 @@
         <v>43886</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19819,7 +19819,7 @@
         <v>43886</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19876,7 +19876,7 @@
         <v>43887</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19933,7 +19933,7 @@
         <v>43888</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19990,7 +19990,7 @@
         <v>43892</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20047,7 +20047,7 @@
         <v>43892</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20104,7 +20104,7 @@
         <v>43892</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20161,7 +20161,7 @@
         <v>43893</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20218,7 +20218,7 @@
         <v>43899</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20275,7 +20275,7 @@
         <v>43899</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20332,7 +20332,7 @@
         <v>43901</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20389,7 +20389,7 @@
         <v>43901</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20446,7 +20446,7 @@
         <v>43902</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20503,7 +20503,7 @@
         <v>43902</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20560,7 +20560,7 @@
         <v>43902</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20617,7 +20617,7 @@
         <v>43903</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20674,7 +20674,7 @@
         <v>43906</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20731,7 +20731,7 @@
         <v>43906</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20788,7 +20788,7 @@
         <v>43906</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20845,7 +20845,7 @@
         <v>43906</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20902,7 +20902,7 @@
         <v>43906</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20959,7 +20959,7 @@
         <v>43906</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21016,7 +21016,7 @@
         <v>43906</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21073,7 +21073,7 @@
         <v>43907</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21130,7 +21130,7 @@
         <v>43907</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21187,7 +21187,7 @@
         <v>43910</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21244,7 +21244,7 @@
         <v>43910</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21301,7 +21301,7 @@
         <v>43915</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21358,7 +21358,7 @@
         <v>43915</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21415,7 +21415,7 @@
         <v>43915</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21472,7 +21472,7 @@
         <v>43920</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21529,7 +21529,7 @@
         <v>43921</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21586,7 +21586,7 @@
         <v>43923</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21643,7 +21643,7 @@
         <v>43924</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21700,7 +21700,7 @@
         <v>43924</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21757,7 +21757,7 @@
         <v>43932</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21814,7 +21814,7 @@
         <v>43955</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21871,7 +21871,7 @@
         <v>43963</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21928,7 +21928,7 @@
         <v>43964</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21985,7 +21985,7 @@
         <v>43965</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22042,7 +22042,7 @@
         <v>43965</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22099,7 +22099,7 @@
         <v>43969</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22156,7 +22156,7 @@
         <v>43975</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22213,7 +22213,7 @@
         <v>43978</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22270,7 +22270,7 @@
         <v>43978</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22327,7 +22327,7 @@
         <v>43985</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22384,7 +22384,7 @@
         <v>43986</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22441,7 +22441,7 @@
         <v>43987</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22498,7 +22498,7 @@
         <v>44004</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22555,7 +22555,7 @@
         <v>44004</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22612,7 +22612,7 @@
         <v>44006</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22669,7 +22669,7 @@
         <v>44006</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22726,7 +22726,7 @@
         <v>44013</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22783,7 +22783,7 @@
         <v>44013</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22840,7 +22840,7 @@
         <v>44018</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22897,7 +22897,7 @@
         <v>44019</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22959,7 +22959,7 @@
         <v>44019</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23021,7 +23021,7 @@
         <v>44036</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23078,7 +23078,7 @@
         <v>44036</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23135,7 +23135,7 @@
         <v>44036</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23192,7 +23192,7 @@
         <v>44036</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23249,7 +23249,7 @@
         <v>44036</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23306,7 +23306,7 @@
         <v>44036</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23363,7 +23363,7 @@
         <v>44036</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23420,7 +23420,7 @@
         <v>44036</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23477,7 +23477,7 @@
         <v>44036</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23534,7 +23534,7 @@
         <v>44036</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23591,7 +23591,7 @@
         <v>44040</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23653,7 +23653,7 @@
         <v>44042</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23710,7 +23710,7 @@
         <v>44047</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23767,7 +23767,7 @@
         <v>44050</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23824,7 +23824,7 @@
         <v>44054</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23881,7 +23881,7 @@
         <v>44060</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23943,7 +23943,7 @@
         <v>44061</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24000,7 +24000,7 @@
         <v>44063</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24057,7 +24057,7 @@
         <v>44069</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24114,7 +24114,7 @@
         <v>44069</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24171,7 +24171,7 @@
         <v>44070</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24228,7 +24228,7 @@
         <v>44074</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24285,7 +24285,7 @@
         <v>44074</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24342,7 +24342,7 @@
         <v>44076</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24399,7 +24399,7 @@
         <v>44081</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24456,7 +24456,7 @@
         <v>44084</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24513,7 +24513,7 @@
         <v>44084</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24570,7 +24570,7 @@
         <v>44091</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24627,7 +24627,7 @@
         <v>44091</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24684,7 +24684,7 @@
         <v>44096</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24741,7 +24741,7 @@
         <v>44097</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24798,7 +24798,7 @@
         <v>44101</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24855,7 +24855,7 @@
         <v>44102</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24912,7 +24912,7 @@
         <v>44102</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24969,7 +24969,7 @@
         <v>44103</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25026,7 +25026,7 @@
         <v>44103</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25083,7 +25083,7 @@
         <v>44105</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25140,7 +25140,7 @@
         <v>44109</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25197,7 +25197,7 @@
         <v>44110</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25254,7 +25254,7 @@
         <v>44110</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25311,7 +25311,7 @@
         <v>44113</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25368,7 +25368,7 @@
         <v>44123</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25425,7 +25425,7 @@
         <v>44134</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25482,7 +25482,7 @@
         <v>44134</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25539,7 +25539,7 @@
         <v>44138</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25596,7 +25596,7 @@
         <v>44140</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25653,7 +25653,7 @@
         <v>44140</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25710,7 +25710,7 @@
         <v>44140</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25767,7 +25767,7 @@
         <v>44140</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25824,7 +25824,7 @@
         <v>44140</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25881,7 +25881,7 @@
         <v>44145</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25938,7 +25938,7 @@
         <v>44155</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25995,7 +25995,7 @@
         <v>44159</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26052,7 +26052,7 @@
         <v>44165</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26109,7 +26109,7 @@
         <v>44168</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26166,7 +26166,7 @@
         <v>44168</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26223,7 +26223,7 @@
         <v>44168</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26280,7 +26280,7 @@
         <v>44174</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26337,7 +26337,7 @@
         <v>44174</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26399,7 +26399,7 @@
         <v>44174</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26456,7 +26456,7 @@
         <v>44174</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26513,7 +26513,7 @@
         <v>44175</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26570,7 +26570,7 @@
         <v>44175</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26627,7 +26627,7 @@
         <v>44179</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26684,7 +26684,7 @@
         <v>44186</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26741,7 +26741,7 @@
         <v>44187</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26798,7 +26798,7 @@
         <v>44187</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26855,7 +26855,7 @@
         <v>44194</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26912,7 +26912,7 @@
         <v>44195</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26969,7 +26969,7 @@
         <v>44195</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27026,7 +27026,7 @@
         <v>44201</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27083,7 +27083,7 @@
         <v>44201</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27140,7 +27140,7 @@
         <v>44207</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27197,7 +27197,7 @@
         <v>44214</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27254,7 +27254,7 @@
         <v>44215</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27311,7 +27311,7 @@
         <v>44217</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27368,7 +27368,7 @@
         <v>44217</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27425,7 +27425,7 @@
         <v>44221</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27482,7 +27482,7 @@
         <v>44223</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27539,7 +27539,7 @@
         <v>44224</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27596,7 +27596,7 @@
         <v>44229</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27653,7 +27653,7 @@
         <v>44230</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27710,7 +27710,7 @@
         <v>44235</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27767,7 +27767,7 @@
         <v>44235</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27824,7 +27824,7 @@
         <v>44236</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27881,7 +27881,7 @@
         <v>44236</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27938,7 +27938,7 @@
         <v>44237</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27995,7 +27995,7 @@
         <v>44237</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28052,7 +28052,7 @@
         <v>44238</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28109,7 +28109,7 @@
         <v>44239</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28166,7 +28166,7 @@
         <v>44239</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28223,7 +28223,7 @@
         <v>44239</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28280,7 +28280,7 @@
         <v>44240</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28337,7 +28337,7 @@
         <v>44242</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28394,7 +28394,7 @@
         <v>44242</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28451,7 +28451,7 @@
         <v>44246</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28513,7 +28513,7 @@
         <v>44246</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28575,7 +28575,7 @@
         <v>44248</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28632,7 +28632,7 @@
         <v>44251</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28689,7 +28689,7 @@
         <v>44251</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28746,7 +28746,7 @@
         <v>44258</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28803,7 +28803,7 @@
         <v>44258</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28860,7 +28860,7 @@
         <v>44258</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28917,7 +28917,7 @@
         <v>44261</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28974,7 +28974,7 @@
         <v>44265</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29031,7 +29031,7 @@
         <v>44266</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29088,7 +29088,7 @@
         <v>44271</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29145,7 +29145,7 @@
         <v>44272</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29207,7 +29207,7 @@
         <v>44282</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29269,7 +29269,7 @@
         <v>44292</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29326,7 +29326,7 @@
         <v>44301</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29383,7 +29383,7 @@
         <v>44306</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29440,7 +29440,7 @@
         <v>44308</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29497,7 +29497,7 @@
         <v>44309</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29554,7 +29554,7 @@
         <v>44311</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29611,7 +29611,7 @@
         <v>44322</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29668,7 +29668,7 @@
         <v>44323</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29725,7 +29725,7 @@
         <v>44329</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29782,7 +29782,7 @@
         <v>44333</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29839,7 +29839,7 @@
         <v>44347</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29896,7 +29896,7 @@
         <v>44347</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29953,7 +29953,7 @@
         <v>44354</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30010,7 +30010,7 @@
         <v>44354</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30067,7 +30067,7 @@
         <v>44354</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30124,7 +30124,7 @@
         <v>44362</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30181,7 +30181,7 @@
         <v>44362</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30238,7 +30238,7 @@
         <v>44365</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30295,7 +30295,7 @@
         <v>44365</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30352,7 +30352,7 @@
         <v>44375</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30409,7 +30409,7 @@
         <v>44376</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30466,7 +30466,7 @@
         <v>44376</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30523,7 +30523,7 @@
         <v>44378</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30585,7 +30585,7 @@
         <v>44380</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30642,7 +30642,7 @@
         <v>44383</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30699,7 +30699,7 @@
         <v>44383</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30756,7 +30756,7 @@
         <v>44384</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30813,7 +30813,7 @@
         <v>44384</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30870,7 +30870,7 @@
         <v>44385</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30927,7 +30927,7 @@
         <v>44389</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30984,7 +30984,7 @@
         <v>44391</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31041,7 +31041,7 @@
         <v>44392</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31098,7 +31098,7 @@
         <v>44396</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31155,7 +31155,7 @@
         <v>44412</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31212,7 +31212,7 @@
         <v>44417</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31274,7 +31274,7 @@
         <v>44421</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31331,7 +31331,7 @@
         <v>44421</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31388,7 +31388,7 @@
         <v>44424</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31445,7 +31445,7 @@
         <v>44428</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31502,7 +31502,7 @@
         <v>44431</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31559,7 +31559,7 @@
         <v>44431</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31616,7 +31616,7 @@
         <v>44433</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31673,7 +31673,7 @@
         <v>44441</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31730,7 +31730,7 @@
         <v>44442</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31787,7 +31787,7 @@
         <v>44442</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31844,7 +31844,7 @@
         <v>44445</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31901,7 +31901,7 @@
         <v>44446</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31958,7 +31958,7 @@
         <v>44446</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32015,7 +32015,7 @@
         <v>44446</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32072,7 +32072,7 @@
         <v>44446</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32129,7 +32129,7 @@
         <v>44446</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32186,7 +32186,7 @@
         <v>44446</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32243,7 +32243,7 @@
         <v>44446</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32300,7 +32300,7 @@
         <v>44446</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32357,7 +32357,7 @@
         <v>44446</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32414,7 +32414,7 @@
         <v>44446</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32471,7 +32471,7 @@
         <v>44446</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32528,7 +32528,7 @@
         <v>44446</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32585,7 +32585,7 @@
         <v>44446</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32642,7 +32642,7 @@
         <v>44446</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32699,7 +32699,7 @@
         <v>44446</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32756,7 +32756,7 @@
         <v>44446</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32813,7 +32813,7 @@
         <v>44446</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32870,7 +32870,7 @@
         <v>44446</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32927,7 +32927,7 @@
         <v>44447</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32984,7 +32984,7 @@
         <v>44448</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33041,7 +33041,7 @@
         <v>44452</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33098,7 +33098,7 @@
         <v>44455</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33155,7 +33155,7 @@
         <v>44457</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33212,7 +33212,7 @@
         <v>44457</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33269,7 +33269,7 @@
         <v>44459</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33326,7 +33326,7 @@
         <v>44459</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33383,7 +33383,7 @@
         <v>44459</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33440,7 +33440,7 @@
         <v>44459</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33497,7 +33497,7 @@
         <v>44459</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33554,7 +33554,7 @@
         <v>44463</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33616,7 +33616,7 @@
         <v>44467</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33673,7 +33673,7 @@
         <v>44468</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33730,7 +33730,7 @@
         <v>44469</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33787,7 +33787,7 @@
         <v>44469</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33844,7 +33844,7 @@
         <v>44469</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33901,7 +33901,7 @@
         <v>44469</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33958,7 +33958,7 @@
         <v>44469</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34015,7 +34015,7 @@
         <v>44476</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34072,7 +34072,7 @@
         <v>44480</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34129,7 +34129,7 @@
         <v>44481</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34186,7 +34186,7 @@
         <v>44482</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34243,7 +34243,7 @@
         <v>44490</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34300,7 +34300,7 @@
         <v>44491</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34357,7 +34357,7 @@
         <v>44491</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34414,7 +34414,7 @@
         <v>44491</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34471,7 +34471,7 @@
         <v>44495</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34528,7 +34528,7 @@
         <v>44496</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34585,7 +34585,7 @@
         <v>44496</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34642,7 +34642,7 @@
         <v>44496</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34699,7 +34699,7 @@
         <v>44496</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34756,7 +34756,7 @@
         <v>44496</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34813,7 +34813,7 @@
         <v>44497</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34870,7 +34870,7 @@
         <v>44497</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34927,7 +34927,7 @@
         <v>44497</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34984,7 +34984,7 @@
         <v>44497</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35041,7 +35041,7 @@
         <v>44498</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35103,7 +35103,7 @@
         <v>44498</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35160,7 +35160,7 @@
         <v>44498</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35217,7 +35217,7 @@
         <v>44502</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35274,7 +35274,7 @@
         <v>44504</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35331,7 +35331,7 @@
         <v>44509</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35388,7 +35388,7 @@
         <v>44509</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35445,7 +35445,7 @@
         <v>44509</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35502,7 +35502,7 @@
         <v>44510</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35559,7 +35559,7 @@
         <v>44512</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35616,7 +35616,7 @@
         <v>44517</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35673,7 +35673,7 @@
         <v>44517</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35730,7 +35730,7 @@
         <v>44519</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35787,7 +35787,7 @@
         <v>44522</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35844,7 +35844,7 @@
         <v>44522</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35901,7 +35901,7 @@
         <v>44531</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35958,7 +35958,7 @@
         <v>44532</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36015,7 +36015,7 @@
         <v>44532</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36072,7 +36072,7 @@
         <v>44536</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36129,7 +36129,7 @@
         <v>44537</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36186,7 +36186,7 @@
         <v>44539</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36243,7 +36243,7 @@
         <v>44539</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36300,7 +36300,7 @@
         <v>44540</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36362,7 +36362,7 @@
         <v>44540</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36419,7 +36419,7 @@
         <v>44543</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36476,7 +36476,7 @@
         <v>44543</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36533,7 +36533,7 @@
         <v>44543</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36590,7 +36590,7 @@
         <v>44543</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36647,7 +36647,7 @@
         <v>44546</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36704,7 +36704,7 @@
         <v>44550</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36761,7 +36761,7 @@
         <v>44550</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36818,7 +36818,7 @@
         <v>44552</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36875,7 +36875,7 @@
         <v>44552</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36932,7 +36932,7 @@
         <v>44552</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36989,7 +36989,7 @@
         <v>44552</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37046,7 +37046,7 @@
         <v>44553</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37103,7 +37103,7 @@
         <v>44553</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37160,7 +37160,7 @@
         <v>44558</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37217,7 +37217,7 @@
         <v>44561</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -37274,7 +37274,7 @@
         <v>44564</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37331,7 +37331,7 @@
         <v>44566</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -37388,7 +37388,7 @@
         <v>44568</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -37445,7 +37445,7 @@
         <v>44571</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -37502,7 +37502,7 @@
         <v>44571</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -37559,7 +37559,7 @@
         <v>44573</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -37616,7 +37616,7 @@
         <v>44573</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37673,7 +37673,7 @@
         <v>44573</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37730,7 +37730,7 @@
         <v>44578</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -37787,7 +37787,7 @@
         <v>44585</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -37844,7 +37844,7 @@
         <v>44586</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -37901,7 +37901,7 @@
         <v>44587</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -37958,7 +37958,7 @@
         <v>44588</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38015,7 +38015,7 @@
         <v>44589</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38072,7 +38072,7 @@
         <v>44593</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38129,7 +38129,7 @@
         <v>44593</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38186,7 +38186,7 @@
         <v>44595</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38243,7 +38243,7 @@
         <v>44596</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38305,7 +38305,7 @@
         <v>44601</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -38362,7 +38362,7 @@
         <v>44603</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -38419,7 +38419,7 @@
         <v>44606</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -38476,7 +38476,7 @@
         <v>44607</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -38533,7 +38533,7 @@
         <v>44609</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -38590,7 +38590,7 @@
         <v>44610</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -38647,7 +38647,7 @@
         <v>44612</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -38704,7 +38704,7 @@
         <v>44616</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -38761,7 +38761,7 @@
         <v>44617</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -38818,7 +38818,7 @@
         <v>44621</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -38875,7 +38875,7 @@
         <v>44624</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -38932,7 +38932,7 @@
         <v>44627</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -38989,7 +38989,7 @@
         <v>44627</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -39046,7 +39046,7 @@
         <v>44628</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -39103,7 +39103,7 @@
         <v>44628</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -39160,7 +39160,7 @@
         <v>44628</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -39217,7 +39217,7 @@
         <v>44631</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -39279,7 +39279,7 @@
         <v>44631</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -39341,7 +39341,7 @@
         <v>44631</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -39398,7 +39398,7 @@
         <v>44631</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -39455,7 +39455,7 @@
         <v>44635</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -39512,7 +39512,7 @@
         <v>44635</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -39569,7 +39569,7 @@
         <v>44636</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -39626,7 +39626,7 @@
         <v>44643</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -39683,7 +39683,7 @@
         <v>44643</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -39740,7 +39740,7 @@
         <v>44643</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -39797,7 +39797,7 @@
         <v>44643</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -39854,7 +39854,7 @@
         <v>44643</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -39911,7 +39911,7 @@
         <v>44643</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -39968,7 +39968,7 @@
         <v>44650</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -40025,7 +40025,7 @@
         <v>44652</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -40082,7 +40082,7 @@
         <v>44655</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -40139,7 +40139,7 @@
         <v>44655</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -40196,7 +40196,7 @@
         <v>44659</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -40253,7 +40253,7 @@
         <v>44671</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -40310,7 +40310,7 @@
         <v>44671</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -40367,7 +40367,7 @@
         <v>44671</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -40424,7 +40424,7 @@
         <v>44672</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -40481,7 +40481,7 @@
         <v>44672</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -40538,7 +40538,7 @@
         <v>44677</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -40595,7 +40595,7 @@
         <v>44684</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -40652,7 +40652,7 @@
         <v>44685</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -40709,7 +40709,7 @@
         <v>44686</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -40766,7 +40766,7 @@
         <v>44687</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -40823,7 +40823,7 @@
         <v>44690</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -40880,7 +40880,7 @@
         <v>44691</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -40937,7 +40937,7 @@
         <v>44694</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -40994,7 +40994,7 @@
         <v>44697</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -41051,7 +41051,7 @@
         <v>44697</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -41108,7 +41108,7 @@
         <v>44704</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -41165,7 +41165,7 @@
         <v>44705</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -41222,7 +41222,7 @@
         <v>44705</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -41279,7 +41279,7 @@
         <v>44711</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -41336,7 +41336,7 @@
         <v>44712</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -41393,7 +41393,7 @@
         <v>44726</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -41450,7 +41450,7 @@
         <v>44728</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -41507,7 +41507,7 @@
         <v>44728</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -41564,7 +41564,7 @@
         <v>44733</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -41626,7 +41626,7 @@
         <v>44747</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -41688,7 +41688,7 @@
         <v>44747</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -41750,7 +41750,7 @@
         <v>44747</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -41812,7 +41812,7 @@
         <v>44747</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -41869,7 +41869,7 @@
         <v>44750</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -41926,7 +41926,7 @@
         <v>44750</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -41983,7 +41983,7 @@
         <v>44761</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -42040,7 +42040,7 @@
         <v>44761</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -42097,7 +42097,7 @@
         <v>44761</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -42154,7 +42154,7 @@
         <v>44790</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -42211,7 +42211,7 @@
         <v>44796</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -42268,7 +42268,7 @@
         <v>44799</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -42325,7 +42325,7 @@
         <v>44804</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -42382,7 +42382,7 @@
         <v>44804</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -42439,7 +42439,7 @@
         <v>44806</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -42496,7 +42496,7 @@
         <v>44806</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -42553,7 +42553,7 @@
         <v>44812</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -42610,7 +42610,7 @@
         <v>44816</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -42667,7 +42667,7 @@
         <v>44818</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -42724,7 +42724,7 @@
         <v>44818</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -42781,7 +42781,7 @@
         <v>44824</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -42838,7 +42838,7 @@
         <v>44825</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -42895,7 +42895,7 @@
         <v>44825</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -42952,7 +42952,7 @@
         <v>44830</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -43009,7 +43009,7 @@
         <v>44832</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -43066,7 +43066,7 @@
         <v>44832</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -43123,7 +43123,7 @@
         <v>44839</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -43180,7 +43180,7 @@
         <v>44839</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -43237,7 +43237,7 @@
         <v>44839</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -43294,7 +43294,7 @@
         <v>44844</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -43351,7 +43351,7 @@
         <v>44847</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -43413,7 +43413,7 @@
         <v>44853</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -43470,7 +43470,7 @@
         <v>44853</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -43527,7 +43527,7 @@
         <v>44854</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -43584,7 +43584,7 @@
         <v>44858</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -43641,7 +43641,7 @@
         <v>44859</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -43698,7 +43698,7 @@
         <v>44865</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -43760,7 +43760,7 @@
         <v>44868</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -43817,7 +43817,7 @@
         <v>44868</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -43874,7 +43874,7 @@
         <v>44872</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -43931,7 +43931,7 @@
         <v>44873</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -43988,7 +43988,7 @@
         <v>44876</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -44045,7 +44045,7 @@
         <v>44879</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -44102,7 +44102,7 @@
         <v>44883</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -44159,7 +44159,7 @@
         <v>44886</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -44216,7 +44216,7 @@
         <v>44888</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -44273,7 +44273,7 @@
         <v>44893</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -44335,7 +44335,7 @@
         <v>44893</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -44392,7 +44392,7 @@
         <v>44901</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -44449,7 +44449,7 @@
         <v>44904</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -44506,7 +44506,7 @@
         <v>44904</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -44563,7 +44563,7 @@
         <v>44907</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -44620,7 +44620,7 @@
         <v>44907</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -44677,7 +44677,7 @@
         <v>44911</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -44739,7 +44739,7 @@
         <v>44914</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -44796,7 +44796,7 @@
         <v>44915</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -44853,7 +44853,7 @@
         <v>44916</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -44910,7 +44910,7 @@
         <v>44922</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -44967,7 +44967,7 @@
         <v>44924</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -45024,7 +45024,7 @@
         <v>44928</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -45081,7 +45081,7 @@
         <v>44928</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -45138,7 +45138,7 @@
         <v>44928</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -45195,7 +45195,7 @@
         <v>44935</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -45252,7 +45252,7 @@
         <v>44935</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -45309,7 +45309,7 @@
         <v>44935</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -45366,7 +45366,7 @@
         <v>44935</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -45423,7 +45423,7 @@
         <v>44938</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -45480,7 +45480,7 @@
         <v>44948</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -45537,7 +45537,7 @@
         <v>44949</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -45594,7 +45594,7 @@
         <v>44953</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -45651,7 +45651,7 @@
         <v>44953</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -45708,7 +45708,7 @@
         <v>44953</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -45765,7 +45765,7 @@
         <v>44953</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -45822,7 +45822,7 @@
         <v>44957</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -45879,7 +45879,7 @@
         <v>44963</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -45936,7 +45936,7 @@
         <v>44963</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -45993,7 +45993,7 @@
         <v>44966</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -46050,7 +46050,7 @@
         <v>44967</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -46107,7 +46107,7 @@
         <v>44967</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -46169,7 +46169,7 @@
         <v>44967</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -46231,7 +46231,7 @@
         <v>44968</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -46293,7 +46293,7 @@
         <v>44972</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -46350,7 +46350,7 @@
         <v>44972</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -46407,7 +46407,7 @@
         <v>44973</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -46464,7 +46464,7 @@
         <v>44974</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -46521,7 +46521,7 @@
         <v>44977</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -46578,7 +46578,7 @@
         <v>44978</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -46635,7 +46635,7 @@
         <v>44979</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -46692,7 +46692,7 @@
         <v>44980</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -46749,7 +46749,7 @@
         <v>44984</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -46806,7 +46806,7 @@
         <v>44984</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -46863,7 +46863,7 @@
         <v>44986</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -46920,7 +46920,7 @@
         <v>44986</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -46977,7 +46977,7 @@
         <v>44986</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -47034,7 +47034,7 @@
         <v>44987</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -47091,7 +47091,7 @@
         <v>44991</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -47148,7 +47148,7 @@
         <v>44992</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -47210,7 +47210,7 @@
         <v>44993</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -47267,7 +47267,7 @@
         <v>44995</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -47324,7 +47324,7 @@
         <v>44998</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -47381,7 +47381,7 @@
         <v>45002</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -47438,7 +47438,7 @@
         <v>45002</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -47500,7 +47500,7 @@
         <v>45006</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -47557,7 +47557,7 @@
         <v>45012</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -47614,7 +47614,7 @@
         <v>45015</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -47671,7 +47671,7 @@
         <v>45019</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -47728,7 +47728,7 @@
         <v>45020</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -47785,7 +47785,7 @@
         <v>45020</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -47842,7 +47842,7 @@
         <v>45020</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -47899,7 +47899,7 @@
         <v>45021</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -47956,7 +47956,7 @@
         <v>45030</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -48013,7 +48013,7 @@
         <v>45030</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -48075,7 +48075,7 @@
         <v>45034</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -48132,7 +48132,7 @@
         <v>45036</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -48189,7 +48189,7 @@
         <v>45039</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -48246,7 +48246,7 @@
         <v>45041</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -48303,7 +48303,7 @@
         <v>45047</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -48360,7 +48360,7 @@
         <v>45049</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -48417,7 +48417,7 @@
         <v>45051</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -48474,7 +48474,7 @@
         <v>45051</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -48531,7 +48531,7 @@
         <v>45051</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -48588,7 +48588,7 @@
         <v>45051</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -48645,7 +48645,7 @@
         <v>45051</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -48702,7 +48702,7 @@
         <v>45051</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -48759,7 +48759,7 @@
         <v>45052</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -48816,7 +48816,7 @@
         <v>45056</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -48873,7 +48873,7 @@
         <v>45056</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -48930,7 +48930,7 @@
         <v>45057</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -48987,7 +48987,7 @@
         <v>45058</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -49044,7 +49044,7 @@
         <v>45061</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -49101,7 +49101,7 @@
         <v>45061</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -49158,7 +49158,7 @@
         <v>45062</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -49215,7 +49215,7 @@
         <v>45062</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -49272,7 +49272,7 @@
         <v>45062</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -49329,7 +49329,7 @@
         <v>45070</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -49386,7 +49386,7 @@
         <v>45070</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -49443,7 +49443,7 @@
         <v>45072</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -49500,7 +49500,7 @@
         <v>45075</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -49557,7 +49557,7 @@
         <v>45075</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -49614,7 +49614,7 @@
         <v>45075</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -49671,7 +49671,7 @@
         <v>45075</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -49728,7 +49728,7 @@
         <v>45075</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -49785,7 +49785,7 @@
         <v>45076</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -49842,7 +49842,7 @@
         <v>45076</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -49899,7 +49899,7 @@
         <v>45078</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -49956,7 +49956,7 @@
         <v>45078</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -50013,7 +50013,7 @@
         <v>45078</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -50070,7 +50070,7 @@
         <v>45078</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -50127,7 +50127,7 @@
         <v>45078</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -50184,7 +50184,7 @@
         <v>45078</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -50241,7 +50241,7 @@
         <v>45078</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -50298,7 +50298,7 @@
         <v>45081</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -50360,7 +50360,7 @@
         <v>45082</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -50417,7 +50417,7 @@
         <v>45096</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -50474,7 +50474,7 @@
         <v>45099</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -50531,7 +50531,7 @@
         <v>45104</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -50588,7 +50588,7 @@
         <v>45105</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -50645,7 +50645,7 @@
         <v>45105</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -50702,7 +50702,7 @@
         <v>45106</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -50759,7 +50759,7 @@
         <v>45106</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -50816,7 +50816,7 @@
         <v>45108</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -50873,7 +50873,7 @@
         <v>45110</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -50930,7 +50930,7 @@
         <v>45113</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -50987,7 +50987,7 @@
         <v>45113</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -51044,7 +51044,7 @@
         <v>45119</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -51101,7 +51101,7 @@
         <v>45120</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -51158,7 +51158,7 @@
         <v>45120</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -51215,7 +51215,7 @@
         <v>45121</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -51272,7 +51272,7 @@
         <v>45121</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -51329,7 +51329,7 @@
         <v>45121</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -51386,7 +51386,7 @@
         <v>45121</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -51443,7 +51443,7 @@
         <v>45138</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -51500,7 +51500,7 @@
         <v>45138</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -51557,7 +51557,7 @@
         <v>45145</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -51614,7 +51614,7 @@
         <v>45145</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -51671,7 +51671,7 @@
         <v>45145</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -51728,7 +51728,7 @@
         <v>45145</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -51785,7 +51785,7 @@
         <v>45148</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -51842,7 +51842,7 @@
         <v>45149</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -51899,7 +51899,7 @@
         <v>45149</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -51956,7 +51956,7 @@
         <v>45152</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -52013,7 +52013,7 @@
         <v>45154</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -52070,7 +52070,7 @@
         <v>45155</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -52132,7 +52132,7 @@
         <v>45155</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -52189,7 +52189,7 @@
         <v>45159</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -52246,7 +52246,7 @@
         <v>45159</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -52303,7 +52303,7 @@
         <v>45161</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -52360,7 +52360,7 @@
         <v>45161</v>
       </c>
       <c r="C884" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -52417,7 +52417,7 @@
         <v>45162</v>
       </c>
       <c r="C885" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -52474,7 +52474,7 @@
         <v>45163</v>
       </c>
       <c r="C886" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -52531,7 +52531,7 @@
         <v>45166</v>
       </c>
       <c r="C887" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -52588,7 +52588,7 @@
         <v>45168</v>
       </c>
       <c r="C888" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>

--- a/Översikt ÅRJÄNG.xlsx
+++ b/Översikt ÅRJÄNG.xlsx
@@ -572,7 +572,7 @@
         <v>43607</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -689,7 +689,7 @@
         <v>44824</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -785,7 +785,7 @@
         <v>44649</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -878,7 +878,7 @@
         <v>44585</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -974,7 +974,7 @@
         <v>44970</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1066,7 +1066,7 @@
         <v>45084</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1162,7 +1162,7 @@
         <v>44964</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1253,7 +1253,7 @@
         <v>44873</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1347,7 +1347,7 @@
         <v>45106</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1437,7 +1437,7 @@
         <v>43621</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1530,7 +1530,7 @@
         <v>43880</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1623,7 +1623,7 @@
         <v>44140</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1712,7 +1712,7 @@
         <v>43852</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1804,7 +1804,7 @@
         <v>44375</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1892,7 +1892,7 @@
         <v>44678</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1980,7 +1980,7 @@
         <v>45051</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2068,7 +2068,7 @@
         <v>43922</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2159,7 +2159,7 @@
         <v>44377</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2250,7 +2250,7 @@
         <v>43852</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2336,7 +2336,7 @@
         <v>43880</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2426,7 +2426,7 @@
         <v>44515</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2516,7 +2516,7 @@
         <v>44872</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2606,7 +2606,7 @@
         <v>44935</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2692,7 +2692,7 @@
         <v>45001</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2778,7 +2778,7 @@
         <v>43621</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2867,7 +2867,7 @@
         <v>43696</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2952,7 +2952,7 @@
         <v>43725</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3037,7 +3037,7 @@
         <v>43731</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3122,7 +3122,7 @@
         <v>43734</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3207,7 +3207,7 @@
         <v>43763</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3292,7 +3292,7 @@
         <v>43839</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3377,7 +3377,7 @@
         <v>44050</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3462,7 +3462,7 @@
         <v>44061</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         <v>44217</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3632,7 +3632,7 @@
         <v>44285</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3717,7 +3717,7 @@
         <v>44356</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3802,7 +3802,7 @@
         <v>44379</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3887,7 +3887,7 @@
         <v>44846</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3976,7 +3976,7 @@
         <v>44873</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4061,7 +4061,7 @@
         <v>45111</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4146,7 +4146,7 @@
         <v>43326</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4203,7 +4203,7 @@
         <v>43335</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4260,7 +4260,7 @@
         <v>43335</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4317,7 +4317,7 @@
         <v>43335</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4374,7 +4374,7 @@
         <v>43339</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4431,7 +4431,7 @@
         <v>43346</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4488,7 +4488,7 @@
         <v>43346</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4545,7 +4545,7 @@
         <v>43347</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4602,7 +4602,7 @@
         <v>43349</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4659,7 +4659,7 @@
         <v>43353</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4716,7 +4716,7 @@
         <v>43353</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4773,7 +4773,7 @@
         <v>43353</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4830,7 +4830,7 @@
         <v>43353</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4887,7 +4887,7 @@
         <v>43353</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4944,7 +4944,7 @@
         <v>43354</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5001,7 +5001,7 @@
         <v>43354</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5058,7 +5058,7 @@
         <v>43355</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5115,7 +5115,7 @@
         <v>43367</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5172,7 +5172,7 @@
         <v>43369</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5229,7 +5229,7 @@
         <v>43381</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5286,7 +5286,7 @@
         <v>43381</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5343,7 +5343,7 @@
         <v>43390</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5400,7 +5400,7 @@
         <v>43395</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5457,7 +5457,7 @@
         <v>43395</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5514,7 +5514,7 @@
         <v>43399</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5571,7 +5571,7 @@
         <v>43399</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5628,7 +5628,7 @@
         <v>43401</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5685,7 +5685,7 @@
         <v>43403</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5742,7 +5742,7 @@
         <v>43403</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5799,7 +5799,7 @@
         <v>43403</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5856,7 +5856,7 @@
         <v>43403</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5913,7 +5913,7 @@
         <v>43403</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5970,7 +5970,7 @@
         <v>43403</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6027,7 +6027,7 @@
         <v>43403</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6084,7 +6084,7 @@
         <v>43403</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6141,7 +6141,7 @@
         <v>43403</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6198,7 +6198,7 @@
         <v>43406</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6255,7 +6255,7 @@
         <v>43408</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6312,7 +6312,7 @@
         <v>43409</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6369,7 +6369,7 @@
         <v>43419</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6426,7 +6426,7 @@
         <v>43420</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6483,7 +6483,7 @@
         <v>43420</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6540,7 +6540,7 @@
         <v>43430</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6597,7 +6597,7 @@
         <v>43430</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6654,7 +6654,7 @@
         <v>43431</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6711,7 +6711,7 @@
         <v>43432</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6768,7 +6768,7 @@
         <v>43432</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6825,7 +6825,7 @@
         <v>43432</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6882,7 +6882,7 @@
         <v>43432</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6939,7 +6939,7 @@
         <v>43433</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6996,7 +6996,7 @@
         <v>43437</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7053,7 +7053,7 @@
         <v>43437</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7110,7 +7110,7 @@
         <v>43438</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7167,7 +7167,7 @@
         <v>43440</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7224,7 +7224,7 @@
         <v>43441</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7281,7 +7281,7 @@
         <v>43447</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7338,7 +7338,7 @@
         <v>43448</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7395,7 +7395,7 @@
         <v>43451</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7452,7 +7452,7 @@
         <v>43452</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7509,7 +7509,7 @@
         <v>43452</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7566,7 +7566,7 @@
         <v>43453</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7623,7 +7623,7 @@
         <v>43454</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7680,7 +7680,7 @@
         <v>43454</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7737,7 +7737,7 @@
         <v>43455</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7794,7 +7794,7 @@
         <v>43460</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7851,7 +7851,7 @@
         <v>43467</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7908,7 +7908,7 @@
         <v>43467</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7965,7 +7965,7 @@
         <v>43467</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8022,7 +8022,7 @@
         <v>43474</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8079,7 +8079,7 @@
         <v>43474</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8136,7 +8136,7 @@
         <v>43475</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8193,7 +8193,7 @@
         <v>43475</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8250,7 +8250,7 @@
         <v>43476</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8307,7 +8307,7 @@
         <v>43479</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8364,7 +8364,7 @@
         <v>43479</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8421,7 +8421,7 @@
         <v>43481</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8478,7 +8478,7 @@
         <v>43486</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8535,7 +8535,7 @@
         <v>43486</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8592,7 +8592,7 @@
         <v>43487</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8649,7 +8649,7 @@
         <v>43488</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8706,7 +8706,7 @@
         <v>43488</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8763,7 +8763,7 @@
         <v>43488</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8820,7 +8820,7 @@
         <v>43490</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8877,7 +8877,7 @@
         <v>43490</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8934,7 +8934,7 @@
         <v>43494</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8991,7 +8991,7 @@
         <v>43496</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9048,7 +9048,7 @@
         <v>43500</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9105,7 +9105,7 @@
         <v>43500</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9162,7 +9162,7 @@
         <v>43502</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9219,7 +9219,7 @@
         <v>43502</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9276,7 +9276,7 @@
         <v>43504</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9333,7 +9333,7 @@
         <v>43504</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9390,7 +9390,7 @@
         <v>43507</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9447,7 +9447,7 @@
         <v>43508</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9504,7 +9504,7 @@
         <v>43508</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9561,7 +9561,7 @@
         <v>43510</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9618,7 +9618,7 @@
         <v>43511</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9675,7 +9675,7 @@
         <v>43516</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9732,7 +9732,7 @@
         <v>43523</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9789,7 +9789,7 @@
         <v>43523</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9846,7 +9846,7 @@
         <v>43523</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9903,7 +9903,7 @@
         <v>43523</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9960,7 +9960,7 @@
         <v>43524</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10017,7 +10017,7 @@
         <v>43524</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10074,7 +10074,7 @@
         <v>43525</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10131,7 +10131,7 @@
         <v>43531</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10188,7 +10188,7 @@
         <v>43532</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10250,7 +10250,7 @@
         <v>43538</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10307,7 +10307,7 @@
         <v>43539</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10364,7 +10364,7 @@
         <v>43542</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10421,7 +10421,7 @@
         <v>43542</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10478,7 +10478,7 @@
         <v>43542</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10535,7 +10535,7 @@
         <v>43542</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10592,7 +10592,7 @@
         <v>43543</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10649,7 +10649,7 @@
         <v>43543</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10706,7 +10706,7 @@
         <v>43545</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10763,7 +10763,7 @@
         <v>43549</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10820,7 +10820,7 @@
         <v>43549</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10877,7 +10877,7 @@
         <v>43551</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10934,7 +10934,7 @@
         <v>43552</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10991,7 +10991,7 @@
         <v>43555</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11048,7 +11048,7 @@
         <v>43556</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11105,7 +11105,7 @@
         <v>43558</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11162,7 +11162,7 @@
         <v>43559</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11219,7 +11219,7 @@
         <v>43560</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11276,7 +11276,7 @@
         <v>43563</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11333,7 +11333,7 @@
         <v>43563</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11390,7 +11390,7 @@
         <v>43563</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11447,7 +11447,7 @@
         <v>43567</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11504,7 +11504,7 @@
         <v>43569</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11561,7 +11561,7 @@
         <v>43570</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11618,7 +11618,7 @@
         <v>43573</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11675,7 +11675,7 @@
         <v>43573</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11732,7 +11732,7 @@
         <v>43573</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11789,7 +11789,7 @@
         <v>43580</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11846,7 +11846,7 @@
         <v>43581</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11908,7 +11908,7 @@
         <v>43581</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11970,7 +11970,7 @@
         <v>43585</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12027,7 +12027,7 @@
         <v>43585</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12084,7 +12084,7 @@
         <v>43587</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12141,7 +12141,7 @@
         <v>43594</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12198,7 +12198,7 @@
         <v>43594</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12255,7 +12255,7 @@
         <v>43594</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12312,7 +12312,7 @@
         <v>43594</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12369,7 +12369,7 @@
         <v>43594</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12426,7 +12426,7 @@
         <v>43594</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12483,7 +12483,7 @@
         <v>43598</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12540,7 +12540,7 @@
         <v>43599</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12597,7 +12597,7 @@
         <v>43606</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12654,7 +12654,7 @@
         <v>43606</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12711,7 +12711,7 @@
         <v>43606</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12768,7 +12768,7 @@
         <v>43607</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12825,7 +12825,7 @@
         <v>43608</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12882,7 +12882,7 @@
         <v>43609</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12944,7 +12944,7 @@
         <v>43614</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13001,7 +13001,7 @@
         <v>43614</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13058,7 +13058,7 @@
         <v>43621</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13115,7 +13115,7 @@
         <v>43621</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13172,7 +13172,7 @@
         <v>43628</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13229,7 +13229,7 @@
         <v>43633</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13286,7 +13286,7 @@
         <v>43636</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13343,7 +13343,7 @@
         <v>43642</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13400,7 +13400,7 @@
         <v>43646</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13462,7 +13462,7 @@
         <v>43646</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13524,7 +13524,7 @@
         <v>43647</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13581,7 +13581,7 @@
         <v>43648</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13638,7 +13638,7 @@
         <v>43649</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13695,7 +13695,7 @@
         <v>43649</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13752,7 +13752,7 @@
         <v>43649</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13809,7 +13809,7 @@
         <v>43649</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13866,7 +13866,7 @@
         <v>43650</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13923,7 +13923,7 @@
         <v>43650</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13980,7 +13980,7 @@
         <v>43652</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14037,7 +14037,7 @@
         <v>43653</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14094,7 +14094,7 @@
         <v>43654</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14151,7 +14151,7 @@
         <v>43654</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14208,7 +14208,7 @@
         <v>43655</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14265,7 +14265,7 @@
         <v>43655</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14322,7 +14322,7 @@
         <v>43675</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14379,7 +14379,7 @@
         <v>43684</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14436,7 +14436,7 @@
         <v>43684</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14493,7 +14493,7 @@
         <v>43696</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14550,7 +14550,7 @@
         <v>43697</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14607,7 +14607,7 @@
         <v>43697</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14664,7 +14664,7 @@
         <v>43698</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14721,7 +14721,7 @@
         <v>43699</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14778,7 +14778,7 @@
         <v>43699</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14835,7 +14835,7 @@
         <v>43699</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14892,7 +14892,7 @@
         <v>43700</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14949,7 +14949,7 @@
         <v>43700</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15006,7 +15006,7 @@
         <v>43703</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15063,7 +15063,7 @@
         <v>43703</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15120,7 +15120,7 @@
         <v>43703</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15177,7 +15177,7 @@
         <v>43705</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15234,7 +15234,7 @@
         <v>43705</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15291,7 +15291,7 @@
         <v>43705</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15348,7 +15348,7 @@
         <v>43705</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15405,7 +15405,7 @@
         <v>43707</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15462,7 +15462,7 @@
         <v>43707</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15524,7 +15524,7 @@
         <v>43707</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15581,7 +15581,7 @@
         <v>43710</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15638,7 +15638,7 @@
         <v>43711</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15695,7 +15695,7 @@
         <v>43718</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15757,7 +15757,7 @@
         <v>43721</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15814,7 +15814,7 @@
         <v>43721</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15871,7 +15871,7 @@
         <v>43724</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15933,7 +15933,7 @@
         <v>43727</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15990,7 +15990,7 @@
         <v>43727</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16047,7 +16047,7 @@
         <v>43727</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16104,7 +16104,7 @@
         <v>43728</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16161,7 +16161,7 @@
         <v>43730</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16218,7 +16218,7 @@
         <v>43731</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16275,7 +16275,7 @@
         <v>43732</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16332,7 +16332,7 @@
         <v>43734</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16389,7 +16389,7 @@
         <v>43740</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16446,7 +16446,7 @@
         <v>43740</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16503,7 +16503,7 @@
         <v>43741</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16560,7 +16560,7 @@
         <v>43742</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16617,7 +16617,7 @@
         <v>43748</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16674,7 +16674,7 @@
         <v>43749</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16731,7 +16731,7 @@
         <v>43759</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16793,7 +16793,7 @@
         <v>43762</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16850,7 +16850,7 @@
         <v>43762</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16907,7 +16907,7 @@
         <v>43766</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16964,7 +16964,7 @@
         <v>43768</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17026,7 +17026,7 @@
         <v>43769</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17083,7 +17083,7 @@
         <v>43770</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17140,7 +17140,7 @@
         <v>43776</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17197,7 +17197,7 @@
         <v>43782</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17254,7 +17254,7 @@
         <v>43791</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17311,7 +17311,7 @@
         <v>43802</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17368,7 +17368,7 @@
         <v>43804</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17425,7 +17425,7 @@
         <v>43815</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17482,7 +17482,7 @@
         <v>43819</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17539,7 +17539,7 @@
         <v>43819</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17596,7 +17596,7 @@
         <v>43822</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17653,7 +17653,7 @@
         <v>43822</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17710,7 +17710,7 @@
         <v>43833</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17767,7 +17767,7 @@
         <v>43843</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17824,7 +17824,7 @@
         <v>43843</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17881,7 +17881,7 @@
         <v>43843</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17938,7 +17938,7 @@
         <v>43847</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17995,7 +17995,7 @@
         <v>43847</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18052,7 +18052,7 @@
         <v>43847</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18109,7 +18109,7 @@
         <v>43847</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18166,7 +18166,7 @@
         <v>43848</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18223,7 +18223,7 @@
         <v>43852</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18280,7 +18280,7 @@
         <v>43852</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18337,7 +18337,7 @@
         <v>43852</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18394,7 +18394,7 @@
         <v>43852</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18451,7 +18451,7 @@
         <v>43852</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18508,7 +18508,7 @@
         <v>43861</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18565,7 +18565,7 @@
         <v>43861</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18622,7 +18622,7 @@
         <v>43861</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18679,7 +18679,7 @@
         <v>43861</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18736,7 +18736,7 @@
         <v>43861</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18793,7 +18793,7 @@
         <v>43861</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18850,7 +18850,7 @@
         <v>43866</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18907,7 +18907,7 @@
         <v>43868</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18964,7 +18964,7 @@
         <v>43868</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19021,7 +19021,7 @@
         <v>43872</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19078,7 +19078,7 @@
         <v>43873</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19135,7 +19135,7 @@
         <v>43874</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19192,7 +19192,7 @@
         <v>43874</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19249,7 +19249,7 @@
         <v>43878</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19306,7 +19306,7 @@
         <v>43878</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19363,7 +19363,7 @@
         <v>43878</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19420,7 +19420,7 @@
         <v>43879</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19477,7 +19477,7 @@
         <v>43879</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19534,7 +19534,7 @@
         <v>43885</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19591,7 +19591,7 @@
         <v>43885</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19648,7 +19648,7 @@
         <v>43885</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19705,7 +19705,7 @@
         <v>43886</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19762,7 +19762,7 @@
         <v>43886</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19819,7 +19819,7 @@
         <v>43886</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19876,7 +19876,7 @@
         <v>43887</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19933,7 +19933,7 @@
         <v>43888</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19990,7 +19990,7 @@
         <v>43892</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20047,7 +20047,7 @@
         <v>43892</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20104,7 +20104,7 @@
         <v>43892</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20161,7 +20161,7 @@
         <v>43893</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20218,7 +20218,7 @@
         <v>43899</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20275,7 +20275,7 @@
         <v>43899</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20332,7 +20332,7 @@
         <v>43901</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20389,7 +20389,7 @@
         <v>43901</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20446,7 +20446,7 @@
         <v>43902</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20503,7 +20503,7 @@
         <v>43902</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20560,7 +20560,7 @@
         <v>43902</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20617,7 +20617,7 @@
         <v>43903</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20674,7 +20674,7 @@
         <v>43906</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20731,7 +20731,7 @@
         <v>43906</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20788,7 +20788,7 @@
         <v>43906</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20845,7 +20845,7 @@
         <v>43906</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20902,7 +20902,7 @@
         <v>43906</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20959,7 +20959,7 @@
         <v>43906</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21016,7 +21016,7 @@
         <v>43906</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21073,7 +21073,7 @@
         <v>43907</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21130,7 +21130,7 @@
         <v>43907</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21187,7 +21187,7 @@
         <v>43910</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21244,7 +21244,7 @@
         <v>43910</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21301,7 +21301,7 @@
         <v>43915</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21358,7 +21358,7 @@
         <v>43915</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21415,7 +21415,7 @@
         <v>43915</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21472,7 +21472,7 @@
         <v>43920</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21529,7 +21529,7 @@
         <v>43921</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21586,7 +21586,7 @@
         <v>43923</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21643,7 +21643,7 @@
         <v>43924</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21700,7 +21700,7 @@
         <v>43924</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21757,7 +21757,7 @@
         <v>43932</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21814,7 +21814,7 @@
         <v>43955</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21871,7 +21871,7 @@
         <v>43963</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21928,7 +21928,7 @@
         <v>43964</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21985,7 +21985,7 @@
         <v>43965</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22042,7 +22042,7 @@
         <v>43965</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22099,7 +22099,7 @@
         <v>43969</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22156,7 +22156,7 @@
         <v>43975</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22213,7 +22213,7 @@
         <v>43978</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22270,7 +22270,7 @@
         <v>43978</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22327,7 +22327,7 @@
         <v>43985</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22384,7 +22384,7 @@
         <v>43986</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22441,7 +22441,7 @@
         <v>43987</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22498,7 +22498,7 @@
         <v>44004</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22555,7 +22555,7 @@
         <v>44004</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22612,7 +22612,7 @@
         <v>44006</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22669,7 +22669,7 @@
         <v>44006</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22726,7 +22726,7 @@
         <v>44013</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22783,7 +22783,7 @@
         <v>44013</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22840,7 +22840,7 @@
         <v>44018</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22897,7 +22897,7 @@
         <v>44019</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22959,7 +22959,7 @@
         <v>44019</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23021,7 +23021,7 @@
         <v>44036</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23078,7 +23078,7 @@
         <v>44036</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23135,7 +23135,7 @@
         <v>44036</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23192,7 +23192,7 @@
         <v>44036</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23249,7 +23249,7 @@
         <v>44036</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23306,7 +23306,7 @@
         <v>44036</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23363,7 +23363,7 @@
         <v>44036</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23420,7 +23420,7 @@
         <v>44036</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23477,7 +23477,7 @@
         <v>44036</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23534,7 +23534,7 @@
         <v>44036</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23591,7 +23591,7 @@
         <v>44040</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23653,7 +23653,7 @@
         <v>44042</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23710,7 +23710,7 @@
         <v>44047</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23767,7 +23767,7 @@
         <v>44050</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23824,7 +23824,7 @@
         <v>44054</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23881,7 +23881,7 @@
         <v>44060</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23943,7 +23943,7 @@
         <v>44061</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24000,7 +24000,7 @@
         <v>44063</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24057,7 +24057,7 @@
         <v>44069</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24114,7 +24114,7 @@
         <v>44069</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24171,7 +24171,7 @@
         <v>44070</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24228,7 +24228,7 @@
         <v>44074</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24285,7 +24285,7 @@
         <v>44074</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24342,7 +24342,7 @@
         <v>44076</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24399,7 +24399,7 @@
         <v>44081</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24456,7 +24456,7 @@
         <v>44084</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24513,7 +24513,7 @@
         <v>44084</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24570,7 +24570,7 @@
         <v>44091</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24627,7 +24627,7 @@
         <v>44091</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24684,7 +24684,7 @@
         <v>44096</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24741,7 +24741,7 @@
         <v>44097</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24798,7 +24798,7 @@
         <v>44101</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24855,7 +24855,7 @@
         <v>44102</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24912,7 +24912,7 @@
         <v>44102</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24969,7 +24969,7 @@
         <v>44103</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25026,7 +25026,7 @@
         <v>44103</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25083,7 +25083,7 @@
         <v>44105</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25140,7 +25140,7 @@
         <v>44109</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25197,7 +25197,7 @@
         <v>44110</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25254,7 +25254,7 @@
         <v>44110</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25311,7 +25311,7 @@
         <v>44113</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25368,7 +25368,7 @@
         <v>44123</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25425,7 +25425,7 @@
         <v>44134</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25482,7 +25482,7 @@
         <v>44134</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25539,7 +25539,7 @@
         <v>44138</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25596,7 +25596,7 @@
         <v>44140</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25653,7 +25653,7 @@
         <v>44140</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25710,7 +25710,7 @@
         <v>44140</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25767,7 +25767,7 @@
         <v>44140</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25824,7 +25824,7 @@
         <v>44140</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25881,7 +25881,7 @@
         <v>44145</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25938,7 +25938,7 @@
         <v>44155</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25995,7 +25995,7 @@
         <v>44159</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26052,7 +26052,7 @@
         <v>44165</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26109,7 +26109,7 @@
         <v>44168</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26166,7 +26166,7 @@
         <v>44168</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26223,7 +26223,7 @@
         <v>44168</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26280,7 +26280,7 @@
         <v>44174</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26337,7 +26337,7 @@
         <v>44174</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26399,7 +26399,7 @@
         <v>44174</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26456,7 +26456,7 @@
         <v>44174</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26513,7 +26513,7 @@
         <v>44175</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26570,7 +26570,7 @@
         <v>44175</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26627,7 +26627,7 @@
         <v>44179</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26684,7 +26684,7 @@
         <v>44186</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26741,7 +26741,7 @@
         <v>44187</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26798,7 +26798,7 @@
         <v>44187</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26855,7 +26855,7 @@
         <v>44194</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26912,7 +26912,7 @@
         <v>44195</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26969,7 +26969,7 @@
         <v>44195</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27026,7 +27026,7 @@
         <v>44201</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27083,7 +27083,7 @@
         <v>44201</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27140,7 +27140,7 @@
         <v>44207</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27197,7 +27197,7 @@
         <v>44214</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27254,7 +27254,7 @@
         <v>44215</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27311,7 +27311,7 @@
         <v>44217</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27368,7 +27368,7 @@
         <v>44217</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27425,7 +27425,7 @@
         <v>44221</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27482,7 +27482,7 @@
         <v>44223</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27539,7 +27539,7 @@
         <v>44224</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27596,7 +27596,7 @@
         <v>44229</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27653,7 +27653,7 @@
         <v>44230</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27710,7 +27710,7 @@
         <v>44235</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27767,7 +27767,7 @@
         <v>44235</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27824,7 +27824,7 @@
         <v>44236</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27881,7 +27881,7 @@
         <v>44236</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27938,7 +27938,7 @@
         <v>44237</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27995,7 +27995,7 @@
         <v>44237</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28052,7 +28052,7 @@
         <v>44238</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28109,7 +28109,7 @@
         <v>44239</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28166,7 +28166,7 @@
         <v>44239</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28223,7 +28223,7 @@
         <v>44239</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28280,7 +28280,7 @@
         <v>44240</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28337,7 +28337,7 @@
         <v>44242</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28394,7 +28394,7 @@
         <v>44242</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28451,7 +28451,7 @@
         <v>44246</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28513,7 +28513,7 @@
         <v>44246</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28575,7 +28575,7 @@
         <v>44248</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28632,7 +28632,7 @@
         <v>44251</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28689,7 +28689,7 @@
         <v>44251</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28746,7 +28746,7 @@
         <v>44258</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28803,7 +28803,7 @@
         <v>44258</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28860,7 +28860,7 @@
         <v>44258</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28917,7 +28917,7 @@
         <v>44261</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28974,7 +28974,7 @@
         <v>44265</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29031,7 +29031,7 @@
         <v>44266</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29088,7 +29088,7 @@
         <v>44271</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29145,7 +29145,7 @@
         <v>44272</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29207,7 +29207,7 @@
         <v>44282</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29269,7 +29269,7 @@
         <v>44292</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29326,7 +29326,7 @@
         <v>44301</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29383,7 +29383,7 @@
         <v>44306</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29440,7 +29440,7 @@
         <v>44308</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29497,7 +29497,7 @@
         <v>44309</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29554,7 +29554,7 @@
         <v>44311</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29611,7 +29611,7 @@
         <v>44322</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29668,7 +29668,7 @@
         <v>44323</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29725,7 +29725,7 @@
         <v>44329</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29782,7 +29782,7 @@
         <v>44333</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29839,7 +29839,7 @@
         <v>44347</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29896,7 +29896,7 @@
         <v>44347</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29953,7 +29953,7 @@
         <v>44354</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30010,7 +30010,7 @@
         <v>44354</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30067,7 +30067,7 @@
         <v>44354</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30124,7 +30124,7 @@
         <v>44362</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30181,7 +30181,7 @@
         <v>44362</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30238,7 +30238,7 @@
         <v>44365</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30295,7 +30295,7 @@
         <v>44365</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30352,7 +30352,7 @@
         <v>44375</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30409,7 +30409,7 @@
         <v>44376</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30466,7 +30466,7 @@
         <v>44376</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30523,7 +30523,7 @@
         <v>44378</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30585,7 +30585,7 @@
         <v>44380</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30642,7 +30642,7 @@
         <v>44383</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30699,7 +30699,7 @@
         <v>44383</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30756,7 +30756,7 @@
         <v>44384</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30813,7 +30813,7 @@
         <v>44384</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30870,7 +30870,7 @@
         <v>44385</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30927,7 +30927,7 @@
         <v>44389</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30984,7 +30984,7 @@
         <v>44391</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31041,7 +31041,7 @@
         <v>44392</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31098,7 +31098,7 @@
         <v>44396</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31155,7 +31155,7 @@
         <v>44412</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31212,7 +31212,7 @@
         <v>44417</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31274,7 +31274,7 @@
         <v>44421</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31331,7 +31331,7 @@
         <v>44421</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31388,7 +31388,7 @@
         <v>44424</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31445,7 +31445,7 @@
         <v>44428</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31502,7 +31502,7 @@
         <v>44431</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31559,7 +31559,7 @@
         <v>44431</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31616,7 +31616,7 @@
         <v>44433</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31673,7 +31673,7 @@
         <v>44441</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31730,7 +31730,7 @@
         <v>44442</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31787,7 +31787,7 @@
         <v>44442</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31844,7 +31844,7 @@
         <v>44445</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31901,7 +31901,7 @@
         <v>44446</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31958,7 +31958,7 @@
         <v>44446</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32015,7 +32015,7 @@
         <v>44446</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32072,7 +32072,7 @@
         <v>44446</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32129,7 +32129,7 @@
         <v>44446</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32186,7 +32186,7 @@
         <v>44446</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32243,7 +32243,7 @@
         <v>44446</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32300,7 +32300,7 @@
         <v>44446</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32357,7 +32357,7 @@
         <v>44446</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32414,7 +32414,7 @@
         <v>44446</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32471,7 +32471,7 @@
         <v>44446</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32528,7 +32528,7 @@
         <v>44446</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32585,7 +32585,7 @@
         <v>44446</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32642,7 +32642,7 @@
         <v>44446</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32699,7 +32699,7 @@
         <v>44446</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32756,7 +32756,7 @@
         <v>44446</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32813,7 +32813,7 @@
         <v>44446</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32870,7 +32870,7 @@
         <v>44446</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32927,7 +32927,7 @@
         <v>44447</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32984,7 +32984,7 @@
         <v>44448</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33041,7 +33041,7 @@
         <v>44452</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33098,7 +33098,7 @@
         <v>44455</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33155,7 +33155,7 @@
         <v>44457</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33212,7 +33212,7 @@
         <v>44457</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33269,7 +33269,7 @@
         <v>44459</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33326,7 +33326,7 @@
         <v>44459</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33383,7 +33383,7 @@
         <v>44459</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33440,7 +33440,7 @@
         <v>44459</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33497,7 +33497,7 @@
         <v>44459</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33554,7 +33554,7 @@
         <v>44463</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33616,7 +33616,7 @@
         <v>44467</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33673,7 +33673,7 @@
         <v>44468</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33730,7 +33730,7 @@
         <v>44469</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33787,7 +33787,7 @@
         <v>44469</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33844,7 +33844,7 @@
         <v>44469</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33901,7 +33901,7 @@
         <v>44469</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33958,7 +33958,7 @@
         <v>44469</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34015,7 +34015,7 @@
         <v>44476</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34072,7 +34072,7 @@
         <v>44480</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34129,7 +34129,7 @@
         <v>44481</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34186,7 +34186,7 @@
         <v>44482</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34243,7 +34243,7 @@
         <v>44490</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34300,7 +34300,7 @@
         <v>44491</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34357,7 +34357,7 @@
         <v>44491</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34414,7 +34414,7 @@
         <v>44491</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34471,7 +34471,7 @@
         <v>44495</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34528,7 +34528,7 @@
         <v>44496</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34585,7 +34585,7 @@
         <v>44496</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34642,7 +34642,7 @@
         <v>44496</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34699,7 +34699,7 @@
         <v>44496</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34756,7 +34756,7 @@
         <v>44496</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34813,7 +34813,7 @@
         <v>44497</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34870,7 +34870,7 @@
         <v>44497</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34927,7 +34927,7 @@
         <v>44497</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34984,7 +34984,7 @@
         <v>44497</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35041,7 +35041,7 @@
         <v>44498</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35103,7 +35103,7 @@
         <v>44498</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35160,7 +35160,7 @@
         <v>44498</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35217,7 +35217,7 @@
         <v>44502</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35274,7 +35274,7 @@
         <v>44504</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35331,7 +35331,7 @@
         <v>44509</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35388,7 +35388,7 @@
         <v>44509</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35445,7 +35445,7 @@
         <v>44509</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35502,7 +35502,7 @@
         <v>44510</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35559,7 +35559,7 @@
         <v>44512</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35616,7 +35616,7 @@
         <v>44517</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35673,7 +35673,7 @@
         <v>44517</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35730,7 +35730,7 @@
         <v>44519</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35787,7 +35787,7 @@
         <v>44522</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35844,7 +35844,7 @@
         <v>44522</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35901,7 +35901,7 @@
         <v>44531</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35958,7 +35958,7 @@
         <v>44532</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36015,7 +36015,7 @@
         <v>44532</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36072,7 +36072,7 @@
         <v>44536</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36129,7 +36129,7 @@
         <v>44537</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36186,7 +36186,7 @@
         <v>44539</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36243,7 +36243,7 @@
         <v>44539</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36300,7 +36300,7 @@
         <v>44540</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36362,7 +36362,7 @@
         <v>44540</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36419,7 +36419,7 @@
         <v>44543</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36476,7 +36476,7 @@
         <v>44543</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36533,7 +36533,7 @@
         <v>44543</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36590,7 +36590,7 @@
         <v>44543</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36647,7 +36647,7 @@
         <v>44546</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36704,7 +36704,7 @@
         <v>44550</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36761,7 +36761,7 @@
         <v>44550</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36818,7 +36818,7 @@
         <v>44552</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36875,7 +36875,7 @@
         <v>44552</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36932,7 +36932,7 @@
         <v>44552</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36989,7 +36989,7 @@
         <v>44552</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37046,7 +37046,7 @@
         <v>44553</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37103,7 +37103,7 @@
         <v>44553</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37160,7 +37160,7 @@
         <v>44558</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37217,7 +37217,7 @@
         <v>44561</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -37274,7 +37274,7 @@
         <v>44564</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37331,7 +37331,7 @@
         <v>44566</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -37388,7 +37388,7 @@
         <v>44568</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -37445,7 +37445,7 @@
         <v>44571</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -37502,7 +37502,7 @@
         <v>44571</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -37559,7 +37559,7 @@
         <v>44573</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -37616,7 +37616,7 @@
         <v>44573</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37673,7 +37673,7 @@
         <v>44573</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37730,7 +37730,7 @@
         <v>44578</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -37787,7 +37787,7 @@
         <v>44585</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -37844,7 +37844,7 @@
         <v>44586</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -37901,7 +37901,7 @@
         <v>44587</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -37958,7 +37958,7 @@
         <v>44588</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38015,7 +38015,7 @@
         <v>44589</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38072,7 +38072,7 @@
         <v>44593</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38129,7 +38129,7 @@
         <v>44593</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38186,7 +38186,7 @@
         <v>44595</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38243,7 +38243,7 @@
         <v>44596</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38305,7 +38305,7 @@
         <v>44601</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -38362,7 +38362,7 @@
         <v>44603</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -38419,7 +38419,7 @@
         <v>44606</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -38476,7 +38476,7 @@
         <v>44607</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -38533,7 +38533,7 @@
         <v>44609</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -38590,7 +38590,7 @@
         <v>44610</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -38647,7 +38647,7 @@
         <v>44612</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -38704,7 +38704,7 @@
         <v>44616</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -38761,7 +38761,7 @@
         <v>44617</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -38818,7 +38818,7 @@
         <v>44621</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -38875,7 +38875,7 @@
         <v>44624</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -38932,7 +38932,7 @@
         <v>44627</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -38989,7 +38989,7 @@
         <v>44627</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -39046,7 +39046,7 @@
         <v>44628</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -39103,7 +39103,7 @@
         <v>44628</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -39160,7 +39160,7 @@
         <v>44628</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -39217,7 +39217,7 @@
         <v>44631</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -39279,7 +39279,7 @@
         <v>44631</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -39341,7 +39341,7 @@
         <v>44631</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -39398,7 +39398,7 @@
         <v>44631</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -39455,7 +39455,7 @@
         <v>44635</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -39512,7 +39512,7 @@
         <v>44635</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -39569,7 +39569,7 @@
         <v>44636</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -39626,7 +39626,7 @@
         <v>44643</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -39683,7 +39683,7 @@
         <v>44643</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -39740,7 +39740,7 @@
         <v>44643</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -39797,7 +39797,7 @@
         <v>44643</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -39854,7 +39854,7 @@
         <v>44643</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -39911,7 +39911,7 @@
         <v>44643</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -39968,7 +39968,7 @@
         <v>44650</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -40025,7 +40025,7 @@
         <v>44652</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -40082,7 +40082,7 @@
         <v>44655</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -40139,7 +40139,7 @@
         <v>44655</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -40196,7 +40196,7 @@
         <v>44659</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -40253,7 +40253,7 @@
         <v>44671</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -40310,7 +40310,7 @@
         <v>44671</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -40367,7 +40367,7 @@
         <v>44671</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -40424,7 +40424,7 @@
         <v>44672</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -40481,7 +40481,7 @@
         <v>44672</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -40538,7 +40538,7 @@
         <v>44677</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -40595,7 +40595,7 @@
         <v>44684</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -40652,7 +40652,7 @@
         <v>44685</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -40709,7 +40709,7 @@
         <v>44686</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -40766,7 +40766,7 @@
         <v>44687</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -40823,7 +40823,7 @@
         <v>44690</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -40880,7 +40880,7 @@
         <v>44691</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -40937,7 +40937,7 @@
         <v>44694</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -40994,7 +40994,7 @@
         <v>44697</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -41051,7 +41051,7 @@
         <v>44697</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -41108,7 +41108,7 @@
         <v>44704</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -41165,7 +41165,7 @@
         <v>44705</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -41222,7 +41222,7 @@
         <v>44705</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -41279,7 +41279,7 @@
         <v>44711</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -41336,7 +41336,7 @@
         <v>44712</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -41393,7 +41393,7 @@
         <v>44726</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -41450,7 +41450,7 @@
         <v>44728</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -41507,7 +41507,7 @@
         <v>44728</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -41564,7 +41564,7 @@
         <v>44733</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -41626,7 +41626,7 @@
         <v>44747</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -41688,7 +41688,7 @@
         <v>44747</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -41750,7 +41750,7 @@
         <v>44747</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -41812,7 +41812,7 @@
         <v>44747</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -41869,7 +41869,7 @@
         <v>44750</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -41926,7 +41926,7 @@
         <v>44750</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -41983,7 +41983,7 @@
         <v>44761</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -42040,7 +42040,7 @@
         <v>44761</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -42097,7 +42097,7 @@
         <v>44761</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -42154,7 +42154,7 @@
         <v>44790</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -42211,7 +42211,7 @@
         <v>44796</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -42268,7 +42268,7 @@
         <v>44799</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -42325,7 +42325,7 @@
         <v>44804</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -42382,7 +42382,7 @@
         <v>44804</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -42439,7 +42439,7 @@
         <v>44806</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -42496,7 +42496,7 @@
         <v>44806</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -42553,7 +42553,7 @@
         <v>44812</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -42610,7 +42610,7 @@
         <v>44816</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -42667,7 +42667,7 @@
         <v>44818</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -42724,7 +42724,7 @@
         <v>44818</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -42781,7 +42781,7 @@
         <v>44824</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -42838,7 +42838,7 @@
         <v>44825</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -42895,7 +42895,7 @@
         <v>44825</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -42952,7 +42952,7 @@
         <v>44830</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -43009,7 +43009,7 @@
         <v>44832</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -43066,7 +43066,7 @@
         <v>44832</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -43123,7 +43123,7 @@
         <v>44839</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -43180,7 +43180,7 @@
         <v>44839</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -43237,7 +43237,7 @@
         <v>44839</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -43294,7 +43294,7 @@
         <v>44844</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -43351,7 +43351,7 @@
         <v>44847</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -43413,7 +43413,7 @@
         <v>44853</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -43470,7 +43470,7 @@
         <v>44853</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -43527,7 +43527,7 @@
         <v>44854</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -43584,7 +43584,7 @@
         <v>44858</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -43641,7 +43641,7 @@
         <v>44859</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -43698,7 +43698,7 @@
         <v>44865</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -43760,7 +43760,7 @@
         <v>44868</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -43817,7 +43817,7 @@
         <v>44868</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -43874,7 +43874,7 @@
         <v>44872</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -43931,7 +43931,7 @@
         <v>44873</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -43988,7 +43988,7 @@
         <v>44876</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -44045,7 +44045,7 @@
         <v>44879</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -44102,7 +44102,7 @@
         <v>44883</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -44159,7 +44159,7 @@
         <v>44886</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -44216,7 +44216,7 @@
         <v>44888</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -44273,7 +44273,7 @@
         <v>44893</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -44335,7 +44335,7 @@
         <v>44893</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -44392,7 +44392,7 @@
         <v>44901</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -44449,7 +44449,7 @@
         <v>44904</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -44506,7 +44506,7 @@
         <v>44904</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -44563,7 +44563,7 @@
         <v>44907</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -44620,7 +44620,7 @@
         <v>44907</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -44677,7 +44677,7 @@
         <v>44911</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -44739,7 +44739,7 @@
         <v>44914</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -44796,7 +44796,7 @@
         <v>44915</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -44853,7 +44853,7 @@
         <v>44916</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -44910,7 +44910,7 @@
         <v>44922</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -44967,7 +44967,7 @@
         <v>44924</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -45024,7 +45024,7 @@
         <v>44928</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -45081,7 +45081,7 @@
         <v>44928</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -45138,7 +45138,7 @@
         <v>44928</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -45195,7 +45195,7 @@
         <v>44935</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -45252,7 +45252,7 @@
         <v>44935</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -45309,7 +45309,7 @@
         <v>44935</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -45366,7 +45366,7 @@
         <v>44935</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -45423,7 +45423,7 @@
         <v>44938</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -45480,7 +45480,7 @@
         <v>44948</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -45537,7 +45537,7 @@
         <v>44949</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -45594,7 +45594,7 @@
         <v>44953</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -45651,7 +45651,7 @@
         <v>44953</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -45708,7 +45708,7 @@
         <v>44953</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -45765,7 +45765,7 @@
         <v>44953</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -45822,7 +45822,7 @@
         <v>44957</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -45879,7 +45879,7 @@
         <v>44963</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -45936,7 +45936,7 @@
         <v>44963</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -45993,7 +45993,7 @@
         <v>44966</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -46050,7 +46050,7 @@
         <v>44967</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -46107,7 +46107,7 @@
         <v>44967</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -46169,7 +46169,7 @@
         <v>44967</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -46231,7 +46231,7 @@
         <v>44968</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -46293,7 +46293,7 @@
         <v>44972</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -46350,7 +46350,7 @@
         <v>44972</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -46407,7 +46407,7 @@
         <v>44973</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -46464,7 +46464,7 @@
         <v>44974</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -46521,7 +46521,7 @@
         <v>44977</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -46578,7 +46578,7 @@
         <v>44978</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -46635,7 +46635,7 @@
         <v>44979</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -46692,7 +46692,7 @@
         <v>44980</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -46749,7 +46749,7 @@
         <v>44984</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -46806,7 +46806,7 @@
         <v>44984</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -46863,7 +46863,7 @@
         <v>44986</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -46920,7 +46920,7 @@
         <v>44986</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -46977,7 +46977,7 @@
         <v>44986</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -47034,7 +47034,7 @@
         <v>44987</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -47091,7 +47091,7 @@
         <v>44991</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -47148,7 +47148,7 @@
         <v>44992</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -47210,7 +47210,7 @@
         <v>44993</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -47267,7 +47267,7 @@
         <v>44995</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -47324,7 +47324,7 @@
         <v>44998</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -47381,7 +47381,7 @@
         <v>45002</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -47438,7 +47438,7 @@
         <v>45002</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -47500,7 +47500,7 @@
         <v>45006</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -47557,7 +47557,7 @@
         <v>45012</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -47614,7 +47614,7 @@
         <v>45015</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -47671,7 +47671,7 @@
         <v>45019</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -47728,7 +47728,7 @@
         <v>45020</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -47785,7 +47785,7 @@
         <v>45020</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -47842,7 +47842,7 @@
         <v>45020</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -47899,7 +47899,7 @@
         <v>45021</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -47956,7 +47956,7 @@
         <v>45030</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -48013,7 +48013,7 @@
         <v>45030</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -48075,7 +48075,7 @@
         <v>45034</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -48132,7 +48132,7 @@
         <v>45036</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -48189,7 +48189,7 @@
         <v>45039</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -48246,7 +48246,7 @@
         <v>45041</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -48303,7 +48303,7 @@
         <v>45047</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -48360,7 +48360,7 @@
         <v>45049</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -48417,7 +48417,7 @@
         <v>45051</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -48474,7 +48474,7 @@
         <v>45051</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -48531,7 +48531,7 @@
         <v>45051</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -48588,7 +48588,7 @@
         <v>45051</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -48645,7 +48645,7 @@
         <v>45051</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -48702,7 +48702,7 @@
         <v>45051</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -48759,7 +48759,7 @@
         <v>45052</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -48816,7 +48816,7 @@
         <v>45056</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -48873,7 +48873,7 @@
         <v>45056</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -48930,7 +48930,7 @@
         <v>45057</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -48987,7 +48987,7 @@
         <v>45058</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -49044,7 +49044,7 @@
         <v>45061</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -49101,7 +49101,7 @@
         <v>45061</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -49158,7 +49158,7 @@
         <v>45062</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -49215,7 +49215,7 @@
         <v>45062</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -49272,7 +49272,7 @@
         <v>45062</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -49329,7 +49329,7 @@
         <v>45070</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -49386,7 +49386,7 @@
         <v>45070</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -49443,7 +49443,7 @@
         <v>45072</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -49500,7 +49500,7 @@
         <v>45075</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -49557,7 +49557,7 @@
         <v>45075</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -49614,7 +49614,7 @@
         <v>45075</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -49671,7 +49671,7 @@
         <v>45075</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -49728,7 +49728,7 @@
         <v>45075</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -49785,7 +49785,7 @@
         <v>45076</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -49842,7 +49842,7 @@
         <v>45076</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -49899,7 +49899,7 @@
         <v>45078</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -49956,7 +49956,7 @@
         <v>45078</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -50013,7 +50013,7 @@
         <v>45078</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -50070,7 +50070,7 @@
         <v>45078</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -50127,7 +50127,7 @@
         <v>45078</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -50184,7 +50184,7 @@
         <v>45078</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -50241,7 +50241,7 @@
         <v>45078</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -50298,7 +50298,7 @@
         <v>45081</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -50360,7 +50360,7 @@
         <v>45082</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -50417,7 +50417,7 @@
         <v>45096</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -50474,7 +50474,7 @@
         <v>45099</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -50531,7 +50531,7 @@
         <v>45104</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -50588,7 +50588,7 @@
         <v>45105</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -50645,7 +50645,7 @@
         <v>45105</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -50702,7 +50702,7 @@
         <v>45106</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -50759,7 +50759,7 @@
         <v>45106</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -50816,7 +50816,7 @@
         <v>45108</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -50873,7 +50873,7 @@
         <v>45110</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -50930,7 +50930,7 @@
         <v>45113</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -50987,7 +50987,7 @@
         <v>45113</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -51044,7 +51044,7 @@
         <v>45119</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -51101,7 +51101,7 @@
         <v>45120</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -51158,7 +51158,7 @@
         <v>45120</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -51215,7 +51215,7 @@
         <v>45121</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -51272,7 +51272,7 @@
         <v>45121</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -51329,7 +51329,7 @@
         <v>45121</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -51386,7 +51386,7 @@
         <v>45121</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -51443,7 +51443,7 @@
         <v>45138</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -51500,7 +51500,7 @@
         <v>45138</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -51557,7 +51557,7 @@
         <v>45145</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -51614,7 +51614,7 @@
         <v>45145</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -51671,7 +51671,7 @@
         <v>45145</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -51728,7 +51728,7 @@
         <v>45145</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -51785,7 +51785,7 @@
         <v>45148</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -51842,7 +51842,7 @@
         <v>45149</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -51899,7 +51899,7 @@
         <v>45149</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -51956,7 +51956,7 @@
         <v>45152</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -52013,7 +52013,7 @@
         <v>45154</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -52070,7 +52070,7 @@
         <v>45155</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -52132,7 +52132,7 @@
         <v>45155</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -52189,7 +52189,7 @@
         <v>45159</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -52246,7 +52246,7 @@
         <v>45159</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -52303,7 +52303,7 @@
         <v>45161</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -52360,7 +52360,7 @@
         <v>45161</v>
       </c>
       <c r="C884" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -52417,7 +52417,7 @@
         <v>45162</v>
       </c>
       <c r="C885" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -52474,7 +52474,7 @@
         <v>45163</v>
       </c>
       <c r="C886" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -52531,7 +52531,7 @@
         <v>45166</v>
       </c>
       <c r="C887" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -52588,7 +52588,7 @@
         <v>45168</v>
       </c>
       <c r="C888" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>

--- a/Översikt ÅRJÄNG.xlsx
+++ b/Översikt ÅRJÄNG.xlsx
@@ -572,7 +572,7 @@
         <v>43607</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -689,7 +689,7 @@
         <v>44824</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -785,7 +785,7 @@
         <v>44649</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -878,7 +878,7 @@
         <v>44585</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -974,7 +974,7 @@
         <v>44970</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1066,7 +1066,7 @@
         <v>45084</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1162,7 +1162,7 @@
         <v>44964</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1253,7 +1253,7 @@
         <v>44873</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1347,7 +1347,7 @@
         <v>45106</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1437,7 +1437,7 @@
         <v>43621</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1530,7 +1530,7 @@
         <v>43880</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1623,7 +1623,7 @@
         <v>44140</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1712,7 +1712,7 @@
         <v>43852</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1804,7 +1804,7 @@
         <v>44375</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1892,7 +1892,7 @@
         <v>44678</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1980,7 +1980,7 @@
         <v>45051</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2068,7 +2068,7 @@
         <v>43922</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2159,7 +2159,7 @@
         <v>44377</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2250,7 +2250,7 @@
         <v>43852</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2336,7 +2336,7 @@
         <v>43880</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2426,7 +2426,7 @@
         <v>44515</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2516,7 +2516,7 @@
         <v>44872</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2606,7 +2606,7 @@
         <v>44935</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2692,7 +2692,7 @@
         <v>45001</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2778,7 +2778,7 @@
         <v>43621</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2867,7 +2867,7 @@
         <v>43696</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2952,7 +2952,7 @@
         <v>43725</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3037,7 +3037,7 @@
         <v>43731</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3122,7 +3122,7 @@
         <v>43734</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3207,7 +3207,7 @@
         <v>43763</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3292,7 +3292,7 @@
         <v>43839</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3377,7 +3377,7 @@
         <v>44050</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3462,7 +3462,7 @@
         <v>44061</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         <v>44217</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3632,7 +3632,7 @@
         <v>44285</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3717,7 +3717,7 @@
         <v>44356</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3802,7 +3802,7 @@
         <v>44379</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3887,7 +3887,7 @@
         <v>44846</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3976,7 +3976,7 @@
         <v>44873</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4061,7 +4061,7 @@
         <v>45111</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4146,7 +4146,7 @@
         <v>43326</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4203,7 +4203,7 @@
         <v>43335</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4260,7 +4260,7 @@
         <v>43335</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4317,7 +4317,7 @@
         <v>43335</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4374,7 +4374,7 @@
         <v>43339</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4431,7 +4431,7 @@
         <v>43346</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4488,7 +4488,7 @@
         <v>43346</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4545,7 +4545,7 @@
         <v>43347</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4602,7 +4602,7 @@
         <v>43349</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4659,7 +4659,7 @@
         <v>43353</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4716,7 +4716,7 @@
         <v>43353</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4773,7 +4773,7 @@
         <v>43353</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4830,7 +4830,7 @@
         <v>43353</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4887,7 +4887,7 @@
         <v>43353</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4944,7 +4944,7 @@
         <v>43354</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5001,7 +5001,7 @@
         <v>43354</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5058,7 +5058,7 @@
         <v>43355</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5115,7 +5115,7 @@
         <v>43367</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5172,7 +5172,7 @@
         <v>43369</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5229,7 +5229,7 @@
         <v>43381</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5286,7 +5286,7 @@
         <v>43381</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5343,7 +5343,7 @@
         <v>43390</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5400,7 +5400,7 @@
         <v>43395</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5457,7 +5457,7 @@
         <v>43395</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5514,7 +5514,7 @@
         <v>43399</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5571,7 +5571,7 @@
         <v>43399</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5628,7 +5628,7 @@
         <v>43401</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5685,7 +5685,7 @@
         <v>43403</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5742,7 +5742,7 @@
         <v>43403</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5799,7 +5799,7 @@
         <v>43403</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5856,7 +5856,7 @@
         <v>43403</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5913,7 +5913,7 @@
         <v>43403</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5970,7 +5970,7 @@
         <v>43403</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6027,7 +6027,7 @@
         <v>43403</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6084,7 +6084,7 @@
         <v>43403</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6141,7 +6141,7 @@
         <v>43403</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6198,7 +6198,7 @@
         <v>43406</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6255,7 +6255,7 @@
         <v>43408</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6312,7 +6312,7 @@
         <v>43409</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6369,7 +6369,7 @@
         <v>43419</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6426,7 +6426,7 @@
         <v>43420</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6483,7 +6483,7 @@
         <v>43420</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6540,7 +6540,7 @@
         <v>43430</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6597,7 +6597,7 @@
         <v>43430</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6654,7 +6654,7 @@
         <v>43431</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6711,7 +6711,7 @@
         <v>43432</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6768,7 +6768,7 @@
         <v>43432</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6825,7 +6825,7 @@
         <v>43432</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6882,7 +6882,7 @@
         <v>43432</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6939,7 +6939,7 @@
         <v>43433</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6996,7 +6996,7 @@
         <v>43437</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7053,7 +7053,7 @@
         <v>43437</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7110,7 +7110,7 @@
         <v>43438</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7167,7 +7167,7 @@
         <v>43440</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7224,7 +7224,7 @@
         <v>43441</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7281,7 +7281,7 @@
         <v>43447</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7338,7 +7338,7 @@
         <v>43448</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7395,7 +7395,7 @@
         <v>43451</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7452,7 +7452,7 @@
         <v>43452</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7509,7 +7509,7 @@
         <v>43452</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7566,7 +7566,7 @@
         <v>43453</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7623,7 +7623,7 @@
         <v>43454</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7680,7 +7680,7 @@
         <v>43454</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7737,7 +7737,7 @@
         <v>43455</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7794,7 +7794,7 @@
         <v>43460</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7851,7 +7851,7 @@
         <v>43467</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7908,7 +7908,7 @@
         <v>43467</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7965,7 +7965,7 @@
         <v>43467</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8022,7 +8022,7 @@
         <v>43474</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8079,7 +8079,7 @@
         <v>43474</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8136,7 +8136,7 @@
         <v>43475</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8193,7 +8193,7 @@
         <v>43475</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8250,7 +8250,7 @@
         <v>43476</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8307,7 +8307,7 @@
         <v>43479</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8364,7 +8364,7 @@
         <v>43479</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8421,7 +8421,7 @@
         <v>43481</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8478,7 +8478,7 @@
         <v>43486</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8535,7 +8535,7 @@
         <v>43486</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8592,7 +8592,7 @@
         <v>43487</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8649,7 +8649,7 @@
         <v>43488</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8706,7 +8706,7 @@
         <v>43488</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8763,7 +8763,7 @@
         <v>43488</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8820,7 +8820,7 @@
         <v>43490</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8877,7 +8877,7 @@
         <v>43490</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8934,7 +8934,7 @@
         <v>43494</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8991,7 +8991,7 @@
         <v>43496</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9048,7 +9048,7 @@
         <v>43500</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9105,7 +9105,7 @@
         <v>43500</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9162,7 +9162,7 @@
         <v>43502</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9219,7 +9219,7 @@
         <v>43502</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9276,7 +9276,7 @@
         <v>43504</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9333,7 +9333,7 @@
         <v>43504</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9390,7 +9390,7 @@
         <v>43507</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9447,7 +9447,7 @@
         <v>43508</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9504,7 +9504,7 @@
         <v>43508</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9561,7 +9561,7 @@
         <v>43510</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9618,7 +9618,7 @@
         <v>43511</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9675,7 +9675,7 @@
         <v>43516</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9732,7 +9732,7 @@
         <v>43523</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9789,7 +9789,7 @@
         <v>43523</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9846,7 +9846,7 @@
         <v>43523</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9903,7 +9903,7 @@
         <v>43523</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9960,7 +9960,7 @@
         <v>43524</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10017,7 +10017,7 @@
         <v>43524</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10074,7 +10074,7 @@
         <v>43525</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10131,7 +10131,7 @@
         <v>43531</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10188,7 +10188,7 @@
         <v>43532</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10250,7 +10250,7 @@
         <v>43538</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10307,7 +10307,7 @@
         <v>43539</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10364,7 +10364,7 @@
         <v>43542</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10421,7 +10421,7 @@
         <v>43542</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10478,7 +10478,7 @@
         <v>43542</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10535,7 +10535,7 @@
         <v>43542</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10592,7 +10592,7 @@
         <v>43543</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10649,7 +10649,7 @@
         <v>43543</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10706,7 +10706,7 @@
         <v>43545</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10763,7 +10763,7 @@
         <v>43549</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10820,7 +10820,7 @@
         <v>43549</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10877,7 +10877,7 @@
         <v>43551</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10934,7 +10934,7 @@
         <v>43552</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10991,7 +10991,7 @@
         <v>43555</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11048,7 +11048,7 @@
         <v>43556</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11105,7 +11105,7 @@
         <v>43558</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11162,7 +11162,7 @@
         <v>43559</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11219,7 +11219,7 @@
         <v>43560</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11276,7 +11276,7 @@
         <v>43563</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11333,7 +11333,7 @@
         <v>43563</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11390,7 +11390,7 @@
         <v>43563</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11447,7 +11447,7 @@
         <v>43567</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11504,7 +11504,7 @@
         <v>43569</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11561,7 +11561,7 @@
         <v>43570</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11618,7 +11618,7 @@
         <v>43573</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11675,7 +11675,7 @@
         <v>43573</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11732,7 +11732,7 @@
         <v>43573</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11789,7 +11789,7 @@
         <v>43580</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11846,7 +11846,7 @@
         <v>43581</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11908,7 +11908,7 @@
         <v>43581</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11970,7 +11970,7 @@
         <v>43585</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12027,7 +12027,7 @@
         <v>43585</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12084,7 +12084,7 @@
         <v>43587</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12141,7 +12141,7 @@
         <v>43594</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12198,7 +12198,7 @@
         <v>43594</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12255,7 +12255,7 @@
         <v>43594</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12312,7 +12312,7 @@
         <v>43594</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12369,7 +12369,7 @@
         <v>43594</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12426,7 +12426,7 @@
         <v>43594</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12483,7 +12483,7 @@
         <v>43598</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12540,7 +12540,7 @@
         <v>43599</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12597,7 +12597,7 @@
         <v>43606</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12654,7 +12654,7 @@
         <v>43606</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12711,7 +12711,7 @@
         <v>43606</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12768,7 +12768,7 @@
         <v>43607</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12825,7 +12825,7 @@
         <v>43608</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12882,7 +12882,7 @@
         <v>43609</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12944,7 +12944,7 @@
         <v>43614</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13001,7 +13001,7 @@
         <v>43614</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13058,7 +13058,7 @@
         <v>43621</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13115,7 +13115,7 @@
         <v>43621</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13172,7 +13172,7 @@
         <v>43628</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13229,7 +13229,7 @@
         <v>43633</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13286,7 +13286,7 @@
         <v>43636</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13343,7 +13343,7 @@
         <v>43642</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13400,7 +13400,7 @@
         <v>43646</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13462,7 +13462,7 @@
         <v>43646</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13524,7 +13524,7 @@
         <v>43647</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13581,7 +13581,7 @@
         <v>43648</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13638,7 +13638,7 @@
         <v>43649</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13695,7 +13695,7 @@
         <v>43649</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13752,7 +13752,7 @@
         <v>43649</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13809,7 +13809,7 @@
         <v>43649</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13866,7 +13866,7 @@
         <v>43650</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13923,7 +13923,7 @@
         <v>43650</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13980,7 +13980,7 @@
         <v>43652</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14037,7 +14037,7 @@
         <v>43653</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14094,7 +14094,7 @@
         <v>43654</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14151,7 +14151,7 @@
         <v>43654</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14208,7 +14208,7 @@
         <v>43655</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14265,7 +14265,7 @@
         <v>43655</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14322,7 +14322,7 @@
         <v>43675</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14379,7 +14379,7 @@
         <v>43684</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14436,7 +14436,7 @@
         <v>43684</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14493,7 +14493,7 @@
         <v>43696</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14550,7 +14550,7 @@
         <v>43697</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14607,7 +14607,7 @@
         <v>43697</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14664,7 +14664,7 @@
         <v>43698</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14721,7 +14721,7 @@
         <v>43699</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14778,7 +14778,7 @@
         <v>43699</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14835,7 +14835,7 @@
         <v>43699</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14892,7 +14892,7 @@
         <v>43700</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14949,7 +14949,7 @@
         <v>43700</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15006,7 +15006,7 @@
         <v>43703</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15063,7 +15063,7 @@
         <v>43703</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15120,7 +15120,7 @@
         <v>43703</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15177,7 +15177,7 @@
         <v>43705</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15234,7 +15234,7 @@
         <v>43705</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15291,7 +15291,7 @@
         <v>43705</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15348,7 +15348,7 @@
         <v>43705</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15405,7 +15405,7 @@
         <v>43707</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15462,7 +15462,7 @@
         <v>43707</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15524,7 +15524,7 @@
         <v>43707</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15581,7 +15581,7 @@
         <v>43710</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15638,7 +15638,7 @@
         <v>43711</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15695,7 +15695,7 @@
         <v>43718</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15757,7 +15757,7 @@
         <v>43721</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15814,7 +15814,7 @@
         <v>43721</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15871,7 +15871,7 @@
         <v>43724</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15933,7 +15933,7 @@
         <v>43727</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15990,7 +15990,7 @@
         <v>43727</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16047,7 +16047,7 @@
         <v>43727</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16104,7 +16104,7 @@
         <v>43728</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16161,7 +16161,7 @@
         <v>43730</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16218,7 +16218,7 @@
         <v>43731</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16275,7 +16275,7 @@
         <v>43732</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16332,7 +16332,7 @@
         <v>43734</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16389,7 +16389,7 @@
         <v>43740</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16446,7 +16446,7 @@
         <v>43740</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16503,7 +16503,7 @@
         <v>43741</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16560,7 +16560,7 @@
         <v>43742</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16617,7 +16617,7 @@
         <v>43748</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16674,7 +16674,7 @@
         <v>43749</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16731,7 +16731,7 @@
         <v>43759</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16793,7 +16793,7 @@
         <v>43762</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16850,7 +16850,7 @@
         <v>43762</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16907,7 +16907,7 @@
         <v>43766</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16964,7 +16964,7 @@
         <v>43768</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17026,7 +17026,7 @@
         <v>43769</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17083,7 +17083,7 @@
         <v>43770</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17140,7 +17140,7 @@
         <v>43776</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17197,7 +17197,7 @@
         <v>43782</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17254,7 +17254,7 @@
         <v>43791</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17311,7 +17311,7 @@
         <v>43802</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17368,7 +17368,7 @@
         <v>43804</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17425,7 +17425,7 @@
         <v>43815</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17482,7 +17482,7 @@
         <v>43819</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17539,7 +17539,7 @@
         <v>43819</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17596,7 +17596,7 @@
         <v>43822</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17653,7 +17653,7 @@
         <v>43822</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17710,7 +17710,7 @@
         <v>43833</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17767,7 +17767,7 @@
         <v>43843</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17824,7 +17824,7 @@
         <v>43843</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17881,7 +17881,7 @@
         <v>43843</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17938,7 +17938,7 @@
         <v>43847</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17995,7 +17995,7 @@
         <v>43847</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18052,7 +18052,7 @@
         <v>43847</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18109,7 +18109,7 @@
         <v>43847</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18166,7 +18166,7 @@
         <v>43848</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18223,7 +18223,7 @@
         <v>43852</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18280,7 +18280,7 @@
         <v>43852</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18337,7 +18337,7 @@
         <v>43852</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18394,7 +18394,7 @@
         <v>43852</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18451,7 +18451,7 @@
         <v>43852</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18508,7 +18508,7 @@
         <v>43861</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18565,7 +18565,7 @@
         <v>43861</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18622,7 +18622,7 @@
         <v>43861</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18679,7 +18679,7 @@
         <v>43861</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18736,7 +18736,7 @@
         <v>43861</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18793,7 +18793,7 @@
         <v>43861</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18850,7 +18850,7 @@
         <v>43866</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18907,7 +18907,7 @@
         <v>43868</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18964,7 +18964,7 @@
         <v>43868</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19021,7 +19021,7 @@
         <v>43872</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19078,7 +19078,7 @@
         <v>43873</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19135,7 +19135,7 @@
         <v>43874</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19192,7 +19192,7 @@
         <v>43874</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19249,7 +19249,7 @@
         <v>43878</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19306,7 +19306,7 @@
         <v>43878</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19363,7 +19363,7 @@
         <v>43878</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19420,7 +19420,7 @@
         <v>43879</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19477,7 +19477,7 @@
         <v>43879</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19534,7 +19534,7 @@
         <v>43885</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19591,7 +19591,7 @@
         <v>43885</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19648,7 +19648,7 @@
         <v>43885</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19705,7 +19705,7 @@
         <v>43886</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19762,7 +19762,7 @@
         <v>43886</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19819,7 +19819,7 @@
         <v>43886</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19876,7 +19876,7 @@
         <v>43887</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19933,7 +19933,7 @@
         <v>43888</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19990,7 +19990,7 @@
         <v>43892</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20047,7 +20047,7 @@
         <v>43892</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20104,7 +20104,7 @@
         <v>43892</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20161,7 +20161,7 @@
         <v>43893</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20218,7 +20218,7 @@
         <v>43899</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20275,7 +20275,7 @@
         <v>43899</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20332,7 +20332,7 @@
         <v>43901</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20389,7 +20389,7 @@
         <v>43901</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20446,7 +20446,7 @@
         <v>43902</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20503,7 +20503,7 @@
         <v>43902</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20560,7 +20560,7 @@
         <v>43902</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20617,7 +20617,7 @@
         <v>43903</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20674,7 +20674,7 @@
         <v>43906</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20731,7 +20731,7 @@
         <v>43906</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20788,7 +20788,7 @@
         <v>43906</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20845,7 +20845,7 @@
         <v>43906</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20902,7 +20902,7 @@
         <v>43906</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20959,7 +20959,7 @@
         <v>43906</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21016,7 +21016,7 @@
         <v>43906</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21073,7 +21073,7 @@
         <v>43907</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21130,7 +21130,7 @@
         <v>43907</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21187,7 +21187,7 @@
         <v>43910</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21244,7 +21244,7 @@
         <v>43910</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21301,7 +21301,7 @@
         <v>43915</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21358,7 +21358,7 @@
         <v>43915</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21415,7 +21415,7 @@
         <v>43915</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21472,7 +21472,7 @@
         <v>43920</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21529,7 +21529,7 @@
         <v>43921</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21586,7 +21586,7 @@
         <v>43923</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21643,7 +21643,7 @@
         <v>43924</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21700,7 +21700,7 @@
         <v>43924</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21757,7 +21757,7 @@
         <v>43932</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21814,7 +21814,7 @@
         <v>43955</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21871,7 +21871,7 @@
         <v>43963</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21928,7 +21928,7 @@
         <v>43964</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21985,7 +21985,7 @@
         <v>43965</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22042,7 +22042,7 @@
         <v>43965</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22099,7 +22099,7 @@
         <v>43969</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22156,7 +22156,7 @@
         <v>43975</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22213,7 +22213,7 @@
         <v>43978</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22270,7 +22270,7 @@
         <v>43978</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22327,7 +22327,7 @@
         <v>43985</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22384,7 +22384,7 @@
         <v>43986</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22441,7 +22441,7 @@
         <v>43987</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22498,7 +22498,7 @@
         <v>44004</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22555,7 +22555,7 @@
         <v>44004</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22612,7 +22612,7 @@
         <v>44006</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22669,7 +22669,7 @@
         <v>44006</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22726,7 +22726,7 @@
         <v>44013</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22783,7 +22783,7 @@
         <v>44013</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22840,7 +22840,7 @@
         <v>44018</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22897,7 +22897,7 @@
         <v>44019</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22959,7 +22959,7 @@
         <v>44019</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23021,7 +23021,7 @@
         <v>44036</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23078,7 +23078,7 @@
         <v>44036</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23135,7 +23135,7 @@
         <v>44036</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23192,7 +23192,7 @@
         <v>44036</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23249,7 +23249,7 @@
         <v>44036</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23306,7 +23306,7 @@
         <v>44036</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23363,7 +23363,7 @@
         <v>44036</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23420,7 +23420,7 @@
         <v>44036</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23477,7 +23477,7 @@
         <v>44036</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23534,7 +23534,7 @@
         <v>44036</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23591,7 +23591,7 @@
         <v>44040</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23653,7 +23653,7 @@
         <v>44042</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23710,7 +23710,7 @@
         <v>44047</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23767,7 +23767,7 @@
         <v>44050</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23824,7 +23824,7 @@
         <v>44054</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23881,7 +23881,7 @@
         <v>44060</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23943,7 +23943,7 @@
         <v>44061</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24000,7 +24000,7 @@
         <v>44063</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24057,7 +24057,7 @@
         <v>44069</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24114,7 +24114,7 @@
         <v>44069</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24171,7 +24171,7 @@
         <v>44070</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24228,7 +24228,7 @@
         <v>44074</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24285,7 +24285,7 @@
         <v>44074</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24342,7 +24342,7 @@
         <v>44076</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24399,7 +24399,7 @@
         <v>44081</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24456,7 +24456,7 @@
         <v>44084</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24513,7 +24513,7 @@
         <v>44084</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24570,7 +24570,7 @@
         <v>44091</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24627,7 +24627,7 @@
         <v>44091</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24684,7 +24684,7 @@
         <v>44096</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24741,7 +24741,7 @@
         <v>44097</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24798,7 +24798,7 @@
         <v>44101</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24855,7 +24855,7 @@
         <v>44102</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24912,7 +24912,7 @@
         <v>44102</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24969,7 +24969,7 @@
         <v>44103</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25026,7 +25026,7 @@
         <v>44103</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25083,7 +25083,7 @@
         <v>44105</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25140,7 +25140,7 @@
         <v>44109</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25197,7 +25197,7 @@
         <v>44110</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25254,7 +25254,7 @@
         <v>44110</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25311,7 +25311,7 @@
         <v>44113</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25368,7 +25368,7 @@
         <v>44123</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25425,7 +25425,7 @@
         <v>44134</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25482,7 +25482,7 @@
         <v>44134</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25539,7 +25539,7 @@
         <v>44138</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25596,7 +25596,7 @@
         <v>44140</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25653,7 +25653,7 @@
         <v>44140</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25710,7 +25710,7 @@
         <v>44140</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25767,7 +25767,7 @@
         <v>44140</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25824,7 +25824,7 @@
         <v>44140</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25881,7 +25881,7 @@
         <v>44145</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25938,7 +25938,7 @@
         <v>44155</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25995,7 +25995,7 @@
         <v>44159</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26052,7 +26052,7 @@
         <v>44165</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26109,7 +26109,7 @@
         <v>44168</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26166,7 +26166,7 @@
         <v>44168</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26223,7 +26223,7 @@
         <v>44168</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26280,7 +26280,7 @@
         <v>44174</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26337,7 +26337,7 @@
         <v>44174</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26399,7 +26399,7 @@
         <v>44174</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26456,7 +26456,7 @@
         <v>44174</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26513,7 +26513,7 @@
         <v>44175</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26570,7 +26570,7 @@
         <v>44175</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26627,7 +26627,7 @@
         <v>44179</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26684,7 +26684,7 @@
         <v>44186</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26741,7 +26741,7 @@
         <v>44187</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26798,7 +26798,7 @@
         <v>44187</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26855,7 +26855,7 @@
         <v>44194</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26912,7 +26912,7 @@
         <v>44195</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26969,7 +26969,7 @@
         <v>44195</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27026,7 +27026,7 @@
         <v>44201</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27083,7 +27083,7 @@
         <v>44201</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27140,7 +27140,7 @@
         <v>44207</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27197,7 +27197,7 @@
         <v>44214</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27254,7 +27254,7 @@
         <v>44215</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27311,7 +27311,7 @@
         <v>44217</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27368,7 +27368,7 @@
         <v>44217</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27425,7 +27425,7 @@
         <v>44221</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27482,7 +27482,7 @@
         <v>44223</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27539,7 +27539,7 @@
         <v>44224</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27596,7 +27596,7 @@
         <v>44229</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27653,7 +27653,7 @@
         <v>44230</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27710,7 +27710,7 @@
         <v>44235</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27767,7 +27767,7 @@
         <v>44235</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27824,7 +27824,7 @@
         <v>44236</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27881,7 +27881,7 @@
         <v>44236</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27938,7 +27938,7 @@
         <v>44237</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27995,7 +27995,7 @@
         <v>44237</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28052,7 +28052,7 @@
         <v>44238</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28109,7 +28109,7 @@
         <v>44239</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28166,7 +28166,7 @@
         <v>44239</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28223,7 +28223,7 @@
         <v>44239</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28280,7 +28280,7 @@
         <v>44240</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28337,7 +28337,7 @@
         <v>44242</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28394,7 +28394,7 @@
         <v>44242</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28451,7 +28451,7 @@
         <v>44246</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28513,7 +28513,7 @@
         <v>44246</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28575,7 +28575,7 @@
         <v>44248</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28632,7 +28632,7 @@
         <v>44251</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28689,7 +28689,7 @@
         <v>44251</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28746,7 +28746,7 @@
         <v>44258</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28803,7 +28803,7 @@
         <v>44258</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28860,7 +28860,7 @@
         <v>44258</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28917,7 +28917,7 @@
         <v>44261</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28974,7 +28974,7 @@
         <v>44265</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29031,7 +29031,7 @@
         <v>44266</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29088,7 +29088,7 @@
         <v>44271</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29145,7 +29145,7 @@
         <v>44272</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29207,7 +29207,7 @@
         <v>44282</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29269,7 +29269,7 @@
         <v>44292</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29326,7 +29326,7 @@
         <v>44301</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29383,7 +29383,7 @@
         <v>44306</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29440,7 +29440,7 @@
         <v>44308</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29497,7 +29497,7 @@
         <v>44309</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29554,7 +29554,7 @@
         <v>44311</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29611,7 +29611,7 @@
         <v>44322</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29668,7 +29668,7 @@
         <v>44323</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29725,7 +29725,7 @@
         <v>44329</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29782,7 +29782,7 @@
         <v>44333</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29839,7 +29839,7 @@
         <v>44347</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29896,7 +29896,7 @@
         <v>44347</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29953,7 +29953,7 @@
         <v>44354</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30010,7 +30010,7 @@
         <v>44354</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30067,7 +30067,7 @@
         <v>44354</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30124,7 +30124,7 @@
         <v>44362</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30181,7 +30181,7 @@
         <v>44362</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30238,7 +30238,7 @@
         <v>44365</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30295,7 +30295,7 @@
         <v>44365</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30352,7 +30352,7 @@
         <v>44375</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30409,7 +30409,7 @@
         <v>44376</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30466,7 +30466,7 @@
         <v>44376</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30523,7 +30523,7 @@
         <v>44378</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30585,7 +30585,7 @@
         <v>44380</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30642,7 +30642,7 @@
         <v>44383</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30699,7 +30699,7 @@
         <v>44383</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30756,7 +30756,7 @@
         <v>44384</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30813,7 +30813,7 @@
         <v>44384</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30870,7 +30870,7 @@
         <v>44385</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30927,7 +30927,7 @@
         <v>44389</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30984,7 +30984,7 @@
         <v>44391</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31041,7 +31041,7 @@
         <v>44392</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31098,7 +31098,7 @@
         <v>44396</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31155,7 +31155,7 @@
         <v>44412</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31212,7 +31212,7 @@
         <v>44417</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31274,7 +31274,7 @@
         <v>44421</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31331,7 +31331,7 @@
         <v>44421</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31388,7 +31388,7 @@
         <v>44424</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31445,7 +31445,7 @@
         <v>44428</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31502,7 +31502,7 @@
         <v>44431</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31559,7 +31559,7 @@
         <v>44431</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31616,7 +31616,7 @@
         <v>44433</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31673,7 +31673,7 @@
         <v>44441</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31730,7 +31730,7 @@
         <v>44442</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31787,7 +31787,7 @@
         <v>44442</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31844,7 +31844,7 @@
         <v>44445</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31901,7 +31901,7 @@
         <v>44446</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31958,7 +31958,7 @@
         <v>44446</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32015,7 +32015,7 @@
         <v>44446</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32072,7 +32072,7 @@
         <v>44446</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32129,7 +32129,7 @@
         <v>44446</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32186,7 +32186,7 @@
         <v>44446</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32243,7 +32243,7 @@
         <v>44446</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32300,7 +32300,7 @@
         <v>44446</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32357,7 +32357,7 @@
         <v>44446</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32414,7 +32414,7 @@
         <v>44446</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32471,7 +32471,7 @@
         <v>44446</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32528,7 +32528,7 @@
         <v>44446</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32585,7 +32585,7 @@
         <v>44446</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32642,7 +32642,7 @@
         <v>44446</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32699,7 +32699,7 @@
         <v>44446</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32756,7 +32756,7 @@
         <v>44446</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32813,7 +32813,7 @@
         <v>44446</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32870,7 +32870,7 @@
         <v>44446</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32927,7 +32927,7 @@
         <v>44447</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32984,7 +32984,7 @@
         <v>44448</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33041,7 +33041,7 @@
         <v>44452</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33098,7 +33098,7 @@
         <v>44455</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33155,7 +33155,7 @@
         <v>44457</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33212,7 +33212,7 @@
         <v>44457</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33269,7 +33269,7 @@
         <v>44459</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33326,7 +33326,7 @@
         <v>44459</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33383,7 +33383,7 @@
         <v>44459</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33440,7 +33440,7 @@
         <v>44459</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33497,7 +33497,7 @@
         <v>44459</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33554,7 +33554,7 @@
         <v>44463</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33616,7 +33616,7 @@
         <v>44467</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33673,7 +33673,7 @@
         <v>44468</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33730,7 +33730,7 @@
         <v>44469</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33787,7 +33787,7 @@
         <v>44469</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33844,7 +33844,7 @@
         <v>44469</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33901,7 +33901,7 @@
         <v>44469</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33958,7 +33958,7 @@
         <v>44469</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34015,7 +34015,7 @@
         <v>44476</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34072,7 +34072,7 @@
         <v>44480</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34129,7 +34129,7 @@
         <v>44481</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34186,7 +34186,7 @@
         <v>44482</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34243,7 +34243,7 @@
         <v>44490</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34300,7 +34300,7 @@
         <v>44491</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34357,7 +34357,7 @@
         <v>44491</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34414,7 +34414,7 @@
         <v>44491</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34471,7 +34471,7 @@
         <v>44495</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34528,7 +34528,7 @@
         <v>44496</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34585,7 +34585,7 @@
         <v>44496</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34642,7 +34642,7 @@
         <v>44496</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34699,7 +34699,7 @@
         <v>44496</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34756,7 +34756,7 @@
         <v>44496</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34813,7 +34813,7 @@
         <v>44497</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34870,7 +34870,7 @@
         <v>44497</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34927,7 +34927,7 @@
         <v>44497</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34984,7 +34984,7 @@
         <v>44497</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35041,7 +35041,7 @@
         <v>44498</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35103,7 +35103,7 @@
         <v>44498</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35160,7 +35160,7 @@
         <v>44498</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35217,7 +35217,7 @@
         <v>44502</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35274,7 +35274,7 @@
         <v>44504</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35331,7 +35331,7 @@
         <v>44509</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35388,7 +35388,7 @@
         <v>44509</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35445,7 +35445,7 @@
         <v>44509</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35502,7 +35502,7 @@
         <v>44510</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35559,7 +35559,7 @@
         <v>44512</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35616,7 +35616,7 @@
         <v>44517</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35673,7 +35673,7 @@
         <v>44517</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35730,7 +35730,7 @@
         <v>44519</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35787,7 +35787,7 @@
         <v>44522</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35844,7 +35844,7 @@
         <v>44522</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35901,7 +35901,7 @@
         <v>44531</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35958,7 +35958,7 @@
         <v>44532</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36015,7 +36015,7 @@
         <v>44532</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36072,7 +36072,7 @@
         <v>44536</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36129,7 +36129,7 @@
         <v>44537</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36186,7 +36186,7 @@
         <v>44539</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36243,7 +36243,7 @@
         <v>44539</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36300,7 +36300,7 @@
         <v>44540</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36362,7 +36362,7 @@
         <v>44540</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36419,7 +36419,7 @@
         <v>44543</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36476,7 +36476,7 @@
         <v>44543</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36533,7 +36533,7 @@
         <v>44543</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36590,7 +36590,7 @@
         <v>44543</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36647,7 +36647,7 @@
         <v>44546</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36704,7 +36704,7 @@
         <v>44550</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36761,7 +36761,7 @@
         <v>44550</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36818,7 +36818,7 @@
         <v>44552</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36875,7 +36875,7 @@
         <v>44552</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36932,7 +36932,7 @@
         <v>44552</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36989,7 +36989,7 @@
         <v>44552</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37046,7 +37046,7 @@
         <v>44553</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37103,7 +37103,7 @@
         <v>44553</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37160,7 +37160,7 @@
         <v>44558</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37217,7 +37217,7 @@
         <v>44561</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -37274,7 +37274,7 @@
         <v>44564</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37331,7 +37331,7 @@
         <v>44566</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -37388,7 +37388,7 @@
         <v>44568</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -37445,7 +37445,7 @@
         <v>44571</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -37502,7 +37502,7 @@
         <v>44571</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -37559,7 +37559,7 @@
         <v>44573</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -37616,7 +37616,7 @@
         <v>44573</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37673,7 +37673,7 @@
         <v>44573</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37730,7 +37730,7 @@
         <v>44578</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -37787,7 +37787,7 @@
         <v>44585</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -37844,7 +37844,7 @@
         <v>44586</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -37901,7 +37901,7 @@
         <v>44587</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -37958,7 +37958,7 @@
         <v>44588</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38015,7 +38015,7 @@
         <v>44589</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38072,7 +38072,7 @@
         <v>44593</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38129,7 +38129,7 @@
         <v>44593</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38186,7 +38186,7 @@
         <v>44595</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38243,7 +38243,7 @@
         <v>44596</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38305,7 +38305,7 @@
         <v>44601</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -38362,7 +38362,7 @@
         <v>44603</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -38419,7 +38419,7 @@
         <v>44606</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -38476,7 +38476,7 @@
         <v>44607</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -38533,7 +38533,7 @@
         <v>44609</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -38590,7 +38590,7 @@
         <v>44610</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -38647,7 +38647,7 @@
         <v>44612</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -38704,7 +38704,7 @@
         <v>44616</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -38761,7 +38761,7 @@
         <v>44617</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -38818,7 +38818,7 @@
         <v>44621</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -38875,7 +38875,7 @@
         <v>44624</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -38932,7 +38932,7 @@
         <v>44627</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -38989,7 +38989,7 @@
         <v>44627</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -39046,7 +39046,7 @@
         <v>44628</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -39103,7 +39103,7 @@
         <v>44628</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -39160,7 +39160,7 @@
         <v>44628</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -39217,7 +39217,7 @@
         <v>44631</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -39279,7 +39279,7 @@
         <v>44631</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -39341,7 +39341,7 @@
         <v>44631</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -39398,7 +39398,7 @@
         <v>44631</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -39455,7 +39455,7 @@
         <v>44635</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -39512,7 +39512,7 @@
         <v>44635</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -39569,7 +39569,7 @@
         <v>44636</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -39626,7 +39626,7 @@
         <v>44643</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -39683,7 +39683,7 @@
         <v>44643</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -39740,7 +39740,7 @@
         <v>44643</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -39797,7 +39797,7 @@
         <v>44643</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -39854,7 +39854,7 @@
         <v>44643</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -39911,7 +39911,7 @@
         <v>44643</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -39968,7 +39968,7 @@
         <v>44650</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -40025,7 +40025,7 @@
         <v>44652</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -40082,7 +40082,7 @@
         <v>44655</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -40139,7 +40139,7 @@
         <v>44655</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -40196,7 +40196,7 @@
         <v>44659</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -40253,7 +40253,7 @@
         <v>44671</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -40310,7 +40310,7 @@
         <v>44671</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -40367,7 +40367,7 @@
         <v>44671</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -40424,7 +40424,7 @@
         <v>44672</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -40481,7 +40481,7 @@
         <v>44672</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -40538,7 +40538,7 @@
         <v>44677</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -40595,7 +40595,7 @@
         <v>44684</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -40652,7 +40652,7 @@
         <v>44685</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -40709,7 +40709,7 @@
         <v>44686</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -40766,7 +40766,7 @@
         <v>44687</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -40823,7 +40823,7 @@
         <v>44690</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -40880,7 +40880,7 @@
         <v>44691</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -40937,7 +40937,7 @@
         <v>44694</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -40994,7 +40994,7 @@
         <v>44697</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -41051,7 +41051,7 @@
         <v>44697</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -41108,7 +41108,7 @@
         <v>44704</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -41165,7 +41165,7 @@
         <v>44705</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -41222,7 +41222,7 @@
         <v>44705</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -41279,7 +41279,7 @@
         <v>44711</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -41336,7 +41336,7 @@
         <v>44712</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -41393,7 +41393,7 @@
         <v>44726</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -41450,7 +41450,7 @@
         <v>44728</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -41507,7 +41507,7 @@
         <v>44728</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -41564,7 +41564,7 @@
         <v>44733</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -41626,7 +41626,7 @@
         <v>44747</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -41688,7 +41688,7 @@
         <v>44747</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -41750,7 +41750,7 @@
         <v>44747</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -41812,7 +41812,7 @@
         <v>44747</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -41869,7 +41869,7 @@
         <v>44750</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -41926,7 +41926,7 @@
         <v>44750</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -41983,7 +41983,7 @@
         <v>44761</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -42040,7 +42040,7 @@
         <v>44761</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -42097,7 +42097,7 @@
         <v>44761</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -42154,7 +42154,7 @@
         <v>44790</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -42211,7 +42211,7 @@
         <v>44796</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -42268,7 +42268,7 @@
         <v>44799</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -42325,7 +42325,7 @@
         <v>44804</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -42382,7 +42382,7 @@
         <v>44804</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -42439,7 +42439,7 @@
         <v>44806</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -42496,7 +42496,7 @@
         <v>44806</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -42553,7 +42553,7 @@
         <v>44812</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -42610,7 +42610,7 @@
         <v>44816</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -42667,7 +42667,7 @@
         <v>44818</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -42724,7 +42724,7 @@
         <v>44818</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -42781,7 +42781,7 @@
         <v>44824</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -42838,7 +42838,7 @@
         <v>44825</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -42895,7 +42895,7 @@
         <v>44825</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -42952,7 +42952,7 @@
         <v>44830</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -43009,7 +43009,7 @@
         <v>44832</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -43066,7 +43066,7 @@
         <v>44832</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -43123,7 +43123,7 @@
         <v>44839</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -43180,7 +43180,7 @@
         <v>44839</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -43237,7 +43237,7 @@
         <v>44839</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -43294,7 +43294,7 @@
         <v>44844</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -43351,7 +43351,7 @@
         <v>44847</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -43413,7 +43413,7 @@
         <v>44853</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -43470,7 +43470,7 @@
         <v>44853</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -43527,7 +43527,7 @@
         <v>44854</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -43584,7 +43584,7 @@
         <v>44858</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -43641,7 +43641,7 @@
         <v>44859</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -43698,7 +43698,7 @@
         <v>44865</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -43760,7 +43760,7 @@
         <v>44868</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -43817,7 +43817,7 @@
         <v>44868</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -43874,7 +43874,7 @@
         <v>44872</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -43931,7 +43931,7 @@
         <v>44873</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -43988,7 +43988,7 @@
         <v>44876</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -44045,7 +44045,7 @@
         <v>44879</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -44102,7 +44102,7 @@
         <v>44883</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -44159,7 +44159,7 @@
         <v>44886</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -44216,7 +44216,7 @@
         <v>44888</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -44273,7 +44273,7 @@
         <v>44893</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -44335,7 +44335,7 @@
         <v>44893</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -44392,7 +44392,7 @@
         <v>44901</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -44449,7 +44449,7 @@
         <v>44904</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -44506,7 +44506,7 @@
         <v>44904</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -44563,7 +44563,7 @@
         <v>44907</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -44620,7 +44620,7 @@
         <v>44907</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -44677,7 +44677,7 @@
         <v>44911</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -44739,7 +44739,7 @@
         <v>44914</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -44796,7 +44796,7 @@
         <v>44915</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -44853,7 +44853,7 @@
         <v>44916</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -44910,7 +44910,7 @@
         <v>44922</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -44967,7 +44967,7 @@
         <v>44924</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -45024,7 +45024,7 @@
         <v>44928</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -45081,7 +45081,7 @@
         <v>44928</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -45138,7 +45138,7 @@
         <v>44928</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -45195,7 +45195,7 @@
         <v>44935</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -45252,7 +45252,7 @@
         <v>44935</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -45309,7 +45309,7 @@
         <v>44935</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -45366,7 +45366,7 @@
         <v>44935</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -45423,7 +45423,7 @@
         <v>44938</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -45480,7 +45480,7 @@
         <v>44948</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -45537,7 +45537,7 @@
         <v>44949</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -45594,7 +45594,7 @@
         <v>44953</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -45651,7 +45651,7 @@
         <v>44953</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -45708,7 +45708,7 @@
         <v>44953</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -45765,7 +45765,7 @@
         <v>44953</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -45822,7 +45822,7 @@
         <v>44957</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -45879,7 +45879,7 @@
         <v>44963</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -45936,7 +45936,7 @@
         <v>44963</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -45993,7 +45993,7 @@
         <v>44966</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -46050,7 +46050,7 @@
         <v>44967</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -46107,7 +46107,7 @@
         <v>44967</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -46169,7 +46169,7 @@
         <v>44967</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -46231,7 +46231,7 @@
         <v>44968</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -46293,7 +46293,7 @@
         <v>44972</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -46350,7 +46350,7 @@
         <v>44972</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -46407,7 +46407,7 @@
         <v>44973</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -46464,7 +46464,7 @@
         <v>44974</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -46521,7 +46521,7 @@
         <v>44977</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -46578,7 +46578,7 @@
         <v>44978</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -46635,7 +46635,7 @@
         <v>44979</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -46692,7 +46692,7 @@
         <v>44980</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -46749,7 +46749,7 @@
         <v>44984</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -46806,7 +46806,7 @@
         <v>44984</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -46863,7 +46863,7 @@
         <v>44986</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -46920,7 +46920,7 @@
         <v>44986</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -46977,7 +46977,7 @@
         <v>44986</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -47034,7 +47034,7 @@
         <v>44987</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -47091,7 +47091,7 @@
         <v>44991</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -47148,7 +47148,7 @@
         <v>44992</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -47210,7 +47210,7 @@
         <v>44993</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -47267,7 +47267,7 @@
         <v>44995</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -47324,7 +47324,7 @@
         <v>44998</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -47381,7 +47381,7 @@
         <v>45002</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -47438,7 +47438,7 @@
         <v>45002</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -47500,7 +47500,7 @@
         <v>45006</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -47557,7 +47557,7 @@
         <v>45012</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -47614,7 +47614,7 @@
         <v>45015</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -47671,7 +47671,7 @@
         <v>45019</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -47728,7 +47728,7 @@
         <v>45020</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -47785,7 +47785,7 @@
         <v>45020</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -47842,7 +47842,7 @@
         <v>45020</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -47899,7 +47899,7 @@
         <v>45021</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -47956,7 +47956,7 @@
         <v>45030</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -48013,7 +48013,7 @@
         <v>45030</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -48075,7 +48075,7 @@
         <v>45034</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -48132,7 +48132,7 @@
         <v>45036</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -48189,7 +48189,7 @@
         <v>45039</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -48246,7 +48246,7 @@
         <v>45041</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -48303,7 +48303,7 @@
         <v>45047</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -48360,7 +48360,7 @@
         <v>45049</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -48417,7 +48417,7 @@
         <v>45051</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -48474,7 +48474,7 @@
         <v>45051</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -48531,7 +48531,7 @@
         <v>45051</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -48588,7 +48588,7 @@
         <v>45051</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -48645,7 +48645,7 @@
         <v>45051</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -48702,7 +48702,7 @@
         <v>45051</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -48759,7 +48759,7 @@
         <v>45052</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -48816,7 +48816,7 @@
         <v>45056</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -48873,7 +48873,7 @@
         <v>45056</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -48930,7 +48930,7 @@
         <v>45057</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -48987,7 +48987,7 @@
         <v>45058</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -49044,7 +49044,7 @@
         <v>45061</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -49101,7 +49101,7 @@
         <v>45061</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -49158,7 +49158,7 @@
         <v>45062</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -49215,7 +49215,7 @@
         <v>45062</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -49272,7 +49272,7 @@
         <v>45062</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -49329,7 +49329,7 @@
         <v>45070</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -49386,7 +49386,7 @@
         <v>45070</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -49443,7 +49443,7 @@
         <v>45072</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -49500,7 +49500,7 @@
         <v>45075</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -49557,7 +49557,7 @@
         <v>45075</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -49614,7 +49614,7 @@
         <v>45075</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -49671,7 +49671,7 @@
         <v>45075</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -49728,7 +49728,7 @@
         <v>45075</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -49785,7 +49785,7 @@
         <v>45076</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -49842,7 +49842,7 @@
         <v>45076</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -49899,7 +49899,7 @@
         <v>45078</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -49956,7 +49956,7 @@
         <v>45078</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -50013,7 +50013,7 @@
         <v>45078</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -50070,7 +50070,7 @@
         <v>45078</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -50127,7 +50127,7 @@
         <v>45078</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -50184,7 +50184,7 @@
         <v>45078</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -50241,7 +50241,7 @@
         <v>45078</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -50298,7 +50298,7 @@
         <v>45081</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -50360,7 +50360,7 @@
         <v>45082</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -50417,7 +50417,7 @@
         <v>45096</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -50474,7 +50474,7 @@
         <v>45099</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -50531,7 +50531,7 @@
         <v>45104</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -50588,7 +50588,7 @@
         <v>45105</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -50645,7 +50645,7 @@
         <v>45105</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -50702,7 +50702,7 @@
         <v>45106</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -50759,7 +50759,7 @@
         <v>45106</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -50816,7 +50816,7 @@
         <v>45108</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -50873,7 +50873,7 @@
         <v>45110</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -50930,7 +50930,7 @@
         <v>45113</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -50987,7 +50987,7 @@
         <v>45113</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -51044,7 +51044,7 @@
         <v>45119</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -51101,7 +51101,7 @@
         <v>45120</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -51158,7 +51158,7 @@
         <v>45120</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -51215,7 +51215,7 @@
         <v>45121</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -51272,7 +51272,7 @@
         <v>45121</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -51329,7 +51329,7 @@
         <v>45121</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -51386,7 +51386,7 @@
         <v>45121</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -51443,7 +51443,7 @@
         <v>45138</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -51500,7 +51500,7 @@
         <v>45138</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -51557,7 +51557,7 @@
         <v>45145</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -51614,7 +51614,7 @@
         <v>45145</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -51671,7 +51671,7 @@
         <v>45145</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -51728,7 +51728,7 @@
         <v>45145</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -51785,7 +51785,7 @@
         <v>45148</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -51842,7 +51842,7 @@
         <v>45149</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -51899,7 +51899,7 @@
         <v>45149</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -51956,7 +51956,7 @@
         <v>45152</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -52013,7 +52013,7 @@
         <v>45154</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -52070,7 +52070,7 @@
         <v>45155</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -52132,7 +52132,7 @@
         <v>45155</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -52189,7 +52189,7 @@
         <v>45159</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -52246,7 +52246,7 @@
         <v>45159</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -52303,7 +52303,7 @@
         <v>45161</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -52360,7 +52360,7 @@
         <v>45161</v>
       </c>
       <c r="C884" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -52417,7 +52417,7 @@
         <v>45162</v>
       </c>
       <c r="C885" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -52474,7 +52474,7 @@
         <v>45163</v>
       </c>
       <c r="C886" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -52531,7 +52531,7 @@
         <v>45166</v>
       </c>
       <c r="C887" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -52588,7 +52588,7 @@
         <v>45168</v>
       </c>
       <c r="C888" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>

--- a/Översikt ÅRJÄNG.xlsx
+++ b/Översikt ÅRJÄNG.xlsx
@@ -572,7 +572,7 @@
         <v>43607</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -689,7 +689,7 @@
         <v>44824</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -785,7 +785,7 @@
         <v>44649</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -878,7 +878,7 @@
         <v>44585</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -974,7 +974,7 @@
         <v>44970</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1066,7 +1066,7 @@
         <v>45084</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1162,7 +1162,7 @@
         <v>44964</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1253,7 +1253,7 @@
         <v>44873</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1347,7 +1347,7 @@
         <v>45106</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1437,7 +1437,7 @@
         <v>43621</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1530,7 +1530,7 @@
         <v>43880</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1623,7 +1623,7 @@
         <v>44140</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1712,7 +1712,7 @@
         <v>43852</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1804,7 +1804,7 @@
         <v>44375</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1892,7 +1892,7 @@
         <v>44678</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1980,7 +1980,7 @@
         <v>45051</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2068,7 +2068,7 @@
         <v>43922</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2159,7 +2159,7 @@
         <v>44377</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2250,7 +2250,7 @@
         <v>43852</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2336,7 +2336,7 @@
         <v>43880</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2426,7 +2426,7 @@
         <v>44515</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2516,7 +2516,7 @@
         <v>44872</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2606,7 +2606,7 @@
         <v>44935</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2692,7 +2692,7 @@
         <v>45001</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2778,7 +2778,7 @@
         <v>43621</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2867,7 +2867,7 @@
         <v>43696</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2952,7 +2952,7 @@
         <v>43725</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3037,7 +3037,7 @@
         <v>43731</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3122,7 +3122,7 @@
         <v>43734</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3207,7 +3207,7 @@
         <v>43763</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3292,7 +3292,7 @@
         <v>43839</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3377,7 +3377,7 @@
         <v>44050</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3462,7 +3462,7 @@
         <v>44061</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         <v>44217</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3632,7 +3632,7 @@
         <v>44285</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3717,7 +3717,7 @@
         <v>44356</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3802,7 +3802,7 @@
         <v>44379</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3887,7 +3887,7 @@
         <v>44846</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3976,7 +3976,7 @@
         <v>44873</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4061,7 +4061,7 @@
         <v>45111</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4146,7 +4146,7 @@
         <v>43326</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4203,7 +4203,7 @@
         <v>43335</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4260,7 +4260,7 @@
         <v>43335</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4317,7 +4317,7 @@
         <v>43335</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4374,7 +4374,7 @@
         <v>43339</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4431,7 +4431,7 @@
         <v>43346</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4488,7 +4488,7 @@
         <v>43346</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4545,7 +4545,7 @@
         <v>43347</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4602,7 +4602,7 @@
         <v>43349</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4659,7 +4659,7 @@
         <v>43353</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4716,7 +4716,7 @@
         <v>43353</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4773,7 +4773,7 @@
         <v>43353</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4830,7 +4830,7 @@
         <v>43353</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4887,7 +4887,7 @@
         <v>43353</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4944,7 +4944,7 @@
         <v>43354</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5001,7 +5001,7 @@
         <v>43354</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5058,7 +5058,7 @@
         <v>43355</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5115,7 +5115,7 @@
         <v>43367</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5172,7 +5172,7 @@
         <v>43369</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5229,7 +5229,7 @@
         <v>43381</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5286,7 +5286,7 @@
         <v>43381</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5343,7 +5343,7 @@
         <v>43390</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5400,7 +5400,7 @@
         <v>43395</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5457,7 +5457,7 @@
         <v>43395</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5514,7 +5514,7 @@
         <v>43399</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5571,7 +5571,7 @@
         <v>43399</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5628,7 +5628,7 @@
         <v>43401</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5685,7 +5685,7 @@
         <v>43403</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5742,7 +5742,7 @@
         <v>43403</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5799,7 +5799,7 @@
         <v>43403</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5856,7 +5856,7 @@
         <v>43403</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5913,7 +5913,7 @@
         <v>43403</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5970,7 +5970,7 @@
         <v>43403</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6027,7 +6027,7 @@
         <v>43403</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6084,7 +6084,7 @@
         <v>43403</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6141,7 +6141,7 @@
         <v>43403</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6198,7 +6198,7 @@
         <v>43406</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6255,7 +6255,7 @@
         <v>43408</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6312,7 +6312,7 @@
         <v>43409</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6369,7 +6369,7 @@
         <v>43419</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6426,7 +6426,7 @@
         <v>43420</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6483,7 +6483,7 @@
         <v>43420</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6540,7 +6540,7 @@
         <v>43430</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6597,7 +6597,7 @@
         <v>43430</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6654,7 +6654,7 @@
         <v>43431</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6711,7 +6711,7 @@
         <v>43432</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6768,7 +6768,7 @@
         <v>43432</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6825,7 +6825,7 @@
         <v>43432</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6882,7 +6882,7 @@
         <v>43432</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6939,7 +6939,7 @@
         <v>43433</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6996,7 +6996,7 @@
         <v>43437</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7053,7 +7053,7 @@
         <v>43437</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7110,7 +7110,7 @@
         <v>43438</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7167,7 +7167,7 @@
         <v>43440</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7224,7 +7224,7 @@
         <v>43441</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7281,7 +7281,7 @@
         <v>43447</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7338,7 +7338,7 @@
         <v>43448</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7395,7 +7395,7 @@
         <v>43451</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7452,7 +7452,7 @@
         <v>43452</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7509,7 +7509,7 @@
         <v>43452</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7566,7 +7566,7 @@
         <v>43453</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7623,7 +7623,7 @@
         <v>43454</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7680,7 +7680,7 @@
         <v>43454</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7737,7 +7737,7 @@
         <v>43455</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7794,7 +7794,7 @@
         <v>43460</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7851,7 +7851,7 @@
         <v>43467</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7908,7 +7908,7 @@
         <v>43467</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7965,7 +7965,7 @@
         <v>43467</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8022,7 +8022,7 @@
         <v>43474</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8079,7 +8079,7 @@
         <v>43474</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8136,7 +8136,7 @@
         <v>43475</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8193,7 +8193,7 @@
         <v>43475</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8250,7 +8250,7 @@
         <v>43476</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8307,7 +8307,7 @@
         <v>43479</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8364,7 +8364,7 @@
         <v>43479</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8421,7 +8421,7 @@
         <v>43481</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8478,7 +8478,7 @@
         <v>43486</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8535,7 +8535,7 @@
         <v>43486</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8592,7 +8592,7 @@
         <v>43487</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8649,7 +8649,7 @@
         <v>43488</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8706,7 +8706,7 @@
         <v>43488</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8763,7 +8763,7 @@
         <v>43488</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8820,7 +8820,7 @@
         <v>43490</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8877,7 +8877,7 @@
         <v>43490</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8934,7 +8934,7 @@
         <v>43494</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8991,7 +8991,7 @@
         <v>43496</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9048,7 +9048,7 @@
         <v>43500</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9105,7 +9105,7 @@
         <v>43500</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9162,7 +9162,7 @@
         <v>43502</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9219,7 +9219,7 @@
         <v>43502</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9276,7 +9276,7 @@
         <v>43504</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9333,7 +9333,7 @@
         <v>43504</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9390,7 +9390,7 @@
         <v>43507</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9447,7 +9447,7 @@
         <v>43508</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9504,7 +9504,7 @@
         <v>43508</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9561,7 +9561,7 @@
         <v>43510</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9618,7 +9618,7 @@
         <v>43511</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9675,7 +9675,7 @@
         <v>43516</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9732,7 +9732,7 @@
         <v>43523</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9789,7 +9789,7 @@
         <v>43523</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9846,7 +9846,7 @@
         <v>43523</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9903,7 +9903,7 @@
         <v>43523</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9960,7 +9960,7 @@
         <v>43524</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10017,7 +10017,7 @@
         <v>43524</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10074,7 +10074,7 @@
         <v>43525</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10131,7 +10131,7 @@
         <v>43531</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10188,7 +10188,7 @@
         <v>43532</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10250,7 +10250,7 @@
         <v>43538</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10307,7 +10307,7 @@
         <v>43539</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10364,7 +10364,7 @@
         <v>43542</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10421,7 +10421,7 @@
         <v>43542</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10478,7 +10478,7 @@
         <v>43542</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10535,7 +10535,7 @@
         <v>43542</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10592,7 +10592,7 @@
         <v>43543</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10649,7 +10649,7 @@
         <v>43543</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10706,7 +10706,7 @@
         <v>43545</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10763,7 +10763,7 @@
         <v>43549</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10820,7 +10820,7 @@
         <v>43549</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10877,7 +10877,7 @@
         <v>43551</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10934,7 +10934,7 @@
         <v>43552</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10991,7 +10991,7 @@
         <v>43555</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11048,7 +11048,7 @@
         <v>43556</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11105,7 +11105,7 @@
         <v>43558</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11162,7 +11162,7 @@
         <v>43559</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11219,7 +11219,7 @@
         <v>43560</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11276,7 +11276,7 @@
         <v>43563</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11333,7 +11333,7 @@
         <v>43563</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11390,7 +11390,7 @@
         <v>43563</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11447,7 +11447,7 @@
         <v>43567</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11504,7 +11504,7 @@
         <v>43569</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11561,7 +11561,7 @@
         <v>43570</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11618,7 +11618,7 @@
         <v>43573</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11675,7 +11675,7 @@
         <v>43573</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11732,7 +11732,7 @@
         <v>43573</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11789,7 +11789,7 @@
         <v>43580</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11846,7 +11846,7 @@
         <v>43581</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11908,7 +11908,7 @@
         <v>43581</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11970,7 +11970,7 @@
         <v>43585</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12027,7 +12027,7 @@
         <v>43585</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12084,7 +12084,7 @@
         <v>43587</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12141,7 +12141,7 @@
         <v>43594</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12198,7 +12198,7 @@
         <v>43594</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12255,7 +12255,7 @@
         <v>43594</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12312,7 +12312,7 @@
         <v>43594</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12369,7 +12369,7 @@
         <v>43594</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12426,7 +12426,7 @@
         <v>43594</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12483,7 +12483,7 @@
         <v>43598</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12540,7 +12540,7 @@
         <v>43599</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12597,7 +12597,7 @@
         <v>43606</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12654,7 +12654,7 @@
         <v>43606</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12711,7 +12711,7 @@
         <v>43606</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12768,7 +12768,7 @@
         <v>43607</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12825,7 +12825,7 @@
         <v>43608</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12882,7 +12882,7 @@
         <v>43609</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12944,7 +12944,7 @@
         <v>43614</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13001,7 +13001,7 @@
         <v>43614</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13058,7 +13058,7 @@
         <v>43621</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13115,7 +13115,7 @@
         <v>43621</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13172,7 +13172,7 @@
         <v>43628</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13229,7 +13229,7 @@
         <v>43633</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13286,7 +13286,7 @@
         <v>43636</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13343,7 +13343,7 @@
         <v>43642</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13400,7 +13400,7 @@
         <v>43646</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13462,7 +13462,7 @@
         <v>43646</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13524,7 +13524,7 @@
         <v>43647</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13581,7 +13581,7 @@
         <v>43648</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13638,7 +13638,7 @@
         <v>43649</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13695,7 +13695,7 @@
         <v>43649</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13752,7 +13752,7 @@
         <v>43649</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13809,7 +13809,7 @@
         <v>43649</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13866,7 +13866,7 @@
         <v>43650</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13923,7 +13923,7 @@
         <v>43650</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13980,7 +13980,7 @@
         <v>43652</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14037,7 +14037,7 @@
         <v>43653</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14094,7 +14094,7 @@
         <v>43654</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14151,7 +14151,7 @@
         <v>43654</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14208,7 +14208,7 @@
         <v>43655</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14265,7 +14265,7 @@
         <v>43655</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14322,7 +14322,7 @@
         <v>43675</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14379,7 +14379,7 @@
         <v>43684</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14436,7 +14436,7 @@
         <v>43684</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14493,7 +14493,7 @@
         <v>43696</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14550,7 +14550,7 @@
         <v>43697</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14607,7 +14607,7 @@
         <v>43697</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14664,7 +14664,7 @@
         <v>43698</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14721,7 +14721,7 @@
         <v>43699</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14778,7 +14778,7 @@
         <v>43699</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14835,7 +14835,7 @@
         <v>43699</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14892,7 +14892,7 @@
         <v>43700</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14949,7 +14949,7 @@
         <v>43700</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15006,7 +15006,7 @@
         <v>43703</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15063,7 +15063,7 @@
         <v>43703</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15120,7 +15120,7 @@
         <v>43703</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15177,7 +15177,7 @@
         <v>43705</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15234,7 +15234,7 @@
         <v>43705</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15291,7 +15291,7 @@
         <v>43705</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15348,7 +15348,7 @@
         <v>43705</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15405,7 +15405,7 @@
         <v>43707</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15462,7 +15462,7 @@
         <v>43707</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15524,7 +15524,7 @@
         <v>43707</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15581,7 +15581,7 @@
         <v>43710</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15638,7 +15638,7 @@
         <v>43711</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15695,7 +15695,7 @@
         <v>43718</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15757,7 +15757,7 @@
         <v>43721</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15814,7 +15814,7 @@
         <v>43721</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15871,7 +15871,7 @@
         <v>43724</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15933,7 +15933,7 @@
         <v>43727</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15990,7 +15990,7 @@
         <v>43727</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16047,7 +16047,7 @@
         <v>43727</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16104,7 +16104,7 @@
         <v>43728</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16161,7 +16161,7 @@
         <v>43730</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16218,7 +16218,7 @@
         <v>43731</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16275,7 +16275,7 @@
         <v>43732</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16332,7 +16332,7 @@
         <v>43734</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16389,7 +16389,7 @@
         <v>43740</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16446,7 +16446,7 @@
         <v>43740</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16503,7 +16503,7 @@
         <v>43741</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16560,7 +16560,7 @@
         <v>43742</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16617,7 +16617,7 @@
         <v>43748</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16674,7 +16674,7 @@
         <v>43749</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16731,7 +16731,7 @@
         <v>43759</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16793,7 +16793,7 @@
         <v>43762</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16850,7 +16850,7 @@
         <v>43762</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16907,7 +16907,7 @@
         <v>43766</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16964,7 +16964,7 @@
         <v>43768</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17026,7 +17026,7 @@
         <v>43769</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17083,7 +17083,7 @@
         <v>43770</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17140,7 +17140,7 @@
         <v>43776</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17197,7 +17197,7 @@
         <v>43782</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17254,7 +17254,7 @@
         <v>43791</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17311,7 +17311,7 @@
         <v>43802</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17368,7 +17368,7 @@
         <v>43804</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17425,7 +17425,7 @@
         <v>43815</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17482,7 +17482,7 @@
         <v>43819</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17539,7 +17539,7 @@
         <v>43819</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17596,7 +17596,7 @@
         <v>43822</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17653,7 +17653,7 @@
         <v>43822</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17710,7 +17710,7 @@
         <v>43833</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17767,7 +17767,7 @@
         <v>43843</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17824,7 +17824,7 @@
         <v>43843</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17881,7 +17881,7 @@
         <v>43843</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17938,7 +17938,7 @@
         <v>43847</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17995,7 +17995,7 @@
         <v>43847</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18052,7 +18052,7 @@
         <v>43847</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18109,7 +18109,7 @@
         <v>43847</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18166,7 +18166,7 @@
         <v>43848</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18223,7 +18223,7 @@
         <v>43852</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18280,7 +18280,7 @@
         <v>43852</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18337,7 +18337,7 @@
         <v>43852</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18394,7 +18394,7 @@
         <v>43852</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18451,7 +18451,7 @@
         <v>43852</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18508,7 +18508,7 @@
         <v>43861</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18565,7 +18565,7 @@
         <v>43861</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18622,7 +18622,7 @@
         <v>43861</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18679,7 +18679,7 @@
         <v>43861</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18736,7 +18736,7 @@
         <v>43861</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18793,7 +18793,7 @@
         <v>43861</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18850,7 +18850,7 @@
         <v>43866</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18907,7 +18907,7 @@
         <v>43868</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18964,7 +18964,7 @@
         <v>43868</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19021,7 +19021,7 @@
         <v>43872</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19078,7 +19078,7 @@
         <v>43873</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19135,7 +19135,7 @@
         <v>43874</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19192,7 +19192,7 @@
         <v>43874</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19249,7 +19249,7 @@
         <v>43878</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19306,7 +19306,7 @@
         <v>43878</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19363,7 +19363,7 @@
         <v>43878</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19420,7 +19420,7 @@
         <v>43879</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19477,7 +19477,7 @@
         <v>43879</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19534,7 +19534,7 @@
         <v>43885</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19591,7 +19591,7 @@
         <v>43885</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19648,7 +19648,7 @@
         <v>43885</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19705,7 +19705,7 @@
         <v>43886</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19762,7 +19762,7 @@
         <v>43886</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19819,7 +19819,7 @@
         <v>43886</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19876,7 +19876,7 @@
         <v>43887</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19933,7 +19933,7 @@
         <v>43888</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19990,7 +19990,7 @@
         <v>43892</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20047,7 +20047,7 @@
         <v>43892</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20104,7 +20104,7 @@
         <v>43892</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20161,7 +20161,7 @@
         <v>43893</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20218,7 +20218,7 @@
         <v>43899</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20275,7 +20275,7 @@
         <v>43899</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20332,7 +20332,7 @@
         <v>43901</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20389,7 +20389,7 @@
         <v>43901</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20446,7 +20446,7 @@
         <v>43902</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20503,7 +20503,7 @@
         <v>43902</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20560,7 +20560,7 @@
         <v>43902</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20617,7 +20617,7 @@
         <v>43903</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20674,7 +20674,7 @@
         <v>43906</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20731,7 +20731,7 @@
         <v>43906</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20788,7 +20788,7 @@
         <v>43906</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20845,7 +20845,7 @@
         <v>43906</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20902,7 +20902,7 @@
         <v>43906</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20959,7 +20959,7 @@
         <v>43906</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21016,7 +21016,7 @@
         <v>43906</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21073,7 +21073,7 @@
         <v>43907</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21130,7 +21130,7 @@
         <v>43907</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21187,7 +21187,7 @@
         <v>43910</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21244,7 +21244,7 @@
         <v>43910</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21301,7 +21301,7 @@
         <v>43915</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21358,7 +21358,7 @@
         <v>43915</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21415,7 +21415,7 @@
         <v>43915</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21472,7 +21472,7 @@
         <v>43920</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21529,7 +21529,7 @@
         <v>43921</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21586,7 +21586,7 @@
         <v>43923</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21643,7 +21643,7 @@
         <v>43924</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21700,7 +21700,7 @@
         <v>43924</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21757,7 +21757,7 @@
         <v>43932</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21814,7 +21814,7 @@
         <v>43955</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21871,7 +21871,7 @@
         <v>43963</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21928,7 +21928,7 @@
         <v>43964</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21985,7 +21985,7 @@
         <v>43965</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22042,7 +22042,7 @@
         <v>43965</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22099,7 +22099,7 @@
         <v>43969</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22156,7 +22156,7 @@
         <v>43975</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22213,7 +22213,7 @@
         <v>43978</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22270,7 +22270,7 @@
         <v>43978</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22327,7 +22327,7 @@
         <v>43985</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22384,7 +22384,7 @@
         <v>43986</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22441,7 +22441,7 @@
         <v>43987</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22498,7 +22498,7 @@
         <v>44004</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22555,7 +22555,7 @@
         <v>44004</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22612,7 +22612,7 @@
         <v>44006</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22669,7 +22669,7 @@
         <v>44006</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22726,7 +22726,7 @@
         <v>44013</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22783,7 +22783,7 @@
         <v>44013</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22840,7 +22840,7 @@
         <v>44018</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22897,7 +22897,7 @@
         <v>44019</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22959,7 +22959,7 @@
         <v>44019</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23021,7 +23021,7 @@
         <v>44036</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23078,7 +23078,7 @@
         <v>44036</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23135,7 +23135,7 @@
         <v>44036</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23192,7 +23192,7 @@
         <v>44036</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23249,7 +23249,7 @@
         <v>44036</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23306,7 +23306,7 @@
         <v>44036</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23363,7 +23363,7 @@
         <v>44036</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23420,7 +23420,7 @@
         <v>44036</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23477,7 +23477,7 @@
         <v>44036</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23534,7 +23534,7 @@
         <v>44036</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23591,7 +23591,7 @@
         <v>44040</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23653,7 +23653,7 @@
         <v>44042</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23710,7 +23710,7 @@
         <v>44047</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23767,7 +23767,7 @@
         <v>44050</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23824,7 +23824,7 @@
         <v>44054</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23881,7 +23881,7 @@
         <v>44060</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23943,7 +23943,7 @@
         <v>44061</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24000,7 +24000,7 @@
         <v>44063</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24057,7 +24057,7 @@
         <v>44069</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24114,7 +24114,7 @@
         <v>44069</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24171,7 +24171,7 @@
         <v>44070</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24228,7 +24228,7 @@
         <v>44074</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24285,7 +24285,7 @@
         <v>44074</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24342,7 +24342,7 @@
         <v>44076</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24399,7 +24399,7 @@
         <v>44081</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24456,7 +24456,7 @@
         <v>44084</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24513,7 +24513,7 @@
         <v>44084</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24570,7 +24570,7 @@
         <v>44091</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24627,7 +24627,7 @@
         <v>44091</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24684,7 +24684,7 @@
         <v>44096</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24741,7 +24741,7 @@
         <v>44097</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24798,7 +24798,7 @@
         <v>44101</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24855,7 +24855,7 @@
         <v>44102</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24912,7 +24912,7 @@
         <v>44102</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24969,7 +24969,7 @@
         <v>44103</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25026,7 +25026,7 @@
         <v>44103</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25083,7 +25083,7 @@
         <v>44105</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25140,7 +25140,7 @@
         <v>44109</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25197,7 +25197,7 @@
         <v>44110</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25254,7 +25254,7 @@
         <v>44110</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25311,7 +25311,7 @@
         <v>44113</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25368,7 +25368,7 @@
         <v>44123</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25425,7 +25425,7 @@
         <v>44134</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25482,7 +25482,7 @@
         <v>44134</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25539,7 +25539,7 @@
         <v>44138</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25596,7 +25596,7 @@
         <v>44140</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25653,7 +25653,7 @@
         <v>44140</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25710,7 +25710,7 @@
         <v>44140</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25767,7 +25767,7 @@
         <v>44140</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25824,7 +25824,7 @@
         <v>44140</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25881,7 +25881,7 @@
         <v>44145</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25938,7 +25938,7 @@
         <v>44155</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25995,7 +25995,7 @@
         <v>44159</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26052,7 +26052,7 @@
         <v>44165</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26109,7 +26109,7 @@
         <v>44168</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26166,7 +26166,7 @@
         <v>44168</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26223,7 +26223,7 @@
         <v>44168</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26280,7 +26280,7 @@
         <v>44174</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26337,7 +26337,7 @@
         <v>44174</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26399,7 +26399,7 @@
         <v>44174</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26456,7 +26456,7 @@
         <v>44174</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26513,7 +26513,7 @@
         <v>44175</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26570,7 +26570,7 @@
         <v>44175</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26627,7 +26627,7 @@
         <v>44179</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26684,7 +26684,7 @@
         <v>44186</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26741,7 +26741,7 @@
         <v>44187</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26798,7 +26798,7 @@
         <v>44187</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26855,7 +26855,7 @@
         <v>44194</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26912,7 +26912,7 @@
         <v>44195</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26969,7 +26969,7 @@
         <v>44195</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27026,7 +27026,7 @@
         <v>44201</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27083,7 +27083,7 @@
         <v>44201</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27140,7 +27140,7 @@
         <v>44207</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27197,7 +27197,7 @@
         <v>44214</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27254,7 +27254,7 @@
         <v>44215</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27311,7 +27311,7 @@
         <v>44217</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27368,7 +27368,7 @@
         <v>44217</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27425,7 +27425,7 @@
         <v>44221</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27482,7 +27482,7 @@
         <v>44223</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27539,7 +27539,7 @@
         <v>44224</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27596,7 +27596,7 @@
         <v>44229</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27653,7 +27653,7 @@
         <v>44230</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27710,7 +27710,7 @@
         <v>44235</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27767,7 +27767,7 @@
         <v>44235</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27824,7 +27824,7 @@
         <v>44236</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27881,7 +27881,7 @@
         <v>44236</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27938,7 +27938,7 @@
         <v>44237</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27995,7 +27995,7 @@
         <v>44237</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28052,7 +28052,7 @@
         <v>44238</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28109,7 +28109,7 @@
         <v>44239</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28166,7 +28166,7 @@
         <v>44239</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28223,7 +28223,7 @@
         <v>44239</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28280,7 +28280,7 @@
         <v>44240</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28337,7 +28337,7 @@
         <v>44242</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28394,7 +28394,7 @@
         <v>44242</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28451,7 +28451,7 @@
         <v>44246</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28513,7 +28513,7 @@
         <v>44246</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28575,7 +28575,7 @@
         <v>44248</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28632,7 +28632,7 @@
         <v>44251</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28689,7 +28689,7 @@
         <v>44251</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28746,7 +28746,7 @@
         <v>44258</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28803,7 +28803,7 @@
         <v>44258</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28860,7 +28860,7 @@
         <v>44258</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28917,7 +28917,7 @@
         <v>44261</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28974,7 +28974,7 @@
         <v>44265</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29031,7 +29031,7 @@
         <v>44266</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29088,7 +29088,7 @@
         <v>44271</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29145,7 +29145,7 @@
         <v>44272</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29207,7 +29207,7 @@
         <v>44282</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29269,7 +29269,7 @@
         <v>44292</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29326,7 +29326,7 @@
         <v>44301</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29383,7 +29383,7 @@
         <v>44306</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29440,7 +29440,7 @@
         <v>44308</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29497,7 +29497,7 @@
         <v>44309</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29554,7 +29554,7 @@
         <v>44311</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29611,7 +29611,7 @@
         <v>44322</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29668,7 +29668,7 @@
         <v>44323</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29725,7 +29725,7 @@
         <v>44329</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29782,7 +29782,7 @@
         <v>44333</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29839,7 +29839,7 @@
         <v>44347</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29896,7 +29896,7 @@
         <v>44347</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29953,7 +29953,7 @@
         <v>44354</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30010,7 +30010,7 @@
         <v>44354</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30067,7 +30067,7 @@
         <v>44354</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30124,7 +30124,7 @@
         <v>44362</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30181,7 +30181,7 @@
         <v>44362</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30238,7 +30238,7 @@
         <v>44365</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30295,7 +30295,7 @@
         <v>44365</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30352,7 +30352,7 @@
         <v>44375</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30409,7 +30409,7 @@
         <v>44376</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30466,7 +30466,7 @@
         <v>44376</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30523,7 +30523,7 @@
         <v>44378</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30585,7 +30585,7 @@
         <v>44380</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30642,7 +30642,7 @@
         <v>44383</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30699,7 +30699,7 @@
         <v>44383</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30756,7 +30756,7 @@
         <v>44384</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30813,7 +30813,7 @@
         <v>44384</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30870,7 +30870,7 @@
         <v>44385</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30927,7 +30927,7 @@
         <v>44389</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30984,7 +30984,7 @@
         <v>44391</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31041,7 +31041,7 @@
         <v>44392</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31098,7 +31098,7 @@
         <v>44396</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31155,7 +31155,7 @@
         <v>44412</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31212,7 +31212,7 @@
         <v>44417</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31274,7 +31274,7 @@
         <v>44421</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31331,7 +31331,7 @@
         <v>44421</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31388,7 +31388,7 @@
         <v>44424</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31445,7 +31445,7 @@
         <v>44428</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31502,7 +31502,7 @@
         <v>44431</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31559,7 +31559,7 @@
         <v>44431</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31616,7 +31616,7 @@
         <v>44433</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31673,7 +31673,7 @@
         <v>44441</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31730,7 +31730,7 @@
         <v>44442</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31787,7 +31787,7 @@
         <v>44442</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31844,7 +31844,7 @@
         <v>44445</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31901,7 +31901,7 @@
         <v>44446</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31958,7 +31958,7 @@
         <v>44446</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32015,7 +32015,7 @@
         <v>44446</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32072,7 +32072,7 @@
         <v>44446</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32129,7 +32129,7 @@
         <v>44446</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32186,7 +32186,7 @@
         <v>44446</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32243,7 +32243,7 @@
         <v>44446</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32300,7 +32300,7 @@
         <v>44446</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32357,7 +32357,7 @@
         <v>44446</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32414,7 +32414,7 @@
         <v>44446</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32471,7 +32471,7 @@
         <v>44446</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32528,7 +32528,7 @@
         <v>44446</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32585,7 +32585,7 @@
         <v>44446</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32642,7 +32642,7 @@
         <v>44446</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32699,7 +32699,7 @@
         <v>44446</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32756,7 +32756,7 @@
         <v>44446</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32813,7 +32813,7 @@
         <v>44446</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32870,7 +32870,7 @@
         <v>44446</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32927,7 +32927,7 @@
         <v>44447</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32984,7 +32984,7 @@
         <v>44448</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33041,7 +33041,7 @@
         <v>44452</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33098,7 +33098,7 @@
         <v>44455</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33155,7 +33155,7 @@
         <v>44457</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33212,7 +33212,7 @@
         <v>44457</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33269,7 +33269,7 @@
         <v>44459</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33326,7 +33326,7 @@
         <v>44459</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33383,7 +33383,7 @@
         <v>44459</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33440,7 +33440,7 @@
         <v>44459</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33497,7 +33497,7 @@
         <v>44459</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33554,7 +33554,7 @@
         <v>44463</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33616,7 +33616,7 @@
         <v>44467</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33673,7 +33673,7 @@
         <v>44468</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33730,7 +33730,7 @@
         <v>44469</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33787,7 +33787,7 @@
         <v>44469</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33844,7 +33844,7 @@
         <v>44469</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33901,7 +33901,7 @@
         <v>44469</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33958,7 +33958,7 @@
         <v>44469</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34015,7 +34015,7 @@
         <v>44476</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34072,7 +34072,7 @@
         <v>44480</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34129,7 +34129,7 @@
         <v>44481</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34186,7 +34186,7 @@
         <v>44482</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34243,7 +34243,7 @@
         <v>44490</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34300,7 +34300,7 @@
         <v>44491</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34357,7 +34357,7 @@
         <v>44491</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34414,7 +34414,7 @@
         <v>44491</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34471,7 +34471,7 @@
         <v>44495</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34528,7 +34528,7 @@
         <v>44496</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34585,7 +34585,7 @@
         <v>44496</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34642,7 +34642,7 @@
         <v>44496</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34699,7 +34699,7 @@
         <v>44496</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34756,7 +34756,7 @@
         <v>44496</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34813,7 +34813,7 @@
         <v>44497</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34870,7 +34870,7 @@
         <v>44497</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34927,7 +34927,7 @@
         <v>44497</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34984,7 +34984,7 @@
         <v>44497</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35041,7 +35041,7 @@
         <v>44498</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35103,7 +35103,7 @@
         <v>44498</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35160,7 +35160,7 @@
         <v>44498</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35217,7 +35217,7 @@
         <v>44502</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35274,7 +35274,7 @@
         <v>44504</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35331,7 +35331,7 @@
         <v>44509</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35388,7 +35388,7 @@
         <v>44509</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35445,7 +35445,7 @@
         <v>44509</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35502,7 +35502,7 @@
         <v>44510</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35559,7 +35559,7 @@
         <v>44512</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35616,7 +35616,7 @@
         <v>44517</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35673,7 +35673,7 @@
         <v>44517</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35730,7 +35730,7 @@
         <v>44519</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35787,7 +35787,7 @@
         <v>44522</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35844,7 +35844,7 @@
         <v>44522</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35901,7 +35901,7 @@
         <v>44531</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35958,7 +35958,7 @@
         <v>44532</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36015,7 +36015,7 @@
         <v>44532</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36072,7 +36072,7 @@
         <v>44536</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36129,7 +36129,7 @@
         <v>44537</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36186,7 +36186,7 @@
         <v>44539</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36243,7 +36243,7 @@
         <v>44539</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36300,7 +36300,7 @@
         <v>44540</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36362,7 +36362,7 @@
         <v>44540</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36419,7 +36419,7 @@
         <v>44543</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36476,7 +36476,7 @@
         <v>44543</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36533,7 +36533,7 @@
         <v>44543</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36590,7 +36590,7 @@
         <v>44543</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36647,7 +36647,7 @@
         <v>44546</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36704,7 +36704,7 @@
         <v>44550</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36761,7 +36761,7 @@
         <v>44550</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36818,7 +36818,7 @@
         <v>44552</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36875,7 +36875,7 @@
         <v>44552</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36932,7 +36932,7 @@
         <v>44552</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36989,7 +36989,7 @@
         <v>44552</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37046,7 +37046,7 @@
         <v>44553</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37103,7 +37103,7 @@
         <v>44553</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37160,7 +37160,7 @@
         <v>44558</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37217,7 +37217,7 @@
         <v>44561</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -37274,7 +37274,7 @@
         <v>44564</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37331,7 +37331,7 @@
         <v>44566</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -37388,7 +37388,7 @@
         <v>44568</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -37445,7 +37445,7 @@
         <v>44571</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -37502,7 +37502,7 @@
         <v>44571</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -37559,7 +37559,7 @@
         <v>44573</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -37616,7 +37616,7 @@
         <v>44573</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37673,7 +37673,7 @@
         <v>44573</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37730,7 +37730,7 @@
         <v>44578</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -37787,7 +37787,7 @@
         <v>44585</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -37844,7 +37844,7 @@
         <v>44586</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -37901,7 +37901,7 @@
         <v>44587</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -37958,7 +37958,7 @@
         <v>44588</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38015,7 +38015,7 @@
         <v>44589</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38072,7 +38072,7 @@
         <v>44593</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38129,7 +38129,7 @@
         <v>44593</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38186,7 +38186,7 @@
         <v>44595</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38243,7 +38243,7 @@
         <v>44596</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38305,7 +38305,7 @@
         <v>44601</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -38362,7 +38362,7 @@
         <v>44603</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -38419,7 +38419,7 @@
         <v>44606</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -38476,7 +38476,7 @@
         <v>44607</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -38533,7 +38533,7 @@
         <v>44609</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -38590,7 +38590,7 @@
         <v>44610</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -38647,7 +38647,7 @@
         <v>44612</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -38704,7 +38704,7 @@
         <v>44616</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -38761,7 +38761,7 @@
         <v>44617</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -38818,7 +38818,7 @@
         <v>44621</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -38875,7 +38875,7 @@
         <v>44624</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -38932,7 +38932,7 @@
         <v>44627</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -38989,7 +38989,7 @@
         <v>44627</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -39046,7 +39046,7 @@
         <v>44628</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -39103,7 +39103,7 @@
         <v>44628</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -39160,7 +39160,7 @@
         <v>44628</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -39217,7 +39217,7 @@
         <v>44631</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -39279,7 +39279,7 @@
         <v>44631</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -39341,7 +39341,7 @@
         <v>44631</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -39398,7 +39398,7 @@
         <v>44631</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -39455,7 +39455,7 @@
         <v>44635</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -39512,7 +39512,7 @@
         <v>44635</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -39569,7 +39569,7 @@
         <v>44636</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -39626,7 +39626,7 @@
         <v>44643</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -39683,7 +39683,7 @@
         <v>44643</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -39740,7 +39740,7 @@
         <v>44643</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -39797,7 +39797,7 @@
         <v>44643</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -39854,7 +39854,7 @@
         <v>44643</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -39911,7 +39911,7 @@
         <v>44643</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -39968,7 +39968,7 @@
         <v>44650</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -40025,7 +40025,7 @@
         <v>44652</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -40082,7 +40082,7 @@
         <v>44655</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -40139,7 +40139,7 @@
         <v>44655</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -40196,7 +40196,7 @@
         <v>44659</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -40253,7 +40253,7 @@
         <v>44671</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -40310,7 +40310,7 @@
         <v>44671</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -40367,7 +40367,7 @@
         <v>44671</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -40424,7 +40424,7 @@
         <v>44672</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -40481,7 +40481,7 @@
         <v>44672</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -40538,7 +40538,7 @@
         <v>44677</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -40595,7 +40595,7 @@
         <v>44684</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -40652,7 +40652,7 @@
         <v>44685</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -40709,7 +40709,7 @@
         <v>44686</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -40766,7 +40766,7 @@
         <v>44687</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -40823,7 +40823,7 @@
         <v>44690</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -40880,7 +40880,7 @@
         <v>44691</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -40937,7 +40937,7 @@
         <v>44694</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -40994,7 +40994,7 @@
         <v>44697</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -41051,7 +41051,7 @@
         <v>44697</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -41108,7 +41108,7 @@
         <v>44704</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -41165,7 +41165,7 @@
         <v>44705</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -41222,7 +41222,7 @@
         <v>44705</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -41279,7 +41279,7 @@
         <v>44711</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -41336,7 +41336,7 @@
         <v>44712</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -41393,7 +41393,7 @@
         <v>44726</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -41450,7 +41450,7 @@
         <v>44728</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -41507,7 +41507,7 @@
         <v>44728</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -41564,7 +41564,7 @@
         <v>44733</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -41626,7 +41626,7 @@
         <v>44747</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -41688,7 +41688,7 @@
         <v>44747</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -41750,7 +41750,7 @@
         <v>44747</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -41812,7 +41812,7 @@
         <v>44747</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -41869,7 +41869,7 @@
         <v>44750</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -41926,7 +41926,7 @@
         <v>44750</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -41983,7 +41983,7 @@
         <v>44761</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -42040,7 +42040,7 @@
         <v>44761</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -42097,7 +42097,7 @@
         <v>44761</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -42154,7 +42154,7 @@
         <v>44790</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -42211,7 +42211,7 @@
         <v>44796</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -42268,7 +42268,7 @@
         <v>44799</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -42325,7 +42325,7 @@
         <v>44804</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -42382,7 +42382,7 @@
         <v>44804</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -42439,7 +42439,7 @@
         <v>44806</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -42496,7 +42496,7 @@
         <v>44806</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -42553,7 +42553,7 @@
         <v>44812</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -42610,7 +42610,7 @@
         <v>44816</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -42667,7 +42667,7 @@
         <v>44818</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -42724,7 +42724,7 @@
         <v>44818</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -42781,7 +42781,7 @@
         <v>44824</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -42838,7 +42838,7 @@
         <v>44825</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -42895,7 +42895,7 @@
         <v>44825</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -42952,7 +42952,7 @@
         <v>44830</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -43009,7 +43009,7 @@
         <v>44832</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -43066,7 +43066,7 @@
         <v>44832</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -43123,7 +43123,7 @@
         <v>44839</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -43180,7 +43180,7 @@
         <v>44839</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -43237,7 +43237,7 @@
         <v>44839</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -43294,7 +43294,7 @@
         <v>44844</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -43351,7 +43351,7 @@
         <v>44847</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -43413,7 +43413,7 @@
         <v>44853</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -43470,7 +43470,7 @@
         <v>44853</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -43527,7 +43527,7 @@
         <v>44854</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -43584,7 +43584,7 @@
         <v>44858</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -43641,7 +43641,7 @@
         <v>44859</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -43698,7 +43698,7 @@
         <v>44865</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -43760,7 +43760,7 @@
         <v>44868</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -43817,7 +43817,7 @@
         <v>44868</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -43874,7 +43874,7 @@
         <v>44872</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -43931,7 +43931,7 @@
         <v>44873</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -43988,7 +43988,7 @@
         <v>44876</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -44045,7 +44045,7 @@
         <v>44879</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -44102,7 +44102,7 @@
         <v>44883</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -44159,7 +44159,7 @@
         <v>44886</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -44216,7 +44216,7 @@
         <v>44888</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -44273,7 +44273,7 @@
         <v>44893</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -44335,7 +44335,7 @@
         <v>44893</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -44392,7 +44392,7 @@
         <v>44901</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -44449,7 +44449,7 @@
         <v>44904</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -44506,7 +44506,7 @@
         <v>44904</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -44563,7 +44563,7 @@
         <v>44907</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -44620,7 +44620,7 @@
         <v>44907</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -44677,7 +44677,7 @@
         <v>44911</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -44739,7 +44739,7 @@
         <v>44914</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -44796,7 +44796,7 @@
         <v>44915</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -44853,7 +44853,7 @@
         <v>44916</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -44910,7 +44910,7 @@
         <v>44922</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -44967,7 +44967,7 @@
         <v>44924</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -45024,7 +45024,7 @@
         <v>44928</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -45081,7 +45081,7 @@
         <v>44928</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -45138,7 +45138,7 @@
         <v>44928</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -45195,7 +45195,7 @@
         <v>44935</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -45252,7 +45252,7 @@
         <v>44935</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -45309,7 +45309,7 @@
         <v>44935</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -45366,7 +45366,7 @@
         <v>44935</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -45423,7 +45423,7 @@
         <v>44938</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -45480,7 +45480,7 @@
         <v>44948</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -45537,7 +45537,7 @@
         <v>44949</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -45594,7 +45594,7 @@
         <v>44953</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -45651,7 +45651,7 @@
         <v>44953</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -45708,7 +45708,7 @@
         <v>44953</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -45765,7 +45765,7 @@
         <v>44953</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -45822,7 +45822,7 @@
         <v>44957</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -45879,7 +45879,7 @@
         <v>44963</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -45936,7 +45936,7 @@
         <v>44963</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -45993,7 +45993,7 @@
         <v>44966</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -46050,7 +46050,7 @@
         <v>44967</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -46107,7 +46107,7 @@
         <v>44967</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -46169,7 +46169,7 @@
         <v>44967</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -46231,7 +46231,7 @@
         <v>44968</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -46293,7 +46293,7 @@
         <v>44972</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -46350,7 +46350,7 @@
         <v>44972</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -46407,7 +46407,7 @@
         <v>44973</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -46464,7 +46464,7 @@
         <v>44974</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -46521,7 +46521,7 @@
         <v>44977</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -46578,7 +46578,7 @@
         <v>44978</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -46635,7 +46635,7 @@
         <v>44979</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -46692,7 +46692,7 @@
         <v>44980</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -46749,7 +46749,7 @@
         <v>44984</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -46806,7 +46806,7 @@
         <v>44984</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -46863,7 +46863,7 @@
         <v>44986</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -46920,7 +46920,7 @@
         <v>44986</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -46977,7 +46977,7 @@
         <v>44986</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -47034,7 +47034,7 @@
         <v>44987</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -47091,7 +47091,7 @@
         <v>44991</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -47148,7 +47148,7 @@
         <v>44992</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -47210,7 +47210,7 @@
         <v>44993</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -47267,7 +47267,7 @@
         <v>44995</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -47324,7 +47324,7 @@
         <v>44998</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -47381,7 +47381,7 @@
         <v>45002</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -47438,7 +47438,7 @@
         <v>45002</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -47500,7 +47500,7 @@
         <v>45006</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -47557,7 +47557,7 @@
         <v>45012</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -47614,7 +47614,7 @@
         <v>45015</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -47671,7 +47671,7 @@
         <v>45019</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -47728,7 +47728,7 @@
         <v>45020</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -47785,7 +47785,7 @@
         <v>45020</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -47842,7 +47842,7 @@
         <v>45020</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -47899,7 +47899,7 @@
         <v>45021</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -47956,7 +47956,7 @@
         <v>45030</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -48013,7 +48013,7 @@
         <v>45030</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -48075,7 +48075,7 @@
         <v>45034</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -48132,7 +48132,7 @@
         <v>45036</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -48189,7 +48189,7 @@
         <v>45039</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -48246,7 +48246,7 @@
         <v>45041</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -48303,7 +48303,7 @@
         <v>45047</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -48360,7 +48360,7 @@
         <v>45049</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -48417,7 +48417,7 @@
         <v>45051</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -48474,7 +48474,7 @@
         <v>45051</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -48531,7 +48531,7 @@
         <v>45051</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -48588,7 +48588,7 @@
         <v>45051</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -48645,7 +48645,7 @@
         <v>45051</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -48702,7 +48702,7 @@
         <v>45051</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -48759,7 +48759,7 @@
         <v>45052</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -48816,7 +48816,7 @@
         <v>45056</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -48873,7 +48873,7 @@
         <v>45056</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -48930,7 +48930,7 @@
         <v>45057</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -48987,7 +48987,7 @@
         <v>45058</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -49044,7 +49044,7 @@
         <v>45061</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -49101,7 +49101,7 @@
         <v>45061</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -49158,7 +49158,7 @@
         <v>45062</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -49215,7 +49215,7 @@
         <v>45062</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -49272,7 +49272,7 @@
         <v>45062</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -49329,7 +49329,7 @@
         <v>45070</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -49386,7 +49386,7 @@
         <v>45070</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -49443,7 +49443,7 @@
         <v>45072</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -49500,7 +49500,7 @@
         <v>45075</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -49557,7 +49557,7 @@
         <v>45075</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -49614,7 +49614,7 @@
         <v>45075</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -49671,7 +49671,7 @@
         <v>45075</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -49728,7 +49728,7 @@
         <v>45075</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -49785,7 +49785,7 @@
         <v>45076</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -49842,7 +49842,7 @@
         <v>45076</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -49899,7 +49899,7 @@
         <v>45078</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -49956,7 +49956,7 @@
         <v>45078</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -50013,7 +50013,7 @@
         <v>45078</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -50070,7 +50070,7 @@
         <v>45078</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -50127,7 +50127,7 @@
         <v>45078</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -50184,7 +50184,7 @@
         <v>45078</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -50241,7 +50241,7 @@
         <v>45078</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -50298,7 +50298,7 @@
         <v>45081</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -50360,7 +50360,7 @@
         <v>45082</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -50417,7 +50417,7 @@
         <v>45096</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -50474,7 +50474,7 @@
         <v>45099</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -50531,7 +50531,7 @@
         <v>45104</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -50588,7 +50588,7 @@
         <v>45105</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -50645,7 +50645,7 @@
         <v>45105</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -50702,7 +50702,7 @@
         <v>45106</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -50759,7 +50759,7 @@
         <v>45106</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -50816,7 +50816,7 @@
         <v>45108</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -50873,7 +50873,7 @@
         <v>45110</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -50930,7 +50930,7 @@
         <v>45113</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -50987,7 +50987,7 @@
         <v>45113</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -51044,7 +51044,7 @@
         <v>45119</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -51101,7 +51101,7 @@
         <v>45120</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -51158,7 +51158,7 @@
         <v>45120</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -51215,7 +51215,7 @@
         <v>45121</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -51272,7 +51272,7 @@
         <v>45121</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -51329,7 +51329,7 @@
         <v>45121</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -51386,7 +51386,7 @@
         <v>45121</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -51443,7 +51443,7 @@
         <v>45138</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -51500,7 +51500,7 @@
         <v>45138</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -51557,7 +51557,7 @@
         <v>45145</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -51614,7 +51614,7 @@
         <v>45145</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -51671,7 +51671,7 @@
         <v>45145</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -51728,7 +51728,7 @@
         <v>45145</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -51785,7 +51785,7 @@
         <v>45148</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -51842,7 +51842,7 @@
         <v>45149</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -51899,7 +51899,7 @@
         <v>45149</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -51956,7 +51956,7 @@
         <v>45152</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -52013,7 +52013,7 @@
         <v>45154</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -52070,7 +52070,7 @@
         <v>45155</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -52132,7 +52132,7 @@
         <v>45155</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -52189,7 +52189,7 @@
         <v>45159</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -52246,7 +52246,7 @@
         <v>45159</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -52303,7 +52303,7 @@
         <v>45161</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -52360,7 +52360,7 @@
         <v>45161</v>
       </c>
       <c r="C884" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -52417,7 +52417,7 @@
         <v>45162</v>
       </c>
       <c r="C885" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -52474,7 +52474,7 @@
         <v>45163</v>
       </c>
       <c r="C886" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -52531,7 +52531,7 @@
         <v>45166</v>
       </c>
       <c r="C887" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -52588,7 +52588,7 @@
         <v>45168</v>
       </c>
       <c r="C888" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>

--- a/Översikt ÅRJÄNG.xlsx
+++ b/Översikt ÅRJÄNG.xlsx
@@ -572,7 +572,7 @@
         <v>43607</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -651,31 +651,31 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/artfynd/A 25557-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/artfynd/A 25557-2019.xlsx", "A 25557-2019")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/kartor/A 25557-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/kartor/A 25557-2019.png", "A 25557-2019")</f>
         <v/>
       </c>
       <c r="U2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/knärot/A 25557-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/knärot/A 25557-2019.png", "A 25557-2019")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/klagomål/A 25557-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/klagomål/A 25557-2019.docx", "A 25557-2019")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/klagomålsmail/A 25557-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/klagomålsmail/A 25557-2019.docx", "A 25557-2019")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/tillsyn/A 25557-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/tillsyn/A 25557-2019.docx", "A 25557-2019")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/tillsynsmail/A 25557-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/tillsynsmail/A 25557-2019.docx", "A 25557-2019")</f>
         <v/>
       </c>
     </row>
@@ -689,7 +689,7 @@
         <v>44824</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,27 +751,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/artfynd/A 41379-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/artfynd/A 41379-2022.xlsx", "A 41379-2022")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/kartor/A 41379-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/kartor/A 41379-2022.png", "A 41379-2022")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/klagomål/A 41379-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/klagomål/A 41379-2022.docx", "A 41379-2022")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/klagomålsmail/A 41379-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/klagomålsmail/A 41379-2022.docx", "A 41379-2022")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/tillsyn/A 41379-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/tillsyn/A 41379-2022.docx", "A 41379-2022")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/tillsynsmail/A 41379-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/tillsynsmail/A 41379-2022.docx", "A 41379-2022")</f>
         <v/>
       </c>
     </row>
@@ -785,7 +785,7 @@
         <v>44649</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -844,27 +844,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/artfynd/A 13841-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/artfynd/A 13841-2022.xlsx", "A 13841-2022")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/kartor/A 13841-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/kartor/A 13841-2022.png", "A 13841-2022")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/klagomål/A 13841-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/klagomål/A 13841-2022.docx", "A 13841-2022")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/klagomålsmail/A 13841-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/klagomålsmail/A 13841-2022.docx", "A 13841-2022")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/tillsyn/A 13841-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/tillsyn/A 13841-2022.docx", "A 13841-2022")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/tillsynsmail/A 13841-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/tillsynsmail/A 13841-2022.docx", "A 13841-2022")</f>
         <v/>
       </c>
     </row>
@@ -878,7 +878,7 @@
         <v>44585</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -936,31 +936,31 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/artfynd/A 3513-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/artfynd/A 3513-2022.xlsx", "A 3513-2022")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/kartor/A 3513-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/kartor/A 3513-2022.png", "A 3513-2022")</f>
         <v/>
       </c>
       <c r="U5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/knärot/A 3513-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/knärot/A 3513-2022.png", "A 3513-2022")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/klagomål/A 3513-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/klagomål/A 3513-2022.docx", "A 3513-2022")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/klagomålsmail/A 3513-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/klagomålsmail/A 3513-2022.docx", "A 3513-2022")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/tillsyn/A 3513-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/tillsyn/A 3513-2022.docx", "A 3513-2022")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/tillsynsmail/A 3513-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/tillsynsmail/A 3513-2022.docx", "A 3513-2022")</f>
         <v/>
       </c>
     </row>
@@ -974,7 +974,7 @@
         <v>44970</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1032,27 +1032,27 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/artfynd/A 7948-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/artfynd/A 7948-2023.xlsx", "A 7948-2023")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/kartor/A 7948-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/kartor/A 7948-2023.png", "A 7948-2023")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/klagomål/A 7948-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/klagomål/A 7948-2023.docx", "A 7948-2023")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/klagomålsmail/A 7948-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/klagomålsmail/A 7948-2023.docx", "A 7948-2023")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/tillsyn/A 7948-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/tillsyn/A 7948-2023.docx", "A 7948-2023")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/tillsynsmail/A 7948-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/tillsynsmail/A 7948-2023.docx", "A 7948-2023")</f>
         <v/>
       </c>
     </row>
@@ -1066,7 +1066,7 @@
         <v>45084</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1124,31 +1124,31 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/artfynd/A 24663-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/artfynd/A 24663-2023.xlsx", "A 24663-2023")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/kartor/A 24663-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/kartor/A 24663-2023.png", "A 24663-2023")</f>
         <v/>
       </c>
       <c r="U7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/knärot/A 24663-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/knärot/A 24663-2023.png", "A 24663-2023")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/klagomål/A 24663-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/klagomål/A 24663-2023.docx", "A 24663-2023")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/klagomålsmail/A 24663-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/klagomålsmail/A 24663-2023.docx", "A 24663-2023")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/tillsyn/A 24663-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/tillsyn/A 24663-2023.docx", "A 24663-2023")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/tillsynsmail/A 24663-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/tillsynsmail/A 24663-2023.docx", "A 24663-2023")</f>
         <v/>
       </c>
     </row>
@@ -1162,7 +1162,7 @@
         <v>44964</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1219,27 +1219,27 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/artfynd/A 5979-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/artfynd/A 5979-2023.xlsx", "A 5979-2023")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/kartor/A 5979-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/kartor/A 5979-2023.png", "A 5979-2023")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/klagomål/A 5979-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/klagomål/A 5979-2023.docx", "A 5979-2023")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/klagomålsmail/A 5979-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/klagomålsmail/A 5979-2023.docx", "A 5979-2023")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/tillsyn/A 5979-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/tillsyn/A 5979-2023.docx", "A 5979-2023")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/tillsynsmail/A 5979-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/tillsynsmail/A 5979-2023.docx", "A 5979-2023")</f>
         <v/>
       </c>
     </row>
@@ -1253,7 +1253,7 @@
         <v>44873</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1309,31 +1309,31 @@
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/artfynd/A 52132-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/artfynd/A 52132-2022.xlsx", "A 52132-2022")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/kartor/A 52132-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/kartor/A 52132-2022.png", "A 52132-2022")</f>
         <v/>
       </c>
       <c r="U9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/knärot/A 52132-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/knärot/A 52132-2022.png", "A 52132-2022")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/klagomål/A 52132-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/klagomål/A 52132-2022.docx", "A 52132-2022")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/klagomålsmail/A 52132-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/klagomålsmail/A 52132-2022.docx", "A 52132-2022")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/tillsyn/A 52132-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/tillsyn/A 52132-2022.docx", "A 52132-2022")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/tillsynsmail/A 52132-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/tillsynsmail/A 52132-2022.docx", "A 52132-2022")</f>
         <v/>
       </c>
     </row>
@@ -1347,7 +1347,7 @@
         <v>45106</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1403,27 +1403,27 @@
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/artfynd/A 29379-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/artfynd/A 29379-2023.xlsx", "A 29379-2023")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/kartor/A 29379-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/kartor/A 29379-2023.png", "A 29379-2023")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/klagomål/A 29379-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/klagomål/A 29379-2023.docx", "A 29379-2023")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/klagomålsmail/A 29379-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/klagomålsmail/A 29379-2023.docx", "A 29379-2023")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/tillsyn/A 29379-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/tillsyn/A 29379-2023.docx", "A 29379-2023")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/tillsynsmail/A 29379-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/tillsynsmail/A 29379-2023.docx", "A 29379-2023")</f>
         <v/>
       </c>
     </row>
@@ -1437,7 +1437,7 @@
         <v>43621</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1492,31 +1492,31 @@
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/artfynd/A 29038-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/artfynd/A 29038-2019.xlsx", "A 29038-2019")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/kartor/A 29038-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/kartor/A 29038-2019.png", "A 29038-2019")</f>
         <v/>
       </c>
       <c r="U11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/knärot/A 29038-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/knärot/A 29038-2019.png", "A 29038-2019")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/klagomål/A 29038-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/klagomål/A 29038-2019.docx", "A 29038-2019")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/klagomålsmail/A 29038-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/klagomålsmail/A 29038-2019.docx", "A 29038-2019")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/tillsyn/A 29038-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/tillsyn/A 29038-2019.docx", "A 29038-2019")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/tillsynsmail/A 29038-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/tillsynsmail/A 29038-2019.docx", "A 29038-2019")</f>
         <v/>
       </c>
     </row>
@@ -1530,7 +1530,7 @@
         <v>43880</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1585,31 +1585,31 @@
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/artfynd/A 9453-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/artfynd/A 9453-2020.xlsx", "A 9453-2020")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/kartor/A 9453-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/kartor/A 9453-2020.png", "A 9453-2020")</f>
         <v/>
       </c>
       <c r="U12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/knärot/A 9453-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/knärot/A 9453-2020.png", "A 9453-2020")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/klagomål/A 9453-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/klagomål/A 9453-2020.docx", "A 9453-2020")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/klagomålsmail/A 9453-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/klagomålsmail/A 9453-2020.docx", "A 9453-2020")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/tillsyn/A 9453-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/tillsyn/A 9453-2020.docx", "A 9453-2020")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/tillsynsmail/A 9453-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/tillsynsmail/A 9453-2020.docx", "A 9453-2020")</f>
         <v/>
       </c>
     </row>
@@ -1623,7 +1623,7 @@
         <v>44140</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1678,27 +1678,27 @@
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/artfynd/A 57758-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/artfynd/A 57758-2020.xlsx", "A 57758-2020")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/kartor/A 57758-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/kartor/A 57758-2020.png", "A 57758-2020")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/klagomål/A 57758-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/klagomål/A 57758-2020.docx", "A 57758-2020")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/klagomålsmail/A 57758-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/klagomålsmail/A 57758-2020.docx", "A 57758-2020")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/tillsyn/A 57758-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/tillsyn/A 57758-2020.docx", "A 57758-2020")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/tillsynsmail/A 57758-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/tillsynsmail/A 57758-2020.docx", "A 57758-2020")</f>
         <v/>
       </c>
     </row>
@@ -1712,7 +1712,7 @@
         <v>43852</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1766,31 +1766,31 @@
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/artfynd/A 3367-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/artfynd/A 3367-2020.xlsx", "A 3367-2020")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/kartor/A 3367-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/kartor/A 3367-2020.png", "A 3367-2020")</f>
         <v/>
       </c>
       <c r="U14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/knärot/A 3367-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/knärot/A 3367-2020.png", "A 3367-2020")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/klagomål/A 3367-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/klagomål/A 3367-2020.docx", "A 3367-2020")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/klagomålsmail/A 3367-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/klagomålsmail/A 3367-2020.docx", "A 3367-2020")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/tillsyn/A 3367-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/tillsyn/A 3367-2020.docx", "A 3367-2020")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/tillsynsmail/A 3367-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/tillsynsmail/A 3367-2020.docx", "A 3367-2020")</f>
         <v/>
       </c>
     </row>
@@ -1804,7 +1804,7 @@
         <v>44375</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1858,27 +1858,27 @@
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/artfynd/A 32762-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/artfynd/A 32762-2021.xlsx", "A 32762-2021")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/kartor/A 32762-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/kartor/A 32762-2021.png", "A 32762-2021")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/klagomål/A 32762-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/klagomål/A 32762-2021.docx", "A 32762-2021")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/klagomålsmail/A 32762-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/klagomålsmail/A 32762-2021.docx", "A 32762-2021")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/tillsyn/A 32762-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/tillsyn/A 32762-2021.docx", "A 32762-2021")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/tillsynsmail/A 32762-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/tillsynsmail/A 32762-2021.docx", "A 32762-2021")</f>
         <v/>
       </c>
     </row>
@@ -1892,7 +1892,7 @@
         <v>44678</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1946,27 +1946,27 @@
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/artfynd/A 17268-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/artfynd/A 17268-2022.xlsx", "A 17268-2022")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/kartor/A 17268-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/kartor/A 17268-2022.png", "A 17268-2022")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/klagomål/A 17268-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/klagomål/A 17268-2022.docx", "A 17268-2022")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/klagomålsmail/A 17268-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/klagomålsmail/A 17268-2022.docx", "A 17268-2022")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/tillsyn/A 17268-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/tillsyn/A 17268-2022.docx", "A 17268-2022")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/tillsynsmail/A 17268-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/tillsynsmail/A 17268-2022.docx", "A 17268-2022")</f>
         <v/>
       </c>
     </row>
@@ -1980,7 +1980,7 @@
         <v>45051</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2034,27 +2034,27 @@
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/artfynd/A 19980-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/artfynd/A 19980-2023.xlsx", "A 19980-2023")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/kartor/A 19980-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/kartor/A 19980-2023.png", "A 19980-2023")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/klagomål/A 19980-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/klagomål/A 19980-2023.docx", "A 19980-2023")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/klagomålsmail/A 19980-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/klagomålsmail/A 19980-2023.docx", "A 19980-2023")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/tillsyn/A 19980-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/tillsyn/A 19980-2023.docx", "A 19980-2023")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/tillsynsmail/A 19980-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/tillsynsmail/A 19980-2023.docx", "A 19980-2023")</f>
         <v/>
       </c>
     </row>
@@ -2068,7 +2068,7 @@
         <v>43922</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2121,31 +2121,31 @@
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/artfynd/A 17212-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/artfynd/A 17212-2020.xlsx", "A 17212-2020")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/kartor/A 17212-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/kartor/A 17212-2020.png", "A 17212-2020")</f>
         <v/>
       </c>
       <c r="U18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/knärot/A 17212-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/knärot/A 17212-2020.png", "A 17212-2020")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/klagomål/A 17212-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/klagomål/A 17212-2020.docx", "A 17212-2020")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/klagomålsmail/A 17212-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/klagomålsmail/A 17212-2020.docx", "A 17212-2020")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/tillsyn/A 17212-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/tillsyn/A 17212-2020.docx", "A 17212-2020")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/tillsynsmail/A 17212-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/tillsynsmail/A 17212-2020.docx", "A 17212-2020")</f>
         <v/>
       </c>
     </row>
@@ -2159,7 +2159,7 @@
         <v>44377</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2212,31 +2212,31 @@
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/artfynd/A 33327-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/artfynd/A 33327-2021.xlsx", "A 33327-2021")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/kartor/A 33327-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/kartor/A 33327-2021.png", "A 33327-2021")</f>
         <v/>
       </c>
       <c r="U19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/knärot/A 33327-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/knärot/A 33327-2021.png", "A 33327-2021")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/klagomål/A 33327-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/klagomål/A 33327-2021.docx", "A 33327-2021")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/klagomålsmail/A 33327-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/klagomålsmail/A 33327-2021.docx", "A 33327-2021")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/tillsyn/A 33327-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/tillsyn/A 33327-2021.docx", "A 33327-2021")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/tillsynsmail/A 33327-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/tillsynsmail/A 33327-2021.docx", "A 33327-2021")</f>
         <v/>
       </c>
     </row>
@@ -2250,7 +2250,7 @@
         <v>43852</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2302,27 +2302,27 @@
         </is>
       </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/artfynd/A 3380-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/artfynd/A 3380-2020.xlsx", "A 3380-2020")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/kartor/A 3380-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/kartor/A 3380-2020.png", "A 3380-2020")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/klagomål/A 3380-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/klagomål/A 3380-2020.docx", "A 3380-2020")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/klagomålsmail/A 3380-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/klagomålsmail/A 3380-2020.docx", "A 3380-2020")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/tillsyn/A 3380-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/tillsyn/A 3380-2020.docx", "A 3380-2020")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/tillsynsmail/A 3380-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/tillsynsmail/A 3380-2020.docx", "A 3380-2020")</f>
         <v/>
       </c>
     </row>
@@ -2336,7 +2336,7 @@
         <v>43880</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2388,31 +2388,31 @@
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/artfynd/A 9464-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/artfynd/A 9464-2020.xlsx", "A 9464-2020")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/kartor/A 9464-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/kartor/A 9464-2020.png", "A 9464-2020")</f>
         <v/>
       </c>
       <c r="U21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/knärot/A 9464-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/knärot/A 9464-2020.png", "A 9464-2020")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/klagomål/A 9464-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/klagomål/A 9464-2020.docx", "A 9464-2020")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/klagomålsmail/A 9464-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/klagomålsmail/A 9464-2020.docx", "A 9464-2020")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/tillsyn/A 9464-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/tillsyn/A 9464-2020.docx", "A 9464-2020")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/tillsynsmail/A 9464-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/tillsynsmail/A 9464-2020.docx", "A 9464-2020")</f>
         <v/>
       </c>
     </row>
@@ -2426,7 +2426,7 @@
         <v>44515</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2478,31 +2478,31 @@
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/artfynd/A 65319-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/artfynd/A 65319-2021.xlsx", "A 65319-2021")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/kartor/A 65319-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/kartor/A 65319-2021.png", "A 65319-2021")</f>
         <v/>
       </c>
       <c r="U22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/knärot/A 65319-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/knärot/A 65319-2021.png", "A 65319-2021")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/klagomål/A 65319-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/klagomål/A 65319-2021.docx", "A 65319-2021")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/klagomålsmail/A 65319-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/klagomålsmail/A 65319-2021.docx", "A 65319-2021")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/tillsyn/A 65319-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/tillsyn/A 65319-2021.docx", "A 65319-2021")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/tillsynsmail/A 65319-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/tillsynsmail/A 65319-2021.docx", "A 65319-2021")</f>
         <v/>
       </c>
     </row>
@@ -2516,7 +2516,7 @@
         <v>44872</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2568,31 +2568,31 @@
         </is>
       </c>
       <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/artfynd/A 51928-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/artfynd/A 51928-2022.xlsx", "A 51928-2022")</f>
         <v/>
       </c>
       <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/kartor/A 51928-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/kartor/A 51928-2022.png", "A 51928-2022")</f>
         <v/>
       </c>
       <c r="U23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/knärot/A 51928-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/knärot/A 51928-2022.png", "A 51928-2022")</f>
         <v/>
       </c>
       <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/klagomål/A 51928-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/klagomål/A 51928-2022.docx", "A 51928-2022")</f>
         <v/>
       </c>
       <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/klagomålsmail/A 51928-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/klagomålsmail/A 51928-2022.docx", "A 51928-2022")</f>
         <v/>
       </c>
       <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/tillsyn/A 51928-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/tillsyn/A 51928-2022.docx", "A 51928-2022")</f>
         <v/>
       </c>
       <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/tillsynsmail/A 51928-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/tillsynsmail/A 51928-2022.docx", "A 51928-2022")</f>
         <v/>
       </c>
     </row>
@@ -2606,7 +2606,7 @@
         <v>44935</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2658,27 +2658,27 @@
         </is>
       </c>
       <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/artfynd/A 1198-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/artfynd/A 1198-2023.xlsx", "A 1198-2023")</f>
         <v/>
       </c>
       <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/kartor/A 1198-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/kartor/A 1198-2023.png", "A 1198-2023")</f>
         <v/>
       </c>
       <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/klagomål/A 1198-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/klagomål/A 1198-2023.docx", "A 1198-2023")</f>
         <v/>
       </c>
       <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/klagomålsmail/A 1198-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/klagomålsmail/A 1198-2023.docx", "A 1198-2023")</f>
         <v/>
       </c>
       <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/tillsyn/A 1198-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/tillsyn/A 1198-2023.docx", "A 1198-2023")</f>
         <v/>
       </c>
       <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/tillsynsmail/A 1198-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/tillsynsmail/A 1198-2023.docx", "A 1198-2023")</f>
         <v/>
       </c>
     </row>
@@ -2692,7 +2692,7 @@
         <v>45001</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2744,27 +2744,27 @@
         </is>
       </c>
       <c r="S25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/artfynd/A 12949-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/artfynd/A 12949-2023.xlsx", "A 12949-2023")</f>
         <v/>
       </c>
       <c r="T25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/kartor/A 12949-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/kartor/A 12949-2023.png", "A 12949-2023")</f>
         <v/>
       </c>
       <c r="V25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/klagomål/A 12949-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/klagomål/A 12949-2023.docx", "A 12949-2023")</f>
         <v/>
       </c>
       <c r="W25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/klagomålsmail/A 12949-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/klagomålsmail/A 12949-2023.docx", "A 12949-2023")</f>
         <v/>
       </c>
       <c r="X25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/tillsyn/A 12949-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/tillsyn/A 12949-2023.docx", "A 12949-2023")</f>
         <v/>
       </c>
       <c r="Y25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/tillsynsmail/A 12949-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/tillsynsmail/A 12949-2023.docx", "A 12949-2023")</f>
         <v/>
       </c>
     </row>
@@ -2778,7 +2778,7 @@
         <v>43621</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2829,31 +2829,31 @@
         </is>
       </c>
       <c r="S26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/artfynd/A 29032-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/artfynd/A 29032-2019.xlsx", "A 29032-2019")</f>
         <v/>
       </c>
       <c r="T26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/kartor/A 29032-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/kartor/A 29032-2019.png", "A 29032-2019")</f>
         <v/>
       </c>
       <c r="U26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/knärot/A 29032-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/knärot/A 29032-2019.png", "A 29032-2019")</f>
         <v/>
       </c>
       <c r="V26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/klagomål/A 29032-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/klagomål/A 29032-2019.docx", "A 29032-2019")</f>
         <v/>
       </c>
       <c r="W26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/klagomålsmail/A 29032-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/klagomålsmail/A 29032-2019.docx", "A 29032-2019")</f>
         <v/>
       </c>
       <c r="X26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/tillsyn/A 29032-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/tillsyn/A 29032-2019.docx", "A 29032-2019")</f>
         <v/>
       </c>
       <c r="Y26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/tillsynsmail/A 29032-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/tillsynsmail/A 29032-2019.docx", "A 29032-2019")</f>
         <v/>
       </c>
     </row>
@@ -2867,7 +2867,7 @@
         <v>43696</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2918,27 +2918,27 @@
         </is>
       </c>
       <c r="S27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/artfynd/A 41355-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/artfynd/A 41355-2019.xlsx", "A 41355-2019")</f>
         <v/>
       </c>
       <c r="T27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/kartor/A 41355-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/kartor/A 41355-2019.png", "A 41355-2019")</f>
         <v/>
       </c>
       <c r="V27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/klagomål/A 41355-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/klagomål/A 41355-2019.docx", "A 41355-2019")</f>
         <v/>
       </c>
       <c r="W27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/klagomålsmail/A 41355-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/klagomålsmail/A 41355-2019.docx", "A 41355-2019")</f>
         <v/>
       </c>
       <c r="X27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/tillsyn/A 41355-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/tillsyn/A 41355-2019.docx", "A 41355-2019")</f>
         <v/>
       </c>
       <c r="Y27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/tillsynsmail/A 41355-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/tillsynsmail/A 41355-2019.docx", "A 41355-2019")</f>
         <v/>
       </c>
     </row>
@@ -2952,7 +2952,7 @@
         <v>43725</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3003,27 +3003,27 @@
         </is>
       </c>
       <c r="S28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/artfynd/A 47834-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/artfynd/A 47834-2019.xlsx", "A 47834-2019")</f>
         <v/>
       </c>
       <c r="T28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/kartor/A 47834-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/kartor/A 47834-2019.png", "A 47834-2019")</f>
         <v/>
       </c>
       <c r="V28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/klagomål/A 47834-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/klagomål/A 47834-2019.docx", "A 47834-2019")</f>
         <v/>
       </c>
       <c r="W28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/klagomålsmail/A 47834-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/klagomålsmail/A 47834-2019.docx", "A 47834-2019")</f>
         <v/>
       </c>
       <c r="X28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/tillsyn/A 47834-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/tillsyn/A 47834-2019.docx", "A 47834-2019")</f>
         <v/>
       </c>
       <c r="Y28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/tillsynsmail/A 47834-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/tillsynsmail/A 47834-2019.docx", "A 47834-2019")</f>
         <v/>
       </c>
     </row>
@@ -3037,7 +3037,7 @@
         <v>43731</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3088,27 +3088,27 @@
         </is>
       </c>
       <c r="S29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/artfynd/A 49192-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/artfynd/A 49192-2019.xlsx", "A 49192-2019")</f>
         <v/>
       </c>
       <c r="T29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/kartor/A 49192-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/kartor/A 49192-2019.png", "A 49192-2019")</f>
         <v/>
       </c>
       <c r="V29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/klagomål/A 49192-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/klagomål/A 49192-2019.docx", "A 49192-2019")</f>
         <v/>
       </c>
       <c r="W29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/klagomålsmail/A 49192-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/klagomålsmail/A 49192-2019.docx", "A 49192-2019")</f>
         <v/>
       </c>
       <c r="X29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/tillsyn/A 49192-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/tillsyn/A 49192-2019.docx", "A 49192-2019")</f>
         <v/>
       </c>
       <c r="Y29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/tillsynsmail/A 49192-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/tillsynsmail/A 49192-2019.docx", "A 49192-2019")</f>
         <v/>
       </c>
     </row>
@@ -3122,7 +3122,7 @@
         <v>43734</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3173,27 +3173,27 @@
         </is>
       </c>
       <c r="S30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/artfynd/A 50261-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/artfynd/A 50261-2019.xlsx", "A 50261-2019")</f>
         <v/>
       </c>
       <c r="T30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/kartor/A 50261-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/kartor/A 50261-2019.png", "A 50261-2019")</f>
         <v/>
       </c>
       <c r="V30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/klagomål/A 50261-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/klagomål/A 50261-2019.docx", "A 50261-2019")</f>
         <v/>
       </c>
       <c r="W30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/klagomålsmail/A 50261-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/klagomålsmail/A 50261-2019.docx", "A 50261-2019")</f>
         <v/>
       </c>
       <c r="X30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/tillsyn/A 50261-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/tillsyn/A 50261-2019.docx", "A 50261-2019")</f>
         <v/>
       </c>
       <c r="Y30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/tillsynsmail/A 50261-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/tillsynsmail/A 50261-2019.docx", "A 50261-2019")</f>
         <v/>
       </c>
     </row>
@@ -3207,7 +3207,7 @@
         <v>43763</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3258,27 +3258,27 @@
         </is>
       </c>
       <c r="S31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/artfynd/A 56545-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/artfynd/A 56545-2019.xlsx", "A 56545-2019")</f>
         <v/>
       </c>
       <c r="T31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/kartor/A 56545-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/kartor/A 56545-2019.png", "A 56545-2019")</f>
         <v/>
       </c>
       <c r="V31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/klagomål/A 56545-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/klagomål/A 56545-2019.docx", "A 56545-2019")</f>
         <v/>
       </c>
       <c r="W31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/klagomålsmail/A 56545-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/klagomålsmail/A 56545-2019.docx", "A 56545-2019")</f>
         <v/>
       </c>
       <c r="X31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/tillsyn/A 56545-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/tillsyn/A 56545-2019.docx", "A 56545-2019")</f>
         <v/>
       </c>
       <c r="Y31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/tillsynsmail/A 56545-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/tillsynsmail/A 56545-2019.docx", "A 56545-2019")</f>
         <v/>
       </c>
     </row>
@@ -3292,7 +3292,7 @@
         <v>43839</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3343,27 +3343,27 @@
         </is>
       </c>
       <c r="S32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/artfynd/A 2116-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/artfynd/A 2116-2020.xlsx", "A 2116-2020")</f>
         <v/>
       </c>
       <c r="T32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/kartor/A 2116-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/kartor/A 2116-2020.png", "A 2116-2020")</f>
         <v/>
       </c>
       <c r="V32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/klagomål/A 2116-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/klagomål/A 2116-2020.docx", "A 2116-2020")</f>
         <v/>
       </c>
       <c r="W32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/klagomålsmail/A 2116-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/klagomålsmail/A 2116-2020.docx", "A 2116-2020")</f>
         <v/>
       </c>
       <c r="X32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/tillsyn/A 2116-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/tillsyn/A 2116-2020.docx", "A 2116-2020")</f>
         <v/>
       </c>
       <c r="Y32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/tillsynsmail/A 2116-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/tillsynsmail/A 2116-2020.docx", "A 2116-2020")</f>
         <v/>
       </c>
     </row>
@@ -3377,7 +3377,7 @@
         <v>44050</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3428,27 +3428,27 @@
         </is>
       </c>
       <c r="S33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/artfynd/A 36585-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/artfynd/A 36585-2020.xlsx", "A 36585-2020")</f>
         <v/>
       </c>
       <c r="T33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/kartor/A 36585-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/kartor/A 36585-2020.png", "A 36585-2020")</f>
         <v/>
       </c>
       <c r="V33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/klagomål/A 36585-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/klagomål/A 36585-2020.docx", "A 36585-2020")</f>
         <v/>
       </c>
       <c r="W33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/klagomålsmail/A 36585-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/klagomålsmail/A 36585-2020.docx", "A 36585-2020")</f>
         <v/>
       </c>
       <c r="X33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/tillsyn/A 36585-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/tillsyn/A 36585-2020.docx", "A 36585-2020")</f>
         <v/>
       </c>
       <c r="Y33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/tillsynsmail/A 36585-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/tillsynsmail/A 36585-2020.docx", "A 36585-2020")</f>
         <v/>
       </c>
     </row>
@@ -3462,7 +3462,7 @@
         <v>44061</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3513,27 +3513,27 @@
         </is>
       </c>
       <c r="S34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/artfynd/A 38701-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/artfynd/A 38701-2020.xlsx", "A 38701-2020")</f>
         <v/>
       </c>
       <c r="T34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/kartor/A 38701-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/kartor/A 38701-2020.png", "A 38701-2020")</f>
         <v/>
       </c>
       <c r="V34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/klagomål/A 38701-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/klagomål/A 38701-2020.docx", "A 38701-2020")</f>
         <v/>
       </c>
       <c r="W34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/klagomålsmail/A 38701-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/klagomålsmail/A 38701-2020.docx", "A 38701-2020")</f>
         <v/>
       </c>
       <c r="X34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/tillsyn/A 38701-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/tillsyn/A 38701-2020.docx", "A 38701-2020")</f>
         <v/>
       </c>
       <c r="Y34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/tillsynsmail/A 38701-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/tillsynsmail/A 38701-2020.docx", "A 38701-2020")</f>
         <v/>
       </c>
     </row>
@@ -3547,7 +3547,7 @@
         <v>44217</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3598,27 +3598,27 @@
         </is>
       </c>
       <c r="S35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/artfynd/A 3974-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/artfynd/A 3974-2021.xlsx", "A 3974-2021")</f>
         <v/>
       </c>
       <c r="T35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/kartor/A 3974-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/kartor/A 3974-2021.png", "A 3974-2021")</f>
         <v/>
       </c>
       <c r="V35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/klagomål/A 3974-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/klagomål/A 3974-2021.docx", "A 3974-2021")</f>
         <v/>
       </c>
       <c r="W35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/klagomålsmail/A 3974-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/klagomålsmail/A 3974-2021.docx", "A 3974-2021")</f>
         <v/>
       </c>
       <c r="X35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/tillsyn/A 3974-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/tillsyn/A 3974-2021.docx", "A 3974-2021")</f>
         <v/>
       </c>
       <c r="Y35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/tillsynsmail/A 3974-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/tillsynsmail/A 3974-2021.docx", "A 3974-2021")</f>
         <v/>
       </c>
     </row>
@@ -3632,7 +3632,7 @@
         <v>44285</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3683,27 +3683,27 @@
         </is>
       </c>
       <c r="S36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/artfynd/A 15418-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/artfynd/A 15418-2021.xlsx", "A 15418-2021")</f>
         <v/>
       </c>
       <c r="T36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/kartor/A 15418-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/kartor/A 15418-2021.png", "A 15418-2021")</f>
         <v/>
       </c>
       <c r="V36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/klagomål/A 15418-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/klagomål/A 15418-2021.docx", "A 15418-2021")</f>
         <v/>
       </c>
       <c r="W36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/klagomålsmail/A 15418-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/klagomålsmail/A 15418-2021.docx", "A 15418-2021")</f>
         <v/>
       </c>
       <c r="X36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/tillsyn/A 15418-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/tillsyn/A 15418-2021.docx", "A 15418-2021")</f>
         <v/>
       </c>
       <c r="Y36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/tillsynsmail/A 15418-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/tillsynsmail/A 15418-2021.docx", "A 15418-2021")</f>
         <v/>
       </c>
     </row>
@@ -3717,7 +3717,7 @@
         <v>44356</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3768,27 +3768,27 @@
         </is>
       </c>
       <c r="S37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/artfynd/A 28418-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/artfynd/A 28418-2021.xlsx", "A 28418-2021")</f>
         <v/>
       </c>
       <c r="T37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/kartor/A 28418-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/kartor/A 28418-2021.png", "A 28418-2021")</f>
         <v/>
       </c>
       <c r="V37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/klagomål/A 28418-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/klagomål/A 28418-2021.docx", "A 28418-2021")</f>
         <v/>
       </c>
       <c r="W37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/klagomålsmail/A 28418-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/klagomålsmail/A 28418-2021.docx", "A 28418-2021")</f>
         <v/>
       </c>
       <c r="X37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/tillsyn/A 28418-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/tillsyn/A 28418-2021.docx", "A 28418-2021")</f>
         <v/>
       </c>
       <c r="Y37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/tillsynsmail/A 28418-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/tillsynsmail/A 28418-2021.docx", "A 28418-2021")</f>
         <v/>
       </c>
     </row>
@@ -3802,7 +3802,7 @@
         <v>44379</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3853,27 +3853,27 @@
         </is>
       </c>
       <c r="S38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/artfynd/A 34188-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/artfynd/A 34188-2021.xlsx", "A 34188-2021")</f>
         <v/>
       </c>
       <c r="T38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/kartor/A 34188-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/kartor/A 34188-2021.png", "A 34188-2021")</f>
         <v/>
       </c>
       <c r="V38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/klagomål/A 34188-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/klagomål/A 34188-2021.docx", "A 34188-2021")</f>
         <v/>
       </c>
       <c r="W38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/klagomålsmail/A 34188-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/klagomålsmail/A 34188-2021.docx", "A 34188-2021")</f>
         <v/>
       </c>
       <c r="X38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/tillsyn/A 34188-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/tillsyn/A 34188-2021.docx", "A 34188-2021")</f>
         <v/>
       </c>
       <c r="Y38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/tillsynsmail/A 34188-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/tillsynsmail/A 34188-2021.docx", "A 34188-2021")</f>
         <v/>
       </c>
     </row>
@@ -3887,7 +3887,7 @@
         <v>44846</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3938,31 +3938,31 @@
         </is>
       </c>
       <c r="S39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/artfynd/A 45938-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/artfynd/A 45938-2022.xlsx", "A 45938-2022")</f>
         <v/>
       </c>
       <c r="T39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/kartor/A 45938-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/kartor/A 45938-2022.png", "A 45938-2022")</f>
         <v/>
       </c>
       <c r="U39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/knärot/A 45938-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/knärot/A 45938-2022.png", "A 45938-2022")</f>
         <v/>
       </c>
       <c r="V39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/klagomål/A 45938-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/klagomål/A 45938-2022.docx", "A 45938-2022")</f>
         <v/>
       </c>
       <c r="W39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/klagomålsmail/A 45938-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/klagomålsmail/A 45938-2022.docx", "A 45938-2022")</f>
         <v/>
       </c>
       <c r="X39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/tillsyn/A 45938-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/tillsyn/A 45938-2022.docx", "A 45938-2022")</f>
         <v/>
       </c>
       <c r="Y39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/tillsynsmail/A 45938-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/tillsynsmail/A 45938-2022.docx", "A 45938-2022")</f>
         <v/>
       </c>
     </row>
@@ -3976,7 +3976,7 @@
         <v>44873</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4027,27 +4027,27 @@
         </is>
       </c>
       <c r="S40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/artfynd/A 52166-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/artfynd/A 52166-2022.xlsx", "A 52166-2022")</f>
         <v/>
       </c>
       <c r="T40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/kartor/A 52166-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/kartor/A 52166-2022.png", "A 52166-2022")</f>
         <v/>
       </c>
       <c r="V40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/klagomål/A 52166-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/klagomål/A 52166-2022.docx", "A 52166-2022")</f>
         <v/>
       </c>
       <c r="W40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/klagomålsmail/A 52166-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/klagomålsmail/A 52166-2022.docx", "A 52166-2022")</f>
         <v/>
       </c>
       <c r="X40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/tillsyn/A 52166-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/tillsyn/A 52166-2022.docx", "A 52166-2022")</f>
         <v/>
       </c>
       <c r="Y40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/tillsynsmail/A 52166-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/tillsynsmail/A 52166-2022.docx", "A 52166-2022")</f>
         <v/>
       </c>
     </row>
@@ -4061,7 +4061,7 @@
         <v>45111</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4112,27 +4112,27 @@
         </is>
       </c>
       <c r="S41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/artfynd/A 30550-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/artfynd/A 30550-2023.xlsx", "A 30550-2023")</f>
         <v/>
       </c>
       <c r="T41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/kartor/A 30550-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/kartor/A 30550-2023.png", "A 30550-2023")</f>
         <v/>
       </c>
       <c r="V41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/klagomål/A 30550-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/klagomål/A 30550-2023.docx", "A 30550-2023")</f>
         <v/>
       </c>
       <c r="W41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/klagomålsmail/A 30550-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/klagomålsmail/A 30550-2023.docx", "A 30550-2023")</f>
         <v/>
       </c>
       <c r="X41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/tillsyn/A 30550-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/tillsyn/A 30550-2023.docx", "A 30550-2023")</f>
         <v/>
       </c>
       <c r="Y41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/tillsynsmail/A 30550-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJANG/tillsynsmail/A 30550-2023.docx", "A 30550-2023")</f>
         <v/>
       </c>
     </row>
@@ -4146,7 +4146,7 @@
         <v>43326</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4203,7 +4203,7 @@
         <v>43335</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4260,7 +4260,7 @@
         <v>43335</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4317,7 +4317,7 @@
         <v>43335</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4374,7 +4374,7 @@
         <v>43339</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4431,7 +4431,7 @@
         <v>43346</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4488,7 +4488,7 @@
         <v>43346</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4545,7 +4545,7 @@
         <v>43347</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4602,7 +4602,7 @@
         <v>43349</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4659,7 +4659,7 @@
         <v>43353</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4716,7 +4716,7 @@
         <v>43353</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4773,7 +4773,7 @@
         <v>43353</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4830,7 +4830,7 @@
         <v>43353</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4887,7 +4887,7 @@
         <v>43353</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4944,7 +4944,7 @@
         <v>43354</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5001,7 +5001,7 @@
         <v>43354</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5058,7 +5058,7 @@
         <v>43355</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5115,7 +5115,7 @@
         <v>43367</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5172,7 +5172,7 @@
         <v>43369</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5229,7 +5229,7 @@
         <v>43381</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5286,7 +5286,7 @@
         <v>43381</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5343,7 +5343,7 @@
         <v>43390</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5400,7 +5400,7 @@
         <v>43395</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5457,7 +5457,7 @@
         <v>43395</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5514,7 +5514,7 @@
         <v>43399</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5571,7 +5571,7 @@
         <v>43399</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5628,7 +5628,7 @@
         <v>43401</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5685,7 +5685,7 @@
         <v>43403</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5742,7 +5742,7 @@
         <v>43403</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5799,7 +5799,7 @@
         <v>43403</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5856,7 +5856,7 @@
         <v>43403</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5913,7 +5913,7 @@
         <v>43403</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5970,7 +5970,7 @@
         <v>43403</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6027,7 +6027,7 @@
         <v>43403</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6084,7 +6084,7 @@
         <v>43403</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6141,7 +6141,7 @@
         <v>43403</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6198,7 +6198,7 @@
         <v>43406</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6255,7 +6255,7 @@
         <v>43408</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6312,7 +6312,7 @@
         <v>43409</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6369,7 +6369,7 @@
         <v>43419</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6426,7 +6426,7 @@
         <v>43420</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6483,7 +6483,7 @@
         <v>43420</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6540,7 +6540,7 @@
         <v>43430</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6597,7 +6597,7 @@
         <v>43430</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6654,7 +6654,7 @@
         <v>43431</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6711,7 +6711,7 @@
         <v>43432</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6768,7 +6768,7 @@
         <v>43432</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6825,7 +6825,7 @@
         <v>43432</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6882,7 +6882,7 @@
         <v>43432</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6939,7 +6939,7 @@
         <v>43433</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6996,7 +6996,7 @@
         <v>43437</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7053,7 +7053,7 @@
         <v>43437</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7110,7 +7110,7 @@
         <v>43438</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7167,7 +7167,7 @@
         <v>43440</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7224,7 +7224,7 @@
         <v>43441</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7281,7 +7281,7 @@
         <v>43447</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7338,7 +7338,7 @@
         <v>43448</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7395,7 +7395,7 @@
         <v>43451</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7452,7 +7452,7 @@
         <v>43452</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7509,7 +7509,7 @@
         <v>43452</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7566,7 +7566,7 @@
         <v>43453</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7623,7 +7623,7 @@
         <v>43454</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7680,7 +7680,7 @@
         <v>43454</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7737,7 +7737,7 @@
         <v>43455</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7794,7 +7794,7 @@
         <v>43460</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7851,7 +7851,7 @@
         <v>43467</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7908,7 +7908,7 @@
         <v>43467</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7965,7 +7965,7 @@
         <v>43467</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8022,7 +8022,7 @@
         <v>43474</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8079,7 +8079,7 @@
         <v>43474</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8136,7 +8136,7 @@
         <v>43475</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8193,7 +8193,7 @@
         <v>43475</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8250,7 +8250,7 @@
         <v>43476</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8307,7 +8307,7 @@
         <v>43479</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8364,7 +8364,7 @@
         <v>43479</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8421,7 +8421,7 @@
         <v>43481</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8478,7 +8478,7 @@
         <v>43486</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8535,7 +8535,7 @@
         <v>43486</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8592,7 +8592,7 @@
         <v>43487</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8649,7 +8649,7 @@
         <v>43488</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8706,7 +8706,7 @@
         <v>43488</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8763,7 +8763,7 @@
         <v>43488</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8820,7 +8820,7 @@
         <v>43490</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8877,7 +8877,7 @@
         <v>43490</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8934,7 +8934,7 @@
         <v>43494</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8991,7 +8991,7 @@
         <v>43496</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9048,7 +9048,7 @@
         <v>43500</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9105,7 +9105,7 @@
         <v>43500</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9162,7 +9162,7 @@
         <v>43502</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9219,7 +9219,7 @@
         <v>43502</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9276,7 +9276,7 @@
         <v>43504</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9333,7 +9333,7 @@
         <v>43504</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9390,7 +9390,7 @@
         <v>43507</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9447,7 +9447,7 @@
         <v>43508</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9504,7 +9504,7 @@
         <v>43508</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9561,7 +9561,7 @@
         <v>43510</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9618,7 +9618,7 @@
         <v>43511</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9675,7 +9675,7 @@
         <v>43516</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9732,7 +9732,7 @@
         <v>43523</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9789,7 +9789,7 @@
         <v>43523</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9846,7 +9846,7 @@
         <v>43523</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9903,7 +9903,7 @@
         <v>43523</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9960,7 +9960,7 @@
         <v>43524</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10017,7 +10017,7 @@
         <v>43524</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10074,7 +10074,7 @@
         <v>43525</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10131,7 +10131,7 @@
         <v>43531</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10188,7 +10188,7 @@
         <v>43532</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10250,7 +10250,7 @@
         <v>43538</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10307,7 +10307,7 @@
         <v>43539</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10364,7 +10364,7 @@
         <v>43542</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10421,7 +10421,7 @@
         <v>43542</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10478,7 +10478,7 @@
         <v>43542</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10535,7 +10535,7 @@
         <v>43542</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10592,7 +10592,7 @@
         <v>43543</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10649,7 +10649,7 @@
         <v>43543</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10706,7 +10706,7 @@
         <v>43545</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10763,7 +10763,7 @@
         <v>43549</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10820,7 +10820,7 @@
         <v>43549</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10877,7 +10877,7 @@
         <v>43551</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10934,7 +10934,7 @@
         <v>43552</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10991,7 +10991,7 @@
         <v>43555</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11048,7 +11048,7 @@
         <v>43556</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11105,7 +11105,7 @@
         <v>43558</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11162,7 +11162,7 @@
         <v>43559</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11219,7 +11219,7 @@
         <v>43560</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11276,7 +11276,7 @@
         <v>43563</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11333,7 +11333,7 @@
         <v>43563</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11390,7 +11390,7 @@
         <v>43563</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11447,7 +11447,7 @@
         <v>43567</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11504,7 +11504,7 @@
         <v>43569</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11561,7 +11561,7 @@
         <v>43570</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11618,7 +11618,7 @@
         <v>43573</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11675,7 +11675,7 @@
         <v>43573</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11732,7 +11732,7 @@
         <v>43573</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11789,7 +11789,7 @@
         <v>43580</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11846,7 +11846,7 @@
         <v>43581</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11908,7 +11908,7 @@
         <v>43581</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11970,7 +11970,7 @@
         <v>43585</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12027,7 +12027,7 @@
         <v>43585</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12084,7 +12084,7 @@
         <v>43587</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12141,7 +12141,7 @@
         <v>43594</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12198,7 +12198,7 @@
         <v>43594</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12255,7 +12255,7 @@
         <v>43594</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12312,7 +12312,7 @@
         <v>43594</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12369,7 +12369,7 @@
         <v>43594</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12426,7 +12426,7 @@
         <v>43594</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12483,7 +12483,7 @@
         <v>43598</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12540,7 +12540,7 @@
         <v>43599</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12597,7 +12597,7 @@
         <v>43606</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12654,7 +12654,7 @@
         <v>43606</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12711,7 +12711,7 @@
         <v>43606</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12768,7 +12768,7 @@
         <v>43607</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12825,7 +12825,7 @@
         <v>43608</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12882,7 +12882,7 @@
         <v>43609</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12944,7 +12944,7 @@
         <v>43614</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13001,7 +13001,7 @@
         <v>43614</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13058,7 +13058,7 @@
         <v>43621</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13115,7 +13115,7 @@
         <v>43621</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13172,7 +13172,7 @@
         <v>43628</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13229,7 +13229,7 @@
         <v>43633</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13286,7 +13286,7 @@
         <v>43636</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13343,7 +13343,7 @@
         <v>43642</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13400,7 +13400,7 @@
         <v>43646</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13462,7 +13462,7 @@
         <v>43646</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13524,7 +13524,7 @@
         <v>43647</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13581,7 +13581,7 @@
         <v>43648</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13638,7 +13638,7 @@
         <v>43649</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13695,7 +13695,7 @@
         <v>43649</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13752,7 +13752,7 @@
         <v>43649</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13809,7 +13809,7 @@
         <v>43649</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13866,7 +13866,7 @@
         <v>43650</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13923,7 +13923,7 @@
         <v>43650</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13980,7 +13980,7 @@
         <v>43652</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14037,7 +14037,7 @@
         <v>43653</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14094,7 +14094,7 @@
         <v>43654</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14151,7 +14151,7 @@
         <v>43654</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14208,7 +14208,7 @@
         <v>43655</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14265,7 +14265,7 @@
         <v>43655</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14322,7 +14322,7 @@
         <v>43675</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14379,7 +14379,7 @@
         <v>43684</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14436,7 +14436,7 @@
         <v>43684</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14493,7 +14493,7 @@
         <v>43696</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14550,7 +14550,7 @@
         <v>43697</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14607,7 +14607,7 @@
         <v>43697</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14664,7 +14664,7 @@
         <v>43698</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14721,7 +14721,7 @@
         <v>43699</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14778,7 +14778,7 @@
         <v>43699</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14835,7 +14835,7 @@
         <v>43699</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14892,7 +14892,7 @@
         <v>43700</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14949,7 +14949,7 @@
         <v>43700</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15006,7 +15006,7 @@
         <v>43703</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15063,7 +15063,7 @@
         <v>43703</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15120,7 +15120,7 @@
         <v>43703</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15177,7 +15177,7 @@
         <v>43705</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15234,7 +15234,7 @@
         <v>43705</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15291,7 +15291,7 @@
         <v>43705</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15348,7 +15348,7 @@
         <v>43705</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15405,7 +15405,7 @@
         <v>43707</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15462,7 +15462,7 @@
         <v>43707</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15524,7 +15524,7 @@
         <v>43707</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15581,7 +15581,7 @@
         <v>43710</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15638,7 +15638,7 @@
         <v>43711</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15695,7 +15695,7 @@
         <v>43718</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15757,7 +15757,7 @@
         <v>43721</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15814,7 +15814,7 @@
         <v>43721</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15871,7 +15871,7 @@
         <v>43724</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15933,7 +15933,7 @@
         <v>43727</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15990,7 +15990,7 @@
         <v>43727</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16047,7 +16047,7 @@
         <v>43727</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16104,7 +16104,7 @@
         <v>43728</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16161,7 +16161,7 @@
         <v>43730</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16218,7 +16218,7 @@
         <v>43731</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16275,7 +16275,7 @@
         <v>43732</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16332,7 +16332,7 @@
         <v>43734</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16389,7 +16389,7 @@
         <v>43740</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16446,7 +16446,7 @@
         <v>43740</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16503,7 +16503,7 @@
         <v>43741</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16560,7 +16560,7 @@
         <v>43742</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16617,7 +16617,7 @@
         <v>43748</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16674,7 +16674,7 @@
         <v>43749</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16731,7 +16731,7 @@
         <v>43759</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16793,7 +16793,7 @@
         <v>43762</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16850,7 +16850,7 @@
         <v>43762</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16907,7 +16907,7 @@
         <v>43766</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16964,7 +16964,7 @@
         <v>43768</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17026,7 +17026,7 @@
         <v>43769</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17083,7 +17083,7 @@
         <v>43770</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17140,7 +17140,7 @@
         <v>43776</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17197,7 +17197,7 @@
         <v>43782</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17254,7 +17254,7 @@
         <v>43791</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17311,7 +17311,7 @@
         <v>43802</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17368,7 +17368,7 @@
         <v>43804</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17425,7 +17425,7 @@
         <v>43815</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17482,7 +17482,7 @@
         <v>43819</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17539,7 +17539,7 @@
         <v>43819</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17596,7 +17596,7 @@
         <v>43822</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17653,7 +17653,7 @@
         <v>43822</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17710,7 +17710,7 @@
         <v>43833</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17767,7 +17767,7 @@
         <v>43843</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17824,7 +17824,7 @@
         <v>43843</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17881,7 +17881,7 @@
         <v>43843</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17938,7 +17938,7 @@
         <v>43847</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17995,7 +17995,7 @@
         <v>43847</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18052,7 +18052,7 @@
         <v>43847</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18109,7 +18109,7 @@
         <v>43847</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18166,7 +18166,7 @@
         <v>43848</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18223,7 +18223,7 @@
         <v>43852</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18280,7 +18280,7 @@
         <v>43852</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18337,7 +18337,7 @@
         <v>43852</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18394,7 +18394,7 @@
         <v>43852</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18451,7 +18451,7 @@
         <v>43852</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18508,7 +18508,7 @@
         <v>43861</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18565,7 +18565,7 @@
         <v>43861</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18622,7 +18622,7 @@
         <v>43861</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18679,7 +18679,7 @@
         <v>43861</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18736,7 +18736,7 @@
         <v>43861</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18793,7 +18793,7 @@
         <v>43861</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18850,7 +18850,7 @@
         <v>43866</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18907,7 +18907,7 @@
         <v>43868</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18964,7 +18964,7 @@
         <v>43868</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19021,7 +19021,7 @@
         <v>43872</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19078,7 +19078,7 @@
         <v>43873</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19135,7 +19135,7 @@
         <v>43874</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19192,7 +19192,7 @@
         <v>43874</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19249,7 +19249,7 @@
         <v>43878</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19306,7 +19306,7 @@
         <v>43878</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19363,7 +19363,7 @@
         <v>43878</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19420,7 +19420,7 @@
         <v>43879</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19477,7 +19477,7 @@
         <v>43879</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19534,7 +19534,7 @@
         <v>43885</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19591,7 +19591,7 @@
         <v>43885</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19648,7 +19648,7 @@
         <v>43885</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19705,7 +19705,7 @@
         <v>43886</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19762,7 +19762,7 @@
         <v>43886</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19819,7 +19819,7 @@
         <v>43886</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19876,7 +19876,7 @@
         <v>43887</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19933,7 +19933,7 @@
         <v>43888</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19990,7 +19990,7 @@
         <v>43892</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20047,7 +20047,7 @@
         <v>43892</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20104,7 +20104,7 @@
         <v>43892</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20161,7 +20161,7 @@
         <v>43893</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20218,7 +20218,7 @@
         <v>43899</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20275,7 +20275,7 @@
         <v>43899</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20332,7 +20332,7 @@
         <v>43901</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20389,7 +20389,7 @@
         <v>43901</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20446,7 +20446,7 @@
         <v>43902</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20503,7 +20503,7 @@
         <v>43902</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20560,7 +20560,7 @@
         <v>43902</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20617,7 +20617,7 @@
         <v>43903</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20674,7 +20674,7 @@
         <v>43906</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20731,7 +20731,7 @@
         <v>43906</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20788,7 +20788,7 @@
         <v>43906</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20845,7 +20845,7 @@
         <v>43906</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20902,7 +20902,7 @@
         <v>43906</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20959,7 +20959,7 @@
         <v>43906</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21016,7 +21016,7 @@
         <v>43906</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21073,7 +21073,7 @@
         <v>43907</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21130,7 +21130,7 @@
         <v>43907</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21187,7 +21187,7 @@
         <v>43910</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21244,7 +21244,7 @@
         <v>43910</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21301,7 +21301,7 @@
         <v>43915</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21358,7 +21358,7 @@
         <v>43915</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21415,7 +21415,7 @@
         <v>43915</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21472,7 +21472,7 @@
         <v>43920</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21529,7 +21529,7 @@
         <v>43921</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21586,7 +21586,7 @@
         <v>43923</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21643,7 +21643,7 @@
         <v>43924</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21700,7 +21700,7 @@
         <v>43924</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21757,7 +21757,7 @@
         <v>43932</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21814,7 +21814,7 @@
         <v>43955</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21871,7 +21871,7 @@
         <v>43963</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21928,7 +21928,7 @@
         <v>43964</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21985,7 +21985,7 @@
         <v>43965</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22042,7 +22042,7 @@
         <v>43965</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22099,7 +22099,7 @@
         <v>43969</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22156,7 +22156,7 @@
         <v>43975</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22213,7 +22213,7 @@
         <v>43978</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22270,7 +22270,7 @@
         <v>43978</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22327,7 +22327,7 @@
         <v>43985</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22384,7 +22384,7 @@
         <v>43986</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22441,7 +22441,7 @@
         <v>43987</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22498,7 +22498,7 @@
         <v>44004</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22555,7 +22555,7 @@
         <v>44004</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22612,7 +22612,7 @@
         <v>44006</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22669,7 +22669,7 @@
         <v>44006</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22726,7 +22726,7 @@
         <v>44013</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22783,7 +22783,7 @@
         <v>44013</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22840,7 +22840,7 @@
         <v>44018</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22897,7 +22897,7 @@
         <v>44019</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22959,7 +22959,7 @@
         <v>44019</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23021,7 +23021,7 @@
         <v>44036</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23078,7 +23078,7 @@
         <v>44036</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23135,7 +23135,7 @@
         <v>44036</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23192,7 +23192,7 @@
         <v>44036</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23249,7 +23249,7 @@
         <v>44036</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23306,7 +23306,7 @@
         <v>44036</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23363,7 +23363,7 @@
         <v>44036</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23420,7 +23420,7 @@
         <v>44036</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23477,7 +23477,7 @@
         <v>44036</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23534,7 +23534,7 @@
         <v>44036</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23591,7 +23591,7 @@
         <v>44040</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23653,7 +23653,7 @@
         <v>44042</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23710,7 +23710,7 @@
         <v>44047</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23767,7 +23767,7 @@
         <v>44050</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23824,7 +23824,7 @@
         <v>44054</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23881,7 +23881,7 @@
         <v>44060</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23943,7 +23943,7 @@
         <v>44061</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24000,7 +24000,7 @@
         <v>44063</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24057,7 +24057,7 @@
         <v>44069</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24114,7 +24114,7 @@
         <v>44069</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24171,7 +24171,7 @@
         <v>44070</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24228,7 +24228,7 @@
         <v>44074</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24285,7 +24285,7 @@
         <v>44074</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24342,7 +24342,7 @@
         <v>44076</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24399,7 +24399,7 @@
         <v>44081</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24456,7 +24456,7 @@
         <v>44084</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24513,7 +24513,7 @@
         <v>44084</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24570,7 +24570,7 @@
         <v>44091</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24627,7 +24627,7 @@
         <v>44091</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24684,7 +24684,7 @@
         <v>44096</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24741,7 +24741,7 @@
         <v>44097</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24798,7 +24798,7 @@
         <v>44101</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24855,7 +24855,7 @@
         <v>44102</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24912,7 +24912,7 @@
         <v>44102</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24969,7 +24969,7 @@
         <v>44103</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25026,7 +25026,7 @@
         <v>44103</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25083,7 +25083,7 @@
         <v>44105</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25140,7 +25140,7 @@
         <v>44109</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25197,7 +25197,7 @@
         <v>44110</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25254,7 +25254,7 @@
         <v>44110</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25311,7 +25311,7 @@
         <v>44113</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25368,7 +25368,7 @@
         <v>44123</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25425,7 +25425,7 @@
         <v>44134</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25482,7 +25482,7 @@
         <v>44134</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25539,7 +25539,7 @@
         <v>44138</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25596,7 +25596,7 @@
         <v>44140</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25653,7 +25653,7 @@
         <v>44140</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25710,7 +25710,7 @@
         <v>44140</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25767,7 +25767,7 @@
         <v>44140</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25824,7 +25824,7 @@
         <v>44140</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25881,7 +25881,7 @@
         <v>44145</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25938,7 +25938,7 @@
         <v>44155</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25995,7 +25995,7 @@
         <v>44159</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26052,7 +26052,7 @@
         <v>44165</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26109,7 +26109,7 @@
         <v>44168</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26166,7 +26166,7 @@
         <v>44168</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26223,7 +26223,7 @@
         <v>44168</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26280,7 +26280,7 @@
         <v>44174</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26337,7 +26337,7 @@
         <v>44174</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26399,7 +26399,7 @@
         <v>44174</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26456,7 +26456,7 @@
         <v>44174</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26513,7 +26513,7 @@
         <v>44175</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26570,7 +26570,7 @@
         <v>44175</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26627,7 +26627,7 @@
         <v>44179</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26684,7 +26684,7 @@
         <v>44186</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26741,7 +26741,7 @@
         <v>44187</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26798,7 +26798,7 @@
         <v>44187</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26855,7 +26855,7 @@
         <v>44194</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26912,7 +26912,7 @@
         <v>44195</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26969,7 +26969,7 @@
         <v>44195</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27026,7 +27026,7 @@
         <v>44201</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27083,7 +27083,7 @@
         <v>44201</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27140,7 +27140,7 @@
         <v>44207</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27197,7 +27197,7 @@
         <v>44214</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27254,7 +27254,7 @@
         <v>44215</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27311,7 +27311,7 @@
         <v>44217</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27368,7 +27368,7 @@
         <v>44217</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27425,7 +27425,7 @@
         <v>44221</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27482,7 +27482,7 @@
         <v>44223</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27539,7 +27539,7 @@
         <v>44224</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27596,7 +27596,7 @@
         <v>44229</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27653,7 +27653,7 @@
         <v>44230</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27710,7 +27710,7 @@
         <v>44235</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27767,7 +27767,7 @@
         <v>44235</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27824,7 +27824,7 @@
         <v>44236</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27881,7 +27881,7 @@
         <v>44236</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27938,7 +27938,7 @@
         <v>44237</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27995,7 +27995,7 @@
         <v>44237</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28052,7 +28052,7 @@
         <v>44238</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28109,7 +28109,7 @@
         <v>44239</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28166,7 +28166,7 @@
         <v>44239</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28223,7 +28223,7 @@
         <v>44239</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28280,7 +28280,7 @@
         <v>44240</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28337,7 +28337,7 @@
         <v>44242</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28394,7 +28394,7 @@
         <v>44242</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28451,7 +28451,7 @@
         <v>44246</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28513,7 +28513,7 @@
         <v>44246</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28575,7 +28575,7 @@
         <v>44248</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28632,7 +28632,7 @@
         <v>44251</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28689,7 +28689,7 @@
         <v>44251</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28746,7 +28746,7 @@
         <v>44258</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28803,7 +28803,7 @@
         <v>44258</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28860,7 +28860,7 @@
         <v>44258</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28917,7 +28917,7 @@
         <v>44261</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28974,7 +28974,7 @@
         <v>44265</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29031,7 +29031,7 @@
         <v>44266</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29088,7 +29088,7 @@
         <v>44271</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29145,7 +29145,7 @@
         <v>44272</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29207,7 +29207,7 @@
         <v>44282</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29269,7 +29269,7 @@
         <v>44292</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29326,7 +29326,7 @@
         <v>44301</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29383,7 +29383,7 @@
         <v>44306</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29440,7 +29440,7 @@
         <v>44308</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29497,7 +29497,7 @@
         <v>44309</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29554,7 +29554,7 @@
         <v>44311</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29611,7 +29611,7 @@
         <v>44322</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29668,7 +29668,7 @@
         <v>44323</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29725,7 +29725,7 @@
         <v>44329</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29782,7 +29782,7 @@
         <v>44333</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29839,7 +29839,7 @@
         <v>44347</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29896,7 +29896,7 @@
         <v>44347</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29953,7 +29953,7 @@
         <v>44354</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30010,7 +30010,7 @@
         <v>44354</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30067,7 +30067,7 @@
         <v>44354</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30124,7 +30124,7 @@
         <v>44362</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30181,7 +30181,7 @@
         <v>44362</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30238,7 +30238,7 @@
         <v>44365</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30295,7 +30295,7 @@
         <v>44365</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30352,7 +30352,7 @@
         <v>44375</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30409,7 +30409,7 @@
         <v>44376</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30466,7 +30466,7 @@
         <v>44376</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30523,7 +30523,7 @@
         <v>44378</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30585,7 +30585,7 @@
         <v>44380</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30642,7 +30642,7 @@
         <v>44383</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30699,7 +30699,7 @@
         <v>44383</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30756,7 +30756,7 @@
         <v>44384</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30813,7 +30813,7 @@
         <v>44384</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30870,7 +30870,7 @@
         <v>44385</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30927,7 +30927,7 @@
         <v>44389</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30984,7 +30984,7 @@
         <v>44391</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31041,7 +31041,7 @@
         <v>44392</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31098,7 +31098,7 @@
         <v>44396</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31155,7 +31155,7 @@
         <v>44412</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31212,7 +31212,7 @@
         <v>44417</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31274,7 +31274,7 @@
         <v>44421</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31331,7 +31331,7 @@
         <v>44421</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31388,7 +31388,7 @@
         <v>44424</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31445,7 +31445,7 @@
         <v>44428</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31502,7 +31502,7 @@
         <v>44431</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31559,7 +31559,7 @@
         <v>44431</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31616,7 +31616,7 @@
         <v>44433</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31673,7 +31673,7 @@
         <v>44441</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31730,7 +31730,7 @@
         <v>44442</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31787,7 +31787,7 @@
         <v>44442</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31844,7 +31844,7 @@
         <v>44445</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31901,7 +31901,7 @@
         <v>44446</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31958,7 +31958,7 @@
         <v>44446</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32015,7 +32015,7 @@
         <v>44446</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32072,7 +32072,7 @@
         <v>44446</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32129,7 +32129,7 @@
         <v>44446</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32186,7 +32186,7 @@
         <v>44446</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32243,7 +32243,7 @@
         <v>44446</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32300,7 +32300,7 @@
         <v>44446</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32357,7 +32357,7 @@
         <v>44446</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32414,7 +32414,7 @@
         <v>44446</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32471,7 +32471,7 @@
         <v>44446</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32528,7 +32528,7 @@
         <v>44446</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32585,7 +32585,7 @@
         <v>44446</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32642,7 +32642,7 @@
         <v>44446</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32699,7 +32699,7 @@
         <v>44446</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32756,7 +32756,7 @@
         <v>44446</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32813,7 +32813,7 @@
         <v>44446</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32870,7 +32870,7 @@
         <v>44446</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32927,7 +32927,7 @@
         <v>44447</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32984,7 +32984,7 @@
         <v>44448</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33041,7 +33041,7 @@
         <v>44452</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33098,7 +33098,7 @@
         <v>44455</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33155,7 +33155,7 @@
         <v>44457</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33212,7 +33212,7 @@
         <v>44457</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33269,7 +33269,7 @@
         <v>44459</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33326,7 +33326,7 @@
         <v>44459</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33383,7 +33383,7 @@
         <v>44459</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33440,7 +33440,7 @@
         <v>44459</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33497,7 +33497,7 @@
         <v>44459</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33554,7 +33554,7 @@
         <v>44463</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33616,7 +33616,7 @@
         <v>44467</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33673,7 +33673,7 @@
         <v>44468</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33730,7 +33730,7 @@
         <v>44469</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33787,7 +33787,7 @@
         <v>44469</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33844,7 +33844,7 @@
         <v>44469</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33901,7 +33901,7 @@
         <v>44469</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33958,7 +33958,7 @@
         <v>44469</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34015,7 +34015,7 @@
         <v>44476</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34072,7 +34072,7 @@
         <v>44480</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34129,7 +34129,7 @@
         <v>44481</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34186,7 +34186,7 @@
         <v>44482</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34243,7 +34243,7 @@
         <v>44490</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34300,7 +34300,7 @@
         <v>44491</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34357,7 +34357,7 @@
         <v>44491</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34414,7 +34414,7 @@
         <v>44491</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34471,7 +34471,7 @@
         <v>44495</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34528,7 +34528,7 @@
         <v>44496</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34585,7 +34585,7 @@
         <v>44496</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34642,7 +34642,7 @@
         <v>44496</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34699,7 +34699,7 @@
         <v>44496</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34756,7 +34756,7 @@
         <v>44496</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34813,7 +34813,7 @@
         <v>44497</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34870,7 +34870,7 @@
         <v>44497</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34927,7 +34927,7 @@
         <v>44497</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34984,7 +34984,7 @@
         <v>44497</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35041,7 +35041,7 @@
         <v>44498</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35103,7 +35103,7 @@
         <v>44498</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35160,7 +35160,7 @@
         <v>44498</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35217,7 +35217,7 @@
         <v>44502</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35274,7 +35274,7 @@
         <v>44504</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35331,7 +35331,7 @@
         <v>44509</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35388,7 +35388,7 @@
         <v>44509</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35445,7 +35445,7 @@
         <v>44509</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35502,7 +35502,7 @@
         <v>44510</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35559,7 +35559,7 @@
         <v>44512</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35616,7 +35616,7 @@
         <v>44517</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35673,7 +35673,7 @@
         <v>44517</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35730,7 +35730,7 @@
         <v>44519</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35787,7 +35787,7 @@
         <v>44522</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35844,7 +35844,7 @@
         <v>44522</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35901,7 +35901,7 @@
         <v>44531</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35958,7 +35958,7 @@
         <v>44532</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36015,7 +36015,7 @@
         <v>44532</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36072,7 +36072,7 @@
         <v>44536</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36129,7 +36129,7 @@
         <v>44537</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36186,7 +36186,7 @@
         <v>44539</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36243,7 +36243,7 @@
         <v>44539</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36300,7 +36300,7 @@
         <v>44540</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36362,7 +36362,7 @@
         <v>44540</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36419,7 +36419,7 @@
         <v>44543</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36476,7 +36476,7 @@
         <v>44543</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36533,7 +36533,7 @@
         <v>44543</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36590,7 +36590,7 @@
         <v>44543</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36647,7 +36647,7 @@
         <v>44546</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36704,7 +36704,7 @@
         <v>44550</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36761,7 +36761,7 @@
         <v>44550</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36818,7 +36818,7 @@
         <v>44552</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36875,7 +36875,7 @@
         <v>44552</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36932,7 +36932,7 @@
         <v>44552</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36989,7 +36989,7 @@
         <v>44552</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37046,7 +37046,7 @@
         <v>44553</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37103,7 +37103,7 @@
         <v>44553</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37160,7 +37160,7 @@
         <v>44558</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37217,7 +37217,7 @@
         <v>44561</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -37274,7 +37274,7 @@
         <v>44564</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37331,7 +37331,7 @@
         <v>44566</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -37388,7 +37388,7 @@
         <v>44568</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -37445,7 +37445,7 @@
         <v>44571</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -37502,7 +37502,7 @@
         <v>44571</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -37559,7 +37559,7 @@
         <v>44573</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -37616,7 +37616,7 @@
         <v>44573</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37673,7 +37673,7 @@
         <v>44573</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37730,7 +37730,7 @@
         <v>44578</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -37787,7 +37787,7 @@
         <v>44585</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -37844,7 +37844,7 @@
         <v>44586</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -37901,7 +37901,7 @@
         <v>44587</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -37958,7 +37958,7 @@
         <v>44588</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38015,7 +38015,7 @@
         <v>44589</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38072,7 +38072,7 @@
         <v>44593</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38129,7 +38129,7 @@
         <v>44593</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38186,7 +38186,7 @@
         <v>44595</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38243,7 +38243,7 @@
         <v>44596</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38305,7 +38305,7 @@
         <v>44601</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -38362,7 +38362,7 @@
         <v>44603</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -38419,7 +38419,7 @@
         <v>44606</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -38476,7 +38476,7 @@
         <v>44607</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -38533,7 +38533,7 @@
         <v>44609</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -38590,7 +38590,7 @@
         <v>44610</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -38647,7 +38647,7 @@
         <v>44612</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -38704,7 +38704,7 @@
         <v>44616</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -38761,7 +38761,7 @@
         <v>44617</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -38818,7 +38818,7 @@
         <v>44621</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -38875,7 +38875,7 @@
         <v>44624</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -38932,7 +38932,7 @@
         <v>44627</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -38989,7 +38989,7 @@
         <v>44627</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -39046,7 +39046,7 @@
         <v>44628</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -39103,7 +39103,7 @@
         <v>44628</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -39160,7 +39160,7 @@
         <v>44628</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -39217,7 +39217,7 @@
         <v>44631</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -39279,7 +39279,7 @@
         <v>44631</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -39341,7 +39341,7 @@
         <v>44631</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -39398,7 +39398,7 @@
         <v>44631</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -39455,7 +39455,7 @@
         <v>44635</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -39512,7 +39512,7 @@
         <v>44635</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -39569,7 +39569,7 @@
         <v>44636</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -39626,7 +39626,7 @@
         <v>44643</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -39683,7 +39683,7 @@
         <v>44643</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -39740,7 +39740,7 @@
         <v>44643</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -39797,7 +39797,7 @@
         <v>44643</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -39854,7 +39854,7 @@
         <v>44643</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -39911,7 +39911,7 @@
         <v>44643</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -39968,7 +39968,7 @@
         <v>44650</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -40025,7 +40025,7 @@
         <v>44652</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -40082,7 +40082,7 @@
         <v>44655</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -40139,7 +40139,7 @@
         <v>44655</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -40196,7 +40196,7 @@
         <v>44659</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -40253,7 +40253,7 @@
         <v>44671</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -40310,7 +40310,7 @@
         <v>44671</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -40367,7 +40367,7 @@
         <v>44671</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -40424,7 +40424,7 @@
         <v>44672</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -40481,7 +40481,7 @@
         <v>44672</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -40538,7 +40538,7 @@
         <v>44677</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -40595,7 +40595,7 @@
         <v>44684</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -40652,7 +40652,7 @@
         <v>44685</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -40709,7 +40709,7 @@
         <v>44686</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -40766,7 +40766,7 @@
         <v>44687</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -40823,7 +40823,7 @@
         <v>44690</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -40880,7 +40880,7 @@
         <v>44691</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -40937,7 +40937,7 @@
         <v>44694</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -40994,7 +40994,7 @@
         <v>44697</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -41051,7 +41051,7 @@
         <v>44697</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -41108,7 +41108,7 @@
         <v>44704</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -41165,7 +41165,7 @@
         <v>44705</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -41222,7 +41222,7 @@
         <v>44705</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -41279,7 +41279,7 @@
         <v>44711</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -41336,7 +41336,7 @@
         <v>44712</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -41393,7 +41393,7 @@
         <v>44726</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -41450,7 +41450,7 @@
         <v>44728</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -41507,7 +41507,7 @@
         <v>44728</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -41564,7 +41564,7 @@
         <v>44733</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -41626,7 +41626,7 @@
         <v>44747</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -41688,7 +41688,7 @@
         <v>44747</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -41750,7 +41750,7 @@
         <v>44747</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -41812,7 +41812,7 @@
         <v>44747</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -41869,7 +41869,7 @@
         <v>44750</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -41926,7 +41926,7 @@
         <v>44750</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -41983,7 +41983,7 @@
         <v>44761</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -42040,7 +42040,7 @@
         <v>44761</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -42097,7 +42097,7 @@
         <v>44761</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -42154,7 +42154,7 @@
         <v>44790</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -42211,7 +42211,7 @@
         <v>44796</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -42268,7 +42268,7 @@
         <v>44799</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -42325,7 +42325,7 @@
         <v>44804</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -42382,7 +42382,7 @@
         <v>44804</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -42439,7 +42439,7 @@
         <v>44806</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -42496,7 +42496,7 @@
         <v>44806</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -42553,7 +42553,7 @@
         <v>44812</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -42610,7 +42610,7 @@
         <v>44816</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -42667,7 +42667,7 @@
         <v>44818</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -42724,7 +42724,7 @@
         <v>44818</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -42781,7 +42781,7 @@
         <v>44824</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -42838,7 +42838,7 @@
         <v>44825</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -42895,7 +42895,7 @@
         <v>44825</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -42952,7 +42952,7 @@
         <v>44830</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -43009,7 +43009,7 @@
         <v>44832</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -43066,7 +43066,7 @@
         <v>44832</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -43123,7 +43123,7 @@
         <v>44839</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -43180,7 +43180,7 @@
         <v>44839</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -43237,7 +43237,7 @@
         <v>44839</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -43294,7 +43294,7 @@
         <v>44844</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -43351,7 +43351,7 @@
         <v>44847</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -43413,7 +43413,7 @@
         <v>44853</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -43470,7 +43470,7 @@
         <v>44853</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -43527,7 +43527,7 @@
         <v>44854</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -43584,7 +43584,7 @@
         <v>44858</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -43641,7 +43641,7 @@
         <v>44859</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -43698,7 +43698,7 @@
         <v>44865</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -43760,7 +43760,7 @@
         <v>44868</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -43817,7 +43817,7 @@
         <v>44868</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -43874,7 +43874,7 @@
         <v>44872</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -43931,7 +43931,7 @@
         <v>44873</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -43988,7 +43988,7 @@
         <v>44876</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -44045,7 +44045,7 @@
         <v>44879</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -44102,7 +44102,7 @@
         <v>44883</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -44159,7 +44159,7 @@
         <v>44886</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -44216,7 +44216,7 @@
         <v>44888</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -44273,7 +44273,7 @@
         <v>44893</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -44335,7 +44335,7 @@
         <v>44893</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -44392,7 +44392,7 @@
         <v>44901</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -44449,7 +44449,7 @@
         <v>44904</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -44506,7 +44506,7 @@
         <v>44904</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -44563,7 +44563,7 @@
         <v>44907</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -44620,7 +44620,7 @@
         <v>44907</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -44677,7 +44677,7 @@
         <v>44911</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -44739,7 +44739,7 @@
         <v>44914</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -44796,7 +44796,7 @@
         <v>44915</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -44853,7 +44853,7 @@
         <v>44916</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -44910,7 +44910,7 @@
         <v>44922</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -44967,7 +44967,7 @@
         <v>44924</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -45024,7 +45024,7 @@
         <v>44928</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -45081,7 +45081,7 @@
         <v>44928</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -45138,7 +45138,7 @@
         <v>44928</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -45195,7 +45195,7 @@
         <v>44935</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -45252,7 +45252,7 @@
         <v>44935</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -45309,7 +45309,7 @@
         <v>44935</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -45366,7 +45366,7 @@
         <v>44935</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -45423,7 +45423,7 @@
         <v>44938</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -45480,7 +45480,7 @@
         <v>44948</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -45537,7 +45537,7 @@
         <v>44949</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -45594,7 +45594,7 @@
         <v>44953</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -45651,7 +45651,7 @@
         <v>44953</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -45708,7 +45708,7 @@
         <v>44953</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -45765,7 +45765,7 @@
         <v>44953</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -45822,7 +45822,7 @@
         <v>44957</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -45879,7 +45879,7 @@
         <v>44963</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -45936,7 +45936,7 @@
         <v>44963</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -45993,7 +45993,7 @@
         <v>44966</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -46050,7 +46050,7 @@
         <v>44967</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -46107,7 +46107,7 @@
         <v>44967</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -46169,7 +46169,7 @@
         <v>44967</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -46231,7 +46231,7 @@
         <v>44968</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -46293,7 +46293,7 @@
         <v>44972</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -46350,7 +46350,7 @@
         <v>44972</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -46407,7 +46407,7 @@
         <v>44973</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -46464,7 +46464,7 @@
         <v>44974</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -46521,7 +46521,7 @@
         <v>44977</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -46578,7 +46578,7 @@
         <v>44978</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -46635,7 +46635,7 @@
         <v>44979</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -46692,7 +46692,7 @@
         <v>44980</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -46749,7 +46749,7 @@
         <v>44984</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -46806,7 +46806,7 @@
         <v>44984</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -46863,7 +46863,7 @@
         <v>44986</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -46920,7 +46920,7 @@
         <v>44986</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -46977,7 +46977,7 @@
         <v>44986</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -47034,7 +47034,7 @@
         <v>44987</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -47091,7 +47091,7 @@
         <v>44991</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -47148,7 +47148,7 @@
         <v>44992</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -47210,7 +47210,7 @@
         <v>44993</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -47267,7 +47267,7 @@
         <v>44995</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -47324,7 +47324,7 @@
         <v>44998</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -47381,7 +47381,7 @@
         <v>45002</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -47438,7 +47438,7 @@
         <v>45002</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -47500,7 +47500,7 @@
         <v>45006</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -47557,7 +47557,7 @@
         <v>45012</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -47614,7 +47614,7 @@
         <v>45015</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -47671,7 +47671,7 @@
         <v>45019</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -47728,7 +47728,7 @@
         <v>45020</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -47785,7 +47785,7 @@
         <v>45020</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -47842,7 +47842,7 @@
         <v>45020</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -47899,7 +47899,7 @@
         <v>45021</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -47956,7 +47956,7 @@
         <v>45030</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -48013,7 +48013,7 @@
         <v>45030</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -48075,7 +48075,7 @@
         <v>45034</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -48132,7 +48132,7 @@
         <v>45036</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -48189,7 +48189,7 @@
         <v>45039</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -48246,7 +48246,7 @@
         <v>45041</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -48303,7 +48303,7 @@
         <v>45047</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -48360,7 +48360,7 @@
         <v>45049</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -48417,7 +48417,7 @@
         <v>45051</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -48474,7 +48474,7 @@
         <v>45051</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -48531,7 +48531,7 @@
         <v>45051</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -48588,7 +48588,7 @@
         <v>45051</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -48645,7 +48645,7 @@
         <v>45051</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -48702,7 +48702,7 @@
         <v>45051</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -48759,7 +48759,7 @@
         <v>45052</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -48816,7 +48816,7 @@
         <v>45056</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -48873,7 +48873,7 @@
         <v>45056</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -48930,7 +48930,7 @@
         <v>45057</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -48987,7 +48987,7 @@
         <v>45058</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -49044,7 +49044,7 @@
         <v>45061</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -49101,7 +49101,7 @@
         <v>45061</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -49158,7 +49158,7 @@
         <v>45062</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -49215,7 +49215,7 @@
         <v>45062</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -49272,7 +49272,7 @@
         <v>45062</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -49329,7 +49329,7 @@
         <v>45070</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -49386,7 +49386,7 @@
         <v>45070</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -49443,7 +49443,7 @@
         <v>45072</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -49500,7 +49500,7 @@
         <v>45075</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -49557,7 +49557,7 @@
         <v>45075</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -49614,7 +49614,7 @@
         <v>45075</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -49671,7 +49671,7 @@
         <v>45075</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -49728,7 +49728,7 @@
         <v>45075</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -49785,7 +49785,7 @@
         <v>45076</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -49842,7 +49842,7 @@
         <v>45076</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -49899,7 +49899,7 @@
         <v>45078</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -49956,7 +49956,7 @@
         <v>45078</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -50013,7 +50013,7 @@
         <v>45078</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -50070,7 +50070,7 @@
         <v>45078</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -50127,7 +50127,7 @@
         <v>45078</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -50184,7 +50184,7 @@
         <v>45078</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -50241,7 +50241,7 @@
         <v>45078</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -50298,7 +50298,7 @@
         <v>45081</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -50360,7 +50360,7 @@
         <v>45082</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -50417,7 +50417,7 @@
         <v>45096</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -50474,7 +50474,7 @@
         <v>45099</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -50531,7 +50531,7 @@
         <v>45104</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -50588,7 +50588,7 @@
         <v>45105</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -50645,7 +50645,7 @@
         <v>45105</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -50702,7 +50702,7 @@
         <v>45106</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -50759,7 +50759,7 @@
         <v>45106</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -50816,7 +50816,7 @@
         <v>45108</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -50873,7 +50873,7 @@
         <v>45110</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -50930,7 +50930,7 @@
         <v>45113</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -50987,7 +50987,7 @@
         <v>45113</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -51044,7 +51044,7 @@
         <v>45119</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -51101,7 +51101,7 @@
         <v>45120</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -51158,7 +51158,7 @@
         <v>45120</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -51215,7 +51215,7 @@
         <v>45121</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -51272,7 +51272,7 @@
         <v>45121</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -51329,7 +51329,7 @@
         <v>45121</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -51386,7 +51386,7 @@
         <v>45121</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -51443,7 +51443,7 @@
         <v>45138</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -51500,7 +51500,7 @@
         <v>45138</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -51557,7 +51557,7 @@
         <v>45145</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -51614,7 +51614,7 @@
         <v>45145</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -51671,7 +51671,7 @@
         <v>45145</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -51728,7 +51728,7 @@
         <v>45145</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -51785,7 +51785,7 @@
         <v>45148</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -51842,7 +51842,7 @@
         <v>45149</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -51899,7 +51899,7 @@
         <v>45149</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -51956,7 +51956,7 @@
         <v>45152</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -52013,7 +52013,7 @@
         <v>45154</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -52070,7 +52070,7 @@
         <v>45155</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -52132,7 +52132,7 @@
         <v>45155</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -52189,7 +52189,7 @@
         <v>45159</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -52246,7 +52246,7 @@
         <v>45159</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -52303,7 +52303,7 @@
         <v>45161</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -52360,7 +52360,7 @@
         <v>45161</v>
       </c>
       <c r="C884" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -52417,7 +52417,7 @@
         <v>45162</v>
       </c>
       <c r="C885" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -52474,7 +52474,7 @@
         <v>45163</v>
       </c>
       <c r="C886" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -52531,7 +52531,7 @@
         <v>45166</v>
       </c>
       <c r="C887" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -52588,7 +52588,7 @@
         <v>45168</v>
       </c>
       <c r="C888" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>

--- a/Översikt ÅRJÄNG.xlsx
+++ b/Översikt ÅRJÄNG.xlsx
@@ -572,7 +572,7 @@
         <v>43607</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -689,7 +689,7 @@
         <v>44824</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -785,7 +785,7 @@
         <v>44649</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -878,7 +878,7 @@
         <v>44585</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -974,7 +974,7 @@
         <v>44970</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1066,7 +1066,7 @@
         <v>45084</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1162,7 +1162,7 @@
         <v>44964</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1253,7 +1253,7 @@
         <v>44873</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1347,7 +1347,7 @@
         <v>45106</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1437,7 +1437,7 @@
         <v>43621</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1530,7 +1530,7 @@
         <v>43880</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1623,7 +1623,7 @@
         <v>44140</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1712,7 +1712,7 @@
         <v>43852</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1804,7 +1804,7 @@
         <v>44375</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1892,7 +1892,7 @@
         <v>44678</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1980,7 +1980,7 @@
         <v>45051</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2068,7 +2068,7 @@
         <v>43922</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2159,7 +2159,7 @@
         <v>44377</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2250,7 +2250,7 @@
         <v>43852</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2336,7 +2336,7 @@
         <v>43880</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2426,7 +2426,7 @@
         <v>44515</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2516,7 +2516,7 @@
         <v>44872</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2606,7 +2606,7 @@
         <v>44935</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2692,7 +2692,7 @@
         <v>45001</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2778,7 +2778,7 @@
         <v>43621</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2867,7 +2867,7 @@
         <v>43696</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2952,7 +2952,7 @@
         <v>43725</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3037,7 +3037,7 @@
         <v>43731</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3122,7 +3122,7 @@
         <v>43734</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3207,7 +3207,7 @@
         <v>43763</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3292,7 +3292,7 @@
         <v>43839</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3377,7 +3377,7 @@
         <v>44050</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3462,7 +3462,7 @@
         <v>44061</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         <v>44217</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3632,7 +3632,7 @@
         <v>44285</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3717,7 +3717,7 @@
         <v>44356</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3802,7 +3802,7 @@
         <v>44379</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3887,7 +3887,7 @@
         <v>44846</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3976,7 +3976,7 @@
         <v>44873</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4061,7 +4061,7 @@
         <v>45111</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4146,7 +4146,7 @@
         <v>43326</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4203,7 +4203,7 @@
         <v>43335</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4260,7 +4260,7 @@
         <v>43335</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4317,7 +4317,7 @@
         <v>43335</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4374,7 +4374,7 @@
         <v>43339</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4431,7 +4431,7 @@
         <v>43346</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4488,7 +4488,7 @@
         <v>43346</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4545,7 +4545,7 @@
         <v>43347</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4602,7 +4602,7 @@
         <v>43349</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4659,7 +4659,7 @@
         <v>43353</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4716,7 +4716,7 @@
         <v>43353</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4773,7 +4773,7 @@
         <v>43353</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4830,7 +4830,7 @@
         <v>43353</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4887,7 +4887,7 @@
         <v>43353</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4944,7 +4944,7 @@
         <v>43354</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5001,7 +5001,7 @@
         <v>43354</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5058,7 +5058,7 @@
         <v>43355</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5115,7 +5115,7 @@
         <v>43367</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5172,7 +5172,7 @@
         <v>43369</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5229,7 +5229,7 @@
         <v>43381</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5286,7 +5286,7 @@
         <v>43381</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5343,7 +5343,7 @@
         <v>43390</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5400,7 +5400,7 @@
         <v>43395</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5457,7 +5457,7 @@
         <v>43395</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5514,7 +5514,7 @@
         <v>43399</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5571,7 +5571,7 @@
         <v>43399</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5628,7 +5628,7 @@
         <v>43401</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5685,7 +5685,7 @@
         <v>43403</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5742,7 +5742,7 @@
         <v>43403</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5799,7 +5799,7 @@
         <v>43403</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5856,7 +5856,7 @@
         <v>43403</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5913,7 +5913,7 @@
         <v>43403</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5970,7 +5970,7 @@
         <v>43403</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6027,7 +6027,7 @@
         <v>43403</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6084,7 +6084,7 @@
         <v>43403</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6141,7 +6141,7 @@
         <v>43403</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6198,7 +6198,7 @@
         <v>43406</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6255,7 +6255,7 @@
         <v>43408</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6312,7 +6312,7 @@
         <v>43409</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6369,7 +6369,7 @@
         <v>43419</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6426,7 +6426,7 @@
         <v>43420</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6483,7 +6483,7 @@
         <v>43420</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6540,7 +6540,7 @@
         <v>43430</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6597,7 +6597,7 @@
         <v>43430</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6654,7 +6654,7 @@
         <v>43431</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6711,7 +6711,7 @@
         <v>43432</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6768,7 +6768,7 @@
         <v>43432</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6825,7 +6825,7 @@
         <v>43432</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6882,7 +6882,7 @@
         <v>43432</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6939,7 +6939,7 @@
         <v>43433</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6996,7 +6996,7 @@
         <v>43437</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7053,7 +7053,7 @@
         <v>43437</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7110,7 +7110,7 @@
         <v>43438</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7167,7 +7167,7 @@
         <v>43440</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7224,7 +7224,7 @@
         <v>43441</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7281,7 +7281,7 @@
         <v>43447</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7338,7 +7338,7 @@
         <v>43448</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7395,7 +7395,7 @@
         <v>43451</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7452,7 +7452,7 @@
         <v>43452</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7509,7 +7509,7 @@
         <v>43452</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7566,7 +7566,7 @@
         <v>43453</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7623,7 +7623,7 @@
         <v>43454</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7680,7 +7680,7 @@
         <v>43454</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7737,7 +7737,7 @@
         <v>43455</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7794,7 +7794,7 @@
         <v>43460</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7851,7 +7851,7 @@
         <v>43467</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7908,7 +7908,7 @@
         <v>43467</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7965,7 +7965,7 @@
         <v>43467</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8022,7 +8022,7 @@
         <v>43474</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8079,7 +8079,7 @@
         <v>43474</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8136,7 +8136,7 @@
         <v>43475</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8193,7 +8193,7 @@
         <v>43475</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8250,7 +8250,7 @@
         <v>43476</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8307,7 +8307,7 @@
         <v>43479</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8364,7 +8364,7 @@
         <v>43479</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8421,7 +8421,7 @@
         <v>43481</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8478,7 +8478,7 @@
         <v>43486</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8535,7 +8535,7 @@
         <v>43486</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8592,7 +8592,7 @@
         <v>43487</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8649,7 +8649,7 @@
         <v>43488</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8706,7 +8706,7 @@
         <v>43488</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8763,7 +8763,7 @@
         <v>43488</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8820,7 +8820,7 @@
         <v>43490</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8877,7 +8877,7 @@
         <v>43490</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8934,7 +8934,7 @@
         <v>43494</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8991,7 +8991,7 @@
         <v>43496</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9048,7 +9048,7 @@
         <v>43500</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9105,7 +9105,7 @@
         <v>43500</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9162,7 +9162,7 @@
         <v>43502</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9219,7 +9219,7 @@
         <v>43502</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9276,7 +9276,7 @@
         <v>43504</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9333,7 +9333,7 @@
         <v>43504</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9390,7 +9390,7 @@
         <v>43507</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9447,7 +9447,7 @@
         <v>43508</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9504,7 +9504,7 @@
         <v>43508</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9561,7 +9561,7 @@
         <v>43510</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9618,7 +9618,7 @@
         <v>43511</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9675,7 +9675,7 @@
         <v>43516</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9732,7 +9732,7 @@
         <v>43523</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9789,7 +9789,7 @@
         <v>43523</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9846,7 +9846,7 @@
         <v>43523</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9903,7 +9903,7 @@
         <v>43523</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9960,7 +9960,7 @@
         <v>43524</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10017,7 +10017,7 @@
         <v>43524</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10074,7 +10074,7 @@
         <v>43525</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10131,7 +10131,7 @@
         <v>43531</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10188,7 +10188,7 @@
         <v>43532</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10250,7 +10250,7 @@
         <v>43538</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10307,7 +10307,7 @@
         <v>43539</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10364,7 +10364,7 @@
         <v>43542</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10421,7 +10421,7 @@
         <v>43542</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10478,7 +10478,7 @@
         <v>43542</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10535,7 +10535,7 @@
         <v>43542</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10592,7 +10592,7 @@
         <v>43543</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10649,7 +10649,7 @@
         <v>43543</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10706,7 +10706,7 @@
         <v>43545</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10763,7 +10763,7 @@
         <v>43549</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10820,7 +10820,7 @@
         <v>43549</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10877,7 +10877,7 @@
         <v>43551</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10934,7 +10934,7 @@
         <v>43552</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10991,7 +10991,7 @@
         <v>43555</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11048,7 +11048,7 @@
         <v>43556</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11105,7 +11105,7 @@
         <v>43558</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11162,7 +11162,7 @@
         <v>43559</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11219,7 +11219,7 @@
         <v>43560</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11276,7 +11276,7 @@
         <v>43563</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11333,7 +11333,7 @@
         <v>43563</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11390,7 +11390,7 @@
         <v>43563</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11447,7 +11447,7 @@
         <v>43567</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11504,7 +11504,7 @@
         <v>43569</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11561,7 +11561,7 @@
         <v>43570</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11618,7 +11618,7 @@
         <v>43573</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11675,7 +11675,7 @@
         <v>43573</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11732,7 +11732,7 @@
         <v>43573</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11789,7 +11789,7 @@
         <v>43580</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11846,7 +11846,7 @@
         <v>43581</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11908,7 +11908,7 @@
         <v>43581</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11970,7 +11970,7 @@
         <v>43585</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12027,7 +12027,7 @@
         <v>43585</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12084,7 +12084,7 @@
         <v>43587</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12141,7 +12141,7 @@
         <v>43594</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12198,7 +12198,7 @@
         <v>43594</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12255,7 +12255,7 @@
         <v>43594</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12312,7 +12312,7 @@
         <v>43594</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12369,7 +12369,7 @@
         <v>43594</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12426,7 +12426,7 @@
         <v>43594</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12483,7 +12483,7 @@
         <v>43598</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12540,7 +12540,7 @@
         <v>43599</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12597,7 +12597,7 @@
         <v>43606</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12654,7 +12654,7 @@
         <v>43606</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12711,7 +12711,7 @@
         <v>43606</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12768,7 +12768,7 @@
         <v>43607</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12825,7 +12825,7 @@
         <v>43608</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12882,7 +12882,7 @@
         <v>43609</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12944,7 +12944,7 @@
         <v>43614</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13001,7 +13001,7 @@
         <v>43614</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13058,7 +13058,7 @@
         <v>43621</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13115,7 +13115,7 @@
         <v>43621</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13172,7 +13172,7 @@
         <v>43628</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13229,7 +13229,7 @@
         <v>43633</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13286,7 +13286,7 @@
         <v>43636</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13343,7 +13343,7 @@
         <v>43642</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13400,7 +13400,7 @@
         <v>43646</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13462,7 +13462,7 @@
         <v>43646</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13524,7 +13524,7 @@
         <v>43647</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13581,7 +13581,7 @@
         <v>43648</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13638,7 +13638,7 @@
         <v>43649</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13695,7 +13695,7 @@
         <v>43649</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13752,7 +13752,7 @@
         <v>43649</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13809,7 +13809,7 @@
         <v>43649</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13866,7 +13866,7 @@
         <v>43650</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13923,7 +13923,7 @@
         <v>43650</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13980,7 +13980,7 @@
         <v>43652</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14037,7 +14037,7 @@
         <v>43653</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14094,7 +14094,7 @@
         <v>43654</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14151,7 +14151,7 @@
         <v>43654</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14208,7 +14208,7 @@
         <v>43655</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14265,7 +14265,7 @@
         <v>43655</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14322,7 +14322,7 @@
         <v>43675</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14379,7 +14379,7 @@
         <v>43684</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14436,7 +14436,7 @@
         <v>43684</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14493,7 +14493,7 @@
         <v>43696</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14550,7 +14550,7 @@
         <v>43697</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14607,7 +14607,7 @@
         <v>43697</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14664,7 +14664,7 @@
         <v>43698</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14721,7 +14721,7 @@
         <v>43699</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14778,7 +14778,7 @@
         <v>43699</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14835,7 +14835,7 @@
         <v>43699</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14892,7 +14892,7 @@
         <v>43700</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14949,7 +14949,7 @@
         <v>43700</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15006,7 +15006,7 @@
         <v>43703</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15063,7 +15063,7 @@
         <v>43703</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15120,7 +15120,7 @@
         <v>43703</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15177,7 +15177,7 @@
         <v>43705</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15234,7 +15234,7 @@
         <v>43705</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15291,7 +15291,7 @@
         <v>43705</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15348,7 +15348,7 @@
         <v>43705</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15405,7 +15405,7 @@
         <v>43707</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15462,7 +15462,7 @@
         <v>43707</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15524,7 +15524,7 @@
         <v>43707</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15581,7 +15581,7 @@
         <v>43710</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15638,7 +15638,7 @@
         <v>43711</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15695,7 +15695,7 @@
         <v>43718</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15757,7 +15757,7 @@
         <v>43721</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15814,7 +15814,7 @@
         <v>43721</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15871,7 +15871,7 @@
         <v>43724</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15933,7 +15933,7 @@
         <v>43727</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15990,7 +15990,7 @@
         <v>43727</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16047,7 +16047,7 @@
         <v>43727</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16104,7 +16104,7 @@
         <v>43728</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16161,7 +16161,7 @@
         <v>43730</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16218,7 +16218,7 @@
         <v>43731</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16275,7 +16275,7 @@
         <v>43732</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16332,7 +16332,7 @@
         <v>43734</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16389,7 +16389,7 @@
         <v>43740</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16446,7 +16446,7 @@
         <v>43740</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16503,7 +16503,7 @@
         <v>43741</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16560,7 +16560,7 @@
         <v>43742</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16617,7 +16617,7 @@
         <v>43748</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16674,7 +16674,7 @@
         <v>43749</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16731,7 +16731,7 @@
         <v>43759</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16793,7 +16793,7 @@
         <v>43762</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16850,7 +16850,7 @@
         <v>43762</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16907,7 +16907,7 @@
         <v>43766</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16964,7 +16964,7 @@
         <v>43768</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17026,7 +17026,7 @@
         <v>43769</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17083,7 +17083,7 @@
         <v>43770</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17140,7 +17140,7 @@
         <v>43776</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17197,7 +17197,7 @@
         <v>43782</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17254,7 +17254,7 @@
         <v>43791</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17311,7 +17311,7 @@
         <v>43802</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17368,7 +17368,7 @@
         <v>43804</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17425,7 +17425,7 @@
         <v>43815</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17482,7 +17482,7 @@
         <v>43819</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17539,7 +17539,7 @@
         <v>43819</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17596,7 +17596,7 @@
         <v>43822</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17653,7 +17653,7 @@
         <v>43822</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17710,7 +17710,7 @@
         <v>43833</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17767,7 +17767,7 @@
         <v>43843</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17824,7 +17824,7 @@
         <v>43843</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17881,7 +17881,7 @@
         <v>43843</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17938,7 +17938,7 @@
         <v>43847</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17995,7 +17995,7 @@
         <v>43847</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18052,7 +18052,7 @@
         <v>43847</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18109,7 +18109,7 @@
         <v>43847</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18166,7 +18166,7 @@
         <v>43848</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18223,7 +18223,7 @@
         <v>43852</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18280,7 +18280,7 @@
         <v>43852</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18337,7 +18337,7 @@
         <v>43852</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18394,7 +18394,7 @@
         <v>43852</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18451,7 +18451,7 @@
         <v>43852</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18508,7 +18508,7 @@
         <v>43861</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18565,7 +18565,7 @@
         <v>43861</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18622,7 +18622,7 @@
         <v>43861</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18679,7 +18679,7 @@
         <v>43861</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18736,7 +18736,7 @@
         <v>43861</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18793,7 +18793,7 @@
         <v>43861</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18850,7 +18850,7 @@
         <v>43866</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18907,7 +18907,7 @@
         <v>43868</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18964,7 +18964,7 @@
         <v>43868</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19021,7 +19021,7 @@
         <v>43872</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19078,7 +19078,7 @@
         <v>43873</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19135,7 +19135,7 @@
         <v>43874</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19192,7 +19192,7 @@
         <v>43874</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19249,7 +19249,7 @@
         <v>43878</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19306,7 +19306,7 @@
         <v>43878</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19363,7 +19363,7 @@
         <v>43878</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19420,7 +19420,7 @@
         <v>43879</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19477,7 +19477,7 @@
         <v>43879</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19534,7 +19534,7 @@
         <v>43885</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19591,7 +19591,7 @@
         <v>43885</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19648,7 +19648,7 @@
         <v>43885</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19705,7 +19705,7 @@
         <v>43886</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19762,7 +19762,7 @@
         <v>43886</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19819,7 +19819,7 @@
         <v>43886</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19876,7 +19876,7 @@
         <v>43887</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19933,7 +19933,7 @@
         <v>43888</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19990,7 +19990,7 @@
         <v>43892</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20047,7 +20047,7 @@
         <v>43892</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20104,7 +20104,7 @@
         <v>43892</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20161,7 +20161,7 @@
         <v>43893</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20218,7 +20218,7 @@
         <v>43899</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20275,7 +20275,7 @@
         <v>43899</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20332,7 +20332,7 @@
         <v>43901</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20389,7 +20389,7 @@
         <v>43901</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20446,7 +20446,7 @@
         <v>43902</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20503,7 +20503,7 @@
         <v>43902</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20560,7 +20560,7 @@
         <v>43902</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20617,7 +20617,7 @@
         <v>43903</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20674,7 +20674,7 @@
         <v>43906</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20731,7 +20731,7 @@
         <v>43906</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20788,7 +20788,7 @@
         <v>43906</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20845,7 +20845,7 @@
         <v>43906</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20902,7 +20902,7 @@
         <v>43906</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20959,7 +20959,7 @@
         <v>43906</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21016,7 +21016,7 @@
         <v>43906</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21073,7 +21073,7 @@
         <v>43907</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21130,7 +21130,7 @@
         <v>43907</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21187,7 +21187,7 @@
         <v>43910</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21244,7 +21244,7 @@
         <v>43910</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21301,7 +21301,7 @@
         <v>43915</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21358,7 +21358,7 @@
         <v>43915</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21415,7 +21415,7 @@
         <v>43915</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21472,7 +21472,7 @@
         <v>43920</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21529,7 +21529,7 @@
         <v>43921</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21586,7 +21586,7 @@
         <v>43923</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21643,7 +21643,7 @@
         <v>43924</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21700,7 +21700,7 @@
         <v>43924</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21757,7 +21757,7 @@
         <v>43932</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21814,7 +21814,7 @@
         <v>43955</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21871,7 +21871,7 @@
         <v>43963</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21928,7 +21928,7 @@
         <v>43964</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21985,7 +21985,7 @@
         <v>43965</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22042,7 +22042,7 @@
         <v>43965</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22099,7 +22099,7 @@
         <v>43969</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22156,7 +22156,7 @@
         <v>43975</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22213,7 +22213,7 @@
         <v>43978</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22270,7 +22270,7 @@
         <v>43978</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22327,7 +22327,7 @@
         <v>43985</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22384,7 +22384,7 @@
         <v>43986</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22441,7 +22441,7 @@
         <v>43987</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22498,7 +22498,7 @@
         <v>44004</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22555,7 +22555,7 @@
         <v>44004</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22612,7 +22612,7 @@
         <v>44006</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22669,7 +22669,7 @@
         <v>44006</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22726,7 +22726,7 @@
         <v>44013</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22783,7 +22783,7 @@
         <v>44013</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22840,7 +22840,7 @@
         <v>44018</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22897,7 +22897,7 @@
         <v>44019</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22959,7 +22959,7 @@
         <v>44019</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23021,7 +23021,7 @@
         <v>44036</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23078,7 +23078,7 @@
         <v>44036</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23135,7 +23135,7 @@
         <v>44036</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23192,7 +23192,7 @@
         <v>44036</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23249,7 +23249,7 @@
         <v>44036</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23306,7 +23306,7 @@
         <v>44036</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23363,7 +23363,7 @@
         <v>44036</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23420,7 +23420,7 @@
         <v>44036</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23477,7 +23477,7 @@
         <v>44036</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23534,7 +23534,7 @@
         <v>44036</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23591,7 +23591,7 @@
         <v>44040</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23653,7 +23653,7 @@
         <v>44042</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23710,7 +23710,7 @@
         <v>44047</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23767,7 +23767,7 @@
         <v>44050</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23824,7 +23824,7 @@
         <v>44054</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23881,7 +23881,7 @@
         <v>44060</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23943,7 +23943,7 @@
         <v>44061</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24000,7 +24000,7 @@
         <v>44063</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24057,7 +24057,7 @@
         <v>44069</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24114,7 +24114,7 @@
         <v>44069</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24171,7 +24171,7 @@
         <v>44070</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24228,7 +24228,7 @@
         <v>44074</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24285,7 +24285,7 @@
         <v>44074</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24342,7 +24342,7 @@
         <v>44076</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24399,7 +24399,7 @@
         <v>44081</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24456,7 +24456,7 @@
         <v>44084</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24513,7 +24513,7 @@
         <v>44084</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24570,7 +24570,7 @@
         <v>44091</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24627,7 +24627,7 @@
         <v>44091</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24684,7 +24684,7 @@
         <v>44096</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24741,7 +24741,7 @@
         <v>44097</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24798,7 +24798,7 @@
         <v>44101</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24855,7 +24855,7 @@
         <v>44102</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24912,7 +24912,7 @@
         <v>44102</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24969,7 +24969,7 @@
         <v>44103</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25026,7 +25026,7 @@
         <v>44103</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25083,7 +25083,7 @@
         <v>44105</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25140,7 +25140,7 @@
         <v>44109</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25197,7 +25197,7 @@
         <v>44110</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25254,7 +25254,7 @@
         <v>44110</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25311,7 +25311,7 @@
         <v>44113</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25368,7 +25368,7 @@
         <v>44123</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25425,7 +25425,7 @@
         <v>44134</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25482,7 +25482,7 @@
         <v>44134</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25539,7 +25539,7 @@
         <v>44138</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25596,7 +25596,7 @@
         <v>44140</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25653,7 +25653,7 @@
         <v>44140</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25710,7 +25710,7 @@
         <v>44140</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25767,7 +25767,7 @@
         <v>44140</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25824,7 +25824,7 @@
         <v>44140</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25881,7 +25881,7 @@
         <v>44145</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25938,7 +25938,7 @@
         <v>44155</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25995,7 +25995,7 @@
         <v>44159</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26052,7 +26052,7 @@
         <v>44165</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26109,7 +26109,7 @@
         <v>44168</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26166,7 +26166,7 @@
         <v>44168</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26223,7 +26223,7 @@
         <v>44168</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26280,7 +26280,7 @@
         <v>44174</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26337,7 +26337,7 @@
         <v>44174</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26399,7 +26399,7 @@
         <v>44174</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26456,7 +26456,7 @@
         <v>44174</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26513,7 +26513,7 @@
         <v>44175</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26570,7 +26570,7 @@
         <v>44175</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26627,7 +26627,7 @@
         <v>44179</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26684,7 +26684,7 @@
         <v>44186</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26741,7 +26741,7 @@
         <v>44187</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26798,7 +26798,7 @@
         <v>44187</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26855,7 +26855,7 @@
         <v>44194</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26912,7 +26912,7 @@
         <v>44195</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26969,7 +26969,7 @@
         <v>44195</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27026,7 +27026,7 @@
         <v>44201</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27083,7 +27083,7 @@
         <v>44201</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27140,7 +27140,7 @@
         <v>44207</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27197,7 +27197,7 @@
         <v>44214</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27254,7 +27254,7 @@
         <v>44215</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27311,7 +27311,7 @@
         <v>44217</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27368,7 +27368,7 @@
         <v>44217</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27425,7 +27425,7 @@
         <v>44221</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27482,7 +27482,7 @@
         <v>44223</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27539,7 +27539,7 @@
         <v>44224</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27596,7 +27596,7 @@
         <v>44229</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27653,7 +27653,7 @@
         <v>44230</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27710,7 +27710,7 @@
         <v>44235</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27767,7 +27767,7 @@
         <v>44235</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27824,7 +27824,7 @@
         <v>44236</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27881,7 +27881,7 @@
         <v>44236</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27938,7 +27938,7 @@
         <v>44237</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27995,7 +27995,7 @@
         <v>44237</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28052,7 +28052,7 @@
         <v>44238</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28109,7 +28109,7 @@
         <v>44239</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28166,7 +28166,7 @@
         <v>44239</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28223,7 +28223,7 @@
         <v>44239</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28280,7 +28280,7 @@
         <v>44240</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28337,7 +28337,7 @@
         <v>44242</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28394,7 +28394,7 @@
         <v>44242</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28451,7 +28451,7 @@
         <v>44246</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28513,7 +28513,7 @@
         <v>44246</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28575,7 +28575,7 @@
         <v>44248</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28632,7 +28632,7 @@
         <v>44251</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28689,7 +28689,7 @@
         <v>44251</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28746,7 +28746,7 @@
         <v>44258</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28803,7 +28803,7 @@
         <v>44258</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28860,7 +28860,7 @@
         <v>44258</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28917,7 +28917,7 @@
         <v>44261</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28974,7 +28974,7 @@
         <v>44265</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29031,7 +29031,7 @@
         <v>44266</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29088,7 +29088,7 @@
         <v>44271</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29145,7 +29145,7 @@
         <v>44272</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29207,7 +29207,7 @@
         <v>44282</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29269,7 +29269,7 @@
         <v>44292</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29326,7 +29326,7 @@
         <v>44301</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29383,7 +29383,7 @@
         <v>44306</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29440,7 +29440,7 @@
         <v>44308</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29497,7 +29497,7 @@
         <v>44309</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29554,7 +29554,7 @@
         <v>44311</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29611,7 +29611,7 @@
         <v>44322</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29668,7 +29668,7 @@
         <v>44323</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29725,7 +29725,7 @@
         <v>44329</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29782,7 +29782,7 @@
         <v>44333</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29839,7 +29839,7 @@
         <v>44347</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29896,7 +29896,7 @@
         <v>44347</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29953,7 +29953,7 @@
         <v>44354</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30010,7 +30010,7 @@
         <v>44354</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30067,7 +30067,7 @@
         <v>44354</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30124,7 +30124,7 @@
         <v>44362</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30181,7 +30181,7 @@
         <v>44362</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30238,7 +30238,7 @@
         <v>44365</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30295,7 +30295,7 @@
         <v>44365</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30352,7 +30352,7 @@
         <v>44375</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30409,7 +30409,7 @@
         <v>44376</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30466,7 +30466,7 @@
         <v>44376</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30523,7 +30523,7 @@
         <v>44378</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30585,7 +30585,7 @@
         <v>44380</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30642,7 +30642,7 @@
         <v>44383</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30699,7 +30699,7 @@
         <v>44383</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30756,7 +30756,7 @@
         <v>44384</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30813,7 +30813,7 @@
         <v>44384</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30870,7 +30870,7 @@
         <v>44385</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30927,7 +30927,7 @@
         <v>44389</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30984,7 +30984,7 @@
         <v>44391</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31041,7 +31041,7 @@
         <v>44392</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31098,7 +31098,7 @@
         <v>44396</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31155,7 +31155,7 @@
         <v>44412</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31212,7 +31212,7 @@
         <v>44417</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31274,7 +31274,7 @@
         <v>44421</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31331,7 +31331,7 @@
         <v>44421</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31388,7 +31388,7 @@
         <v>44424</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31445,7 +31445,7 @@
         <v>44428</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31502,7 +31502,7 @@
         <v>44431</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31559,7 +31559,7 @@
         <v>44431</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31616,7 +31616,7 @@
         <v>44433</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31673,7 +31673,7 @@
         <v>44441</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31730,7 +31730,7 @@
         <v>44442</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31787,7 +31787,7 @@
         <v>44442</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31844,7 +31844,7 @@
         <v>44445</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31901,7 +31901,7 @@
         <v>44446</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31958,7 +31958,7 @@
         <v>44446</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32015,7 +32015,7 @@
         <v>44446</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32072,7 +32072,7 @@
         <v>44446</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32129,7 +32129,7 @@
         <v>44446</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32186,7 +32186,7 @@
         <v>44446</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32243,7 +32243,7 @@
         <v>44446</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32300,7 +32300,7 @@
         <v>44446</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32357,7 +32357,7 @@
         <v>44446</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32414,7 +32414,7 @@
         <v>44446</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32471,7 +32471,7 @@
         <v>44446</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32528,7 +32528,7 @@
         <v>44446</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32585,7 +32585,7 @@
         <v>44446</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32642,7 +32642,7 @@
         <v>44446</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32699,7 +32699,7 @@
         <v>44446</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32756,7 +32756,7 @@
         <v>44446</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32813,7 +32813,7 @@
         <v>44446</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32870,7 +32870,7 @@
         <v>44446</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32927,7 +32927,7 @@
         <v>44447</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32984,7 +32984,7 @@
         <v>44448</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33041,7 +33041,7 @@
         <v>44452</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33098,7 +33098,7 @@
         <v>44455</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33155,7 +33155,7 @@
         <v>44457</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33212,7 +33212,7 @@
         <v>44457</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33269,7 +33269,7 @@
         <v>44459</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33326,7 +33326,7 @@
         <v>44459</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33383,7 +33383,7 @@
         <v>44459</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33440,7 +33440,7 @@
         <v>44459</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33497,7 +33497,7 @@
         <v>44459</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33554,7 +33554,7 @@
         <v>44463</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33616,7 +33616,7 @@
         <v>44467</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33673,7 +33673,7 @@
         <v>44468</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33730,7 +33730,7 @@
         <v>44469</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33787,7 +33787,7 @@
         <v>44469</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33844,7 +33844,7 @@
         <v>44469</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33901,7 +33901,7 @@
         <v>44469</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33958,7 +33958,7 @@
         <v>44469</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34015,7 +34015,7 @@
         <v>44476</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34072,7 +34072,7 @@
         <v>44480</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34129,7 +34129,7 @@
         <v>44481</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34186,7 +34186,7 @@
         <v>44482</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34243,7 +34243,7 @@
         <v>44490</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34300,7 +34300,7 @@
         <v>44491</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34357,7 +34357,7 @@
         <v>44491</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34414,7 +34414,7 @@
         <v>44491</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34471,7 +34471,7 @@
         <v>44495</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34528,7 +34528,7 @@
         <v>44496</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34585,7 +34585,7 @@
         <v>44496</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34642,7 +34642,7 @@
         <v>44496</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34699,7 +34699,7 @@
         <v>44496</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34756,7 +34756,7 @@
         <v>44496</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34813,7 +34813,7 @@
         <v>44497</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34870,7 +34870,7 @@
         <v>44497</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34927,7 +34927,7 @@
         <v>44497</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34984,7 +34984,7 @@
         <v>44497</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35041,7 +35041,7 @@
         <v>44498</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35103,7 +35103,7 @@
         <v>44498</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35160,7 +35160,7 @@
         <v>44498</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35217,7 +35217,7 @@
         <v>44502</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35274,7 +35274,7 @@
         <v>44504</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35331,7 +35331,7 @@
         <v>44509</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35388,7 +35388,7 @@
         <v>44509</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35445,7 +35445,7 @@
         <v>44509</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35502,7 +35502,7 @@
         <v>44510</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35559,7 +35559,7 @@
         <v>44512</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35616,7 +35616,7 @@
         <v>44517</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35673,7 +35673,7 @@
         <v>44517</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35730,7 +35730,7 @@
         <v>44519</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35787,7 +35787,7 @@
         <v>44522</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35844,7 +35844,7 @@
         <v>44522</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35901,7 +35901,7 @@
         <v>44531</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35958,7 +35958,7 @@
         <v>44532</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36015,7 +36015,7 @@
         <v>44532</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36072,7 +36072,7 @@
         <v>44536</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36129,7 +36129,7 @@
         <v>44537</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36186,7 +36186,7 @@
         <v>44539</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36243,7 +36243,7 @@
         <v>44539</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36300,7 +36300,7 @@
         <v>44540</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36362,7 +36362,7 @@
         <v>44540</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36419,7 +36419,7 @@
         <v>44543</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36476,7 +36476,7 @@
         <v>44543</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36533,7 +36533,7 @@
         <v>44543</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36590,7 +36590,7 @@
         <v>44543</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36647,7 +36647,7 @@
         <v>44546</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36704,7 +36704,7 @@
         <v>44550</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36761,7 +36761,7 @@
         <v>44550</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36818,7 +36818,7 @@
         <v>44552</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36875,7 +36875,7 @@
         <v>44552</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36932,7 +36932,7 @@
         <v>44552</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36989,7 +36989,7 @@
         <v>44552</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37046,7 +37046,7 @@
         <v>44553</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37103,7 +37103,7 @@
         <v>44553</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37160,7 +37160,7 @@
         <v>44558</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37217,7 +37217,7 @@
         <v>44561</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -37274,7 +37274,7 @@
         <v>44564</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37331,7 +37331,7 @@
         <v>44566</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -37388,7 +37388,7 @@
         <v>44568</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -37445,7 +37445,7 @@
         <v>44571</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -37502,7 +37502,7 @@
         <v>44571</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -37559,7 +37559,7 @@
         <v>44573</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -37616,7 +37616,7 @@
         <v>44573</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37673,7 +37673,7 @@
         <v>44573</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37730,7 +37730,7 @@
         <v>44578</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -37787,7 +37787,7 @@
         <v>44585</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -37844,7 +37844,7 @@
         <v>44586</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -37901,7 +37901,7 @@
         <v>44587</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -37958,7 +37958,7 @@
         <v>44588</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38015,7 +38015,7 @@
         <v>44589</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38072,7 +38072,7 @@
         <v>44593</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38129,7 +38129,7 @@
         <v>44593</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38186,7 +38186,7 @@
         <v>44595</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38243,7 +38243,7 @@
         <v>44596</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38305,7 +38305,7 @@
         <v>44601</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -38362,7 +38362,7 @@
         <v>44603</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -38419,7 +38419,7 @@
         <v>44606</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -38476,7 +38476,7 @@
         <v>44607</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -38533,7 +38533,7 @@
         <v>44609</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -38590,7 +38590,7 @@
         <v>44610</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -38647,7 +38647,7 @@
         <v>44612</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -38704,7 +38704,7 @@
         <v>44616</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -38761,7 +38761,7 @@
         <v>44617</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -38818,7 +38818,7 @@
         <v>44621</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -38875,7 +38875,7 @@
         <v>44624</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -38932,7 +38932,7 @@
         <v>44627</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -38989,7 +38989,7 @@
         <v>44627</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -39046,7 +39046,7 @@
         <v>44628</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -39103,7 +39103,7 @@
         <v>44628</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -39160,7 +39160,7 @@
         <v>44628</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -39217,7 +39217,7 @@
         <v>44631</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -39279,7 +39279,7 @@
         <v>44631</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -39341,7 +39341,7 @@
         <v>44631</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -39398,7 +39398,7 @@
         <v>44631</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -39455,7 +39455,7 @@
         <v>44635</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -39512,7 +39512,7 @@
         <v>44635</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -39569,7 +39569,7 @@
         <v>44636</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -39626,7 +39626,7 @@
         <v>44643</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -39683,7 +39683,7 @@
         <v>44643</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -39740,7 +39740,7 @@
         <v>44643</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -39797,7 +39797,7 @@
         <v>44643</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -39854,7 +39854,7 @@
         <v>44643</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -39911,7 +39911,7 @@
         <v>44643</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -39968,7 +39968,7 @@
         <v>44650</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -40025,7 +40025,7 @@
         <v>44652</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -40082,7 +40082,7 @@
         <v>44655</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -40139,7 +40139,7 @@
         <v>44655</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -40196,7 +40196,7 @@
         <v>44659</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -40253,7 +40253,7 @@
         <v>44671</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -40310,7 +40310,7 @@
         <v>44671</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -40367,7 +40367,7 @@
         <v>44671</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -40424,7 +40424,7 @@
         <v>44672</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -40481,7 +40481,7 @@
         <v>44672</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -40538,7 +40538,7 @@
         <v>44677</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -40595,7 +40595,7 @@
         <v>44684</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -40652,7 +40652,7 @@
         <v>44685</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -40709,7 +40709,7 @@
         <v>44686</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -40766,7 +40766,7 @@
         <v>44687</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -40823,7 +40823,7 @@
         <v>44690</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -40880,7 +40880,7 @@
         <v>44691</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -40937,7 +40937,7 @@
         <v>44694</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -40994,7 +40994,7 @@
         <v>44697</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -41051,7 +41051,7 @@
         <v>44697</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -41108,7 +41108,7 @@
         <v>44704</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -41165,7 +41165,7 @@
         <v>44705</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -41222,7 +41222,7 @@
         <v>44705</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -41279,7 +41279,7 @@
         <v>44711</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -41336,7 +41336,7 @@
         <v>44712</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -41393,7 +41393,7 @@
         <v>44726</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -41450,7 +41450,7 @@
         <v>44728</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -41507,7 +41507,7 @@
         <v>44728</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -41564,7 +41564,7 @@
         <v>44733</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -41626,7 +41626,7 @@
         <v>44747</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -41688,7 +41688,7 @@
         <v>44747</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -41750,7 +41750,7 @@
         <v>44747</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -41812,7 +41812,7 @@
         <v>44747</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -41869,7 +41869,7 @@
         <v>44750</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -41926,7 +41926,7 @@
         <v>44750</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -41983,7 +41983,7 @@
         <v>44761</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -42040,7 +42040,7 @@
         <v>44761</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -42097,7 +42097,7 @@
         <v>44761</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -42154,7 +42154,7 @@
         <v>44790</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -42211,7 +42211,7 @@
         <v>44796</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -42268,7 +42268,7 @@
         <v>44799</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -42325,7 +42325,7 @@
         <v>44804</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -42382,7 +42382,7 @@
         <v>44804</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -42439,7 +42439,7 @@
         <v>44806</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -42496,7 +42496,7 @@
         <v>44806</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -42553,7 +42553,7 @@
         <v>44812</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -42610,7 +42610,7 @@
         <v>44816</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -42667,7 +42667,7 @@
         <v>44818</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -42724,7 +42724,7 @@
         <v>44818</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -42781,7 +42781,7 @@
         <v>44824</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -42838,7 +42838,7 @@
         <v>44825</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -42895,7 +42895,7 @@
         <v>44825</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -42952,7 +42952,7 @@
         <v>44830</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -43009,7 +43009,7 @@
         <v>44832</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -43066,7 +43066,7 @@
         <v>44832</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -43123,7 +43123,7 @@
         <v>44839</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -43180,7 +43180,7 @@
         <v>44839</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -43237,7 +43237,7 @@
         <v>44839</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -43294,7 +43294,7 @@
         <v>44844</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -43351,7 +43351,7 @@
         <v>44847</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -43413,7 +43413,7 @@
         <v>44853</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -43470,7 +43470,7 @@
         <v>44853</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -43527,7 +43527,7 @@
         <v>44854</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -43584,7 +43584,7 @@
         <v>44858</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -43641,7 +43641,7 @@
         <v>44859</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -43698,7 +43698,7 @@
         <v>44865</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -43760,7 +43760,7 @@
         <v>44868</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -43817,7 +43817,7 @@
         <v>44868</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -43874,7 +43874,7 @@
         <v>44872</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -43931,7 +43931,7 @@
         <v>44873</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -43988,7 +43988,7 @@
         <v>44876</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -44045,7 +44045,7 @@
         <v>44879</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -44102,7 +44102,7 @@
         <v>44883</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -44159,7 +44159,7 @@
         <v>44886</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -44216,7 +44216,7 @@
         <v>44888</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -44273,7 +44273,7 @@
         <v>44893</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -44335,7 +44335,7 @@
         <v>44893</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -44392,7 +44392,7 @@
         <v>44901</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -44449,7 +44449,7 @@
         <v>44904</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -44506,7 +44506,7 @@
         <v>44904</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -44563,7 +44563,7 @@
         <v>44907</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -44620,7 +44620,7 @@
         <v>44907</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -44677,7 +44677,7 @@
         <v>44911</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -44739,7 +44739,7 @@
         <v>44914</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -44796,7 +44796,7 @@
         <v>44915</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -44853,7 +44853,7 @@
         <v>44916</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -44910,7 +44910,7 @@
         <v>44922</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -44967,7 +44967,7 @@
         <v>44924</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -45024,7 +45024,7 @@
         <v>44928</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -45081,7 +45081,7 @@
         <v>44928</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -45138,7 +45138,7 @@
         <v>44928</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -45195,7 +45195,7 @@
         <v>44935</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -45252,7 +45252,7 @@
         <v>44935</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -45309,7 +45309,7 @@
         <v>44935</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -45366,7 +45366,7 @@
         <v>44935</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -45423,7 +45423,7 @@
         <v>44938</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -45480,7 +45480,7 @@
         <v>44948</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -45537,7 +45537,7 @@
         <v>44949</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -45594,7 +45594,7 @@
         <v>44953</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -45651,7 +45651,7 @@
         <v>44953</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -45708,7 +45708,7 @@
         <v>44953</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -45765,7 +45765,7 @@
         <v>44953</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -45822,7 +45822,7 @@
         <v>44957</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -45879,7 +45879,7 @@
         <v>44963</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -45936,7 +45936,7 @@
         <v>44963</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -45993,7 +45993,7 @@
         <v>44966</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -46050,7 +46050,7 @@
         <v>44967</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -46107,7 +46107,7 @@
         <v>44967</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -46169,7 +46169,7 @@
         <v>44967</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -46231,7 +46231,7 @@
         <v>44968</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -46293,7 +46293,7 @@
         <v>44972</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -46350,7 +46350,7 @@
         <v>44972</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -46407,7 +46407,7 @@
         <v>44973</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -46464,7 +46464,7 @@
         <v>44974</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -46521,7 +46521,7 @@
         <v>44977</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -46578,7 +46578,7 @@
         <v>44978</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -46635,7 +46635,7 @@
         <v>44979</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -46692,7 +46692,7 @@
         <v>44980</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -46749,7 +46749,7 @@
         <v>44984</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -46806,7 +46806,7 @@
         <v>44984</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -46863,7 +46863,7 @@
         <v>44986</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -46920,7 +46920,7 @@
         <v>44986</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -46977,7 +46977,7 @@
         <v>44986</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -47034,7 +47034,7 @@
         <v>44987</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -47091,7 +47091,7 @@
         <v>44991</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -47148,7 +47148,7 @@
         <v>44992</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -47210,7 +47210,7 @@
         <v>44993</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -47267,7 +47267,7 @@
         <v>44995</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -47324,7 +47324,7 @@
         <v>44998</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -47381,7 +47381,7 @@
         <v>45002</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -47438,7 +47438,7 @@
         <v>45002</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -47500,7 +47500,7 @@
         <v>45006</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -47557,7 +47557,7 @@
         <v>45012</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -47614,7 +47614,7 @@
         <v>45015</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -47671,7 +47671,7 @@
         <v>45019</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -47728,7 +47728,7 @@
         <v>45020</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -47785,7 +47785,7 @@
         <v>45020</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -47842,7 +47842,7 @@
         <v>45020</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -47899,7 +47899,7 @@
         <v>45021</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -47956,7 +47956,7 @@
         <v>45030</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -48013,7 +48013,7 @@
         <v>45030</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -48075,7 +48075,7 @@
         <v>45034</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -48132,7 +48132,7 @@
         <v>45036</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -48189,7 +48189,7 @@
         <v>45039</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -48246,7 +48246,7 @@
         <v>45041</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -48303,7 +48303,7 @@
         <v>45047</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -48360,7 +48360,7 @@
         <v>45049</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -48417,7 +48417,7 @@
         <v>45051</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -48474,7 +48474,7 @@
         <v>45051</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -48531,7 +48531,7 @@
         <v>45051</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -48588,7 +48588,7 @@
         <v>45051</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -48645,7 +48645,7 @@
         <v>45051</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -48702,7 +48702,7 @@
         <v>45051</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -48759,7 +48759,7 @@
         <v>45052</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -48816,7 +48816,7 @@
         <v>45056</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -48873,7 +48873,7 @@
         <v>45056</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -48930,7 +48930,7 @@
         <v>45057</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -48987,7 +48987,7 @@
         <v>45058</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -49044,7 +49044,7 @@
         <v>45061</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -49101,7 +49101,7 @@
         <v>45061</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -49158,7 +49158,7 @@
         <v>45062</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -49215,7 +49215,7 @@
         <v>45062</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -49272,7 +49272,7 @@
         <v>45062</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -49329,7 +49329,7 @@
         <v>45070</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -49386,7 +49386,7 @@
         <v>45070</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -49443,7 +49443,7 @@
         <v>45072</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -49500,7 +49500,7 @@
         <v>45075</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -49557,7 +49557,7 @@
         <v>45075</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -49614,7 +49614,7 @@
         <v>45075</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -49671,7 +49671,7 @@
         <v>45075</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -49728,7 +49728,7 @@
         <v>45075</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -49785,7 +49785,7 @@
         <v>45076</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -49842,7 +49842,7 @@
         <v>45076</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -49899,7 +49899,7 @@
         <v>45078</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -49956,7 +49956,7 @@
         <v>45078</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -50013,7 +50013,7 @@
         <v>45078</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -50070,7 +50070,7 @@
         <v>45078</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -50127,7 +50127,7 @@
         <v>45078</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -50184,7 +50184,7 @@
         <v>45078</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -50241,7 +50241,7 @@
         <v>45078</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -50298,7 +50298,7 @@
         <v>45081</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -50360,7 +50360,7 @@
         <v>45082</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -50417,7 +50417,7 @@
         <v>45096</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -50474,7 +50474,7 @@
         <v>45099</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -50531,7 +50531,7 @@
         <v>45104</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -50588,7 +50588,7 @@
         <v>45105</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -50645,7 +50645,7 @@
         <v>45105</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -50702,7 +50702,7 @@
         <v>45106</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -50759,7 +50759,7 @@
         <v>45106</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -50816,7 +50816,7 @@
         <v>45108</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -50873,7 +50873,7 @@
         <v>45110</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -50930,7 +50930,7 @@
         <v>45113</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -50987,7 +50987,7 @@
         <v>45113</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -51044,7 +51044,7 @@
         <v>45119</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -51101,7 +51101,7 @@
         <v>45120</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -51158,7 +51158,7 @@
         <v>45120</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -51215,7 +51215,7 @@
         <v>45121</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -51272,7 +51272,7 @@
         <v>45121</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -51329,7 +51329,7 @@
         <v>45121</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -51386,7 +51386,7 @@
         <v>45121</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -51443,7 +51443,7 @@
         <v>45138</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -51500,7 +51500,7 @@
         <v>45138</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -51557,7 +51557,7 @@
         <v>45145</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -51614,7 +51614,7 @@
         <v>45145</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -51671,7 +51671,7 @@
         <v>45145</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -51728,7 +51728,7 @@
         <v>45145</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -51785,7 +51785,7 @@
         <v>45148</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -51842,7 +51842,7 @@
         <v>45149</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -51899,7 +51899,7 @@
         <v>45149</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -51956,7 +51956,7 @@
         <v>45152</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -52013,7 +52013,7 @@
         <v>45154</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -52070,7 +52070,7 @@
         <v>45155</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -52132,7 +52132,7 @@
         <v>45155</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -52189,7 +52189,7 @@
         <v>45159</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -52246,7 +52246,7 @@
         <v>45159</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -52303,7 +52303,7 @@
         <v>45161</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -52360,7 +52360,7 @@
         <v>45161</v>
       </c>
       <c r="C884" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -52417,7 +52417,7 @@
         <v>45162</v>
       </c>
       <c r="C885" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -52474,7 +52474,7 @@
         <v>45163</v>
       </c>
       <c r="C886" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -52531,7 +52531,7 @@
         <v>45166</v>
       </c>
       <c r="C887" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -52588,7 +52588,7 @@
         <v>45168</v>
       </c>
       <c r="C888" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>

--- a/Översikt ÅRJÄNG.xlsx
+++ b/Översikt ÅRJÄNG.xlsx
@@ -572,7 +572,7 @@
         <v>43607</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -689,7 +689,7 @@
         <v>44824</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -785,7 +785,7 @@
         <v>44649</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -878,7 +878,7 @@
         <v>44585</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -974,7 +974,7 @@
         <v>44970</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1066,7 +1066,7 @@
         <v>45084</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1162,7 +1162,7 @@
         <v>44964</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1253,7 +1253,7 @@
         <v>44873</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1347,7 +1347,7 @@
         <v>45106</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1437,7 +1437,7 @@
         <v>43621</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1530,7 +1530,7 @@
         <v>43880</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1623,7 +1623,7 @@
         <v>44140</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1712,7 +1712,7 @@
         <v>43852</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1804,7 +1804,7 @@
         <v>44375</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1892,7 +1892,7 @@
         <v>44678</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1980,7 +1980,7 @@
         <v>45051</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2068,7 +2068,7 @@
         <v>43922</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2159,7 +2159,7 @@
         <v>44377</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2250,7 +2250,7 @@
         <v>43852</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2336,7 +2336,7 @@
         <v>43880</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2426,7 +2426,7 @@
         <v>44515</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2516,7 +2516,7 @@
         <v>44872</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2606,7 +2606,7 @@
         <v>44935</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2692,7 +2692,7 @@
         <v>45001</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2778,7 +2778,7 @@
         <v>43621</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2867,7 +2867,7 @@
         <v>43696</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2952,7 +2952,7 @@
         <v>43725</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3037,7 +3037,7 @@
         <v>43731</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3122,7 +3122,7 @@
         <v>43734</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3207,7 +3207,7 @@
         <v>43763</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3292,7 +3292,7 @@
         <v>43839</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3377,7 +3377,7 @@
         <v>44050</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3462,7 +3462,7 @@
         <v>44061</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         <v>44217</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3632,7 +3632,7 @@
         <v>44285</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3717,7 +3717,7 @@
         <v>44356</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3802,7 +3802,7 @@
         <v>44379</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3887,7 +3887,7 @@
         <v>44846</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3976,7 +3976,7 @@
         <v>44873</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4061,7 +4061,7 @@
         <v>45111</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4146,7 +4146,7 @@
         <v>43326</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4203,7 +4203,7 @@
         <v>43335</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4260,7 +4260,7 @@
         <v>43335</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4317,7 +4317,7 @@
         <v>43335</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4374,7 +4374,7 @@
         <v>43339</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4431,7 +4431,7 @@
         <v>43346</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4488,7 +4488,7 @@
         <v>43346</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4545,7 +4545,7 @@
         <v>43347</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4602,7 +4602,7 @@
         <v>43349</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4659,7 +4659,7 @@
         <v>43353</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4716,7 +4716,7 @@
         <v>43353</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4773,7 +4773,7 @@
         <v>43353</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4830,7 +4830,7 @@
         <v>43353</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4887,7 +4887,7 @@
         <v>43353</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4944,7 +4944,7 @@
         <v>43354</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5001,7 +5001,7 @@
         <v>43354</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5058,7 +5058,7 @@
         <v>43355</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5115,7 +5115,7 @@
         <v>43367</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5172,7 +5172,7 @@
         <v>43369</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5229,7 +5229,7 @@
         <v>43381</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5286,7 +5286,7 @@
         <v>43381</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5343,7 +5343,7 @@
         <v>43390</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5400,7 +5400,7 @@
         <v>43395</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5457,7 +5457,7 @@
         <v>43395</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5514,7 +5514,7 @@
         <v>43399</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5571,7 +5571,7 @@
         <v>43399</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5628,7 +5628,7 @@
         <v>43401</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5685,7 +5685,7 @@
         <v>43403</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5742,7 +5742,7 @@
         <v>43403</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5799,7 +5799,7 @@
         <v>43403</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5856,7 +5856,7 @@
         <v>43403</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5913,7 +5913,7 @@
         <v>43403</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5970,7 +5970,7 @@
         <v>43403</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6027,7 +6027,7 @@
         <v>43403</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6084,7 +6084,7 @@
         <v>43403</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6141,7 +6141,7 @@
         <v>43403</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6198,7 +6198,7 @@
         <v>43406</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6255,7 +6255,7 @@
         <v>43408</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6312,7 +6312,7 @@
         <v>43409</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6369,7 +6369,7 @@
         <v>43419</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6426,7 +6426,7 @@
         <v>43420</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6483,7 +6483,7 @@
         <v>43420</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6540,7 +6540,7 @@
         <v>43430</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6597,7 +6597,7 @@
         <v>43430</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6654,7 +6654,7 @@
         <v>43431</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6711,7 +6711,7 @@
         <v>43432</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6768,7 +6768,7 @@
         <v>43432</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6825,7 +6825,7 @@
         <v>43432</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6882,7 +6882,7 @@
         <v>43432</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6939,7 +6939,7 @@
         <v>43433</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6996,7 +6996,7 @@
         <v>43437</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7053,7 +7053,7 @@
         <v>43437</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7110,7 +7110,7 @@
         <v>43438</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7167,7 +7167,7 @@
         <v>43440</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7224,7 +7224,7 @@
         <v>43441</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7281,7 +7281,7 @@
         <v>43447</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7338,7 +7338,7 @@
         <v>43448</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7395,7 +7395,7 @@
         <v>43451</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7452,7 +7452,7 @@
         <v>43452</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7509,7 +7509,7 @@
         <v>43452</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7566,7 +7566,7 @@
         <v>43453</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7623,7 +7623,7 @@
         <v>43454</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7680,7 +7680,7 @@
         <v>43454</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7737,7 +7737,7 @@
         <v>43455</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7794,7 +7794,7 @@
         <v>43460</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7851,7 +7851,7 @@
         <v>43467</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7908,7 +7908,7 @@
         <v>43467</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7965,7 +7965,7 @@
         <v>43467</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8022,7 +8022,7 @@
         <v>43474</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8079,7 +8079,7 @@
         <v>43474</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8136,7 +8136,7 @@
         <v>43475</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8193,7 +8193,7 @@
         <v>43475</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8250,7 +8250,7 @@
         <v>43476</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8307,7 +8307,7 @@
         <v>43479</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8364,7 +8364,7 @@
         <v>43479</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8421,7 +8421,7 @@
         <v>43481</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8478,7 +8478,7 @@
         <v>43486</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8535,7 +8535,7 @@
         <v>43486</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8592,7 +8592,7 @@
         <v>43487</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8649,7 +8649,7 @@
         <v>43488</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8706,7 +8706,7 @@
         <v>43488</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8763,7 +8763,7 @@
         <v>43488</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8820,7 +8820,7 @@
         <v>43490</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8877,7 +8877,7 @@
         <v>43490</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8934,7 +8934,7 @@
         <v>43494</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8991,7 +8991,7 @@
         <v>43496</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9048,7 +9048,7 @@
         <v>43500</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9105,7 +9105,7 @@
         <v>43500</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9162,7 +9162,7 @@
         <v>43502</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9219,7 +9219,7 @@
         <v>43502</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9276,7 +9276,7 @@
         <v>43504</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9333,7 +9333,7 @@
         <v>43504</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9390,7 +9390,7 @@
         <v>43507</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9447,7 +9447,7 @@
         <v>43508</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9504,7 +9504,7 @@
         <v>43508</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9561,7 +9561,7 @@
         <v>43510</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9618,7 +9618,7 @@
         <v>43511</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9675,7 +9675,7 @@
         <v>43516</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9732,7 +9732,7 @@
         <v>43523</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9789,7 +9789,7 @@
         <v>43523</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9846,7 +9846,7 @@
         <v>43523</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9903,7 +9903,7 @@
         <v>43523</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9960,7 +9960,7 @@
         <v>43524</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10017,7 +10017,7 @@
         <v>43524</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10074,7 +10074,7 @@
         <v>43525</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10131,7 +10131,7 @@
         <v>43531</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10188,7 +10188,7 @@
         <v>43532</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10250,7 +10250,7 @@
         <v>43538</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10307,7 +10307,7 @@
         <v>43539</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10364,7 +10364,7 @@
         <v>43542</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10421,7 +10421,7 @@
         <v>43542</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10478,7 +10478,7 @@
         <v>43542</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10535,7 +10535,7 @@
         <v>43542</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10592,7 +10592,7 @@
         <v>43543</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10649,7 +10649,7 @@
         <v>43543</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10706,7 +10706,7 @@
         <v>43545</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10763,7 +10763,7 @@
         <v>43549</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10820,7 +10820,7 @@
         <v>43549</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10877,7 +10877,7 @@
         <v>43551</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10934,7 +10934,7 @@
         <v>43552</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10991,7 +10991,7 @@
         <v>43555</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11048,7 +11048,7 @@
         <v>43556</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11105,7 +11105,7 @@
         <v>43558</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11162,7 +11162,7 @@
         <v>43559</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11219,7 +11219,7 @@
         <v>43560</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11276,7 +11276,7 @@
         <v>43563</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11333,7 +11333,7 @@
         <v>43563</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11390,7 +11390,7 @@
         <v>43563</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11447,7 +11447,7 @@
         <v>43567</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11504,7 +11504,7 @@
         <v>43569</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11561,7 +11561,7 @@
         <v>43570</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11618,7 +11618,7 @@
         <v>43573</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11675,7 +11675,7 @@
         <v>43573</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11732,7 +11732,7 @@
         <v>43573</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11789,7 +11789,7 @@
         <v>43580</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11846,7 +11846,7 @@
         <v>43581</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11908,7 +11908,7 @@
         <v>43581</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11970,7 +11970,7 @@
         <v>43585</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12027,7 +12027,7 @@
         <v>43585</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12084,7 +12084,7 @@
         <v>43587</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12141,7 +12141,7 @@
         <v>43594</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12198,7 +12198,7 @@
         <v>43594</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12255,7 +12255,7 @@
         <v>43594</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12312,7 +12312,7 @@
         <v>43594</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12369,7 +12369,7 @@
         <v>43594</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12426,7 +12426,7 @@
         <v>43594</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12483,7 +12483,7 @@
         <v>43598</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12540,7 +12540,7 @@
         <v>43599</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12597,7 +12597,7 @@
         <v>43606</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12654,7 +12654,7 @@
         <v>43606</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12711,7 +12711,7 @@
         <v>43606</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12768,7 +12768,7 @@
         <v>43607</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12825,7 +12825,7 @@
         <v>43608</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12882,7 +12882,7 @@
         <v>43609</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12944,7 +12944,7 @@
         <v>43614</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13001,7 +13001,7 @@
         <v>43614</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13058,7 +13058,7 @@
         <v>43621</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13115,7 +13115,7 @@
         <v>43621</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13172,7 +13172,7 @@
         <v>43628</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13229,7 +13229,7 @@
         <v>43633</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13286,7 +13286,7 @@
         <v>43636</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13343,7 +13343,7 @@
         <v>43642</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13400,7 +13400,7 @@
         <v>43646</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13462,7 +13462,7 @@
         <v>43646</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13524,7 +13524,7 @@
         <v>43647</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13581,7 +13581,7 @@
         <v>43648</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13638,7 +13638,7 @@
         <v>43649</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13695,7 +13695,7 @@
         <v>43649</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13752,7 +13752,7 @@
         <v>43649</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13809,7 +13809,7 @@
         <v>43649</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13866,7 +13866,7 @@
         <v>43650</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13923,7 +13923,7 @@
         <v>43650</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13980,7 +13980,7 @@
         <v>43652</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14037,7 +14037,7 @@
         <v>43653</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14094,7 +14094,7 @@
         <v>43654</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14151,7 +14151,7 @@
         <v>43654</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14208,7 +14208,7 @@
         <v>43655</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14265,7 +14265,7 @@
         <v>43655</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14322,7 +14322,7 @@
         <v>43675</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14379,7 +14379,7 @@
         <v>43684</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14436,7 +14436,7 @@
         <v>43684</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14493,7 +14493,7 @@
         <v>43696</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14550,7 +14550,7 @@
         <v>43697</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14607,7 +14607,7 @@
         <v>43697</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14664,7 +14664,7 @@
         <v>43698</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14721,7 +14721,7 @@
         <v>43699</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14778,7 +14778,7 @@
         <v>43699</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14835,7 +14835,7 @@
         <v>43699</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14892,7 +14892,7 @@
         <v>43700</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14949,7 +14949,7 @@
         <v>43700</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15006,7 +15006,7 @@
         <v>43703</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15063,7 +15063,7 @@
         <v>43703</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15120,7 +15120,7 @@
         <v>43703</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15177,7 +15177,7 @@
         <v>43705</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15234,7 +15234,7 @@
         <v>43705</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15291,7 +15291,7 @@
         <v>43705</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15348,7 +15348,7 @@
     